--- a/vrp_case_study/Solve Times Summary.xlsx
+++ b/vrp_case_study/Solve Times Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-DSS\vrp_dss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-Case-Study\vrp_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A615A-C713-4823-8019-A1535E71DA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FF6A23-01E5-4412-8E1B-8661DF9D9079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="271">
   <si>
     <t># Customers</t>
   </si>
@@ -3035,9 +3035,6 @@
   </si>
   <si>
     <t>Difference (%)</t>
-  </si>
-  <si>
-    <t>Aspects added</t>
   </si>
   <si>
     <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 3], [77, 27]], [[149, 28], [148, 2]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[83, 20]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 12], [143, 11], [193, 7]], [[80, 20], [168, 9]], [[135, 5], [182, 15], [95, 10]], [[81, 30]], [[193, 12], [143, 18]], [[121, 19], [135, 10]]], "1": [[[75, 18]], [[149, 22]], [[24, 8], [25, 14]], [[207, 21]], [[72, 22]], [[119, 10], [2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9], [53, 12]], [[130, 22]], [[83, 20]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 16]], [[77, 11]], [[120, 11], [198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 13]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 12]], [[199, 1], [91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9], [173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]]]}</t>
@@ -4687,6 +4684,12 @@
   </si>
   <si>
     <t>Seeded solutions will be split again if customer completion changed their chromosomes (I am also regenerating the model data sheets just in case of errors).</t>
+  </si>
+  <si>
+    <t>Fixed last route in archive not being added to routes JSON</t>
+  </si>
+  <si>
+    <t>Aspects changed</t>
   </si>
 </sst>
 </file>
@@ -12923,6 +12926,189 @@
     </row>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
     <mergeCell ref="H195:I195"/>
     <mergeCell ref="H196:I196"/>
     <mergeCell ref="H197:I197"/>
@@ -12947,189 +13133,6 @@
     <mergeCell ref="H147:I147"/>
     <mergeCell ref="H148:I148"/>
     <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R61 R63:R1048576">
     <cfRule type="cellIs" dxfId="15" priority="21" operator="notBetween">
@@ -13206,10 +13209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13225,7 +13228,7 @@
     <col min="9" max="9" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -13263,7 +13266,7 @@
         <v>217</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -13271,13 +13274,13 @@
         <v>43745</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2">
         <v>469154.88979999977</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2">
         <v>3603.7618333999999</v>
@@ -13299,13 +13302,13 @@
         <v>43768</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3">
         <v>592286.43533333309</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3">
         <v>3600.6243162000001</v>
@@ -13322,7 +13325,7 @@
         <v>-2.8570731981184649E-2</v>
       </c>
       <c r="L3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -13330,16 +13333,16 @@
         <v>43775</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4">
         <v>471229.1394000001</v>
       </c>
       <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
         <v>225</v>
-      </c>
-      <c r="F4" t="s">
-        <v>226</v>
       </c>
       <c r="G4">
         <v>3893.4923675999999</v>
@@ -13361,16 +13364,16 @@
         <v>43775</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5">
         <v>1428685.831666667</v>
       </c>
       <c r="E5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" t="s">
         <v>228</v>
-      </c>
-      <c r="F5" t="s">
-        <v>229</v>
       </c>
       <c r="G5">
         <v>3661.4549959999999</v>
@@ -13387,7 +13390,7 @@
         <v>0.11307985414694049</v>
       </c>
       <c r="L5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -13395,16 +13398,16 @@
         <v>43768</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6">
         <v>592286.43533333309</v>
       </c>
       <c r="E6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" t="s">
         <v>231</v>
-      </c>
-      <c r="F6" t="s">
-        <v>232</v>
       </c>
       <c r="G6">
         <v>3786.4904317999999</v>
@@ -13426,16 +13429,16 @@
         <v>43745</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7">
         <v>469154.88979999977</v>
       </c>
       <c r="E7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
         <v>233</v>
-      </c>
-      <c r="F7" t="s">
-        <v>234</v>
       </c>
       <c r="G7">
         <v>3601.0539597000002</v>
@@ -13457,16 +13460,16 @@
         <v>43795</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8">
         <v>1275847.0800666669</v>
       </c>
       <c r="E8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" t="s">
         <v>236</v>
-      </c>
-      <c r="F8" t="s">
-        <v>237</v>
       </c>
       <c r="G8">
         <v>3902.6114637000001</v>
@@ -13488,16 +13491,16 @@
         <v>43768</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9">
         <v>592286.43533333309</v>
       </c>
       <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
         <v>238</v>
-      </c>
-      <c r="F9" t="s">
-        <v>239</v>
       </c>
       <c r="G9">
         <v>7200.1489792000002</v>
@@ -13519,16 +13522,16 @@
         <v>43745</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10">
         <v>475403.35446666653</v>
       </c>
       <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" t="s">
         <v>241</v>
-      </c>
-      <c r="F10" t="s">
-        <v>242</v>
       </c>
       <c r="G10">
         <v>3601.0659418</v>
@@ -13545,7 +13548,7 @@
         <v>0.12671645898302314</v>
       </c>
       <c r="L10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -13553,16 +13556,16 @@
         <v>43768</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11">
         <v>600912.63166666601</v>
       </c>
       <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
         <v>245</v>
-      </c>
-      <c r="F11" t="s">
-        <v>246</v>
       </c>
       <c r="G11">
         <v>3600.2064667</v>
@@ -13584,16 +13587,16 @@
         <v>43745</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12">
         <v>494345.58179999999</v>
       </c>
       <c r="E12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" t="s">
         <v>248</v>
-      </c>
-      <c r="F12" t="s">
-        <v>249</v>
       </c>
       <c r="G12">
         <v>7170.8296077000005</v>
@@ -13610,7 +13613,7 @@
         <v>6.5150951451266648E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -13618,16 +13621,16 @@
         <v>43768</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13">
         <v>593149.57433333329</v>
       </c>
       <c r="E13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" t="s">
         <v>252</v>
-      </c>
-      <c r="F13" t="s">
-        <v>253</v>
       </c>
       <c r="G13">
         <v>5056.3446751000001</v>
@@ -13649,16 +13652,16 @@
         <v>43795</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14">
         <v>1372973.317933334</v>
       </c>
       <c r="E14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" t="s">
         <v>255</v>
-      </c>
-      <c r="F14" t="s">
-        <v>256</v>
       </c>
       <c r="G14">
         <v>7318.0830248000002</v>
@@ -13680,16 +13683,16 @@
         <v>43754</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15">
         <v>636315.92813333333</v>
       </c>
       <c r="E15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" t="s">
         <v>258</v>
-      </c>
-      <c r="F15" t="s">
-        <v>259</v>
       </c>
       <c r="G15">
         <v>4347.3198690999998</v>
@@ -13711,16 +13714,16 @@
         <v>43745</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16">
         <v>538213.87013333349</v>
       </c>
       <c r="E16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" t="s">
         <v>261</v>
-      </c>
-      <c r="F16" t="s">
-        <v>262</v>
       </c>
       <c r="G16">
         <v>7527.1272962000003</v>
@@ -13737,24 +13740,24 @@
         <v>0.13716106668719871</v>
       </c>
       <c r="L16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>43768</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17">
         <v>632705.85299999989</v>
       </c>
       <c r="E17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" t="s">
         <v>264</v>
-      </c>
-      <c r="F17" t="s">
-        <v>265</v>
       </c>
       <c r="G17">
         <v>6666.2375192999998</v>
@@ -13771,21 +13774,21 @@
         <v>6.6456467568034458E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43795</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18">
         <v>1432583.6294</v>
       </c>
       <c r="E18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" t="s">
         <v>267</v>
-      </c>
-      <c r="F18" t="s">
-        <v>268</v>
       </c>
       <c r="G18">
         <v>7733.803919</v>
@@ -13800,6 +13803,11 @@
       <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>0.12408410691373345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="11" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/vrp_case_study/Solve Times Summary.xlsx
+++ b/vrp_case_study/Solve Times Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-Case-Study\vrp_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D58FFC-B774-4FD6-A0CA-D171E0F1552C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4949D-9D08-408B-8010-87AD6EBD625C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="303">
   <si>
     <t># Customers</t>
   </si>
@@ -3014,6 +3015,9 @@
   </si>
   <si>
     <t>Archive Routes</t>
+  </si>
+  <si>
+    <t>Archive Routes (Pretty)</t>
   </si>
   <si>
     <t>Archive Cost</t>
@@ -5403,6 +5407,9 @@
 </t>
   </si>
   <si>
+    <t>Customer completion bugfixes</t>
+  </si>
+  <si>
     <t>{"0": [[[151, 15]], [[199, 10]], [[155, 1], [62, 1], [57, 13]], [[188, 15], [39, 1]]], "1": [[[192, 22]], [[38, 22]], [[82, 22]], [[207, 20]]], "2": [[[96, 16], [42, 12]], [[2, 14], [119, 12]], [[46, 16], [91, 13]], [[63, 16], [53, 13]], [[131, 12], [4, 11]], [[33, 30]], [[121, 6], [143, 5], [17, 15], [8, 4]], [[100, 30]], [[153, 30]], [[120, 17], [112, 1], [198, 6]], [[55, 30]], [[88, 22], [74, 5]], [[97, 7], [101, 10], [75, 6], [19, 6]], [[182, 6], [157, 24]], [[3, 27], [191, 2]], [[9, 10], [163, 17]], [[208, 24]], [[149, 30]], [[172, 30]], [[165, 30]], [[148, 6], [149, 24]], [[16, 30]], [[159, 24], [41, 6]], [[18, 15], [200, 15]], [[150, 8], [172, 20]], [[35, 30]], [[153, 14], [98, 16]], [[6, 14], [194, 8], [187, 8]], [[41, 30]], [[194, 30]], [[140, 30]], [[209, 9], [176, 16], [35, 5]], [[81, 30]], [[164, 1], [49, 24]], [[174, 5], [104, 6], [110, 19]], [[104, 30]], [[37, 10], [93, 9], [70, 7]], [[152, 4], [108, 9], [34, 16]], [[44, 30]], [[1, 3], [154, 15], [68, 10]], [[168, 9], [156, 11], [132, 10]], [[126, 10], [117, 6], [125, 14]], [[40, 30]], [[196, 13], [135, 5], [33, 9]], [[32, 27]], [[92, 30]], [[97, 30]], [[186, 15], [134, 10], [171, 2]], [[24, 25], [25, 4]], [[25, 30]], [[29, 29]], [[59, 28], [81, 2]], [[48, 5], [197, 25]], [[72, 30]], [[4, 30]], [[40, 15], [139, 15]], [[15, 28]], [[193, 4], [28, 6], [95, 15]], [[8, 30]]], "3": [[[123, 2], [87, 1], [94, 5], [83, 31]], [[66, 35]], [[79, 37], [144, 3]], [[77, 37]]]}</t>
   </si>
   <si>
@@ -5622,10 +5629,268 @@
 </t>
   </si>
   <si>
-    <t>Customer completion bugfixes</t>
-  </si>
-  <si>
-    <t>Archive Routes (Pretty)</t>
+    <t>{"0": [[[154, 14]], [[66, 15]]], "1": [[[2, 12], [119, 10]], [[157, 22]], [[27, 22]], [[207, 21]], [[72, 22]], [[24, 8], [25, 14]], [[159, 19]], [[144, 12], [16, 10]]], "2": [[[186, 9], [131, 16]], [[143, 29]], [[152, 15], [53, 12]], [[164, 4], [126, 14], [19, 11]], [[46, 20], [168, 9]], [[80, 20], [91, 6], [199, 1]], [[176, 30]], [[3, 8], [193, 19]], [[120, 23], [198, 5]], [[75, 19], [101, 5]], [[135, 15], [9, 15]], [[28, 2], [95, 10], [182, 15]], [[104, 30]], [[40, 30]], [[6, 23], [173, 7]], [[41, 30]], [[187, 7], [203, 1], [177, 11], [116, 10]], [[194, 27]], [[17, 24], [166, 6]], [[208, 30]], [[8, 16], [97, 13]], [[34, 14], [108, 11]], [[100, 30]], [[130, 22], [196, 8]], [[44, 30]], [[35, 30]], [[172, 30]], [[125, 9], [197, 14], [117, 7]], [[153, 30]], [[149, 19], [77, 9], [111, 2]], [[151, 25]], [[149, 30]], [[79, 30]], [[77, 30]]], "3": [[[48, 5], [121, 31]], [[81, 36]], [[83, 40]], [[156, 15], [188, 22], [39, 1]], [[148, 3], [165, 34]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+154-S (14)
+66-G (15)
+8 Metre (capacity 22):
+2-A (12) -&gt; 119-O (10)
+157-S (22)
+27-C (22)
+207-Y (21)
+72-G (22)
+24-B (8) -&gt; 25-C (14)
+159-S (19)
+144-Q (12) -&gt; 16-B (10)
+11 Metre (capacity 30):
+186-V (9) -&gt; 131-P (16)
+143-P (29)
+152-R (15) -&gt; 53-E (12)
+164-S (4) -&gt; 126-P (14) -&gt; 19-B (11)
+46-D (20) -&gt; 168-S (9)
+80-H (20) -&gt; 91-K (6) -&gt; 199-W (1)
+176-T (30)
+3-A (8) -&gt; 193-V (19)
+120-O (23) -&gt; 198-W (5)
+75-H (19) -&gt; 101-L (5)
+135-P (15) -&gt; 9-B (15)
+28-C (2) -&gt; 95-K (10) -&gt; 182-U (15)
+104-M (30)
+40-C (30)
+6-B (23) -&gt; 173-T (7)
+41-C (30)
+187-V (7) -&gt; 203-W (1) -&gt; 177-T (11) -&gt; 116-N (10)
+194-V (27)
+17-B (24) -&gt; 166-S (6)
+208-Z (30)
+8-B (16) -&gt; 97-K (13)
+34-C (14) -&gt; 108-M (11)
+100-L (30)
+130-P (22) -&gt; 196-W (8)
+44-D (30)
+35-C (30)
+172-S (30)
+125-P (9) -&gt; 197-W (14) -&gt; 117-N (7)
+153-S (30)
+149-R (19) -&gt; 77-H (9) -&gt; 111-M (2)
+151-R (25)
+149-R (30)
+79-H (30)
+77-H (30)
+Link (capacity 40):
+48-D (5) -&gt; 121-O (31)
+81-H (36)
+83-H (40)
+156-S (15) -&gt; 188-V (22) -&gt; 39-C (1)
+148-R (3) -&gt; 165-S (34)
+</t>
+  </si>
+  <si>
+    <t>150km local service radius for SPAR's own fleet</t>
+  </si>
+  <si>
+    <t>{"0": [[[123, 2]], [[176, 16]], [[199, 10]]], "1": [[[192, 22]], [[207, 20]], [[82, 22]], [[38, 22]]], "2": [[[96, 16], [42, 12]], [[186, 15]], [[120, 17]], [[55, 30]], [[37, 10]], [[63, 16], [53, 13]], [[2, 14], [171, 2], [134, 10]], [[151, 15], [119, 12]], [[81, 2], [39, 1], [188, 15], [168, 9]], [[32, 27]], [[87, 1], [57, 13], [94, 5], [62, 1], [155, 1]], [[29, 29]], [[163, 17], [4, 11]], [[49, 24], [143, 5]], [[200, 15], [68, 10]], [[72, 30]], [[131, 12], [196, 13]], [[104, 30]], [[16, 30]], [[75, 6], [19, 6], [9, 10], [121, 6]], [[70, 7], [18, 15], [112, 1]], [[174, 5], [104, 6], [110, 19]], [[34, 16], [108, 9]], [[88, 22], [74, 5]], [[44, 30]], [[135, 5], [197, 25]], [[101, 10], [182, 6], [126, 10], [193, 4]], [[154, 15], [1, 3], [198, 6]], [[66, 5], [24, 25]], [[66, 30]], [[172, 20], [150, 8]], [[4, 30]], [[153, 14], [98, 16]], [[164, 1], [132, 10], [17, 15], [8, 4]], [[152, 4], [159, 24]], [[149, 30]], [[59, 28]], [[165, 30]], [[172, 30]], [[139, 15], [40, 15]], [[95, 15], [91, 13]], [[8, 30]], [[153, 30]], [[100, 30]], [[40, 30]], [[6, 14], [194, 8], [187, 8]], [[15, 28]], [[209, 9], [125, 14], [117, 6]], [[81, 30]], [[3, 27], [191, 2]], [[140, 30]], [[148, 6], [149, 24]], [[92, 30]], [[156, 11], [46, 16]], [[194, 30]], [[157, 24], [28, 6]], [[208, 24]]], "3": [[[93, 9], [83, 31]], [[48, 5], [35, 35]], [[25, 34]], [[33, 39]], [[97, 37]], [[79, 37]], [[77, 37], [144, 3]], [[41, 36]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+123-O (2)
+176-T (16)
+199-W (10)
+8 Metre (capacity 22):
+192-V (22)
+207-Y (20)
+82-H (22)
+38-C (22)
+11 Metre (capacity 30):
+96-K (16) -&gt; 42-C (12)
+186-V (15)
+120-O (17)
+55-E (30)
+37-C (10)
+63-G (16) -&gt; 53-E (13)
+2-A (14) -&gt; 171-S (2) -&gt; 134-P (10)
+151-R (15) -&gt; 119-O (12)
+81-H (2) -&gt; 39-C (1) -&gt; 188-V (15) -&gt; 168-S (9)
+32-C (27)
+87-K (1) -&gt; 57-F (13) -&gt; 94-K (5) -&gt; 62-G (1) -&gt; 155-S (1)
+29-C (29)
+163-S (17) -&gt; 4-A (11)
+49-D (24) -&gt; 143-P (5)
+200-W (15) -&gt; 68-G (10)
+72-G (30)
+131-P (12) -&gt; 196-W (13)
+104-M (30)
+16-B (30)
+75-H (6) -&gt; 19-B (6) -&gt; 9-B (10) -&gt; 121-O (6)
+70-G (7) -&gt; 18-B (15) -&gt; 112-M (1)
+174-T (5) -&gt; 104-M (6) -&gt; 110-M (19)
+34-C (16) -&gt; 108-M (9)
+88-K (22) -&gt; 74-G (5)
+44-D (30)
+135-P (5) -&gt; 197-W (25)
+101-L (10) -&gt; 182-U (6) -&gt; 126-P (10) -&gt; 193-V (4)
+154-S (15) -&gt; 1-A (3) -&gt; 198-W (6)
+66-G (5) -&gt; 24-B (25)
+66-G (30)
+172-S (20) -&gt; 150-R (8)
+4-A (30)
+153-S (14) -&gt; 98-L (16)
+164-S (1) -&gt; 132-P (10) -&gt; 17-B (15) -&gt; 8-B (4)
+152-R (4) -&gt; 159-S (24)
+149-R (30)
+59-G (28)
+165-S (30)
+172-S (30)
+139-P (15) -&gt; 40-C (15)
+95-K (15) -&gt; 91-K (13)
+8-B (30)
+153-S (30)
+100-L (30)
+40-C (30)
+6-B (14) -&gt; 194-V (8) -&gt; 187-V (8)
+15-B (28)
+209-Z (9) -&gt; 125-P (14) -&gt; 117-N (6)
+81-H (30)
+3-A (27) -&gt; 191-V (2)
+140-P (30)
+148-R (6) -&gt; 149-R (24)
+92-K (30)
+156-S (11) -&gt; 46-D (16)
+194-V (30)
+157-S (24) -&gt; 28-C (6)
+208-Z (24)
+Link (capacity 40):
+93-K (9) -&gt; 83-H (31)
+48-D (5) -&gt; 35-C (35)
+25-C (34)
+33-C (39)
+97-K (37)
+79-H (37)
+77-H (37) -&gt; 144-Q (3)
+41-C (36)
+</t>
+  </si>
+  <si>
+    <t>{"0": [[[156, 16]], [[195, 1], [68, 8]], [[59, 16]], [[100, 15]]], "1": [[[185, 22]], [[151, 18]], [[207, 22]], [[156, 21]], [[95, 22]], [[89, 22]]], "2": [[[83, 8]], [[113, 4], [94, 6], [102, 4], [155, 1], [62, 13], [50, 2]], [[69, 22]], [[22, 13], [58, 15]], [[128, 17], [131, 7]], [[2, 10]], [[83, 30]], [[208, 11], [80, 16]], [[172, 20], [25, 7]], [[91, 22]], [[95, 26]], [[121, 29]], [[19, 14]], [[124, 30]], [[15, 26], [60, 1]], [[39, 5], [66, 19], [7, 4]], [[166, 4], [76, 20], [61, 2]], [[53, 27]], [[105, 5], [168, 24]], [[69, 30]], [[69, 30]], [[42, 1], [57, 21], [87, 2]], [[56, 11], [92, 16]], [[3, 30]], [[29, 28]], [[69, 30]], [[92, 30]], [[142, 26]], [[101, 21]], [[59, 25]], [[33, 10], [182, 17]], [[1, 30]], [[96, 29]], [[139, 30]], [[97, 29]], [[15, 30]], [[157, 26]], [[134, 21]], [[13, 16], [173, 13]], [[208, 30]], [[158, 5], [20, 18], [110, 7]], [[125, 14], [197, 11]], [[24, 9], [144, 21]], [[109, 30]], [[188, 26]], [[158, 30]], [[191, 4], [193, 19], [81, 5]], [[22, 30]], [[152, 4], [40, 22]], [[90, 16], [200, 13]], [[17, 24], [8, 5]], [[135, 30]], [[118, 9], [132, 15]], [[201, 30]], [[116, 5], [84, 22]], [[20, 30]], [[85, 30]], [[72, 29]], [[176, 8], [35, 21]], [[17, 22], [75, 3]], [[143, 3], [175, 23], [11, 3]], [[46, 24]], [[28, 28]], [[9, 11], [163, 18]], [[130, 19]], [[165, 4], [26, 20]], [[47, 12], [164, 2], [115, 7]], [[49, 30]], [[109, 28], [106, 1]], [[150, 30]], [[91, 28]], [[135, 2], [48, 10], [51, 16]], [[40, 30]], [[78, 6], [119, 12]], [[84, 30]], [[18, 24], [112, 2]], [[120, 9], [72, 16]], [[151, 30]], [[198, 13], [126, 14], [117, 2]], [[98, 30]], [[85, 30]], [[23, 10], [150, 19]], [[143, 30]], [[178, 28]], [[93, 10], [1, 11]], [[205, 9], [206, 7], [45, 13]], [[85, 23], [147, 7]], [[104, 30]], [[174, 14], [104, 12]], [[23, 30]]], "3": [[[186, 38]], [[154, 31]], [[153, 33], [171, 5]], [[10, 40]], [[99, 40]], [[12, 31]], [[111, 40]], [[149, 37]], [[29, 40]], [[41, 39]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+156-S (16)
+195-W (1) -&gt; 68-G (8)
+59-G (16)
+100-L (15)
+8 Metre (capacity 22):
+185-V (22)
+151-R (18)
+207-Y (22)
+156-S (21)
+95-K (22)
+89-K (22)
+11 Metre (capacity 30):
+83-H (8)
+113-M (4) -&gt; 94-K (6) -&gt; 102-L (4) -&gt; 155-S (1) -&gt; 62-G (13) -&gt; 50-D (2)
+69-G (22)
+22-B (13) -&gt; 58-G (15)
+128-P (17) -&gt; 131-P (7)
+2-A (10)
+83-H (30)
+208-Z (11) -&gt; 80-H (16)
+172-S (20) -&gt; 25-C (7)
+91-K (22)
+95-K (26)
+121-O (29)
+19-B (14)
+124-O (30)
+15-B (26) -&gt; 60-G (1)
+39-C (5) -&gt; 66-G (19) -&gt; 7-B (4)
+166-S (4) -&gt; 76-H (20) -&gt; 61-G (2)
+53-E (27)
+105-M (5) -&gt; 168-S (24)
+69-G (30)
+69-G (30)
+42-C (1) -&gt; 57-F (21) -&gt; 87-K (2)
+56-F (11) -&gt; 92-K (16)
+3-A (30)
+29-C (28)
+69-G (30)
+92-K (30)
+142-P (26)
+101-L (21)
+59-G (25)
+33-C (10) -&gt; 182-U (17)
+1-A (30)
+96-K (29)
+139-P (30)
+97-K (29)
+15-B (30)
+157-S (26)
+134-P (21)
+13-B (16) -&gt; 173-T (13)
+208-Z (30)
+158-S (5) -&gt; 20-B (18) -&gt; 110-M (7)
+125-P (14) -&gt; 197-W (11)
+24-B (9) -&gt; 144-Q (21)
+109-M (30)
+188-V (26)
+158-S (30)
+191-V (4) -&gt; 193-V (19) -&gt; 81-H (5)
+22-B (30)
+152-R (4) -&gt; 40-C (22)
+90-K (16) -&gt; 200-W (13)
+17-B (24) -&gt; 8-B (5)
+135-P (30)
+118-N (9) -&gt; 132-P (15)
+201-W (30)
+116-N (5) -&gt; 84-K (22)
+20-B (30)
+85-K (30)
+72-G (29)
+176-T (8) -&gt; 35-C (21)
+17-B (22) -&gt; 75-H (3)
+143-P (3) -&gt; 175-T (23) -&gt; 11-B (3)
+46-D (24)
+28-C (28)
+9-B (11) -&gt; 163-S (18)
+130-P (19)
+165-S (4) -&gt; 26-C (20)
+47-D (12) -&gt; 164-S (2) -&gt; 115-N (7)
+49-D (30)
+109-M (28) -&gt; 106-M (1)
+150-R (30)
+91-K (28)
+135-P (2) -&gt; 48-D (10) -&gt; 51-D (16)
+40-C (30)
+78-H (6) -&gt; 119-O (12)
+84-K (30)
+18-B (24) -&gt; 112-M (2)
+120-O (9) -&gt; 72-G (16)
+151-R (30)
+198-W (13) -&gt; 126-P (14) -&gt; 117-N (2)
+98-L (30)
+85-K (30)
+23-B (10) -&gt; 150-R (19)
+143-P (30)
+178-T (28)
+93-K (10) -&gt; 1-A (11)
+205-W (9) -&gt; 206-W (7) -&gt; 45-D (13)
+85-K (23) -&gt; 147-R (7)
+104-M (30)
+174-T (14) -&gt; 104-M (12)
+23-B (30)
+Link (capacity 40):
+186-V (38)
+154-S (31)
+153-S (33) -&gt; 171-S (5)
+10-B (40)
+99-L (40)
+12-B (31)
+111-M (40)
+149-R (37)
+29-C (40)
+41-C (39)
+</t>
   </si>
 </sst>
 </file>
@@ -5740,10 +6005,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6036,7 +6301,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FD1-482C-AD23-E4441EC1E74F}"/>
+              <c16:uniqueId val="{00000000-1170-47A5-8824-A2882F781394}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6109,7 +6374,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5FD1-482C-AD23-E4441EC1E74F}"/>
+              <c16:uniqueId val="{00000001-1170-47A5-8824-A2882F781394}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6447,7 +6712,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B1F-480A-92E2-CBC0285B7552}"/>
+              <c16:uniqueId val="{00000000-9442-46ED-8001-E7363086CCFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6520,7 +6785,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8B1F-480A-92E2-CBC0285B7552}"/>
+              <c16:uniqueId val="{00000001-9442-46ED-8001-E7363086CCFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6859,7 +7124,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A669-40B3-8B0B-8B9957DE8672}"/>
+              <c16:uniqueId val="{00000000-2502-4171-A048-A5D83CD769AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6932,7 +7197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A669-40B3-8B0B-8B9957DE8672}"/>
+              <c16:uniqueId val="{00000001-2502-4171-A048-A5D83CD769AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7256,7 +7521,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8339-4166-996E-FA4834188B17}"/>
+              <c16:uniqueId val="{00000000-D43D-45E4-8354-632FD88DDA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7315,7 +7580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8339-4166-996E-FA4834188B17}"/>
+              <c16:uniqueId val="{00000001-D43D-45E4-8354-632FD88DDA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7652,7 +7917,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59CE-4ACC-AED2-70C3B4E51796}"/>
+              <c16:uniqueId val="{00000000-0628-47F5-A96F-9C0F03045C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7725,7 +7990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-59CE-4ACC-AED2-70C3B4E51796}"/>
+              <c16:uniqueId val="{00000001-0628-47F5-A96F-9C0F03045C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8062,7 +8327,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36C8-470C-A7FF-D53D94290221}"/>
+              <c16:uniqueId val="{00000000-C3D6-43E6-85C4-3AADB613EBF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8135,7 +8400,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36C8-470C-A7FF-D53D94290221}"/>
+              <c16:uniqueId val="{00000001-C3D6-43E6-85C4-3AADB613EBF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8189,7 +8454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-36C8-470C-A7FF-D53D94290221}"/>
+              <c16:uniqueId val="{00000002-C3D6-43E6-85C4-3AADB613EBF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8243,7 +8508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-36C8-470C-A7FF-D53D94290221}"/>
+              <c16:uniqueId val="{00000003-C3D6-43E6-85C4-3AADB613EBF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9413,9 +9678,9 @@
     <col min="5" max="5" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="150.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="150.7109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="11" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
@@ -11516,11 +11781,11 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D61" si="9">E34/60</f>
+        <f t="shared" ref="D34:D65" si="9">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E61" si="10">F34/1000</f>
+        <f t="shared" ref="E34:E65" si="10">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
@@ -13863,26 +14128,169 @@
     </row>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
     <mergeCell ref="H205:I205"/>
     <mergeCell ref="H206:I206"/>
     <mergeCell ref="H207:I207"/>
@@ -13907,169 +14315,26 @@
     <mergeCell ref="H192:I192"/>
     <mergeCell ref="H193:I193"/>
     <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R61 R63:R1048576">
     <cfRule type="cellIs" dxfId="15" priority="21" operator="notBetween">
@@ -14150,7 +14415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14178,40 +14443,40 @@
         <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -14219,13 +14484,13 @@
         <v>43745</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D2">
         <v>469154.88979999977</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H2">
         <v>3603.7618333999999</v>
@@ -14238,7 +14503,7 @@
         <v>13622.672333333176</v>
       </c>
       <c r="L2" s="12">
-        <f t="shared" ref="L2:L27" si="0">K2/D2</f>
+        <f t="shared" ref="L2:L30" si="0">K2/D2</f>
         <v>2.9036620164271349E-2</v>
       </c>
     </row>
@@ -14247,13 +14512,13 @@
         <v>43768</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3">
         <v>592286.43533333309</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H3">
         <v>3600.6243162000001</v>
@@ -14270,7 +14535,7 @@
         <v>-2.8570731981184649E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -14278,16 +14543,16 @@
         <v>43775</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D4">
         <v>471229.1394000001</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H4">
         <v>3893.4923675999999</v>
@@ -14296,7 +14561,7 @@
         <v>468885.14206666662</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K27" si="1">D4-(I4+J4*10)</f>
+        <f t="shared" ref="K4:K30" si="1">D4-(I4+J4*10)</f>
         <v>2343.9973333334783</v>
       </c>
       <c r="L4" s="12">
@@ -14309,16 +14574,16 @@
         <v>43775</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D5">
         <v>1428685.831666667</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H5">
         <v>3661.4549959999999</v>
@@ -14335,7 +14600,7 @@
         <v>0.11307985414694049</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -14343,16 +14608,16 @@
         <v>43768</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D6">
         <v>592286.43533333309</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H6">
         <v>3786.4904317999999</v>
@@ -14374,16 +14639,16 @@
         <v>43745</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D7">
         <v>469154.88979999977</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H7">
         <v>3601.0539597000002</v>
@@ -14405,16 +14670,16 @@
         <v>43795</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D8">
         <v>1275847.0800666669</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H8">
         <v>3902.6114637000001</v>
@@ -14436,16 +14701,16 @@
         <v>43768</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9">
         <v>592286.43533333309</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H9">
         <v>7200.1489792000002</v>
@@ -14467,16 +14732,16 @@
         <v>43745</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D10">
         <v>475403.35446666653</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H10">
         <v>3601.0659418</v>
@@ -14493,7 +14758,7 @@
         <v>0.12671645898302314</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -14501,16 +14766,16 @@
         <v>43768</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D11">
         <v>600912.63166666601</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H11">
         <v>3600.2064667</v>
@@ -14532,16 +14797,16 @@
         <v>43745</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D12">
         <v>494345.58179999999</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H12">
         <v>7170.8296077000005</v>
@@ -14558,7 +14823,7 @@
         <v>6.5150951451266648E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -14566,16 +14831,16 @@
         <v>43768</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D13">
         <v>593149.57433333329</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H13">
         <v>5056.3446751000001</v>
@@ -14597,16 +14862,16 @@
         <v>43795</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D14">
         <v>1372973.317933334</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H14">
         <v>7318.0830248000002</v>
@@ -14628,16 +14893,16 @@
         <v>43754</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D15">
         <v>636315.92813333333</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H15">
         <v>4347.3198690999998</v>
@@ -14659,16 +14924,16 @@
         <v>43745</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D16">
         <v>538213.87013333349</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H16">
         <v>7527.1272962000003</v>
@@ -14685,7 +14950,7 @@
         <v>0.13716106668719871</v>
       </c>
       <c r="M16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -14693,16 +14958,16 @@
         <v>43768</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17">
         <v>632705.85299999989</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H17">
         <v>6666.2375192999998</v>
@@ -14724,16 +14989,16 @@
         <v>43795</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18">
         <v>1432583.6294</v>
       </c>
       <c r="F18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H18">
         <v>7733.803919</v>
@@ -14755,16 +15020,16 @@
         <v>43745</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D19">
         <v>496052.98146666668</v>
       </c>
       <c r="F19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H19">
         <v>7561.5297926000003</v>
@@ -14781,7 +15046,7 @@
         <v>6.2898892186371402E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -14789,16 +15054,16 @@
         <v>43768</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D20">
         <v>595195.38266666664</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H20">
         <v>3968.0924328999999</v>
@@ -14820,16 +15085,16 @@
         <v>43795</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D21">
         <v>1381861.7179333339</v>
       </c>
       <c r="F21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H21">
         <v>7200.6445293999996</v>
@@ -14851,16 +15116,16 @@
         <v>43745</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22">
         <v>496052.98146666668</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H22">
         <v>3601.0062647</v>
@@ -14877,7 +15142,7 @@
         <v>6.3194700642623072E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -14885,16 +15150,16 @@
         <v>43768</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D23">
         <v>595195.38266666664</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H23">
         <v>3600.8390132</v>
@@ -14916,16 +15181,16 @@
         <v>43795</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D24">
         <v>1381861.7179333339</v>
       </c>
       <c r="F24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H24">
         <v>3601.3254473000002</v>
@@ -14947,25 +15212,25 @@
         <v>43745</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="16">
+        <v>272</v>
+      </c>
+      <c r="D25" s="15">
         <v>496052.98146666668</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
-      </c>
-      <c r="H25" s="16">
+        <v>289</v>
+      </c>
+      <c r="H25" s="15">
         <v>7048.7007022999996</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <v>448073.09313333308</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16">
+      <c r="J25" s="15"/>
+      <c r="K25" s="15">
         <f t="shared" si="1"/>
         <v>47979.888333333598</v>
       </c>
@@ -14974,7 +15239,7 @@
         <v>9.6723314093330792E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N25">
         <v>83</v>
@@ -14985,25 +15250,25 @@
         <v>43768</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="16">
+        <v>276</v>
+      </c>
+      <c r="D26" s="15">
         <v>595195.38266666664</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G26" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26" s="16">
+        <v>292</v>
+      </c>
+      <c r="H26" s="15">
         <v>7200.4963602999997</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <v>559057.74033333291</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16">
+      <c r="J26" s="15"/>
+      <c r="K26" s="15">
         <f t="shared" si="1"/>
         <v>36137.64233333373</v>
       </c>
@@ -15020,25 +15285,25 @@
         <v>43795</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="16">
+        <v>293</v>
+      </c>
+      <c r="D27" s="15">
         <v>1381861.7179333339</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H27" s="16">
+        <v>295</v>
+      </c>
+      <c r="H27" s="15">
         <v>7888.9231545000002</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="15">
         <v>1204977.810166667</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
         <v>176883.90776666696</v>
       </c>
@@ -15051,21 +15316,116 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="D28"/>
+      <c r="A28" s="9">
+        <v>43745</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28">
+        <v>588323.39749999973</v>
+      </c>
+      <c r="F28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G28" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28">
+        <v>6176.4342452999999</v>
+      </c>
+      <c r="I28">
+        <v>541168.93666666653</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>47154.4608333332</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="0"/>
+        <v>8.0150578803613232E-2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>298</v>
+      </c>
+      <c r="N28">
+        <v>81</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L29" s="12"/>
+      <c r="A29" s="10">
+        <v>43768</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29">
+        <v>692416.29500000016</v>
+      </c>
+      <c r="F29" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29">
+        <v>7200.3923278000002</v>
+      </c>
+      <c r="I29">
+        <v>661103.9565833332</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>31312.338416666957</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="0"/>
+        <v>4.5221839293465717E-2</v>
+      </c>
+      <c r="N29">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L30" s="12"/>
+      <c r="A30" s="8">
+        <v>43795</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30">
+        <v>1565696.622916667</v>
+      </c>
+      <c r="F30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30">
+        <v>7200.5053572999996</v>
+      </c>
+      <c r="I30">
+        <v>1410468.586666666</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>155228.03625000105</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="0"/>
+        <v>9.9143112387145349E-2</v>
+      </c>
+      <c r="N30">
+        <v>165</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L31" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A28" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <conditionalFormatting sqref="L1:L28 L32:L1048576 M1:N1">
+  <conditionalFormatting sqref="L32:L1048576 M1:N1 L1:L30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/vrp_case_study/Solve Times Summary.xlsx
+++ b/vrp_case_study/Solve Times Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-Case-Study\vrp_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4949D-9D08-408B-8010-87AD6EBD625C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B898D1D1-41F1-4064-AD04-F16F5D5C52BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="346">
   <si>
     <t># Customers</t>
   </si>
@@ -110,6 +110,9 @@
     <t>Meta Routes</t>
   </si>
   <si>
+    <t>Meta Routes (Pretty)</t>
+  </si>
+  <si>
     <t>Meta Objective</t>
   </si>
   <si>
@@ -119,7 +122,13 @@
     <t>Meta Difference (%, compared to meta evaluation of math objective)</t>
   </si>
   <si>
-    <t>Rounded to 5 digits</t>
+    <t>Fair evaluation</t>
+  </si>
+  <si>
+    <t>Math objective</t>
+  </si>
+  <si>
+    <t>Meta objective</t>
   </si>
   <si>
     <t>Input:
@@ -151,7 +160,10 @@
 Solve time: 641</t>
   </si>
   <si>
-    <t>{0: [[(7, 5), (8, 2), (3, 2), (1, 5), (5, 3), (4, 6), (2, 1), (6, 6)]], 1: [[(9, 9)]]}</t>
+    <t>{"0": [[[7, 5], [8, 2], [3, 2], [1, 5], [5, 3], [4, 6], [2, 1], [6, 6]]], "1": [[[9, 9]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[6, 6], [2, 1], [4, 6], [5, 3], [1, 5], [3, 2], [8, 2], [7, 5]]], "1": [[[9, 9]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
@@ -190,14 +202,17 @@
 Solve time: 903</t>
   </si>
   <si>
-    <t>{0: [], 1: [[(6, 6), (1, 7), (2, 3)]], 2: [[(8, 8), (4, 2), (3, 6), (5, 3), (7, 8), (9, 1)]]}</t>
+    <t>{"0": [], "1": [[[6, 6], [1, 7], [2, 3]]], "2": [[[8, 8], [4, 2], [3, 6], [5, 3], [7, 8], [9, 1]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[6, 6], [1, 7], [2, 3]]], "2": [[[8, 8], [4, 2], [3, 6], [5, 3], [7, 8], [9, 1]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
 8 metre (capacity 22):
 6 (6) -&gt; 1 (7) -&gt; 2 (3)
 11 metre (capacity 30):
-9 (1) -&gt; 7 (8) -&gt; 5 (3) -&gt; 3 (6) -&gt; 4 (2) -&gt; 8 (8)
+8 (8) -&gt; 4 (2) -&gt; 3 (6) -&gt; 5 (3) -&gt; 7 (8) -&gt; 9 (1)
 </t>
   </si>
   <si>
@@ -215,27 +230,32 @@
 Vehicle SP2 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
 Vehicle SP3 is a Rigid with capacity 16, distance cost 1.217404153, and time cost 12.605782265
 Output:
-Vehicle SP1 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 13.790447845
-Vehicle SP1 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.108898551
-Vehicle SP1 travels from 6 to 9 to deliver 4 pallets. Expected unload start time is 15
-Vehicle SP1 travels from 9 to 1 to deliver 5 pallets. Expected unload start time is 21
-Vehicle SP2 travels from Depot to 2 to deliver 2 pallets. Expected unload start time is 2.622536337
-Vehicle SP2 travels from 2 to 5 to deliver 1 pallets. Expected unload start time is 3.904485591
-Vehicle SP2 travels from 3 to 7 to deliver 3 pallets. Expected unload start time is 5.894646003
-Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.263560377
-Vehicle SP2 travels from 5 to 8 to deliver 2 pallets. Expected unload start time is 4.761216656
-Vehicle SP2 travels from 7 to 4 to deliver 1 pallets. Expected unload start time is 6.355462976
-Vehicle SP2 travels from 8 to 3 to deliver 3 pallets. Expected unload start time is 5.264703289
-Objective value: 943.34840135
-Solve time: 630</t>
-  </si>
-  <si>
-    <t>{0: [[(6, 3), (9, 4), (1, 5)], [(2, 2), (5, 1), (8, 2), (3, 3), (7, 3), (4, 1)]]}</t>
+Vehicle SP1 travels from Depot to 6 to deliver 3 pallets. Expected unload start time is 13.712229345
+Vehicle SP1 travels from 6 to 9 to deliver 2 pallets. Expected unload start time is 14.921781501
+Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.616709962
+Vehicle SP2 travels from Depot to 9 to deliver 2 pallets. Expected unload start time is 15
+Vehicle SP2 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.109448974
+Vehicle SP2 travels from 3 to 8 to deliver 2 pallets. Expected unload start time is 17.363110878
+Vehicle SP2 travels from 4 to 7 to deliver 3 pallets. Expected unload start time is 16.182103018
+Vehicle SP2 travels from 5 to 2 to deliver 2 pallets. Expected unload start time is 19.483711731
+Vehicle SP2 travels from 7 to 3 to deliver 3 pallets. Expected unload start time is 16.561589852
+Vehicle SP2 travels from 8 to 5 to deliver 1 pallets. Expected unload start time is 18.289784248
+Vehicle SP2 travels from 9 to 4 to deliver 1 pallets. Expected unload start time is 15.735911305
+Vehicle SP3 travels from Depot to 1 to deliver 5 pallets. Expected unload start time is 21.773593359
+Vehicle SP3 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.882491908
+Objective value: 1115.121401322
+Solve time: 5877</t>
+  </si>
+  <si>
+    <t>{"0": [[[6, 3], [9, 2]], [[9, 2], [4, 1], [7, 3], [3, 3], [8, 2], [5, 1], [2, 2]], [[1, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[9, 4], [4, 1], [7, 3], [3, 3], [8, 2], [5, 1], [2, 2]], [[1, 5], [6, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-2 (2) -&gt; 5 (1) -&gt; 8 (2) -&gt; 3 (3) -&gt; 7 (3) -&gt; 4 (1)
-9 (4) -&gt; 6 (3) -&gt; 1 (5)
+9 (4) -&gt; 4 (1) -&gt; 7 (3) -&gt; 3 (3) -&gt; 8 (2) -&gt; 5 (1) -&gt; 2 (2)
+1 (5) -&gt; 6 (3)
 </t>
   </si>
   <si>
@@ -269,15 +289,18 @@
 Solve time: 1531</t>
   </si>
   <si>
-    <t>{0: [[(2, 7), (4, 8)]], 1: [[(5, 5), (8, 8)]], 2: [[(6, 2), (1, 3), (7, 4), (3, 7), (9, 5)]]}</t>
+    <t>{"0": [[[2, 7], [4, 8]]], "1": [[[5, 5], [8, 8]]], "2": [[[6, 2], [1, 3], [7, 4], [3, 7], [9, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 8], [2, 7]]], "1": [[[5, 5], [8, 8]]], "2": [[[9, 5], [3, 7], [7, 4], [1, 3], [6, 2]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-2 (7) -&gt; 4 (8)
+4 (8) -&gt; 2 (7)
 Rigid (capacity 16):
-8 (8) -&gt; 5 (5)
+5 (5) -&gt; 8 (8)
 8 metre (capacity 22):
-6 (2) -&gt; 1 (3) -&gt; 7 (4) -&gt; 3 (7) -&gt; 9 (5)
+9 (5) -&gt; 3 (7) -&gt; 7 (4) -&gt; 1 (3) -&gt; 6 (2)
 </t>
   </si>
   <si>
@@ -310,12 +333,15 @@
 Solve time: 2543</t>
   </si>
   <si>
-    <t>{0: [[(6, 5), (5, 4), (3, 7), (9, 4), (4, 2)], [(8, 5), (7, 3), (1, 7), (2, 4)]], 1: []}</t>
+    <t>{"0": [[[6, 5], [5, 4], [3, 7], [9, 4], [4, 2]], [[8, 5], [7, 3], [1, 7], [2, 4]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[9, 4], [3, 7], [5, 4], [6, 5]], [[4, 2], [2, 4], [1, 7]]], "1": [[[8, 5], [7, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
 9 (4) -&gt; 3 (7) -&gt; 5 (4) -&gt; 6 (5)
-4 (2) -&gt; 1 (7) -&gt; 2 (4)
+4 (2) -&gt; 2 (4) -&gt; 1 (7)
 Rigid (capacity 16):
 8 (5) -&gt; 7 (3)
 </t>
@@ -350,14 +376,17 @@
 Solve time: 3773</t>
   </si>
   <si>
-    <t>{0: [[(5, 8), (3, 8), (8, 3), (2, 2)]], 1: [], 2: [[(7, 8), (6, 3), (1, 1), (4, 2), (9, 2)]]}</t>
+    <t>{"0": [[[5, 8], [3, 8], [8, 3], [2, 2]]], "1": [], "2": [[[7, 8], [6, 3], [1, 1], [4, 2], [9, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[2, 2], [8, 3], [3, 8], [5, 8]]], "1": [[]], "2": [[[7, 8], [6, 3], [1, 1], [4, 2], [9, 2]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-5 (8) -&gt; 3 (8) -&gt; 8 (3) -&gt; 2 (2)
+2 (2) -&gt; 8 (3) -&gt; 3 (8) -&gt; 5 (8)
 11 metre (capacity 30):
 Rigid (capacity 16):
-9 (2) -&gt; 4 (2) -&gt; 1 (1) -&gt; 6 (3) -&gt; 7 (8)
+7 (8) -&gt; 6 (3) -&gt; 1 (1) -&gt; 4 (2) -&gt; 9 (2)
 </t>
   </si>
   <si>
@@ -390,7 +419,10 @@
 Solve time: 3816</t>
   </si>
   <si>
-    <t>{0: [[(2, 5), (9, 2), (3, 4), (8, 5), (6, 5)]], 1: [[(5, 4), (4, 1), (1, 7), (7, 4)]]}</t>
+    <t>{"0": [[[2, 5], [9, 2], [3, 4], [8, 5], [6, 5]]], "1": [[[5, 4], [4, 1], [1, 7], [7, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[6, 5], [8, 5], [3, 4], [9, 2], [2, 5]]], "1": [[[7, 4], [1, 7], [4, 1], [5, 4]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
@@ -431,15 +463,18 @@
 Solve time: 2016</t>
   </si>
   <si>
-    <t>{0: [[(7, 6), (6, 8)]], 1: [[(9, 3), (8, 8), (5, 7), (4, 8)]], 2: [[(2, 6), (1, 3), (3, 4), (7, 2)]]}</t>
+    <t>{"0": [[[7, 6], [6, 8]]], "1": [[[9, 3], [8, 8], [5, 7], [4, 8]]], "2": [[[2, 6], [1, 3], [3, 4], [7, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[7, 8], [6, 8]]], "1": [[[9, 3], [8, 8], [5, 7], [4, 8]]], "2": [[[2, 6], [3, 4], [1, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-6 (8) -&gt; 7 (8)
+7 (8) -&gt; 6 (8)
 11 metre (capacity 30):
 9 (3) -&gt; 8 (8) -&gt; 5 (7) -&gt; 4 (8)
 8 metre (capacity 22):
-1 (3) -&gt; 3 (4) -&gt; 2 (6)
+2 (6) -&gt; 3 (4) -&gt; 1 (3)
 </t>
   </si>
   <si>
@@ -473,12 +508,15 @@
 Solve time: 1630</t>
   </si>
   <si>
-    <t>{0: [[(1, 1), (3, 2), (6, 7), (8, 4)], [(7, 2), (9, 2), (2, 3), (5, 6)]], 1: [[(4, 7)]]}</t>
+    <t>{"0": [[[1, 1], [3, 2], [6, 7], [8, 4]], [[7, 2], [9, 2], [2, 3], [5, 6]]], "1": [[[4, 7]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[7, 2], [9, 2], [2, 3], [5, 6]], [[1, 1], [3, 2], [6, 7], [8, 4]]], "1": [[[4, 7]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-8 (4) -&gt; 6 (7) -&gt; 3 (2) -&gt; 1 (1)
-5 (6) -&gt; 2 (3) -&gt; 9 (2) -&gt; 7 (2)
+7 (2) -&gt; 9 (2) -&gt; 2 (3) -&gt; 5 (6)
+1 (1) -&gt; 3 (2) -&gt; 6 (7) -&gt; 8 (4)
 11 metre (capacity 30):
 4 (7)
 </t>
@@ -512,13 +550,16 @@
 Solve time: 976</t>
   </si>
   <si>
-    <t>{0: [[(8, 1), (7, 1), (3, 3), (5, 4), (9, 4), (2, 6), (4, 1), (1, 4), (6, 5)]], 1: []}</t>
+    <t>{"0": [[[8, 1], [7, 1], [3, 3], [5, 4], [9, 4], [2, 6], [4, 1], [1, 4], [6, 5]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[6, 5], [1, 4], [4, 1]], [[8, 1], [7, 1], [5, 4], [9, 4], [2, 6], [3, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-3 (3) -&gt; 5 (4) -&gt; 9 (4) -&gt; 2 (6) -&gt; 4 (1) -&gt; 1 (4) -&gt; 6 (5)
 8 metre (capacity 22):
-7 (1) -&gt; 8 (1)
+6 (5) -&gt; 1 (4) -&gt; 4 (1)
+8 (1) -&gt; 7 (1) -&gt; 5 (4) -&gt; 9 (4) -&gt; 2 (6) -&gt; 3 (3)
 </t>
   </si>
   <si>
@@ -558,13 +599,16 @@
 Solve time: 2359</t>
   </si>
   <si>
-    <t>{0: [[(9, 3), (12, 3), (5, 4), (4, 5), (2, 7), (10, 7), (3, 1)]], 1: [[(7, 2), (1, 2), (11, 3), (8, 2), (6, 5), (9, 2)]]}</t>
+    <t>{"0": [[[9, 3], [12, 3], [5, 4], [4, 5], [2, 7], [10, 7], [3, 1]]], "1": [[[7, 2], [1, 2], [11, 3], [8, 2], [6, 5], [9, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 1], [4, 5], [5, 4], [12, 3], [9, 5], [6, 5], [8, 2], [11, 3], [1, 2]]], "1": [[[2, 7], [10, 7], [7, 2]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
 3 (1) -&gt; 4 (5) -&gt; 5 (4) -&gt; 12 (3) -&gt; 9 (5) -&gt; 6 (5) -&gt; 8 (2) -&gt; 11 (3) -&gt; 1 (2)
 Rigid (capacity 16):
-7 (2) -&gt; 10 (7) -&gt; 2 (7)
+2 (7) -&gt; 10 (7) -&gt; 7 (2)
 </t>
   </si>
   <si>
@@ -603,13 +647,16 @@
 Solve time: 8640</t>
   </si>
   <si>
-    <t>{0: [[(2, 1), (7, 3), (11, 2), (1, 2), (5, 4), (4, 4), (6, 3)]], 1: [[(3, 3), (12, 2), (10, 2), (8, 3), (9, 1)]], 2: []}</t>
+    <t>{"0": [[[2, 1], [7, 3], [11, 2], [1, 2], [5, 4], [4, 4], [6, 3]]], "1": [[[3, 3], [12, 2], [10, 2], [8, 3], [9, 1]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[2, 1], [7, 3], [11, 2], [1, 2], [5, 4], [4, 4], [6, 3]]], "1": [[[3, 3], [12, 2], [10, 2], [8, 3], [9, 1]]], "2": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
 2 (1) -&gt; 7 (3) -&gt; 11 (2) -&gt; 1 (2) -&gt; 5 (4) -&gt; 4 (4) -&gt; 6 (3)
 Rigid (capacity 16):
-9 (1) -&gt; 8 (3) -&gt; 10 (2) -&gt; 12 (2) -&gt; 3 (3)
+3 (3) -&gt; 12 (2) -&gt; 10 (2) -&gt; 8 (3) -&gt; 9 (1)
 11 metre (capacity 30):
 </t>
   </si>
@@ -649,11 +696,14 @@
 Solve time: 1565</t>
   </si>
   <si>
-    <t>{0: [[(11, 4), (3, 5), (2, 1), (4, 1), (10, 3), (6, 2), (9, 3)]], 1: [], 2: [[(8, 2), (7, 1), (5, 3), (1, 4), (12, 5)]]}</t>
+    <t>{"0": [[[11, 4], [3, 5], [2, 1], [4, 1], [10, 3], [6, 2], [9, 3]]], "1": [], "2": [[[8, 2], [7, 1], [5, 3], [1, 4], [12, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[9, 3], [6, 2], [10, 3], [4, 1], [2, 1], [3, 5], [11, 4]]], "1": [[]], "2": [[[12, 5], [1, 4], [5, 3], [7, 1], [8, 2]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-11 (4) -&gt; 3 (5) -&gt; 2 (1) -&gt; 4 (1) -&gt; 10 (3) -&gt; 6 (2) -&gt; 9 (3)
+9 (3) -&gt; 6 (2) -&gt; 10 (3) -&gt; 4 (1) -&gt; 2 (1) -&gt; 3 (5) -&gt; 11 (4)
 8 metre (capacity 22):
 Rigid (capacity 16):
 12 (5) -&gt; 1 (4) -&gt; 5 (3) -&gt; 7 (1) -&gt; 8 (2)
@@ -695,12 +745,12 @@
 Solve time: 5289</t>
   </si>
   <si>
-    <t>{0: [[(9, 3), (8, 5), (6, 7), (2, 6), (11, 8)], [(3, 1), (12, 1), (7, 4), (1, 4), (5, 8), (10, 5), (4, 5)]]}</t>
+    <t>{"0": [[[9, 3], [8, 5], [6, 7], [2, 6], [11, 8]], [[3, 1], [12, 1], [7, 4], [1, 4], [5, 8], [10, 5], [4, 5]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-11 (8) -&gt; 2 (6) -&gt; 6 (7) -&gt; 8 (5) -&gt; 9 (3)
-4 (5) -&gt; 10 (5) -&gt; 5 (8) -&gt; 1 (4) -&gt; 7 (4) -&gt; 12 (1) -&gt; 3 (1)
+9 (3) -&gt; 8 (5) -&gt; 6 (7) -&gt; 2 (6) -&gt; 11 (8)
+3 (1) -&gt; 12 (1) -&gt; 7 (4) -&gt; 1 (4) -&gt; 5 (8) -&gt; 10 (5) -&gt; 4 (5)
 </t>
   </si>
   <si>
@@ -739,13 +789,16 @@
 Solve time: 7905</t>
   </si>
   <si>
-    <t>{0: [[(4, 3), (5, 3)]], 1: [[(2, 5), (9, 1), (1, 4), (7, 2), (3, 1), (10, 5), (6, 1), (8, 3), (11, 2), (12, 4)]], 2: []}</t>
+    <t>{"0": [[[4, 3], [5, 3]]], "1": [[[2, 5], [9, 1], [1, 4], [7, 2], [3, 1], [10, 5], [6, 1], [8, 3], [11, 2], [12, 4]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 3], [6, 1], [10, 5], [3, 1], [7, 2], [1, 4], [9, 1], [2, 5]]], "1": [[[12, 4], [11, 2], [8, 3], [5, 3]]], "2": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
 4 (3) -&gt; 6 (1) -&gt; 10 (5) -&gt; 3 (1) -&gt; 7 (2) -&gt; 1 (4) -&gt; 9 (1) -&gt; 2 (5)
 11 metre (capacity 30):
-5 (3) -&gt; 8 (3) -&gt; 11 (2) -&gt; 12 (4)
+12 (4) -&gt; 11 (2) -&gt; 8 (3) -&gt; 5 (3)
 Rigid (capacity 16):
 </t>
   </si>
@@ -786,7 +839,10 @@
 Solve time: 2023</t>
   </si>
   <si>
-    <t>{0: [[(10, 5), (8, 6), (5, 7), (3, 3), (2, 1)]], 1: [[(4, 6), (6, 2), (2, 5), (12, 5), (7, 3), (9, 3), (11, 3), (1, 3)]]}</t>
+    <t>{"0": [[[10, 5], [8, 6], [5, 7], [3, 3], [2, 1]]], "1": [[[4, 6], [6, 2], [2, 5], [12, 5], [7, 3], [9, 3], [11, 3], [1, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[10, 5], [11, 3], [9, 3], [7, 3], [1, 3], [12, 5]]], "1": [[[8, 6], [5, 7], [3, 3], [2, 6], [6, 2], [4, 6]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
@@ -831,13 +887,16 @@
 Solve time: 3644</t>
   </si>
   <si>
-    <t>{0: [[(1, 1), (3, 4), (12, 2), (2, 1), (9, 3), (11, 5), (6, 5), (7, 6)]], 1: [[(10, 5), (8, 2), (5, 3), (4, 4)]], 2: []}</t>
+    <t>{"0": [[[1, 1], [3, 4], [12, 2], [2, 1], [9, 3], [11, 5], [6, 5], [7, 6]]], "1": [[[10, 5], [8, 2], [5, 3], [4, 4]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[7, 6], [6, 5], [11, 5], [9, 3], [2, 1], [12, 2], [3, 4], [1, 1]]], "1": [[[10, 5], [8, 2], [5, 3], [4, 4]]], "2": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
 7 (6) -&gt; 6 (5) -&gt; 11 (5) -&gt; 9 (3) -&gt; 2 (1) -&gt; 12 (2) -&gt; 3 (4) -&gt; 1 (1)
 Rigid (capacity 16):
-4 (4) -&gt; 5 (3) -&gt; 8 (2) -&gt; 10 (5)
+10 (5) -&gt; 8 (2) -&gt; 5 (3) -&gt; 4 (4)
 8 metre (capacity 22):
 </t>
   </si>
@@ -878,14 +937,17 @@
 Solve time: 11599</t>
   </si>
   <si>
-    <t>{0: [[(1, 7), (6, 7), (8, 5)], [(11, 5), (10, 7), (12, 7)]], 1: [[(3, 4), (2, 5), (9, 7), (4, 2), (7, 5), (5, 5)]]}</t>
+    <t>{"0": [[[1, 7], [6, 7], [8, 5]], [[11, 5], [10, 7], [12, 7]]], "1": [[[3, 4], [2, 5], [9, 7], [4, 2], [7, 5], [5, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 5], [6, 7], [1, 7]], [[12, 7], [10, 7], [11, 5]]], "1": [[[3, 4], [2, 5], [9, 7], [4, 2], [7, 5], [5, 5]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
+8 (5) -&gt; 6 (7) -&gt; 1 (7)
 12 (7) -&gt; 10 (7) -&gt; 11 (5)
-1 (7) -&gt; 6 (7) -&gt; 8 (5)
 11 metre (capacity 30):
-5 (5) -&gt; 7 (5) -&gt; 4 (2) -&gt; 9 (7) -&gt; 2 (5) -&gt; 3 (4)
+3 (4) -&gt; 2 (5) -&gt; 9 (7) -&gt; 4 (2) -&gt; 7 (5) -&gt; 5 (5)
 </t>
   </si>
   <si>
@@ -924,13 +986,16 @@
 Solve time: 66931</t>
   </si>
   <si>
-    <t>{0: [], 1: [[(10, 5), (2, 5), (3, 2), (7, 6)], [(1, 3), (12, 3), (6, 6), (5, 1), (4, 2), (9, 4), (8, 7), (11, 2)]]}</t>
+    <t>{"0": [], "1": [[[10, 5], [2, 5], [3, 2], [7, 6]], [[1, 3], [12, 3], [6, 6], [5, 1], [4, 2], [9, 4], [8, 7], [11, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[1, 3], [12, 3], [6, 6], [5, 1], [4, 2], [9, 4], [8, 7], [11, 2]], [[10, 5], [2, 5], [3, 2], [7, 6]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
 11 metre (capacity 30):
-7 (6) -&gt; 3 (2) -&gt; 2 (5) -&gt; 10 (5)
-11 (2) -&gt; 8 (7) -&gt; 9 (4) -&gt; 4 (2) -&gt; 5 (1) -&gt; 6 (6) -&gt; 12 (3) -&gt; 1 (3)
+1 (3) -&gt; 12 (3) -&gt; 6 (6) -&gt; 5 (1) -&gt; 4 (2) -&gt; 9 (4) -&gt; 8 (7) -&gt; 11 (2)
+10 (5) -&gt; 2 (5) -&gt; 3 (2) -&gt; 7 (6)
 </t>
   </si>
   <si>
@@ -969,7 +1034,10 @@
 Solve time: 73131</t>
   </si>
   <si>
-    <t>{0: [[(3, 1), (9, 2), (1, 2), (12, 1), (8, 1), (2, 1), (4, 3), (7, 2), (10, 2)]], 1: [[(6, 3), (5, 4), (11, 5)]]}</t>
+    <t>{"0": [[[3, 1], [9, 2], [1, 2], [12, 1], [8, 1], [2, 1], [4, 3], [7, 2], [10, 2]]], "1": [[[6, 3], [5, 4], [11, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 1], [9, 2], [1, 2], [12, 1], [8, 1], [2, 1], [4, 3], [7, 2], [10, 2]]], "1": [[[11, 5], [5, 4], [6, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
@@ -1021,13 +1089,16 @@
 Solve time: 202664</t>
   </si>
   <si>
-    <t>{0: [[(2, 4), (13, 5), (11, 4), (12, 1)], [(14, 5), (6, 5), (3, 2), (10, 4), (5, 3)], [(8, 1), (9, 2), (15, 3), (4, 5), (1, 2), (7, 3)]]}</t>
+    <t>{"0": [[[2, 4], [13, 5], [11, 4], [12, 1]], [[14, 5], [6, 5], [3, 2], [10, 4], [5, 3]], [[8, 1], [9, 2], [15, 3], [4, 5], [1, 2], [7, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[12, 1], [11, 4], [13, 5], [2, 4]], [[7, 3], [1, 2], [4, 5], [15, 3], [9, 2], [8, 1]], [[14, 5], [6, 5], [3, 2], [10, 4], [5, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-5 (3) -&gt; 10 (4) -&gt; 3 (2) -&gt; 6 (5) -&gt; 14 (5)
-2 (4) -&gt; 13 (5) -&gt; 11 (4) -&gt; 12 (1)
-8 (1) -&gt; 9 (2) -&gt; 15 (3) -&gt; 4 (5) -&gt; 1 (2) -&gt; 7 (3)
+12 (1) -&gt; 11 (4) -&gt; 13 (5) -&gt; 2 (4)
+7 (3) -&gt; 1 (2) -&gt; 4 (5) -&gt; 15 (3) -&gt; 9 (2) -&gt; 8 (1)
+14 (5) -&gt; 6 (5) -&gt; 3 (2) -&gt; 10 (4) -&gt; 5 (3)
 </t>
   </si>
   <si>
@@ -1073,14 +1144,17 @@
 Solve time: 35184</t>
   </si>
   <si>
-    <t>{0: [[(15, 1), (1, 4), (4, 4), (9, 2), (2, 1)], [(3, 1), (10, 4), (6, 1), (5, 3), (13, 4)]], 1: [[(11, 2), (14, 3), (7, 3), (12, 3), (8, 4)]]}</t>
+    <t>{"0": [[[15, 1], [1, 4], [4, 4], [9, 2], [2, 1]], [[3, 1], [10, 4], [6, 1], [5, 3], [13, 4]]], "1": [[[11, 2], [14, 3], [7, 3], [12, 3], [8, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 1], [1, 4], [4, 4], [9, 2], [2, 1]], [[13, 4], [5, 3], [6, 1], [10, 4], [3, 1]]], "1": [[[8, 4], [12, 3], [7, 3], [14, 3], [11, 2]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-2 (1) -&gt; 9 (2) -&gt; 4 (4) -&gt; 1 (4) -&gt; 15 (1)
+15 (1) -&gt; 1 (4) -&gt; 4 (4) -&gt; 9 (2) -&gt; 2 (1)
 13 (4) -&gt; 5 (3) -&gt; 6 (1) -&gt; 10 (4) -&gt; 3 (1)
 8 metre (capacity 22):
-11 (2) -&gt; 14 (3) -&gt; 7 (3) -&gt; 12 (3) -&gt; 8 (4)
+8 (4) -&gt; 12 (3) -&gt; 7 (3) -&gt; 14 (3) -&gt; 11 (2)
 </t>
   </si>
   <si>
@@ -1126,12 +1200,15 @@
 Solve time: 380729</t>
   </si>
   <si>
-    <t>{0: [[(6, 3)], [(15, 4), (4, 3), (12, 2), (8, 2), (3, 3), (13, 2)]], 1: [[(7, 2), (5, 2), (2, 4), (1, 3), (14, 1), (11, 1), (10, 4), (9, 4)]]}</t>
+    <t>{"0": [[[6, 3]], [[15, 4], [4, 3], [12, 2], [8, 2], [3, 3], [13, 2]]], "1": [[[7, 2], [5, 2], [2, 4], [1, 3], [14, 1], [11, 1], [10, 4], [9, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[13, 2], [3, 3], [8, 2], [12, 2], [4, 3], [15, 4]], [[6, 3]]], "1": [[[7, 2], [5, 2], [2, 4], [1, 3], [14, 1], [11, 1], [10, 4], [9, 4]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-3 (3) -&gt; 8 (2) -&gt; 12 (2) -&gt; 4 (3) -&gt; 15 (4)
-6 (3) -&gt; 13 (2)
+13 (2) -&gt; 3 (3) -&gt; 8 (2) -&gt; 12 (2) -&gt; 4 (3) -&gt; 15 (4)
+6 (3)
 8 metre (capacity 22):
 7 (2) -&gt; 5 (2) -&gt; 2 (4) -&gt; 1 (3) -&gt; 14 (1) -&gt; 11 (1) -&gt; 10 (4) -&gt; 9 (4)
 </t>
@@ -1178,11 +1255,14 @@
 Solve time: 520620</t>
   </si>
   <si>
-    <t>{0: [[(14, 3), (9, 5), (3, 1), (12, 1), (1, 5), (6, 4), (10, 4), (7, 5), (15, 1)]], 1: [[(5, 4), (2, 3), (4, 1), (11, 3), (8, 5), (13, 2)]]}</t>
+    <t>{"0": [[[14, 3], [9, 5], [3, 1], [12, 1], [1, 5], [6, 4], [10, 4], [7, 5], [15, 1]]], "1": [[[5, 4], [2, 3], [4, 1], [11, 3], [8, 5], [13, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 1], [7, 5], [10, 4], [6, 4], [1, 5], [12, 1], [3, 1], [9, 5], [14, 3]]], "1": [[[13, 2], [8, 5], [11, 3], [4, 1], [2, 3], [5, 4]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-14 (3) -&gt; 9 (5) -&gt; 3 (1) -&gt; 12 (1) -&gt; 1 (5) -&gt; 6 (4) -&gt; 10 (4) -&gt; 7 (5) -&gt; 15 (1)
+15 (1) -&gt; 7 (5) -&gt; 10 (4) -&gt; 6 (4) -&gt; 1 (5) -&gt; 12 (1) -&gt; 3 (1) -&gt; 9 (5) -&gt; 14 (3)
 8 metre (capacity 22):
 13 (2) -&gt; 8 (5) -&gt; 11 (3) -&gt; 4 (1) -&gt; 2 (3) -&gt; 5 (4)
 </t>
@@ -1230,13 +1310,16 @@
 Solve time: 79067</t>
   </si>
   <si>
-    <t>{0: [[(13, 2), (15, 2), (7, 3), (4, 3)], [(8, 3), (5, 2), (12, 3), (9, 4), (3, 3)], [(11, 3), (14, 2), (6, 3), (2, 2), (10, 2), (1, 4)]]}</t>
+    <t>{"0": [[[13, 2], [15, 2], [7, 3], [4, 3]], [[8, 3], [5, 2], [12, 3], [9, 4], [3, 3]], [[11, 3], [14, 2], [6, 3], [2, 2], [10, 2], [1, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 3], [7, 3], [15, 2], [13, 2]], [[8, 3], [5, 2], [12, 3], [9, 4], [3, 3]], [[1, 4], [10, 2], [2, 2], [6, 3], [14, 2], [11, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-10 (2) -&gt; 2 (2) -&gt; 6 (3) -&gt; 14 (2) -&gt; 11 (3)
+4 (3) -&gt; 7 (3) -&gt; 15 (2) -&gt; 13 (2)
 8 (3) -&gt; 5 (2) -&gt; 12 (3) -&gt; 9 (4) -&gt; 3 (3)
-13 (2) -&gt; 15 (2) -&gt; 7 (3) -&gt; 4 (3) -&gt; 1 (4)
+1 (4) -&gt; 10 (2) -&gt; 2 (2) -&gt; 6 (3) -&gt; 14 (2) -&gt; 11 (3)
 </t>
   </si>
   <si>
@@ -1282,11 +1365,14 @@
 Solve time: 15668</t>
   </si>
   <si>
-    <t>{0: [[(14, 1), (7, 2), (11, 5), (10, 3), (13, 3), (4, 4), (2, 1), (5, 1)]], 1: [[(12, 1), (3, 5), (6, 1), (9, 3), (15, 3), (1, 3)]], 2: [[(8, 4)]]}</t>
+    <t>{"0": [[[14, 1], [7, 2], [11, 5], [10, 3], [13, 3], [4, 4], [2, 1], [5, 1]]], "1": [[[12, 1], [3, 5], [6, 1], [9, 3], [15, 3], [1, 3]]], "2": [[[8, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 1], [2, 1], [4, 4], [13, 3], [10, 3], [11, 5], [7, 2], [14, 1]]], "1": [[[12, 1], [3, 5], [6, 1], [9, 3], [15, 3], [1, 3]]], "2": [[[8, 4]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-14 (1) -&gt; 7 (2) -&gt; 11 (5) -&gt; 10 (3) -&gt; 13 (3) -&gt; 4 (4) -&gt; 2 (1) -&gt; 5 (1)
+5 (1) -&gt; 2 (1) -&gt; 4 (4) -&gt; 13 (3) -&gt; 10 (3) -&gt; 11 (5) -&gt; 7 (2) -&gt; 14 (1)
 Rigid (capacity 16):
 12 (1) -&gt; 3 (5) -&gt; 6 (1) -&gt; 9 (3) -&gt; 15 (3) -&gt; 1 (3)
 11 metre (capacity 30):
@@ -1337,12 +1423,15 @@
 Solve time: 72924</t>
   </si>
   <si>
-    <t>{0: [[(2, 2), (1, 2), (8, 4), (15, 1), (14, 4), (10, 3)], [(3, 2), (13, 4), (12, 4), (5, 4), (11, 2)], [(4, 3), (9, 3), (7, 4), (6, 4), (2, 2)]]}</t>
+    <t>{"0": [[[2, 2], [1, 2], [8, 4], [15, 1], [14, 4], [10, 3]], [[3, 2], [13, 4], [12, 4], [5, 4], [11, 2]], [[4, 3], [9, 3], [7, 4], [6, 4], [2, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[11, 2], [5, 4], [12, 4], [13, 4], [3, 2]], [[10, 3], [14, 4], [15, 1], [6, 4], [2, 4]], [[4, 3], [7, 4], [9, 3], [1, 2], [8, 4]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
+11 (2) -&gt; 5 (4) -&gt; 12 (4) -&gt; 13 (4) -&gt; 3 (2)
 10 (3) -&gt; 14 (4) -&gt; 15 (1) -&gt; 6 (4) -&gt; 2 (4)
-11 (2) -&gt; 5 (4) -&gt; 12 (4) -&gt; 13 (4) -&gt; 3 (2)
 4 (3) -&gt; 7 (4) -&gt; 9 (3) -&gt; 1 (2) -&gt; 8 (4)
 </t>
   </si>
@@ -1388,13 +1477,16 @@
 Solve time: 7998</t>
   </si>
   <si>
-    <t>{0: [], 1: [[(10, 1), (12, 3), (13, 2), (15, 1), (8, 3), (4, 2), (5, 1), (7, 3), (11, 3), (1, 1), (2, 1)], [(9, 1), (14, 4), (6, 2), (3, 2)]]}</t>
+    <t>{"0": [], "1": [[[10, 1], [12, 3], [13, 2], [15, 1], [8, 3], [4, 2], [5, 1], [7, 3], [11, 3], [1, 1], [2, 1]], [[9, 1], [14, 4], [6, 2], [3, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[9, 1], [14, 4], [6, 2], [3, 2], [12, 3], [15, 1], [13, 2], [10, 1]], [[8, 3], [4, 2], [5, 1], [7, 3], [11, 3], [1, 1], [2, 1]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
 8 metre (capacity 22):
+9 (1) -&gt; 14 (4) -&gt; 6 (2) -&gt; 3 (2) -&gt; 12 (3) -&gt; 15 (1) -&gt; 13 (2) -&gt; 10 (1)
 8 (3) -&gt; 4 (2) -&gt; 5 (1) -&gt; 7 (3) -&gt; 11 (3) -&gt; 1 (1) -&gt; 2 (1)
-9 (1) -&gt; 14 (4) -&gt; 6 (2) -&gt; 3 (2) -&gt; 12 (3) -&gt; 15 (1) -&gt; 13 (2) -&gt; 10 (1)
 </t>
   </si>
   <si>
@@ -1439,11 +1531,11 @@
 Solve time: 18387</t>
   </si>
   <si>
-    <t>{0: [[(11, 2), (8, 4), (4, 2), (12, 2), (3, 2), (15, 3), (9, 6), (2, 1)]], 1: [[(14, 1), (5, 5), (10, 4), (7, 6), (13, 3), (6, 6), (1, 3)]]}</t>
+    <t>{"0": [[[11, 2], [8, 4], [4, 2], [12, 2], [3, 2], [15, 3], [9, 6], [2, 1]]], "1": [[[14, 1], [5, 5], [10, 4], [7, 6], [13, 3], [6, 6], [1, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-2 (1) -&gt; 9 (6) -&gt; 15 (3) -&gt; 3 (2) -&gt; 12 (2) -&gt; 4 (2) -&gt; 8 (4) -&gt; 11 (2)
+11 (2) -&gt; 8 (4) -&gt; 4 (2) -&gt; 12 (2) -&gt; 3 (2) -&gt; 15 (3) -&gt; 9 (6) -&gt; 2 (1)
 11 metre (capacity 30):
 14 (1) -&gt; 5 (5) -&gt; 10 (4) -&gt; 7 (6) -&gt; 13 (3) -&gt; 6 (6) -&gt; 1 (3)
 </t>
@@ -1490,13 +1582,16 @@
 Solve time: 81641</t>
   </si>
   <si>
-    <t>{0: [[(6, 1), (15, 1), (1, 1), (12, 1), (10, 2), (5, 3), (11, 1), (7, 4), (14, 2), (9, 1)]], 1: [[(4, 4), (13, 3), (3, 3), (2, 4), (8, 1)]]}</t>
+    <t>{"0": [[[6, 1], [15, 1], [1, 1], [12, 1], [10, 2], [5, 3], [11, 1], [7, 4], [14, 2], [9, 1]]], "1": [[[4, 4], [13, 3], [3, 3], [2, 4], [8, 1]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[9, 1], [14, 2], [7, 4], [11, 1], [5, 3], [10, 2], [12, 1], [1, 1], [15, 1], [6, 1]]], "1": [[[8, 1], [2, 4], [3, 3], [13, 3], [4, 4]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-6 (1) -&gt; 15 (1) -&gt; 1 (1) -&gt; 12 (1) -&gt; 10 (2) -&gt; 5 (3) -&gt; 11 (1) -&gt; 7 (4) -&gt; 14 (2) -&gt; 9 (1)
+9 (1) -&gt; 14 (2) -&gt; 7 (4) -&gt; 11 (1) -&gt; 5 (3) -&gt; 10 (2) -&gt; 12 (1) -&gt; 1 (1) -&gt; 15 (1) -&gt; 6 (1)
 Rigid (capacity 16):
-4 (4) -&gt; 13 (3) -&gt; 3 (3) -&gt; 2 (4) -&gt; 8 (1)
+8 (1) -&gt; 2 (4) -&gt; 3 (3) -&gt; 13 (3) -&gt; 4 (4)
 </t>
   </si>
   <si>
@@ -1533,14 +1628,16 @@
 Solve time: 13318</t>
   </si>
   <si>
-    <t>{0: [[(7, 3), (5, 12), (1, 7)], [(7, 4), (3, 5), (9, 3), (8, 4), (6, 5)], [(2, 9), (4, 8)]], 1: []}</t>
+    <t>{"0": [[[7, 3], [5, 12], [1, 7]], [[7, 4], [3, 5], [9, 3], [8, 4], [6, 5]], [[2, 9], [4, 8]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 8], [2, 9]], [[1, 7], [3, 5], [8, 4], [6, 5]], [[7, 7], [9, 3], [5, 12]]], "1": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-6 (5)
-7 (7) -&gt; 3 (5) -&gt; 9 (3) -&gt; 8 (4)
-1 (7) -&gt; 5 (12)
 4 (8) -&gt; 2 (9)
+1 (7) -&gt; 3 (5) -&gt; 8 (4) -&gt; 6 (5)
+7 (7) -&gt; 9 (3) -&gt; 5 (12)
 11 metre (capacity 30):
 </t>
   </si>
@@ -1576,15 +1673,17 @@
 Solve time: 1909</t>
   </si>
   <si>
-    <t>{0: [], 1: [[(7, 7), (9, 11), (1, 4), (2, 5), (6, 2)], [(5, 8), (4, 9), (8, 8), (3, 5)]], 2: []}</t>
+    <t>{"0": [], "1": [[[7, 7], [9, 11], [1, 4], [2, 5], [6, 2]], [[5, 8], [4, 9], [8, 8], [3, 5]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[3, 5], [8, 8], [4, 9], [5, 8]], [[7, 7], [9, 11], [1, 4], [2, 5], [6, 2]]], "2": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-4 (9) -&gt; 8 (8) -&gt; 3 (5)
 11 metre (capacity 30):
+3 (5) -&gt; 8 (8) -&gt; 4 (9) -&gt; 5 (8)
 7 (7) -&gt; 9 (11) -&gt; 1 (4) -&gt; 2 (5) -&gt; 6 (2)
 Rigid (capacity 16):
-5 (8)
 </t>
   </si>
   <si>
@@ -1622,16 +1721,19 @@
 Solve time: 26248</t>
   </si>
   <si>
-    <t>{0: [[(7, 15)]], 1: [], 2: [[(9, 9), (1, 7), (8, 5), (5, 9)], [(3, 15), (6, 14)], [(9, 5), (4, 14), (2, 5)]]}</t>
+    <t>{"0": [[[7, 15]]], "1": [], "2": [[[9, 9], [1, 7], [8, 5], [5, 9]], [[3, 15], [6, 14]], [[9, 5], [4, 14], [2, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[9, 14]]], "1": [[]], "2": [[[5, 9], [8, 5], [3, 15]], [[1, 7], [4, 14], [2, 5]], [[7, 15], [6, 14]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
 9 (14)
 8 metre (capacity 22):
 11 metre (capacity 30):
-6 (14) -&gt; 7 (15)
-2 (5) -&gt; 4 (14) -&gt; 1 (7)
 5 (9) -&gt; 8 (5) -&gt; 3 (15)
+1 (7) -&gt; 4 (14) -&gt; 2 (5)
+7 (15) -&gt; 6 (14)
 </t>
   </si>
   <si>
@@ -1667,12 +1769,15 @@
 Solve time: 2249</t>
   </si>
   <si>
-    <t>{0: [], 1: [[(3, 8), (1, 2), (8, 6)]], 2: [[(8, 2), (7, 3), (2, 2), (6, 5), (5, 4), (9, 6), (4, 3)]]}</t>
+    <t>{"0": [], "1": [[[3, 8], [1, 2], [8, 6]]], "2": [[[8, 2], [7, 3], [2, 2], [6, 5], [5, 4], [9, 6], [4, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[3, 8], [8, 8]]], "2": [[[9, 6], [5, 4], [6, 5], [4, 3], [7, 3], [2, 2], [1, 2]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
 Rigid (capacity 16):
-8 (8) -&gt; 3 (8)
+3 (8) -&gt; 8 (8)
 11 metre (capacity 30):
 9 (6) -&gt; 5 (4) -&gt; 6 (5) -&gt; 4 (3) -&gt; 7 (3) -&gt; 2 (2) -&gt; 1 (2)
 </t>
@@ -1710,15 +1815,18 @@
 Solve time: 22463</t>
   </si>
   <si>
-    <t>{0: [], 1: [[(3, 4), (1, 8), (7, 1), (2, 3), (8, 10), (4, 4)], [(6, 10), (5, 12), (9, 3), (4, 4)]], 2: []}</t>
+    <t>{"0": [], "1": [[[3, 4], [1, 8], [7, 1], [2, 3], [8, 10], [4, 4]], [[6, 10], [5, 12], [9, 3], [4, 4]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 4], [1, 8], [7, 1], [2, 3]]], "1": [[[8, 10], [9, 3], [4, 8]], [[6, 10], [5, 12]]], "2": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
+3 (4) -&gt; 1 (8) -&gt; 7 (1) -&gt; 2 (3)
 11 metre (capacity 30):
-2 (3) -&gt; 7 (1) -&gt; 1 (8) -&gt; 3 (4)
-9 (3) -&gt; 5 (12) -&gt; 6 (10)
+8 (10) -&gt; 9 (3) -&gt; 4 (8)
+6 (10) -&gt; 5 (12)
 8 metre (capacity 22):
-8 (10) -&gt; 4 (8)
 </t>
   </si>
   <si>
@@ -1755,15 +1863,18 @@
 Solve time: 10698</t>
   </si>
   <si>
-    <t>{0: [[(3, 10), (8, 16)], [(5, 12), (1, 12)], [(4, 8), (9, 3), (7, 16)]], 1: [[(6, 11), (2, 9)]]}</t>
+    <t>{"0": [[[3, 10], [8, 16]], [[5, 12], [1, 12]], [[4, 8], [9, 3], [7, 16]]], "1": [[[6, 11], [2, 9]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 16], [3, 10]], [[2, 9], [6, 11]], [[4, 8], [9, 3], [7, 16]], [[1, 12], [5, 12]]], "1": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
 8 (16) -&gt; 3 (10)
-5 (12) -&gt; 1 (12)
+2 (9) -&gt; 6 (11)
 4 (8) -&gt; 9 (3) -&gt; 7 (16)
+1 (12) -&gt; 5 (12)
 8 metre (capacity 22):
-6 (11) -&gt; 2 (9)
 </t>
   </si>
   <si>
@@ -1798,13 +1909,16 @@
 Solve time: 6631</t>
   </si>
   <si>
-    <t>{0: [], 1: [[(5, 1), (2, 1), (3, 12), (6, 4)], [(1, 11), (8, 4), (9, 7), (7, 2), (4, 4)]], 2: []}</t>
+    <t>{"0": [], "1": [[[5, 1], [2, 1], [3, 12], [6, 4]], [[1, 11], [8, 4], [9, 7], [7, 2], [4, 4]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[5, 1], [2, 1], [3, 12], [6, 4]], [[1, 11], [8, 4], [9, 7], [7, 2], [4, 4]]], "2": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
 11 metre (capacity 30):
 5 (1) -&gt; 2 (1) -&gt; 3 (12) -&gt; 6 (4)
-4 (4) -&gt; 7 (2) -&gt; 9 (7) -&gt; 8 (4) -&gt; 1 (11)
+1 (11) -&gt; 8 (4) -&gt; 9 (7) -&gt; 7 (2) -&gt; 4 (4)
 8 metre (capacity 22):
 </t>
   </si>
@@ -1841,14 +1955,17 @@
 Solve time: 23010</t>
   </si>
   <si>
-    <t>{0: [[(3, 3), (9, 8), (6, 5)], [(4, 1), (1, 2), (5, 1)]], 1: [[(2, 4), (8, 10), (7, 4)]]}</t>
+    <t>{"0": [[[3, 3], [9, 8], [6, 5]], [[4, 1], [1, 2], [5, 1]]], "1": [[[2, 4], [8, 10], [7, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 1], [1, 2], [4, 1]], [[6, 5], [9, 8], [3, 3]]], "1": [[[2, 4], [8, 10], [7, 4]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-4 (1) -&gt; 5 (1) -&gt; 1 (2) -&gt; 2 (4) -&gt; 7 (4)
-8 (10) -&gt; 3 (3)
-6 (5) -&gt; 9 (8)
+5 (1) -&gt; 1 (2) -&gt; 4 (1)
+6 (5) -&gt; 9 (8) -&gt; 3 (3)
 11 metre (capacity 30):
+2 (4) -&gt; 8 (10) -&gt; 7 (4)
 </t>
   </si>
   <si>
@@ -1885,14 +2002,17 @@
 Solve time: 12555</t>
   </si>
   <si>
-    <t>{0: [[(2, 7), (5, 10), (6, 5)], [(1, 11), (8, 7)]], 1: [], 2: [[(3, 5), (4, 12), (7, 7), (9, 5), (2, 1)]]}</t>
+    <t>{"0": [[[2, 7], [5, 10], [6, 5]], [[1, 11], [8, 7]]], "1": [], "2": [[[3, 5], [4, 12], [7, 7], [9, 5], [2, 1]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[2, 8], [5, 10]]], "1": [[[8, 7]], [[6, 5], [1, 11]]], "2": [[[9, 5], [7, 7], [4, 12], [3, 5]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-1 (11) -&gt; 6 (5)
-5 (10) -&gt; 2 (8)
+2 (8) -&gt; 5 (10)
 Rigid (capacity 16):
 8 (7)
+6 (5) -&gt; 1 (11)
 11 metre (capacity 30):
 9 (5) -&gt; 7 (7) -&gt; 4 (12) -&gt; 3 (5)
 </t>
@@ -1930,14 +2050,17 @@
 Solve time: 6468</t>
   </si>
   <si>
-    <t>{0: [[(6, 13), (5, 4), (8, 4)], [(9, 5), (4, 4), (3, 12)]], 1: [[(1, 3), (2, 14), (7, 11)]]}</t>
+    <t>{"0": [[[6, 13], [5, 4], [8, 4]], [[9, 5], [4, 4], [3, 12]]], "1": [[[1, 3], [2, 14], [7, 11]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 12]]], "1": [[[7, 11], [6, 13], [5, 4]], [[8, 4], [9, 5], [4, 4], [1, 3], [2, 14]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-9 (5) -&gt; 4 (4) -&gt; 3 (12)
+3 (12)
 11 metre (capacity 30):
-1 (3) -&gt; 2 (14) -&gt; 7 (11)
-8 (4) -&gt; 5 (4) -&gt; 6 (13)
+7 (11) -&gt; 6 (13) -&gt; 5 (4)
+8 (4) -&gt; 9 (5) -&gt; 4 (4) -&gt; 1 (3) -&gt; 2 (14)
 </t>
   </si>
   <si>
@@ -1979,13 +2102,16 @@
 Solve time: 74222</t>
   </si>
   <si>
-    <t>{0: [[(3, 5), (10, 2), (2, 8), (6, 11), (8, 4)]], 1: [[(9, 7), (4, 1), (5, 2), (1, 11)], [(7, 1), (11, 3), (12, 12)]]}</t>
+    <t>{"0": [[[3, 5], [10, 2], [2, 8], [6, 11], [8, 4]]], "1": [[[9, 7], [4, 1], [5, 2], [1, 11]], [[7, 1], [11, 3], [12, 12]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 5], [10, 2], [2, 8], [6, 11], [8, 4]]], "1": [[[12, 12], [11, 3], [7, 1]], [[9, 7], [4, 1], [5, 2], [1, 11]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-8 (4) -&gt; 6 (11) -&gt; 2 (8) -&gt; 10 (2)
+3 (5) -&gt; 10 (2) -&gt; 2 (8) -&gt; 6 (11) -&gt; 8 (4)
 8 metre (capacity 22):
-3 (5) -&gt; 7 (1) -&gt; 11 (3) -&gt; 12 (12)
+12 (12) -&gt; 11 (3) -&gt; 7 (1)
 9 (7) -&gt; 4 (1) -&gt; 5 (2) -&gt; 1 (11)
 </t>
   </si>
@@ -2029,16 +2155,18 @@
 Solve time: 30046</t>
   </si>
   <si>
-    <t>{0: [[(3, 4), (1, 7), (7, 4), (5, 7)]], 1: [[(8, 1), (11, 1), (6, 5), (5, 1), (9, 8)]], 2: [[(2, 6), (10, 10), (4, 4), (12, 9)]]}</t>
+    <t>{"0": [[[3, 4], [1, 7], [7, 4], [5, 7]]], "1": [[[8, 1], [11, 1], [6, 5], [5, 1], [9, 8]]], "2": [[[2, 6], [10, 10], [4, 4], [12, 9]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 4], [10, 10], [9, 8]]], "1": [[[8, 1], [6, 5], [11, 1], [12, 9]]], "2": [[[5, 8], [7, 4], [1, 7], [3, 4], [2, 6]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">8 metre (capacity 22):
-5 (8)
-7 (4) -&gt; 1 (7) -&gt; 3 (4)
+4 (4) -&gt; 10 (10) -&gt; 9 (8)
 Rigid (capacity 16):
-11 (1) -&gt; 6 (5) -&gt; 8 (1) -&gt; 9 (8)
+8 (1) -&gt; 6 (5) -&gt; 11 (1) -&gt; 12 (9)
 11 metre (capacity 30):
-2 (6) -&gt; 10 (10) -&gt; 4 (4) -&gt; 12 (9)
+5 (8) -&gt; 7 (4) -&gt; 1 (7) -&gt; 3 (4) -&gt; 2 (6)
 </t>
   </si>
   <si>
@@ -2080,13 +2208,16 @@
 Solve time: 176437</t>
   </si>
   <si>
-    <t>{0: [[(2, 1), (6, 8), (11, 6), (4, 1)], [(9, 1), (10, 1), (8, 3), (1, 10), (3, 8)], [(7, 2), (12, 11), (5, 5)]], 1: []}</t>
+    <t>{"0": [[[2, 1], [6, 8], [11, 6], [4, 1]], [[9, 1], [10, 1], [8, 3], [1, 10], [3, 8]], [[7, 2], [12, 11], [5, 5]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[9, 1], [10, 1], [8, 3], [1, 10], [3, 8]], [[5, 5], [12, 11], [7, 2]], [[4, 1], [11, 6], [6, 8], [2, 1]]], "1": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-2 (1) -&gt; 6 (8) -&gt; 11 (6) -&gt; 4 (1)
-3 (8) -&gt; 1 (10) -&gt; 8 (3) -&gt; 10 (1) -&gt; 9 (1)
-7 (2) -&gt; 12 (11) -&gt; 5 (5)
+9 (1) -&gt; 10 (1) -&gt; 8 (3) -&gt; 1 (10) -&gt; 3 (8)
+5 (5) -&gt; 12 (11) -&gt; 7 (2)
+4 (1) -&gt; 11 (6) -&gt; 6 (8) -&gt; 2 (1)
 8 metre (capacity 22):
 </t>
   </si>
@@ -3027,9 +3158,6 @@
   </si>
   <si>
     <t>Meta Routes (JSON)</t>
-  </si>
-  <si>
-    <t>Meta Routes (Pretty)</t>
   </si>
   <si>
     <t>Meta Cost</t>
@@ -5897,9 +6025,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -5985,7 +6112,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6004,7 +6131,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6023,17 +6149,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6041,13 +6157,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6062,12 +6171,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF6D6D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6110,28 +6216,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6147,28 +6236,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6287,7 +6359,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.8458999999999999</c:v>
+                  <c:v>2.3706</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.308600000000002</c:v>
@@ -6301,7 +6373,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1170-47A5-8824-A2882F781394}"/>
+              <c16:uniqueId val="{00000000-B00E-42F4-88AA-2E22392AD389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6374,7 +6446,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1170-47A5-8824-A2882F781394}"/>
+              <c16:uniqueId val="{00000001-B00E-42F4-88AA-2E22392AD389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6698,13 +6770,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>248.36392408</c:v>
+                  <c:v>244.11668365999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>371.67568069000015</c:v>
+                  <c:v>320.1432474799999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.15208909000012</c:v>
+                  <c:v>523.94620023999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6712,7 +6784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9442-46ED-8001-E7363086CCFC}"/>
+              <c16:uniqueId val="{00000000-69E5-41C8-B671-CA2003A1D744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6771,10 +6843,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>259.55357558000014</c:v>
+                  <c:v>251.18610651000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>382.48607162999986</c:v>
+                  <c:v>378.52028716999962</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>672.91583872000024</c:v>
@@ -6785,7 +6857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9442-46ED-8001-E7363086CCFC}"/>
+              <c16:uniqueId val="{00000001-69E5-41C8-B671-CA2003A1D744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7110,13 +7182,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.1565267162095591E-2</c:v>
+                  <c:v>-1.3609E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0609432825098861E-2</c:v>
+                  <c:v>-1.0253E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.4270804818048321E-3</c:v>
+                  <c:v>-1.3480000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7124,7 +7196,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2502-4171-A048-A5D83CD769AE}"/>
+              <c16:uniqueId val="{00000000-4864-4B7D-AA7D-BB9BBF0B3897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7183,13 +7255,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.1224600915271978E-2</c:v>
+                  <c:v>-1.4175000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3221794914906545E-2</c:v>
+                  <c:v>1.0787000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0193807614102264E-3</c:v>
+                  <c:v>2.020000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7197,7 +7269,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2502-4171-A048-A5D83CD769AE}"/>
+              <c16:uniqueId val="{00000001-4864-4B7D-AA7D-BB9BBF0B3897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7508,20 +7580,20 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D43D-45E4-8354-632FD88DDA88}"/>
+              <c16:uniqueId val="{00000000-B9F7-449F-8EB8-93492E6D2722}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7567,20 +7639,20 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D43D-45E4-8354-632FD88DDA88}"/>
+              <c16:uniqueId val="{00000001-B9F7-449F-8EB8-93492E6D2722}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7903,13 +7975,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.1565267162095591E-2</c:v>
+                  <c:v>-1.3609E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0609432825098861E-2</c:v>
+                  <c:v>-1.0253E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2970039990548179E-2</c:v>
+                  <c:v>7.3555555555555553E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7917,7 +7989,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0628-47F5-A96F-9C0F03045C4B}"/>
+              <c16:uniqueId val="{00000000-95C8-43BA-8E3D-4DEEA543AAA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7976,13 +8048,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.0018667944594E-4</c:v>
+                  <c:v>2.0222222222222286E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0115332096771752E-2</c:v>
+                  <c:v>2.7410000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8035767822088947E-2</c:v>
+                  <c:v>1.8036666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7990,7 +8062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0628-47F5-A96F-9C0F03045C4B}"/>
+              <c16:uniqueId val="{00000001-95C8-43BA-8E3D-4DEEA543AAA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8313,13 +8385,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>248.36392408</c:v>
+                  <c:v>244.11668365999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>371.67568069000015</c:v>
+                  <c:v>320.1432474799999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.15208909000012</c:v>
+                  <c:v>523.94620023999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8327,7 +8399,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3D6-43E6-85C4-3AADB613EBF5}"/>
+              <c16:uniqueId val="{00000000-6B61-49AA-ACD4-30CBB7A4B214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8386,10 +8458,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>259.55357558000014</c:v>
+                  <c:v>251.18610651000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>382.48607162999986</c:v>
+                  <c:v>378.52028716999962</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>672.91583872000024</c:v>
@@ -8400,7 +8472,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C3D6-43E6-85C4-3AADB613EBF5}"/>
+              <c16:uniqueId val="{00000001-6B61-49AA-ACD4-30CBB7A4B214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8440,7 +8512,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.8458999999999999</c:v>
+                  <c:v>2.3706</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.308600000000002</c:v>
@@ -8454,7 +8526,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C3D6-43E6-85C4-3AADB613EBF5}"/>
+              <c16:uniqueId val="{00000002-6B61-49AA-ACD4-30CBB7A4B214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8508,7 +8580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C3D6-43E6-85C4-3AADB613EBF5}"/>
+              <c16:uniqueId val="{00000003-6B61-49AA-ACD4-30CBB7A4B214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9350,43 +9422,43 @@
       </c>
       <c r="C2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C2)-2)*10,0,10,1))</f>
-        <v>1.8458999999999999</v>
+        <v>2.3706</v>
       </c>
       <c r="D2">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D2)-2)*10,0,10,1))</f>
-        <v>0.63</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E2">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E2)-2)*10,0,10,1))</f>
-        <v>3.8159999999999998</v>
+        <v>5.8769999999999998</v>
       </c>
       <c r="F2">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F2)-2)*10,0,10,1))</f>
-        <v>1.1940430338420249</v>
+        <v>1.6616558809412572</v>
       </c>
       <c r="G2" s="12">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G2)-2)*10,0,10,1))</f>
-        <v>0.17637771873862246</v>
+        <v>0.15591959464128466</v>
       </c>
       <c r="H2" s="6">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H2)-2)*10,0,10,1))</f>
-        <v>248.36392408</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H2)-2)*10,0,10,1))</f>
+        <v>244.11668365999998</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I2)-2)*10,0,10,1))</f>
-        <v>-1.1565267162095591E-2</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I2)-2)*10,0,10,1))</f>
+        <v>-1.3609E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J2)-2)*10,0,10,1), "&gt;-0.1")</f>
-        <v>-1.1565267162095591E-2</v>
-      </c>
-      <c r="K2" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K2)-2)*10,0,10,1), "=0")</f>
-        <v>6</v>
-      </c>
-      <c r="L2" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L2)-2)*10,0,10,1), "&lt;-0.1")</f>
-        <v>0</v>
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J2)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>-1.3609E-2</v>
+      </c>
+      <c r="K2" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!K$1:K2)-2)*10,0,10,1), "=0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!L$1:L2)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9416,27 +9488,27 @@
       </c>
       <c r="G3" s="12">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G3)-2)*10,0,10,1))</f>
-        <v>0.16248690409301897</v>
+        <v>0.16199754257440249</v>
       </c>
       <c r="H3" s="6">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H3)-2)*10,0,10,1))</f>
-        <v>371.67568069000015</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H3)-2)*10,0,10,1))</f>
+        <v>320.1432474799999</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I3)-2)*10,0,10,1))</f>
-        <v>-1.0609432825098861E-2</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I3)-2)*10,0,10,1))</f>
+        <v>-1.0253E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J3)-2)*10,0,10,1), "&gt;-0.1")</f>
-        <v>-1.0609432825098861E-2</v>
-      </c>
-      <c r="K3" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K3)-2)*10,0,10,1), "=0")</f>
-        <v>7</v>
-      </c>
-      <c r="L3" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L3)-2)*10,0,10,1), "&lt;-0.1")</f>
-        <v>0</v>
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J3)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>-1.0253E-2</v>
+      </c>
+      <c r="K3" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!K$1:K3)-2)*10,0,10,1), "=0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!L$1:L3)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9469,24 +9541,24 @@
         <v>0.17366445596673258</v>
       </c>
       <c r="H4" s="6">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H4)-2)*10,0,10,1))</f>
-        <v>604.15208909000012</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H4)-2)*10,0,10,1))</f>
+        <v>523.94620023999983</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I4)-2)*10,0,10,1))</f>
-        <v>-8.4270804818048321E-3</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I4)-2)*10,0,10,1))</f>
+        <v>-1.3480000000000002E-2</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J4)-2)*10,0,10,1), "&gt;-0.1")</f>
-        <v>1.2970039990548179E-2</v>
-      </c>
-      <c r="K4" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K4)-2)*10,0,10,1), "=0")</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L4)-2)*10,0,10,1), "&lt;-0.1")</f>
-        <v>1</v>
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J4)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>7.3555555555555553E-3</v>
+      </c>
+      <c r="K4" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!K$1:K4)-2)*10,0,10,1), "=0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!L$1:L4)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -9516,27 +9588,27 @@
       </c>
       <c r="G5" s="12">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G5)-2)*10,0,10,1))</f>
-        <v>0.21914737273960702</v>
+        <v>0.21330079230923754</v>
       </c>
       <c r="H5" s="6">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H5)-2)*10,0,10,1))</f>
-        <v>259.55357558000014</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H5)-2)*10,0,10,1))</f>
+        <v>251.18610651000017</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I5)-2)*10,0,10,1))</f>
-        <v>-1.1224600915271978E-2</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I5)-2)*10,0,10,1))</f>
+        <v>-1.4175000000000002E-2</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J5)-2)*10,0,10,1), "&gt;-0.1")</f>
-        <v>6.0018667944594E-4</v>
-      </c>
-      <c r="K5" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K5)-2)*10,0,10,1), "=0")</f>
-        <v>2</v>
-      </c>
-      <c r="L5" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L5)-2)*10,0,10,1), "&lt;-0.1")</f>
-        <v>1</v>
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J5)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>2.0222222222222286E-4</v>
+      </c>
+      <c r="K5" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!K$1:K5)-2)*10,0,10,1), "=0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!L$1:L5)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9569,24 +9641,24 @@
         <v>0.20882359711609358</v>
       </c>
       <c r="H6" s="6">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H6)-2)*10,0,10,1))</f>
-        <v>382.48607162999986</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H6)-2)*10,0,10,1))</f>
+        <v>378.52028716999962</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I6)-2)*10,0,10,1))</f>
-        <v>1.3221794914906545E-2</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I6)-2)*10,0,10,1))</f>
+        <v>1.0787000000000001E-2</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J6)-2)*10,0,10,1), "&gt;-0.1")</f>
-        <v>3.0115332096771752E-2</v>
-      </c>
-      <c r="K6" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K6)-2)*10,0,10,1), "=0")</f>
-        <v>3</v>
-      </c>
-      <c r="L6" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L6)-2)*10,0,10,1), "&lt;-0.1")</f>
-        <v>1</v>
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J6)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>2.7410000000000004E-2</v>
+      </c>
+      <c r="K6" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!K$1:K6)-2)*10,0,10,1), "=0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!L$1:L6)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -9619,36 +9691,36 @@
         <v>0.21241133036777432</v>
       </c>
       <c r="H7" s="6">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$O$2, (ROWS(Graphs!H$1:H7)-2)*10,0,10,1))</f>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H7)-2)*10,0,10,1))</f>
         <v>672.91583872000024</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">AVERAGE(OFFSET('Run Data'!$R$2, (ROWS(Graphs!I$1:I7)-2)*10,0,10,1))</f>
-        <v>2.0193807614102264E-3</v>
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I7)-2)*10,0,10,1))</f>
+        <v>2.020000000000001E-3</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$R$2, (ROWS(Graphs!J$1:J7)-2)*10,0,10,1), "&gt;-0.1")</f>
-        <v>1.8035767822088947E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!K$1:K7)-2)*10,0,10,1), "=0")</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!L$1:L7)-2)*10,0,10,1), "&lt;-0.1")</f>
-        <v>1</v>
+        <f ca="1">AVERAGEIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J7)-2)*10,0,10,1), "&gt;-0.1")</f>
+        <v>1.8036666666666666E-2</v>
+      </c>
+      <c r="K7" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!K$1:K7)-2)*10,0,10,1), "=0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="4" t="e">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!#REF!, (ROWS(Graphs!L$1:L7)-2)*10,0,10,1), "&lt;-0.1")</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J7">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notBetween">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9660,13 +9732,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V208"/>
+  <dimension ref="A1:W208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9678,22 +9750,23 @@
     <col min="5" max="5" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="150.7109375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="150.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="11" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.85546875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -9734,10 +9807,10 @@
         <v>23</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>25</v>
@@ -9748,8 +9821,20 @@
       <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -9773,12 +9858,12 @@
       <c r="G2">
         <v>573.06827871500002</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="18"/>
+      <c r="H2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="17"/>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <v>681.39447359082874</v>
@@ -9790,29 +9875,38 @@
         <f t="shared" ref="M2:M33" si="2">(K2-G2)/G2</f>
         <v>0.18902842627885502</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>233.57339089999999</v>
+      <c r="N2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
       </c>
       <c r="P2">
+        <v>195.51269640000001</v>
+      </c>
+      <c r="Q2">
         <v>681.39447359082874</v>
       </c>
-      <c r="Q2" s="12">
-        <f t="shared" ref="Q2:Q27" si="3">(P2-G2)/G2</f>
+      <c r="R2" s="12">
+        <f t="shared" ref="R2:R27" si="3">(Q2-G2)/G2</f>
         <v>0.18902842627885502</v>
       </c>
-      <c r="R2" s="13">
-        <f t="shared" ref="R2:R27" si="4">(P2-K2)/K2</f>
+      <c r="S2" s="13">
+        <f t="shared" ref="S2:S33" si="4">ROUND((Q2-K2)/K2,5)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="13">
-        <f t="shared" ref="S2:S27" si="5">ROUND(R2,5)</f>
+      <c r="U2">
+        <v>644.15768780313738</v>
+      </c>
+      <c r="V2">
+        <v>644.15768780313738</v>
+      </c>
+      <c r="W2" s="13">
+        <f t="shared" ref="W2:W33" si="5">ROUND((V2-U2)/U2,5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -9836,12 +9930,12 @@
       <c r="G3">
         <v>576.78510638299997</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="18"/>
+      <c r="H3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="17"/>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>662.80451167813396</v>
@@ -9853,37 +9947,38 @@
         <f t="shared" si="2"/>
         <v>0.14913596821970454</v>
       </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3">
-        <v>237.247164</v>
+      <c r="N3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
       </c>
       <c r="P3">
+        <v>223.3121514</v>
+      </c>
+      <c r="Q3">
         <v>662.80451167813396</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="R3" s="12">
         <f t="shared" si="3"/>
         <v>0.14913596821970454</v>
       </c>
-      <c r="R3" s="13">
+      <c r="S3" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S3" s="13">
+      <c r="U3">
+        <v>631.02583408583621</v>
+      </c>
+      <c r="V3">
+        <v>631.02583408583621</v>
+      </c>
+      <c r="W3" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U3">
-        <f>ROUND(0.777777777777777,5)</f>
-        <v>0.77778000000000003</v>
-      </c>
-      <c r="V3" s="14">
-        <f>U3</f>
-        <v>0.77778000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -9895,58 +9990,67 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.0500000000000001E-2</v>
+        <v>9.7949999999999995E-2</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>5.8769999999999998</v>
       </c>
       <c r="F4">
-        <v>630</v>
-      </c>
-      <c r="G4">
-        <v>943.34840135000002</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="18"/>
+        <v>5877</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1115.1214013220001</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="17"/>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>1121.506653578627</v>
+        <v>1087.388680338792</v>
       </c>
       <c r="L4" s="12">
         <v>0.18885745015949931</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="2"/>
-        <v>0.18885732140285566</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4">
-        <v>248.98525620000001</v>
+        <v>-2.4869687686318594E-2</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
       </c>
       <c r="P4">
-        <v>1064.3948982965801</v>
-      </c>
-      <c r="Q4" s="12">
+        <v>254.8554862</v>
+      </c>
+      <c r="Q4">
+        <v>1017.840597157414</v>
+      </c>
+      <c r="R4" s="12">
         <f t="shared" si="3"/>
-        <v>0.12831579167712984</v>
-      </c>
-      <c r="R4" s="13">
+        <v>-8.7237859527453845E-2</v>
+      </c>
+      <c r="S4" s="13">
         <f t="shared" si="4"/>
-        <v>-5.0924134154539752E-2</v>
-      </c>
-      <c r="S4" s="13">
+        <v>-6.3960000000000003E-2</v>
+      </c>
+      <c r="U4">
+        <v>1062.996099048929</v>
+      </c>
+      <c r="V4">
+        <v>993.44801586755034</v>
+      </c>
+      <c r="W4" s="13">
         <f t="shared" si="5"/>
-        <v>-5.092E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-6.5430000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -9970,12 +10074,12 @@
       <c r="G5">
         <v>547.76187840700004</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="18"/>
+      <c r="H5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="17"/>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>648.77828901133626</v>
@@ -9987,29 +10091,38 @@
         <f t="shared" si="2"/>
         <v>0.18441664998322252</v>
       </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5">
-        <v>246.7568436</v>
+      <c r="N5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
       </c>
       <c r="P5">
+        <v>236.7115756</v>
+      </c>
+      <c r="Q5">
         <v>648.77828901133626</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="R5" s="12">
         <f t="shared" si="3"/>
         <v>0.18441664998322252</v>
       </c>
-      <c r="R5" s="13">
+      <c r="S5" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S5" s="13">
+      <c r="U5">
+        <v>599.46947134179413</v>
+      </c>
+      <c r="V5">
+        <v>599.46947134179413</v>
+      </c>
+      <c r="W5" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -10033,46 +10146,55 @@
       <c r="G6">
         <v>979.546880192</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="17"/>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>1096.3601661278569</v>
+        <v>1097.758614193031</v>
       </c>
       <c r="L6" s="12">
         <v>0.11925237194442739</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="2"/>
-        <v>0.119252368924865</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6">
-        <v>274.55326259999998</v>
+        <v>0.12068001684397223</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
       <c r="P6">
-        <v>1077.6947002346831</v>
-      </c>
-      <c r="Q6" s="12">
+        <v>345.97241330000003</v>
+      </c>
+      <c r="Q6">
+        <v>1073.6262537497589</v>
+      </c>
+      <c r="R6" s="12">
         <f t="shared" si="3"/>
-        <v>0.10019716465581026</v>
-      </c>
-      <c r="R6" s="13">
+        <v>9.6043768256725504E-2</v>
+      </c>
+      <c r="S6" s="13">
         <f t="shared" si="4"/>
-        <v>-1.7024939859952102E-2</v>
-      </c>
-      <c r="S6" s="13">
+        <v>-2.198E-2</v>
+      </c>
+      <c r="U6">
+        <v>1047.301129454084</v>
+      </c>
+      <c r="V6">
+        <v>1043.681617348017</v>
+      </c>
+      <c r="W6" s="13">
         <f t="shared" si="5"/>
-        <v>-1.702E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-3.46E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -10096,12 +10218,12 @@
       <c r="G7">
         <v>456.27215827700002</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="18"/>
+      <c r="H7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="17"/>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K7">
         <v>520.34549815358832</v>
@@ -10113,29 +10235,38 @@
         <f t="shared" si="2"/>
         <v>0.14042789750430001</v>
       </c>
-      <c r="N7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7">
-        <v>242.10103290000009</v>
+      <c r="N7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
       </c>
       <c r="P7">
+        <v>228.06879019999991</v>
+      </c>
+      <c r="Q7">
         <v>520.34549815358832</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <f t="shared" si="3"/>
         <v>0.14042789750430001</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S7" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S7" s="13">
+      <c r="U7">
+        <v>497.64617829190757</v>
+      </c>
+      <c r="V7">
+        <v>497.64617829190757</v>
+      </c>
+      <c r="W7" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -10159,12 +10290,12 @@
       <c r="G8">
         <v>883.23944079299997</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="18"/>
+      <c r="H8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="17"/>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>996.8146493389404</v>
@@ -10176,29 +10307,38 @@
         <f t="shared" si="2"/>
         <v>0.12858937599522169</v>
       </c>
-      <c r="N8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8">
-        <v>234.06061800000001</v>
+      <c r="N8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
       </c>
       <c r="P8">
+        <v>198.1250886</v>
+      </c>
+      <c r="Q8">
         <v>996.81464933894028</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="R8" s="12">
         <f t="shared" si="3"/>
         <v>0.12858937599522158</v>
       </c>
-      <c r="R8" s="13">
+      <c r="S8" s="13">
         <f t="shared" si="4"/>
-        <v>-1.1405012737022871E-16</v>
-      </c>
-      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>957.18901103732424</v>
+      </c>
+      <c r="V8">
+        <v>957.18901103732401</v>
+      </c>
+      <c r="W8" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10222,46 +10362,55 @@
       <c r="G9">
         <v>674.55252934199996</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="18"/>
+      <c r="H9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="17"/>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>849.7955585238285</v>
+        <v>860.27290182602303</v>
       </c>
       <c r="L9" s="12">
         <v>0.25979152335663369</v>
       </c>
       <c r="M9" s="12">
         <f t="shared" si="2"/>
-        <v>0.25979152335663375</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9">
-        <v>273.31324000000001</v>
+        <v>0.27532381008961032</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
       </c>
       <c r="P9">
-        <v>775.21553639218257</v>
-      </c>
-      <c r="Q9" s="12">
+        <v>283.27044929999988</v>
+      </c>
+      <c r="Q9">
+        <v>785.69287969437698</v>
+      </c>
+      <c r="R9" s="12">
         <f t="shared" si="3"/>
-        <v>0.14922930783222399</v>
-      </c>
-      <c r="R9" s="13">
+        <v>0.16476159456520037</v>
+      </c>
+      <c r="S9" s="13">
         <f t="shared" si="4"/>
-        <v>-8.7762311044786059E-2</v>
-      </c>
-      <c r="S9" s="13">
+        <v>-8.6690000000000003E-2</v>
+      </c>
+      <c r="U9">
+        <v>736.98617228029195</v>
+      </c>
+      <c r="V9">
+        <v>663.46470018545301</v>
+      </c>
+      <c r="W9" s="13">
         <f t="shared" si="5"/>
-        <v>-8.7760000000000005E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-9.9760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10285,46 +10434,55 @@
       <c r="G10">
         <v>604.10825342600003</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="18"/>
+      <c r="H10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="17"/>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>732.72108410107626</v>
+        <v>732.72108410107637</v>
       </c>
       <c r="L10" s="12">
         <v>0.21289699312282381</v>
       </c>
       <c r="M10" s="12">
         <f t="shared" si="2"/>
-        <v>0.21289699312282379</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10">
-        <v>234.59704279999991</v>
+        <v>0.21289699312282398</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
       </c>
       <c r="P10">
-        <v>732.72108410107626</v>
-      </c>
-      <c r="Q10" s="12">
+        <v>229.9864785</v>
+      </c>
+      <c r="Q10">
+        <v>732.72108410107637</v>
+      </c>
+      <c r="R10" s="12">
         <f t="shared" si="3"/>
-        <v>0.21289699312282379</v>
-      </c>
-      <c r="R10" s="13">
+        <v>0.21289699312282398</v>
+      </c>
+      <c r="S10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S10" s="13">
+      <c r="U10">
+        <v>695.13520070833897</v>
+      </c>
+      <c r="V10">
+        <v>695.13520070833897</v>
+      </c>
+      <c r="W10" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10348,46 +10506,55 @@
       <c r="G11">
         <v>566.83624877900002</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="18"/>
+      <c r="H11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="17"/>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K11">
-        <v>675.31774565474393</v>
+        <v>670.88839280798027</v>
       </c>
       <c r="L11" s="12">
         <v>0.1913813618635446</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="2"/>
-        <v>0.19138066259774264</v>
-      </c>
-      <c r="N11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11">
-        <v>258.45138980000002</v>
+        <v>0.18356649606145503</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
       </c>
       <c r="P11">
-        <v>702.370105707741</v>
-      </c>
-      <c r="Q11" s="12">
+        <v>245.35170710000011</v>
+      </c>
+      <c r="Q11">
+        <v>695.40386535206767</v>
+      </c>
+      <c r="R11" s="12">
         <f t="shared" si="3"/>
-        <v>0.23910583915670391</v>
-      </c>
-      <c r="R11" s="13">
+        <v>0.22681615166639427</v>
+      </c>
+      <c r="S11" s="13">
         <f t="shared" si="4"/>
-        <v>4.0058713438322097E-2</v>
-      </c>
-      <c r="S11" s="13">
+        <v>3.6540000000000003E-2</v>
+      </c>
+      <c r="U11">
+        <v>644.87631060102444</v>
+      </c>
+      <c r="V11">
+        <v>674.34219828968776</v>
+      </c>
+      <c r="W11" s="13">
         <f t="shared" si="5"/>
-        <v>4.0059999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.5690000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -10411,12 +10578,12 @@
       <c r="G12">
         <v>784.24467330000004</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="17"/>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K12">
         <v>913.45865950850782</v>
@@ -10428,29 +10595,38 @@
         <f t="shared" si="2"/>
         <v>0.16476233834626131</v>
       </c>
-      <c r="N12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12">
-        <v>411.78960060000009</v>
+      <c r="N12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
       </c>
       <c r="P12">
+        <v>369.42557330000022</v>
+      </c>
+      <c r="Q12">
         <v>914.85828521333269</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="R12" s="12">
         <f t="shared" si="3"/>
         <v>0.16654701824588425</v>
       </c>
-      <c r="R12" s="13">
+      <c r="S12" s="13">
         <f t="shared" si="4"/>
-        <v>1.5322266533418691E-3</v>
-      </c>
-      <c r="S12" s="13">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="U12">
+        <v>863.46336287688018</v>
+      </c>
+      <c r="V12">
+        <v>868.60221388259811</v>
+      </c>
+      <c r="W12" s="13">
         <f t="shared" si="5"/>
-        <v>1.5299999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10474,46 +10650,55 @@
       <c r="G13">
         <v>613.378326109</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="18"/>
+      <c r="H13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="17"/>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>723.75913134411178</v>
+        <v>723.75913134411167</v>
       </c>
       <c r="L13" s="12">
         <v>0.17995550305032559</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="2"/>
-        <v>0.17995550305032562</v>
-      </c>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13">
-        <v>428.69700020000028</v>
+        <v>0.17995550305032545</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
       </c>
       <c r="P13">
-        <v>723.75913134411178</v>
-      </c>
-      <c r="Q13" s="12">
+        <v>360.53682889999982</v>
+      </c>
+      <c r="Q13">
+        <v>723.75913134411167</v>
+      </c>
+      <c r="R13" s="12">
         <f t="shared" si="3"/>
-        <v>0.17995550305032562</v>
-      </c>
-      <c r="R13" s="13">
+        <v>0.17995550305032545</v>
+      </c>
+      <c r="S13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="13">
+      <c r="U13">
+        <v>690.02706686070815</v>
+      </c>
+      <c r="V13">
+        <v>690.02706686070815</v>
+      </c>
+      <c r="W13" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10537,12 +10722,12 @@
       <c r="G14">
         <v>791.18591642900003</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="17"/>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K14">
         <v>869.73014524941982</v>
@@ -10554,29 +10739,38 @@
         <f t="shared" si="2"/>
         <v>9.9274048222353875E-2</v>
       </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14">
-        <v>359.7548925000001</v>
+      <c r="N14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
       </c>
       <c r="P14">
+        <v>336.1317039999999</v>
+      </c>
+      <c r="Q14">
         <v>869.73014524941982</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="R14" s="12">
         <f t="shared" si="3"/>
         <v>9.9274048222353875E-2</v>
       </c>
-      <c r="R14" s="13">
+      <c r="S14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="13">
+      <c r="U14">
+        <v>847.76093914053251</v>
+      </c>
+      <c r="V14">
+        <v>847.76093914053251</v>
+      </c>
+      <c r="W14" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10600,12 +10794,12 @@
       <c r="G15">
         <v>750.87424906499996</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="18"/>
+      <c r="H15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="17"/>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <v>894.78810796327741</v>
@@ -10617,29 +10811,38 @@
         <f t="shared" si="2"/>
         <v>0.19166173174467122</v>
       </c>
-      <c r="N15" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15">
-        <v>154.5560035</v>
+      <c r="N15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
       </c>
       <c r="P15">
+        <v>221.4415356999998</v>
+      </c>
+      <c r="Q15">
         <v>894.78810796327741</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="R15" s="12">
         <f t="shared" si="3"/>
         <v>0.19166173174467122</v>
       </c>
-      <c r="R15" s="13">
+      <c r="S15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="13">
+      <c r="U15">
+        <v>830.78385060733638</v>
+      </c>
+      <c r="V15">
+        <v>830.78385060733638</v>
+      </c>
+      <c r="W15" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -10663,46 +10866,55 @@
       <c r="G16">
         <v>909.07091568299995</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="18"/>
+      <c r="H16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="17"/>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>1027.361501897991</v>
+        <v>1027.3615018979899</v>
       </c>
       <c r="L16" s="12">
         <v>0.13012553686592351</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" si="2"/>
-        <v>0.13012250658807781</v>
-      </c>
-      <c r="N16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16">
-        <v>452.92473540000037</v>
+        <v>0.13012250658807656</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
       </c>
       <c r="P16">
+        <v>325.43694030000012</v>
+      </c>
+      <c r="Q16">
         <v>1018.647370722324</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="R16" s="12">
         <f t="shared" si="3"/>
         <v>0.12053675147774083</v>
       </c>
-      <c r="R16" s="13">
+      <c r="S16" s="13">
         <f t="shared" si="4"/>
-        <v>-8.4820495605180662E-3</v>
-      </c>
-      <c r="S16" s="13">
+        <v>-8.4799999999999997E-3</v>
+      </c>
+      <c r="U16">
+        <v>995.69499710454375</v>
+      </c>
+      <c r="V16">
+        <v>991.5568310897188</v>
+      </c>
+      <c r="W16" s="13">
         <f t="shared" si="5"/>
-        <v>-8.4799999999999997E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -10726,46 +10938,55 @@
       <c r="G17">
         <v>805.72962788500001</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="18"/>
+      <c r="H17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="17"/>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>999.21227082254029</v>
+        <v>995.26934007958039</v>
       </c>
       <c r="L17" s="12">
         <v>0.2401357380254352</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="2"/>
-        <v>0.24013345946508452</v>
-      </c>
-      <c r="N17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17">
-        <v>314.93039910000061</v>
+        <v>0.235239844278921</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
       </c>
       <c r="P17">
+        <v>344.28099879999991</v>
+      </c>
+      <c r="Q17">
         <v>900.14586449837202</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="R17" s="12">
         <f t="shared" si="3"/>
         <v>0.11718104106610788</v>
       </c>
-      <c r="R17" s="13">
+      <c r="S17" s="13">
         <f t="shared" si="4"/>
-        <v>-9.9144505343812403E-2</v>
-      </c>
-      <c r="S17" s="13">
+        <v>-9.5579999999999998E-2</v>
+      </c>
+      <c r="U17">
+        <v>926.23938561866703</v>
+      </c>
+      <c r="V17">
+        <v>830.07044608804972</v>
+      </c>
+      <c r="W17" s="13">
         <f t="shared" si="5"/>
-        <v>-9.9140000000000006E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.10383000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -10789,12 +11010,12 @@
       <c r="G18">
         <v>683.45979060699995</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="18"/>
+      <c r="H18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="17"/>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>782.003935883964</v>
@@ -10806,29 +11027,38 @@
         <f t="shared" si="2"/>
         <v>0.14418426165121465</v>
       </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18">
-        <v>315.92417230000052</v>
+      <c r="N18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
       </c>
       <c r="P18">
+        <v>319.59890539999969</v>
+      </c>
+      <c r="Q18">
         <v>782.003935883964</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="R18" s="12">
         <f t="shared" si="3"/>
         <v>0.14418426165121465</v>
       </c>
-      <c r="R18" s="13">
+      <c r="S18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="13">
+      <c r="U18">
+        <v>742.88616128939202</v>
+      </c>
+      <c r="V18">
+        <v>742.88616128939202</v>
+      </c>
+      <c r="W18" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -10852,12 +11082,12 @@
       <c r="G19">
         <v>1082.162880112</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="18"/>
+      <c r="H19" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="17"/>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K19">
         <v>1219.039143534927</v>
@@ -10869,29 +11099,38 @@
         <f t="shared" si="2"/>
         <v>0.1264839756920518</v>
       </c>
-      <c r="N19" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19">
-        <v>472.76462450000002</v>
+      <c r="N19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
       </c>
       <c r="P19">
+        <v>346.5860561999998</v>
+      </c>
+      <c r="Q19">
         <v>1219.039143534927</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="R19" s="12">
         <f t="shared" si="3"/>
         <v>0.1264839756920518</v>
       </c>
-      <c r="R19" s="13">
+      <c r="S19" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="13">
+      <c r="U19">
+        <v>1162.8920482496219</v>
+      </c>
+      <c r="V19">
+        <v>1162.8920482496219</v>
+      </c>
+      <c r="W19" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -10915,12 +11154,12 @@
       <c r="G20">
         <v>952.74671821100003</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="18"/>
+      <c r="H20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="17"/>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>1095.786848590677</v>
@@ -10932,29 +11171,38 @@
         <f t="shared" si="2"/>
         <v>0.15013447713393074</v>
       </c>
-      <c r="N20" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20">
-        <v>437.17811449999999</v>
+      <c r="N20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" t="s">
+        <v>105</v>
       </c>
       <c r="P20">
+        <v>274.11584829999993</v>
+      </c>
+      <c r="Q20">
         <v>1095.786848590677</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="R20" s="12">
         <f t="shared" si="3"/>
         <v>0.15013447713393074</v>
       </c>
-      <c r="R20" s="13">
+      <c r="S20" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="13">
+      <c r="U20">
+        <v>1034.795259283514</v>
+      </c>
+      <c r="V20">
+        <v>1034.795259283514</v>
+      </c>
+      <c r="W20" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -10978,12 +11226,12 @@
       <c r="G21">
         <v>613.52360638799996</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="18"/>
+      <c r="H21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="17"/>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K21">
         <v>735.09744355158637</v>
@@ -10995,29 +11243,38 @@
         <f t="shared" si="2"/>
         <v>0.19815673903621828</v>
       </c>
-      <c r="N21" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21">
-        <v>368.23726429999999</v>
+      <c r="N21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
       </c>
       <c r="P21">
+        <v>303.87808390000009</v>
+      </c>
+      <c r="Q21">
         <v>735.09744355158637</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="R21" s="12">
         <f t="shared" si="3"/>
         <v>0.19815673903621828</v>
       </c>
-      <c r="R21" s="13">
+      <c r="S21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="13">
+      <c r="U21">
+        <v>704.1730727930144</v>
+      </c>
+      <c r="V21">
+        <v>704.1730727930144</v>
+      </c>
+      <c r="W21" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -11041,12 +11298,12 @@
       <c r="G22">
         <v>1171.623384083</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="18"/>
+      <c r="H22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="17"/>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K22">
         <v>1281.2391705977</v>
@@ -11058,29 +11315,38 @@
         <f t="shared" si="2"/>
         <v>9.3558892732832785E-2</v>
       </c>
-      <c r="N22" t="s">
-        <v>90</v>
-      </c>
-      <c r="O22">
-        <v>238.22988009999989</v>
+      <c r="N22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
       </c>
       <c r="P22">
+        <v>320.12302369999998</v>
+      </c>
+      <c r="Q22">
         <v>1281.2391705977</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="R22" s="12">
         <f t="shared" si="3"/>
         <v>9.3558892732832785E-2</v>
       </c>
-      <c r="R22" s="13">
+      <c r="S22" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="13">
+      <c r="U22">
+        <v>1238.3358805578939</v>
+      </c>
+      <c r="V22">
+        <v>1238.335880557893</v>
+      </c>
+      <c r="W22" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -11104,46 +11370,55 @@
       <c r="G23">
         <v>828.12840839</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="18"/>
+      <c r="H23" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="17"/>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K23">
-        <v>977.46652415438575</v>
+        <v>977.46652415438564</v>
       </c>
       <c r="L23" s="12">
         <v>0.18033207682697469</v>
       </c>
       <c r="M23" s="12">
         <f t="shared" si="2"/>
-        <v>0.18033207682697469</v>
-      </c>
-      <c r="N23" t="s">
-        <v>93</v>
-      </c>
-      <c r="O23">
-        <v>503.35688249999998</v>
+        <v>0.18033207682697455</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" t="s">
+        <v>117</v>
       </c>
       <c r="P23">
-        <v>977.46652415438575</v>
-      </c>
-      <c r="Q23" s="12">
+        <v>616.61534960000063</v>
+      </c>
+      <c r="Q23">
+        <v>977.46652415438552</v>
+      </c>
+      <c r="R23" s="12">
         <f t="shared" si="3"/>
-        <v>0.18033207682697469</v>
-      </c>
-      <c r="R23" s="13">
+        <v>0.18033207682697441</v>
+      </c>
+      <c r="S23" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="13">
+      <c r="U23">
+        <v>932.35528031988497</v>
+      </c>
+      <c r="V23">
+        <v>932.35528031988497</v>
+      </c>
+      <c r="W23" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -11167,46 +11442,55 @@
       <c r="G24">
         <v>801.70743123199998</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="18"/>
+      <c r="H24" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="17"/>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K24">
-        <v>916.32674868129936</v>
+        <v>916.32674868129925</v>
       </c>
       <c r="L24" s="12">
         <v>0.1429690096213298</v>
       </c>
       <c r="M24" s="12">
         <f t="shared" si="2"/>
+        <v>0.14296900962132963</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24">
+        <v>491.5746764000005</v>
+      </c>
+      <c r="Q24">
+        <v>916.32674868129936</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="3"/>
         <v>0.14296900962132977</v>
       </c>
-      <c r="N24" t="s">
-        <v>96</v>
-      </c>
-      <c r="O24">
-        <v>551.25568179999982</v>
-      </c>
-      <c r="P24">
-        <v>941.029672863207</v>
-      </c>
-      <c r="Q24" s="12">
-        <f t="shared" si="3"/>
-        <v>0.17378190123185927</v>
-      </c>
-      <c r="R24" s="13">
+      <c r="S24" s="13">
         <f t="shared" si="4"/>
-        <v>2.695864135523492E-2</v>
-      </c>
-      <c r="S24" s="13">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>883.16992229925927</v>
+      </c>
+      <c r="V24">
+        <v>883.16992229925927</v>
+      </c>
+      <c r="W24" s="13">
         <f t="shared" si="5"/>
-        <v>2.6960000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -11230,12 +11514,12 @@
       <c r="G25">
         <v>1003.760132766</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="18"/>
+      <c r="H25" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="17"/>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>1139.100511867154</v>
@@ -11247,29 +11531,38 @@
         <f t="shared" si="2"/>
         <v>0.13483338766225436</v>
       </c>
-      <c r="N25" t="s">
-        <v>99</v>
-      </c>
-      <c r="O25">
-        <v>491.18731689999993</v>
+      <c r="N25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" t="s">
+        <v>125</v>
       </c>
       <c r="P25">
+        <v>656.16877729999942</v>
+      </c>
+      <c r="Q25">
         <v>1139.100511867154</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="R25" s="12">
         <f t="shared" si="3"/>
         <v>0.13483338766225436</v>
       </c>
-      <c r="R25" s="13">
+      <c r="S25" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="13">
+      <c r="U25">
+        <v>1091.9534855821901</v>
+      </c>
+      <c r="V25">
+        <v>1091.9534855821901</v>
+      </c>
+      <c r="W25" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -11293,12 +11586,12 @@
       <c r="G26">
         <v>826.18978593300005</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="18"/>
+      <c r="H26" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="17"/>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>1026.542152900709</v>
@@ -11310,29 +11603,38 @@
         <f t="shared" si="2"/>
         <v>0.24250162659836672</v>
       </c>
-      <c r="N26" t="s">
-        <v>102</v>
-      </c>
-      <c r="O26">
-        <v>677.30775310000013</v>
+      <c r="N26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" t="s">
+        <v>129</v>
       </c>
       <c r="P26">
-        <v>1050.7366122210601</v>
-      </c>
-      <c r="Q26" s="12">
+        <v>347.97980019999977</v>
+      </c>
+      <c r="Q26">
+        <v>1026.542152900709</v>
+      </c>
+      <c r="R26" s="12">
         <f t="shared" si="3"/>
-        <v>0.27178601104888228</v>
-      </c>
-      <c r="R26" s="13">
+        <v>0.24250162659836672</v>
+      </c>
+      <c r="S26" s="13">
         <f t="shared" si="4"/>
-        <v>2.3568890232110441E-2</v>
-      </c>
-      <c r="S26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>963.31525684903772</v>
+      </c>
+      <c r="V26">
+        <v>963.31525684903772</v>
+      </c>
+      <c r="W26" s="13">
         <f t="shared" si="5"/>
-        <v>2.3570000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -11356,12 +11658,12 @@
       <c r="G27">
         <v>1067.862157347</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="18"/>
+      <c r="H27" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="17"/>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K27">
         <v>1204.045683633422</v>
@@ -11373,29 +11675,38 @@
         <f t="shared" si="2"/>
         <v>0.12752912475591113</v>
       </c>
-      <c r="N27" t="s">
-        <v>105</v>
-      </c>
-      <c r="O27">
-        <v>808.71530810000013</v>
+      <c r="N27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>133</v>
       </c>
       <c r="P27">
-        <v>1204.045683633422</v>
-      </c>
-      <c r="Q27" s="12">
+        <v>750.54925599999933</v>
+      </c>
+      <c r="Q27">
+        <v>1204.045683633421</v>
+      </c>
+      <c r="R27" s="12">
         <f t="shared" si="3"/>
-        <v>0.12752912475591113</v>
-      </c>
-      <c r="R27" s="13">
+        <v>0.12752912475591027</v>
+      </c>
+      <c r="S27" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="13">
+      <c r="U27">
+        <v>1167.8749341459411</v>
+      </c>
+      <c r="V27">
+        <v>1167.8749341459411</v>
+      </c>
+      <c r="W27" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -11419,12 +11730,12 @@
       <c r="G28">
         <v>924.42118022199998</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="18"/>
+      <c r="H28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="17"/>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K28">
         <v>1102.417321416543</v>
@@ -11436,26 +11747,37 @@
         <f t="shared" si="2"/>
         <v>0.192548748344123</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28">
-        <v>1224.071597600001</v>
+      <c r="N28" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="P28">
+        <v>548.10670609999943</v>
+      </c>
+      <c r="Q28">
         <v>1175.4004660916421</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="R28" s="12">
         <v>0.27149884840302918</v>
       </c>
-      <c r="R28" s="13">
-        <v>6.6202828327588253E-2</v>
-      </c>
       <c r="S28" s="13">
+        <f t="shared" si="4"/>
         <v>6.6199999999999995E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>1052.9603934997219</v>
+      </c>
+      <c r="V28">
+        <v>1125.943538174821</v>
+      </c>
+      <c r="W28" s="13">
+        <f t="shared" si="5"/>
+        <v>6.9309999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -11479,12 +11801,12 @@
       <c r="G29">
         <v>778.89360681400001</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="18"/>
+      <c r="H29" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="17"/>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K29">
         <v>1053.1053287962541</v>
@@ -11496,29 +11818,38 @@
         <f t="shared" si="2"/>
         <v>0.35205286008687947</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O29">
-        <v>453.08935580000019</v>
+      <c r="N29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="P29">
+        <v>529.98972169999979</v>
+      </c>
+      <c r="Q29">
         <v>841.42993112169711</v>
       </c>
-      <c r="Q29" s="12">
-        <f t="shared" ref="Q29:Q61" si="6">(P29-G29)/G29</f>
+      <c r="R29" s="12">
+        <f t="shared" ref="R29:R61" si="6">(Q29-G29)/G29</f>
         <v>8.0288660428857253E-2</v>
       </c>
-      <c r="R29" s="13">
-        <f t="shared" ref="R29:R61" si="7">(P29-K29)/K29</f>
-        <v>-0.20100116473298194</v>
-      </c>
       <c r="S29" s="13">
-        <f t="shared" ref="S29:S61" si="8">ROUND(R29,5)</f>
+        <f t="shared" si="4"/>
         <v>-0.20100000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>890.09155150783693</v>
+      </c>
+      <c r="V29">
+        <v>801.00550164875222</v>
+      </c>
+      <c r="W29" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.10009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -11542,12 +11873,12 @@
       <c r="G30">
         <v>1157.0368080420001</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="18"/>
+      <c r="H30" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="17"/>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="K30">
         <v>1286.3315347598971</v>
@@ -11559,29 +11890,38 @@
         <f t="shared" si="2"/>
         <v>0.11174642484943628</v>
       </c>
-      <c r="N30" t="s">
-        <v>114</v>
-      </c>
-      <c r="O30">
-        <v>598.49484239999992</v>
+      <c r="N30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30" t="s">
+        <v>144</v>
       </c>
       <c r="P30">
+        <v>531.67920079999931</v>
+      </c>
+      <c r="Q30">
         <v>1286.3315347598971</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="R30" s="12">
         <f t="shared" si="6"/>
         <v>0.11174642484943628</v>
       </c>
-      <c r="R30" s="13">
-        <f t="shared" si="7"/>
+      <c r="S30" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S30" s="13">
-        <f t="shared" si="8"/>
+      <c r="U30">
+        <v>1241.0591093984399</v>
+      </c>
+      <c r="V30">
+        <v>1241.0591093984399</v>
+      </c>
+      <c r="W30" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -11605,12 +11945,12 @@
       <c r="G31">
         <v>739.53477113099996</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="18"/>
+      <c r="H31" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="17"/>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="K31">
         <v>856.80458072890463</v>
@@ -11622,29 +11962,38 @@
         <f t="shared" si="2"/>
         <v>0.15857240818921778</v>
       </c>
-      <c r="N31" t="s">
-        <v>117</v>
-      </c>
-      <c r="O31">
-        <v>495.81227259999969</v>
+      <c r="N31" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="O31" t="s">
+        <v>148</v>
       </c>
       <c r="P31">
+        <v>446.67549060000061</v>
+      </c>
+      <c r="Q31">
         <v>856.80458072890463</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="R31" s="12">
         <f t="shared" si="6"/>
         <v>0.15857240818921778</v>
       </c>
-      <c r="R31" s="13">
-        <f t="shared" si="7"/>
+      <c r="S31" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="13">
-        <f t="shared" si="8"/>
+      <c r="U31">
+        <v>832.79985072901547</v>
+      </c>
+      <c r="V31">
+        <v>832.79985072901536</v>
+      </c>
+      <c r="W31" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -11668,46 +12017,55 @@
       <c r="G32">
         <v>572.08350842100003</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="18"/>
+      <c r="H32" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="17"/>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="K32">
-        <v>724.48704261669911</v>
+        <v>688.40034402843276</v>
       </c>
       <c r="L32" s="12">
         <v>0.26640097573859972</v>
       </c>
       <c r="M32" s="12">
         <f t="shared" si="2"/>
-        <v>0.26640085223981724</v>
-      </c>
-      <c r="N32" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32">
-        <v>228.21562660000021</v>
+        <v>0.20332142754556454</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" t="s">
+        <v>152</v>
       </c>
       <c r="P32">
-        <v>754.94995415676658</v>
-      </c>
-      <c r="Q32" s="12">
+        <v>269.09917030000003</v>
+      </c>
+      <c r="Q32">
+        <v>752.35748969579845</v>
+      </c>
+      <c r="R32" s="12">
         <f t="shared" si="6"/>
-        <v>0.31964991656636588</v>
-      </c>
-      <c r="R32" s="13">
-        <f t="shared" si="7"/>
-        <v>4.2047558821813644E-2</v>
+        <v>0.31511829762820853</v>
       </c>
       <c r="S32" s="13">
-        <f t="shared" si="8"/>
-        <v>4.2049999999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>9.2910000000000006E-2</v>
+      </c>
+      <c r="U32">
+        <v>652.34466880002708</v>
+      </c>
+      <c r="V32">
+        <v>702.92206116404952</v>
+      </c>
+      <c r="W32" s="13">
+        <f t="shared" si="5"/>
+        <v>7.7530000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -11731,12 +12089,12 @@
       <c r="G33">
         <v>845.52345453600003</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I33" s="18"/>
+      <c r="H33" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="17"/>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="K33">
         <v>1024.350870524725</v>
@@ -11748,29 +12106,38 @@
         <f t="shared" si="2"/>
         <v>0.21149906017315689</v>
       </c>
-      <c r="N33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33">
-        <v>228.85139930000059</v>
+      <c r="N33" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O33" t="s">
+        <v>156</v>
       </c>
       <c r="P33">
-        <v>1043.1691111103421</v>
-      </c>
-      <c r="Q33" s="12">
+        <v>246.0511728000001</v>
+      </c>
+      <c r="Q33">
+        <v>1024.350870524725</v>
+      </c>
+      <c r="R33" s="12">
         <f t="shared" si="6"/>
-        <v>0.23375538018966555</v>
-      </c>
-      <c r="R33" s="13">
-        <f t="shared" si="7"/>
-        <v>1.8370893340460031E-2</v>
+        <v>0.21149906017315689</v>
       </c>
       <c r="S33" s="13">
-        <f t="shared" si="8"/>
-        <v>1.8370000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>948.69894405303353</v>
+      </c>
+      <c r="V33">
+        <v>948.69894405303364</v>
+      </c>
+      <c r="W33" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -11781,11 +12148,11 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D65" si="9">E34/60</f>
+        <f t="shared" ref="D34:D61" si="7">E34/60</f>
         <v>0.43746666666666667</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="10">F34/1000</f>
+        <f t="shared" ref="E34:E61" si="8">F34/1000</f>
         <v>26.248000000000001</v>
       </c>
       <c r="F34">
@@ -11794,12 +12161,12 @@
       <c r="G34">
         <v>727.03140475500004</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I34" s="18"/>
+      <c r="H34" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" s="17"/>
       <c r="J34" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K34">
         <v>866.88826321288798</v>
@@ -11808,32 +12175,41 @@
         <v>0.19236701130540279</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" ref="M34:M61" si="11">(K34-G34)/G34</f>
+        <f t="shared" ref="M34:M61" si="9">(K34-G34)/G34</f>
         <v>0.19236701130540276</v>
       </c>
-      <c r="N34" t="s">
-        <v>126</v>
-      </c>
-      <c r="O34">
-        <v>281.77606019999979</v>
+      <c r="N34" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34" t="s">
+        <v>160</v>
       </c>
       <c r="P34">
-        <v>883.13909655706368</v>
-      </c>
-      <c r="Q34" s="12">
+        <v>278.28846239999979</v>
+      </c>
+      <c r="Q34">
+        <v>883.13909655706379</v>
+      </c>
+      <c r="R34" s="12">
         <f t="shared" si="6"/>
-        <v>0.21471932406368316</v>
-      </c>
-      <c r="R34" s="13">
-        <f t="shared" si="7"/>
-        <v>1.8746168374625772E-2</v>
+        <v>0.2147193240636833</v>
       </c>
       <c r="S34" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S34:S61" si="10">ROUND((Q34-K34)/K34,5)</f>
         <v>1.8749999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>790.33731363549532</v>
+      </c>
+      <c r="V34">
+        <v>806.46998924778768</v>
+      </c>
+      <c r="W34" s="13">
+        <f t="shared" ref="W34:W61" si="11">ROUND((V34-U34)/U34,5)</f>
+        <v>2.0410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -11844,11 +12220,11 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.7483333333333334E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.2490000000000001</v>
       </c>
       <c r="F35">
@@ -11857,46 +12233,55 @@
       <c r="G35">
         <v>694.66514945300003</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" s="18"/>
+      <c r="H35" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="17"/>
       <c r="J35" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="K35">
-        <v>931.8298593139458</v>
+        <v>931.82985931394569</v>
       </c>
       <c r="L35" s="12">
         <v>0.34153047969211581</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="11"/>
-        <v>0.34140867732848884</v>
-      </c>
-      <c r="N35" t="s">
-        <v>129</v>
-      </c>
-      <c r="O35">
-        <v>265.1643839999997</v>
+        <f t="shared" si="9"/>
+        <v>0.34140867732848867</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35" t="s">
+        <v>164</v>
       </c>
       <c r="P35">
+        <v>276.02000939999931</v>
+      </c>
+      <c r="Q35">
         <v>854.4762539967021</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="R35" s="12">
         <f t="shared" si="6"/>
         <v>0.2300548756037957</v>
       </c>
-      <c r="R35" s="13">
-        <f t="shared" si="7"/>
-        <v>-8.3012584909218118E-2</v>
-      </c>
       <c r="S35" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-8.301E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>759.21091856991779</v>
+      </c>
+      <c r="V35">
+        <v>799.14024997088404</v>
+      </c>
+      <c r="W35" s="13">
+        <f t="shared" si="11"/>
+        <v>5.2589999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -11907,11 +12292,11 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.37438333333333335</v>
       </c>
       <c r="E36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.463000000000001</v>
       </c>
       <c r="F36">
@@ -11920,12 +12305,12 @@
       <c r="G36">
         <v>619.49705766700004</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="18"/>
+      <c r="H36" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36" s="17"/>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="K36">
         <v>757.46744379735401</v>
@@ -11934,32 +12319,41 @@
         <v>0.18670282194046511</v>
       </c>
       <c r="M36" s="12">
+        <f t="shared" si="9"/>
+        <v>0.22271354548469474</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" t="s">
+        <v>168</v>
+      </c>
+      <c r="P36">
+        <v>255.62041359999969</v>
+      </c>
+      <c r="Q36">
+        <v>747.32323998287438</v>
+      </c>
+      <c r="R36" s="12">
+        <f t="shared" si="6"/>
+        <v>0.2063386431523378</v>
+      </c>
+      <c r="S36" s="13">
+        <f t="shared" si="10"/>
+        <v>-1.3390000000000001E-2</v>
+      </c>
+      <c r="U36">
+        <v>690.19604180583656</v>
+      </c>
+      <c r="V36">
+        <v>699.4559738527405</v>
+      </c>
+      <c r="W36" s="13">
         <f t="shared" si="11"/>
-        <v>0.22271354548469474</v>
-      </c>
-      <c r="N36" t="s">
-        <v>132</v>
-      </c>
-      <c r="O36">
-        <v>255.99757430000051</v>
-      </c>
-      <c r="P36">
-        <v>770.95182243661225</v>
-      </c>
-      <c r="Q36" s="12">
-        <f t="shared" si="6"/>
-        <v>0.24448020034184587</v>
-      </c>
-      <c r="R36" s="13">
-        <f t="shared" si="7"/>
-        <v>1.7801925019586357E-2</v>
-      </c>
-      <c r="S36" s="13">
-        <f t="shared" si="8"/>
-        <v>1.78E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.342E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -11970,11 +12364,11 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.17830000000000001</v>
       </c>
       <c r="E37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>10.698</v>
       </c>
       <c r="F37">
@@ -11983,12 +12377,12 @@
       <c r="G37">
         <v>1064.370043632</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="18"/>
+      <c r="H37" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I37" s="17"/>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="K37">
         <v>1326.047008496605</v>
@@ -11997,32 +12391,41 @@
         <v>0.2459067686438042</v>
       </c>
       <c r="M37" s="12">
+        <f t="shared" si="9"/>
+        <v>0.24585149350095609</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="O37" t="s">
+        <v>172</v>
+      </c>
+      <c r="P37">
+        <v>259.89004920000122</v>
+      </c>
+      <c r="Q37">
+        <v>1338.896824818718</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="6"/>
+        <v>0.2579241898333941</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" si="10"/>
+        <v>9.6900000000000007E-3</v>
+      </c>
+      <c r="U37">
+        <v>1149.952013661275</v>
+      </c>
+      <c r="V37">
+        <v>1166.9764806258279</v>
+      </c>
+      <c r="W37" s="13">
         <f t="shared" si="11"/>
-        <v>0.24585149350095609</v>
-      </c>
-      <c r="N37" t="s">
-        <v>135</v>
-      </c>
-      <c r="O37">
-        <v>271.50029519999953</v>
-      </c>
-      <c r="P37">
-        <v>1326.047008496605</v>
-      </c>
-      <c r="Q37" s="12">
-        <f t="shared" si="6"/>
-        <v>0.24585149350095609</v>
-      </c>
-      <c r="R37" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -12033,11 +12436,11 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.11051666666666667</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.6310000000000002</v>
       </c>
       <c r="F38">
@@ -12046,12 +12449,12 @@
       <c r="G38">
         <v>484.16209789700002</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="18"/>
+      <c r="H38" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="17"/>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="K38">
         <v>622.21807644280557</v>
@@ -12060,32 +12463,41 @@
         <v>0.28514412661681621</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.28514412661681621</v>
       </c>
-      <c r="N38" t="s">
-        <v>138</v>
-      </c>
-      <c r="O38">
-        <v>226.39591220000059</v>
+      <c r="N38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" t="s">
+        <v>176</v>
       </c>
       <c r="P38">
+        <v>205.85857059999941</v>
+      </c>
+      <c r="Q38">
         <v>622.21807644280557</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="R38" s="12">
         <f t="shared" si="6"/>
         <v>0.28514412661681621</v>
       </c>
-      <c r="R38" s="13">
-        <f t="shared" si="7"/>
+      <c r="S38" s="13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S38" s="13">
-        <f t="shared" si="8"/>
+      <c r="U38">
+        <v>571.46128610081928</v>
+      </c>
+      <c r="V38">
+        <v>571.46128610081928</v>
+      </c>
+      <c r="W38" s="13">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -12096,11 +12508,11 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.38350000000000001</v>
       </c>
       <c r="E39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>23.01</v>
       </c>
       <c r="F39">
@@ -12109,12 +12521,12 @@
       <c r="G39">
         <v>892.84735411600002</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I39" s="18"/>
+      <c r="H39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" s="17"/>
       <c r="J39" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="K39">
         <v>988.08515815373653</v>
@@ -12123,32 +12535,41 @@
         <v>0.1066675099597854</v>
       </c>
       <c r="M39" s="12">
+        <f t="shared" si="9"/>
+        <v>0.10666750995978544</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="O39" t="s">
+        <v>180</v>
+      </c>
+      <c r="P39">
+        <v>209.87845340000061</v>
+      </c>
+      <c r="Q39">
+        <v>988.08515815373653</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="6"/>
+        <v>0.10666750995978544</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>956.75847023762276</v>
+      </c>
+      <c r="V39">
+        <v>956.75847023762276</v>
+      </c>
+      <c r="W39" s="13">
         <f t="shared" si="11"/>
-        <v>0.10666750995978544</v>
-      </c>
-      <c r="N39" t="s">
-        <v>141</v>
-      </c>
-      <c r="O39">
-        <v>174.3911535999996</v>
-      </c>
-      <c r="P39">
-        <v>1001.185311729765</v>
-      </c>
-      <c r="Q39" s="12">
-        <f t="shared" si="6"/>
-        <v>0.12133984282344587</v>
-      </c>
-      <c r="R39" s="13">
-        <f t="shared" si="7"/>
-        <v>1.3258122002871122E-2</v>
-      </c>
-      <c r="S39" s="13">
-        <f t="shared" si="8"/>
-        <v>1.3259999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -12159,11 +12580,11 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.20924999999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>12.555</v>
       </c>
       <c r="F40">
@@ -12172,46 +12593,55 @@
       <c r="G40">
         <v>1150.946320584</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="18"/>
+      <c r="H40" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="17"/>
       <c r="J40" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="K40">
-        <v>1367.1467280444281</v>
+        <v>1372.4567574575119</v>
       </c>
       <c r="L40" s="12">
         <v>0.18810099027564561</v>
       </c>
       <c r="M40" s="12">
+        <f t="shared" si="9"/>
+        <v>0.19245939876771634</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O40" t="s">
+        <v>184</v>
+      </c>
+      <c r="P40">
+        <v>293.91121960000049</v>
+      </c>
+      <c r="Q40">
+        <v>1175.4149018879809</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" si="6"/>
+        <v>2.1259533017634905E-2</v>
+      </c>
+      <c r="S40" s="13">
+        <f t="shared" si="10"/>
+        <v>-0.14357</v>
+      </c>
+      <c r="U40">
+        <v>1200.767262069759</v>
+      </c>
+      <c r="V40">
+        <v>1110.1169819762731</v>
+      </c>
+      <c r="W40" s="13">
         <f t="shared" si="11"/>
-        <v>0.18784577837715852</v>
-      </c>
-      <c r="N40" t="s">
-        <v>144</v>
-      </c>
-      <c r="O40">
-        <v>413.81515920000038</v>
-      </c>
-      <c r="P40">
-        <v>1206.305074600059</v>
-      </c>
-      <c r="Q40" s="12">
-        <f t="shared" si="6"/>
-        <v>4.809846734465386E-2</v>
-      </c>
-      <c r="R40" s="13">
-        <f t="shared" si="7"/>
-        <v>-0.11764768926773322</v>
-      </c>
-      <c r="S40" s="13">
-        <f t="shared" si="8"/>
-        <v>-0.11765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-7.5490000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -12222,11 +12652,11 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.10779999999999999</v>
       </c>
       <c r="E41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.468</v>
       </c>
       <c r="F41">
@@ -12235,12 +12665,12 @@
       <c r="G41">
         <v>1059.4930977900001</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="18"/>
+      <c r="H41" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="17"/>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="K41">
         <v>1198.896614545255</v>
@@ -12249,32 +12679,41 @@
         <v>0.13157567240979401</v>
       </c>
       <c r="M41" s="12">
+        <f t="shared" si="9"/>
+        <v>0.13157567240979404</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="O41" t="s">
+        <v>188</v>
+      </c>
+      <c r="P41">
+        <v>217.24354380000111</v>
+      </c>
+      <c r="Q41">
+        <v>1171.163514436588</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" si="6"/>
+        <v>0.10539985289146439</v>
+      </c>
+      <c r="S41" s="13">
+        <f t="shared" si="10"/>
+        <v>-2.3130000000000001E-2</v>
+      </c>
+      <c r="U41">
+        <v>1143.5424218653679</v>
+      </c>
+      <c r="V41">
+        <v>1126.913739507811</v>
+      </c>
+      <c r="W41" s="13">
         <f t="shared" si="11"/>
-        <v>0.13157567240979404</v>
-      </c>
-      <c r="N41" t="s">
-        <v>147</v>
-      </c>
-      <c r="O41">
-        <v>249.42819120000061</v>
-      </c>
-      <c r="P41">
-        <v>1172.748196784024</v>
-      </c>
-      <c r="Q41" s="12">
-        <f t="shared" si="6"/>
-        <v>0.1068955514955813</v>
-      </c>
-      <c r="R41" s="13">
-        <f t="shared" si="7"/>
-        <v>-2.181040253512535E-2</v>
-      </c>
-      <c r="S41" s="13">
-        <f t="shared" si="8"/>
-        <v>-2.181E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-1.4540000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -12285,11 +12724,11 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.2370333333333332</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>74.221999999999994</v>
       </c>
       <c r="F42">
@@ -12298,12 +12737,12 @@
       <c r="G42">
         <v>970.10421748900001</v>
       </c>
-      <c r="H42" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="18"/>
+      <c r="H42" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="17"/>
       <c r="J42" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="K42">
         <v>1149.0851498556401</v>
@@ -12312,32 +12751,41 @@
         <v>0.42559088622244218</v>
       </c>
       <c r="M42" s="12">
+        <f t="shared" si="9"/>
+        <v>0.18449660267420656</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="O42" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42">
+        <v>309.33208269999892</v>
+      </c>
+      <c r="Q42">
+        <v>1149.0851498556401</v>
+      </c>
+      <c r="R42" s="12">
+        <f t="shared" si="6"/>
+        <v>0.18449660267420656</v>
+      </c>
+      <c r="S42" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1059.6082336666079</v>
+      </c>
+      <c r="V42">
+        <v>1059.6082336666079</v>
+      </c>
+      <c r="W42" s="13">
         <f t="shared" si="11"/>
-        <v>0.18449660267420656</v>
-      </c>
-      <c r="N42" t="s">
-        <v>150</v>
-      </c>
-      <c r="O42">
-        <v>307.87553599999961</v>
-      </c>
-      <c r="P42">
-        <v>1191.432500031729</v>
-      </c>
-      <c r="Q42" s="12">
-        <f t="shared" si="6"/>
-        <v>0.22814897466955772</v>
-      </c>
-      <c r="R42" s="13">
-        <f t="shared" si="7"/>
-        <v>3.685310020881305E-2</v>
-      </c>
-      <c r="S42" s="13">
-        <f t="shared" si="8"/>
-        <v>3.6850000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -12348,11 +12796,11 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.50076666666666669</v>
       </c>
       <c r="E43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>30.045999999999999</v>
       </c>
       <c r="F43">
@@ -12361,12 +12809,12 @@
       <c r="G43">
         <v>884.48240144600004</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43" s="18"/>
+      <c r="H43" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" s="17"/>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="K43">
         <v>1013.155546866768</v>
@@ -12375,32 +12823,41 @@
         <v>0.14547846877496501</v>
       </c>
       <c r="M43" s="12">
+        <f t="shared" si="9"/>
+        <v>0.14547846877496495</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O43" t="s">
+        <v>196</v>
+      </c>
+      <c r="P43">
+        <v>379.19602719999972</v>
+      </c>
+      <c r="Q43">
+        <v>1120.708326691424</v>
+      </c>
+      <c r="R43" s="12">
+        <f t="shared" si="6"/>
+        <v>0.26707815198949003</v>
+      </c>
+      <c r="S43" s="13">
+        <f t="shared" si="10"/>
+        <v>0.10616</v>
+      </c>
+      <c r="U43">
+        <v>960.10479227754661</v>
+      </c>
+      <c r="V43">
+        <v>1069.952055473311</v>
+      </c>
+      <c r="W43" s="13">
         <f t="shared" si="11"/>
-        <v>0.14547846877496495</v>
-      </c>
-      <c r="N43" t="s">
-        <v>153</v>
-      </c>
-      <c r="O43">
-        <v>452.62541580000021</v>
-      </c>
-      <c r="P43">
-        <v>1108.045048051991</v>
-      </c>
-      <c r="Q43" s="12">
-        <f t="shared" si="6"/>
-        <v>0.25276098907168593</v>
-      </c>
-      <c r="R43" s="13">
-        <f t="shared" si="7"/>
-        <v>9.3657387040591497E-2</v>
-      </c>
-      <c r="S43" s="13">
-        <f t="shared" si="8"/>
-        <v>9.3659999999999993E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.11441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -12411,11 +12868,11 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9406166666666667</v>
       </c>
       <c r="E44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>176.43700000000001</v>
       </c>
       <c r="F44">
@@ -12424,12 +12881,12 @@
       <c r="G44">
         <v>773.75507863300004</v>
       </c>
-      <c r="H44" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="18"/>
+      <c r="H44" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I44" s="17"/>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="K44">
         <v>977.17357619100812</v>
@@ -12438,32 +12895,41 @@
         <v>0.2628977866192353</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.2628977866192353</v>
       </c>
-      <c r="N44" t="s">
-        <v>156</v>
-      </c>
-      <c r="O44">
-        <v>265.19714900000048</v>
+      <c r="N44" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="O44" t="s">
+        <v>200</v>
       </c>
       <c r="P44">
+        <v>297.51214629999959</v>
+      </c>
+      <c r="Q44">
         <v>977.17357619100812</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="R44" s="12">
         <f t="shared" si="6"/>
         <v>0.2628977866192353</v>
       </c>
-      <c r="R44" s="13">
-        <f t="shared" si="7"/>
+      <c r="S44" s="13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S44" s="13">
-        <f t="shared" si="8"/>
+      <c r="U44">
+        <v>897.45011793285812</v>
+      </c>
+      <c r="V44">
+        <v>897.45011793285812</v>
+      </c>
+      <c r="W44" s="13">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -12474,11 +12940,11 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.2503166666666667</v>
       </c>
       <c r="E45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>75.019000000000005</v>
       </c>
       <c r="F45">
@@ -12487,12 +12953,12 @@
       <c r="G45">
         <v>835.71515105499998</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="18"/>
+      <c r="H45" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="17"/>
       <c r="J45" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="K45">
         <v>1012.611449136446</v>
@@ -12501,32 +12967,33 @@
         <v>0.2116705648547039</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.2116705648547039</v>
       </c>
-      <c r="N45" t="s">
-        <v>159</v>
-      </c>
-      <c r="O45">
+      <c r="N45" s="12"/>
+      <c r="O45" t="s">
+        <v>203</v>
+      </c>
+      <c r="P45">
         <v>476.60160359999918</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>1012.611449136446</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="R45" s="12">
         <f t="shared" si="6"/>
         <v>0.2116705648547039</v>
       </c>
-      <c r="R45" s="13">
-        <f t="shared" si="7"/>
+      <c r="S45" s="13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S45" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W45" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -12537,11 +13004,11 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.67005000000000003</v>
       </c>
       <c r="E46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>40.203000000000003</v>
       </c>
       <c r="F46">
@@ -12550,12 +13017,12 @@
       <c r="G46">
         <v>1196.8098017689999</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I46" s="18"/>
+      <c r="H46" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="17"/>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="K46">
         <v>1401.6565058130111</v>
@@ -12564,32 +13031,33 @@
         <v>0.17116061695118809</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.17116061695118812</v>
       </c>
-      <c r="N46" t="s">
-        <v>162</v>
-      </c>
-      <c r="O46">
+      <c r="N46" s="12"/>
+      <c r="O46" t="s">
+        <v>206</v>
+      </c>
+      <c r="P46">
         <v>349.17072509999889</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>1207.078493999617</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="R46" s="12">
         <f t="shared" si="6"/>
         <v>8.5800535853223468E-3</v>
       </c>
-      <c r="R46" s="13">
-        <f t="shared" si="7"/>
-        <v>-0.13882003972188028</v>
-      </c>
       <c r="S46" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.13882</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W46" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -12600,11 +13068,11 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.22886666666666666</v>
       </c>
       <c r="E47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.731999999999999</v>
       </c>
       <c r="F47">
@@ -12613,12 +13081,12 @@
       <c r="G47">
         <v>597.19418764500006</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47" s="18"/>
+      <c r="H47" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" s="17"/>
       <c r="J47" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="K47">
         <v>799.14062349535777</v>
@@ -12627,32 +13095,33 @@
         <v>0.33815874304926102</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.33815874304926097</v>
       </c>
-      <c r="N47" t="s">
-        <v>165</v>
-      </c>
-      <c r="O47">
+      <c r="N47" s="12"/>
+      <c r="O47" t="s">
+        <v>209</v>
+      </c>
+      <c r="P47">
         <v>377.66475460000038</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>811.67034008240626</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="R47" s="12">
         <f t="shared" si="6"/>
         <v>0.35913971849454901</v>
       </c>
-      <c r="R47" s="13">
-        <f t="shared" si="7"/>
-        <v>1.5678988426648627E-2</v>
-      </c>
       <c r="S47" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5679999999999999E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W47" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -12663,11 +13132,11 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.28701666666666664</v>
       </c>
       <c r="E48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17.221</v>
       </c>
       <c r="F48">
@@ -12676,12 +13145,12 @@
       <c r="G48">
         <v>663.31653632799998</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I48" s="18"/>
+      <c r="H48" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" s="17"/>
       <c r="J48" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="K48">
         <v>873.69244502127435</v>
@@ -12690,32 +13159,33 @@
         <v>0.31715764219881692</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.31715764219881692</v>
       </c>
-      <c r="N48" t="s">
-        <v>168</v>
-      </c>
-      <c r="O48">
+      <c r="N48" s="12"/>
+      <c r="O48" t="s">
+        <v>212</v>
+      </c>
+      <c r="P48">
         <v>360.94188729999951</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>873.0560538038178</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="R48" s="12">
         <f t="shared" si="6"/>
         <v>0.31619823415966342</v>
       </c>
-      <c r="R48" s="13">
-        <f t="shared" si="7"/>
-        <v>-7.2839272112631395E-4</v>
-      </c>
       <c r="S48" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-7.2999999999999996E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W48" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -12726,11 +13196,11 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.43863333333333338</v>
       </c>
       <c r="E49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>26.318000000000001</v>
       </c>
       <c r="F49">
@@ -12739,12 +13209,12 @@
       <c r="G49">
         <v>1117.1817261159999</v>
       </c>
-      <c r="H49" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" s="18"/>
+      <c r="H49" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="17"/>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="K49">
         <v>1289.1298271084211</v>
@@ -12753,32 +13223,33 @@
         <v>0.15391238235718091</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.15391238235718091</v>
       </c>
-      <c r="N49" t="s">
-        <v>171</v>
-      </c>
-      <c r="O49">
+      <c r="N49" s="12"/>
+      <c r="O49" t="s">
+        <v>215</v>
+      </c>
+      <c r="P49">
         <v>439.46805069999942</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>1319.92653993926</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="R49" s="12">
         <f t="shared" si="6"/>
         <v>0.18147881323491014</v>
       </c>
-      <c r="R49" s="13">
-        <f t="shared" si="7"/>
-        <v>2.3889535548112652E-2</v>
-      </c>
       <c r="S49" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3890000000000002E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W49" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -12789,11 +13260,11 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0832000000000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>64.992000000000004</v>
       </c>
       <c r="F50">
@@ -12802,12 +13273,12 @@
       <c r="G50">
         <v>958.651706322</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50" s="18"/>
+      <c r="H50" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" s="17"/>
       <c r="J50" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="K50">
         <v>1088.705961302745</v>
@@ -12816,32 +13287,33 @@
         <v>0.13566673988540451</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.13566371824415371</v>
       </c>
-      <c r="N50" t="s">
-        <v>174</v>
-      </c>
-      <c r="O50">
+      <c r="N50" s="12"/>
+      <c r="O50" t="s">
+        <v>218</v>
+      </c>
+      <c r="P50">
         <v>336.43280050000072</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>1088.705961302745</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="R50" s="12">
         <f t="shared" si="6"/>
         <v>0.13566371824415371</v>
       </c>
-      <c r="R50" s="13">
-        <f t="shared" si="7"/>
+      <c r="S50" s="13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S50" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W50" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -12852,11 +13324,11 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.4511166666666666</v>
       </c>
       <c r="E51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>327.06700000000001</v>
       </c>
       <c r="F51">
@@ -12865,12 +13337,12 @@
       <c r="G51">
         <v>1054.082647881</v>
       </c>
-      <c r="H51" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="18"/>
+      <c r="H51" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="17"/>
       <c r="J51" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="K51">
         <v>1230.788478416772</v>
@@ -12879,32 +13351,33 @@
         <v>0.1676394454372245</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.16763944543722453</v>
       </c>
-      <c r="N51" t="s">
-        <v>177</v>
-      </c>
-      <c r="O51">
+      <c r="N51" s="12"/>
+      <c r="O51" t="s">
+        <v>221</v>
+      </c>
+      <c r="P51">
         <v>458.88279369999992</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>1355.9441222660901</v>
       </c>
-      <c r="Q51" s="12">
+      <c r="R51" s="12">
         <f t="shared" si="6"/>
         <v>0.28637363018157624</v>
       </c>
-      <c r="R51" s="13">
-        <f t="shared" si="7"/>
-        <v>0.10168737036790622</v>
-      </c>
       <c r="S51" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10169</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W51" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -12915,11 +13388,11 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9801833333333336</v>
       </c>
       <c r="E52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>178.81100000000001</v>
       </c>
       <c r="F52">
@@ -12928,12 +13401,12 @@
       <c r="G52">
         <v>810.90597523600002</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I52" s="18"/>
+      <c r="H52" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I52" s="17"/>
       <c r="J52" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="K52">
         <v>962.34315919796416</v>
@@ -12942,32 +13415,33 @@
         <v>0.18675060806882199</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.18675060806882202</v>
       </c>
-      <c r="N52" t="s">
-        <v>180</v>
-      </c>
-      <c r="O52">
+      <c r="N52" s="12"/>
+      <c r="O52" t="s">
+        <v>224</v>
+      </c>
+      <c r="P52">
         <v>624.67114910000055</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>962.34315919796416</v>
       </c>
-      <c r="Q52" s="12">
+      <c r="R52" s="12">
         <f t="shared" si="6"/>
         <v>0.18675060806882202</v>
       </c>
-      <c r="R52" s="13">
-        <f t="shared" si="7"/>
+      <c r="S52" s="13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S52" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W52" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15</v>
       </c>
@@ -12978,11 +13452,11 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.0230833333333331</v>
       </c>
       <c r="E53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>181.38499999999999</v>
       </c>
       <c r="F53">
@@ -12991,12 +13465,12 @@
       <c r="G53">
         <v>990.66466418100003</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="I53" s="18"/>
+      <c r="H53" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" s="17"/>
       <c r="J53" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="K53">
         <v>1153.558670195504</v>
@@ -13005,32 +13479,33 @@
         <v>0.16442900600393501</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.16442900600393504</v>
       </c>
-      <c r="N53" t="s">
-        <v>183</v>
-      </c>
-      <c r="O53">
+      <c r="N53" s="12"/>
+      <c r="O53" t="s">
+        <v>227</v>
+      </c>
+      <c r="P53">
         <v>602.51803999999993</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>1210.6817557624181</v>
       </c>
-      <c r="Q53" s="12">
+      <c r="R53" s="12">
         <f t="shared" si="6"/>
         <v>0.2220903798595765</v>
       </c>
-      <c r="R53" s="13">
-        <f t="shared" si="7"/>
-        <v>4.9519011943478332E-2</v>
-      </c>
       <c r="S53" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9520000000000002E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W53" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15</v>
       </c>
@@ -13041,11 +13516,11 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.23050000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.83</v>
       </c>
       <c r="F54">
@@ -13054,12 +13529,12 @@
       <c r="G54">
         <v>816.442220013</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="I54" s="18"/>
+      <c r="H54" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I54" s="17"/>
       <c r="J54" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="K54">
         <v>975.46261563845303</v>
@@ -13068,32 +13543,33 @@
         <v>0.19477238384415729</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.19477238159354496</v>
       </c>
-      <c r="N54" t="s">
-        <v>186</v>
-      </c>
-      <c r="O54">
+      <c r="N54" s="12"/>
+      <c r="O54" t="s">
+        <v>230</v>
+      </c>
+      <c r="P54">
         <v>479.13731389999879</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>986.5123038407138</v>
       </c>
-      <c r="Q54" s="12">
+      <c r="R54" s="12">
         <f t="shared" si="6"/>
         <v>0.20830633161646861</v>
       </c>
-      <c r="R54" s="13">
-        <f t="shared" si="7"/>
-        <v>1.1327638830144815E-2</v>
-      </c>
       <c r="S54" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.133E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W54" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -13104,11 +13580,11 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>31.813433333333332</v>
       </c>
       <c r="E55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1908.806</v>
       </c>
       <c r="F55">
@@ -13117,12 +13593,12 @@
       <c r="G55">
         <v>1335.717997939</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="I55" s="18"/>
+      <c r="H55" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="I55" s="17"/>
       <c r="J55" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="K55">
         <v>1734.219878209735</v>
@@ -13131,32 +13607,33 @@
         <v>0.29834324198862128</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.29834282452255606</v>
       </c>
-      <c r="N55" t="s">
-        <v>189</v>
-      </c>
-      <c r="O55">
+      <c r="N55" s="12"/>
+      <c r="O55" t="s">
+        <v>233</v>
+      </c>
+      <c r="P55">
         <v>568.31309979999969</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>1487.7384971082749</v>
       </c>
-      <c r="Q55" s="12">
+      <c r="R55" s="12">
         <f t="shared" si="6"/>
         <v>0.11381182210903878</v>
       </c>
-      <c r="R55" s="13">
-        <f t="shared" si="7"/>
-        <v>-0.14212810278469826</v>
-      </c>
       <c r="S55" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.14213000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W55" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -13167,11 +13644,11 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.3772166666666665</v>
       </c>
       <c r="E56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>382.63299999999998</v>
       </c>
       <c r="F56">
@@ -13180,12 +13657,12 @@
       <c r="G56">
         <v>1235.5368964209999</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I56" s="18"/>
+      <c r="H56" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="17"/>
       <c r="J56" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="K56">
         <v>1490.655680771097</v>
@@ -13194,32 +13671,33 @@
         <v>0.2064845212800801</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.20648414878511828</v>
       </c>
-      <c r="N56" t="s">
-        <v>192</v>
-      </c>
-      <c r="O56">
+      <c r="N56" s="12"/>
+      <c r="O56" t="s">
+        <v>236</v>
+      </c>
+      <c r="P56">
         <v>432.18090789999951</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>1474.954967044446</v>
       </c>
-      <c r="Q56" s="12">
+      <c r="R56" s="12">
         <f t="shared" si="6"/>
         <v>0.19377654468836367</v>
       </c>
-      <c r="R56" s="13">
-        <f t="shared" si="7"/>
-        <v>-1.0532756778902287E-2</v>
-      </c>
       <c r="S56" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.0529999999999999E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W56" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -13230,11 +13708,11 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11.927283333333332</v>
       </c>
       <c r="E57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>715.63699999999994</v>
       </c>
       <c r="F57">
@@ -13243,12 +13721,12 @@
       <c r="G57">
         <v>684.84841983199999</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="I57" s="18"/>
+      <c r="H57" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="I57" s="17"/>
       <c r="J57" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="K57">
         <v>875.64478069384813</v>
@@ -13257,32 +13735,33 @@
         <v>0.27859736121145401</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.27859648257442482</v>
       </c>
-      <c r="N57" t="s">
-        <v>195</v>
-      </c>
-      <c r="O57">
+      <c r="N57" s="12"/>
+      <c r="O57" t="s">
+        <v>239</v>
+      </c>
+      <c r="P57">
         <v>857.44035090000034</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>865.05128518565994</v>
       </c>
-      <c r="Q57" s="12">
+      <c r="R57" s="12">
         <f t="shared" si="6"/>
         <v>0.26312810270901327</v>
       </c>
-      <c r="R57" s="13">
-        <f t="shared" si="7"/>
-        <v>-1.2097937133587512E-2</v>
-      </c>
       <c r="S57" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.21E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W57" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -13293,11 +13772,11 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.80586666666666662</v>
       </c>
       <c r="E58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>48.351999999999997</v>
       </c>
       <c r="F58">
@@ -13306,12 +13785,12 @@
       <c r="G58">
         <v>1042.9837969709999</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="I58" s="18"/>
+      <c r="H58" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="I58" s="17"/>
       <c r="J58" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="K58">
         <v>1286.1944229437479</v>
@@ -13320,32 +13799,33 @@
         <v>0.23420849888566209</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.23318734833568119</v>
       </c>
-      <c r="N58" t="s">
-        <v>198</v>
-      </c>
-      <c r="O58">
+      <c r="N58" s="12"/>
+      <c r="O58" t="s">
+        <v>242</v>
+      </c>
+      <c r="P58">
         <v>818.3367384000012</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>1277.933433799529</v>
       </c>
-      <c r="Q58" s="12">
+      <c r="R58" s="12">
         <f t="shared" si="6"/>
         <v>0.22526681383820366</v>
       </c>
-      <c r="R58" s="13">
-        <f t="shared" si="7"/>
-        <v>-6.422815242280216E-3</v>
-      </c>
       <c r="S58" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.4200000000000004E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W58" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -13356,11 +13836,11 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.8160000000000007</v>
       </c>
       <c r="E59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>588.96</v>
       </c>
       <c r="F59">
@@ -13369,12 +13849,12 @@
       <c r="G59">
         <v>844.422064514</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="I59" s="18"/>
+      <c r="H59" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="17"/>
       <c r="J59" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="K59">
         <v>1087.616110754589</v>
@@ -13383,32 +13863,33 @@
         <v>0.30092509760304048</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.28800058224503799</v>
       </c>
-      <c r="N59" t="s">
-        <v>201</v>
-      </c>
-      <c r="O59">
+      <c r="N59" s="12"/>
+      <c r="O59" t="s">
+        <v>245</v>
+      </c>
+      <c r="P59">
         <v>717.40328900000168</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>1025.97020552298</v>
       </c>
-      <c r="Q59" s="12">
+      <c r="R59" s="12">
         <f t="shared" si="6"/>
         <v>0.2149969175822857</v>
       </c>
-      <c r="R59" s="13">
-        <f t="shared" si="7"/>
-        <v>-5.6679838246271534E-2</v>
-      </c>
       <c r="S59" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.6680000000000001E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W59" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -13419,11 +13900,11 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13.850033333333332</v>
       </c>
       <c r="E60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>831.00199999999995</v>
       </c>
       <c r="F60">
@@ -13432,12 +13913,12 @@
       <c r="G60">
         <v>812.48444796000001</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="I60" s="18"/>
+      <c r="H60" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="I60" s="17"/>
       <c r="J60" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="K60">
         <v>928.10180427269586</v>
@@ -13446,32 +13927,33 @@
         <v>0.142310132540058</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.14230100847221125</v>
       </c>
-      <c r="N60" t="s">
-        <v>204</v>
-      </c>
-      <c r="O60">
+      <c r="N60" s="12"/>
+      <c r="O60" t="s">
+        <v>248</v>
+      </c>
+      <c r="P60">
         <v>548.25659099999984</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>1035.824466025884</v>
       </c>
-      <c r="Q60" s="12">
+      <c r="R60" s="12">
         <f t="shared" si="6"/>
         <v>0.27488528380653932</v>
       </c>
-      <c r="R60" s="13">
-        <f t="shared" si="7"/>
-        <v>0.11606772151208637</v>
-      </c>
       <c r="S60" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.11607000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W60" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -13482,11 +13964,11 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>463.13668333333334</v>
       </c>
       <c r="E61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>27788.201000000001</v>
       </c>
       <c r="F61">
@@ -13495,12 +13977,12 @@
       <c r="G61">
         <v>1036.0607604459999</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="I61" s="18"/>
+      <c r="H61" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I61" s="17"/>
       <c r="J61" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="K61">
         <v>1172.042609135658</v>
@@ -13509,622 +13991,624 @@
         <v>0.13124891307641179</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.13124891307641179</v>
       </c>
-      <c r="N61" t="s">
-        <v>207</v>
-      </c>
-      <c r="O61">
+      <c r="N61" s="12"/>
+      <c r="O61" t="s">
+        <v>251</v>
+      </c>
+      <c r="P61">
         <v>1080.9009071999999</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>1255.4227582098631</v>
       </c>
-      <c r="Q61" s="12">
+      <c r="R61" s="12">
         <f t="shared" si="6"/>
         <v>0.21172696248956768</v>
       </c>
-      <c r="R61" s="13">
-        <f t="shared" si="7"/>
-        <v>7.1140885514132557E-2</v>
-      </c>
       <c r="S61" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.1139999999999995E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H62" s="17"/>
-      <c r="I62" s="18"/>
+      <c r="W61" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="M62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="13"/>
+      <c r="N62" s="12"/>
+      <c r="R62" s="12"/>
       <c r="S62" s="13"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H63" s="17"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H64" s="17"/>
-      <c r="I64" s="18"/>
+      <c r="W62" s="13"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="17"/>
-      <c r="I65" s="18"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H66" s="17"/>
-      <c r="I66" s="18"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H67" s="17"/>
-      <c r="I67" s="18"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="17"/>
-      <c r="I69" s="18"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="17"/>
-      <c r="I70" s="18"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="17"/>
-      <c r="I71" s="18"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="17"/>
-      <c r="I72" s="18"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="17"/>
-      <c r="I73" s="18"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H74" s="17"/>
-      <c r="I74" s="18"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H75" s="17"/>
-      <c r="I75" s="18"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H76" s="17"/>
-      <c r="I76" s="18"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="17"/>
-      <c r="I77" s="18"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H78" s="17"/>
-      <c r="I78" s="18"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="17"/>
-      <c r="I79" s="18"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H80" s="17"/>
-      <c r="I80" s="18"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H81" s="17"/>
-      <c r="I81" s="18"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H82" s="17"/>
-      <c r="I82" s="18"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H83" s="17"/>
-      <c r="I83" s="18"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H84" s="17"/>
-      <c r="I84" s="18"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H85" s="17"/>
-      <c r="I85" s="18"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H86" s="17"/>
-      <c r="I86" s="18"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H87" s="17"/>
-      <c r="I87" s="18"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H88" s="17"/>
-      <c r="I88" s="18"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H89" s="17"/>
-      <c r="I89" s="18"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H90" s="17"/>
-      <c r="I90" s="18"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H91" s="17"/>
-      <c r="I91" s="18"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H92" s="17"/>
-      <c r="I92" s="18"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H93" s="17"/>
-      <c r="I93" s="18"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H94" s="17"/>
-      <c r="I94" s="18"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H95" s="17"/>
-      <c r="I95" s="18"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H96" s="17"/>
-      <c r="I96" s="18"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H97" s="17"/>
-      <c r="I97" s="18"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="17"/>
-      <c r="I98" s="18"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="17"/>
-      <c r="I99" s="18"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="17"/>
-      <c r="I100" s="18"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H101" s="17"/>
-      <c r="I101" s="18"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="17"/>
-      <c r="I102" s="18"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="17"/>
-      <c r="I103" s="18"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="17"/>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H104" s="17"/>
-      <c r="I104" s="18"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="17"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H105" s="17"/>
-      <c r="I105" s="18"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="17"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="17"/>
-      <c r="I106" s="18"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="17"/>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="17"/>
-      <c r="I107" s="18"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="17"/>
-      <c r="I108" s="18"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="17"/>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="17"/>
-      <c r="I109" s="18"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="17"/>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H110" s="17"/>
-      <c r="I110" s="18"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="17"/>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="17"/>
-      <c r="I111" s="18"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="17"/>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="17"/>
-      <c r="I112" s="18"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="17"/>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="17"/>
-      <c r="I113" s="18"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="17"/>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="17"/>
-      <c r="I114" s="18"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="17"/>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="17"/>
-      <c r="I115" s="18"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="17"/>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="17"/>
-      <c r="I116" s="18"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="17"/>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="17"/>
-      <c r="I117" s="18"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="17"/>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="17"/>
-      <c r="I118" s="18"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="17"/>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="17"/>
-      <c r="I119" s="18"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="17"/>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="17"/>
-      <c r="I120" s="18"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="17"/>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="17"/>
-      <c r="I121" s="18"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="17"/>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="17"/>
-      <c r="I122" s="18"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="17"/>
-      <c r="I123" s="18"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="17"/>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="17"/>
-      <c r="I124" s="18"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="17"/>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="17"/>
-      <c r="I125" s="18"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="17"/>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="17"/>
-      <c r="I126" s="18"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="17"/>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="17"/>
-      <c r="I127" s="18"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="17"/>
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H128" s="17"/>
-      <c r="I128" s="18"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="17"/>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="17"/>
-      <c r="I129" s="18"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="17"/>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="17"/>
-      <c r="I130" s="18"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="17"/>
     </row>
     <row r="131" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="17"/>
-      <c r="I131" s="18"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="17"/>
     </row>
     <row r="132" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="17"/>
-      <c r="I132" s="18"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="17"/>
     </row>
     <row r="133" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="17"/>
-      <c r="I133" s="18"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="17"/>
     </row>
     <row r="134" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="17"/>
-      <c r="I134" s="18"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="17"/>
     </row>
     <row r="135" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="17"/>
-      <c r="I135" s="18"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="17"/>
     </row>
     <row r="136" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="17"/>
-      <c r="I136" s="18"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="17"/>
     </row>
     <row r="137" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="17"/>
-      <c r="I137" s="18"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="17"/>
     </row>
     <row r="138" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="17"/>
-      <c r="I138" s="18"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="17"/>
     </row>
     <row r="139" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="17"/>
-      <c r="I139" s="18"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="17"/>
     </row>
     <row r="140" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="17"/>
-      <c r="I140" s="18"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="17"/>
     </row>
     <row r="141" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="17"/>
-      <c r="I141" s="18"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="17"/>
     </row>
     <row r="142" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="17"/>
-      <c r="I142" s="18"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="17"/>
     </row>
     <row r="143" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="17"/>
-      <c r="I143" s="18"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="17"/>
     </row>
     <row r="144" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="17"/>
-      <c r="I144" s="18"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="17"/>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="17"/>
-      <c r="I145" s="18"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="17"/>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="17"/>
-      <c r="I146" s="18"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="17"/>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="17"/>
-      <c r="I147" s="18"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="17"/>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="17"/>
-      <c r="I148" s="18"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="17"/>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="17"/>
-      <c r="I149" s="18"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="17"/>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="17"/>
-      <c r="I150" s="18"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="17"/>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="17"/>
-      <c r="I151" s="18"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="17"/>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="17"/>
-      <c r="I152" s="18"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="17"/>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="17"/>
-      <c r="I153" s="18"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="17"/>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="17"/>
-      <c r="I154" s="18"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="17"/>
     </row>
     <row r="155" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="17"/>
-      <c r="I155" s="18"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="17"/>
     </row>
     <row r="156" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="17"/>
-      <c r="I156" s="18"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="17"/>
     </row>
     <row r="157" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="17"/>
-      <c r="I157" s="18"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="17"/>
     </row>
     <row r="158" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="17"/>
-      <c r="I158" s="18"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="17"/>
     </row>
     <row r="159" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="17"/>
-      <c r="I159" s="18"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="17"/>
     </row>
     <row r="160" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="17"/>
-      <c r="I160" s="18"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="17"/>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="17"/>
-      <c r="I161" s="18"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="17"/>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="17"/>
-      <c r="I162" s="18"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="17"/>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="17"/>
-      <c r="I163" s="18"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="17"/>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="17"/>
-      <c r="I164" s="18"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="17"/>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="17"/>
-      <c r="I165" s="18"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="17"/>
     </row>
     <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="17"/>
-      <c r="I166" s="18"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="17"/>
     </row>
     <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="17"/>
-      <c r="I167" s="18"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="17"/>
     </row>
     <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="17"/>
-      <c r="I168" s="18"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="17"/>
     </row>
     <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="17"/>
-      <c r="I169" s="18"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="17"/>
     </row>
     <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="17"/>
-      <c r="I170" s="18"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="17"/>
     </row>
     <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="17"/>
-      <c r="I171" s="18"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="17"/>
     </row>
     <row r="172" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H172" s="17"/>
-      <c r="I172" s="18"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="17"/>
     </row>
     <row r="173" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="17"/>
-      <c r="I173" s="18"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="17"/>
     </row>
     <row r="174" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="17"/>
-      <c r="I174" s="18"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="17"/>
     </row>
     <row r="175" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H175" s="17"/>
-      <c r="I175" s="18"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="17"/>
     </row>
     <row r="176" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H176" s="17"/>
-      <c r="I176" s="18"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="17"/>
     </row>
     <row r="177" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H177" s="17"/>
-      <c r="I177" s="18"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="17"/>
     </row>
     <row r="178" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H178" s="17"/>
-      <c r="I178" s="18"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="17"/>
     </row>
     <row r="179" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H179" s="17"/>
-      <c r="I179" s="18"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="17"/>
     </row>
     <row r="180" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H180" s="17"/>
-      <c r="I180" s="18"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="17"/>
     </row>
     <row r="181" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="17"/>
-      <c r="I181" s="18"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="17"/>
     </row>
     <row r="182" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H182" s="17"/>
-      <c r="I182" s="18"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="17"/>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H183" s="17"/>
-      <c r="I183" s="18"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="17"/>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H184" s="17"/>
-      <c r="I184" s="18"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="17"/>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H185" s="17"/>
-      <c r="I185" s="18"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="17"/>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H186" s="17"/>
-      <c r="I186" s="18"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="17"/>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H187" s="17"/>
-      <c r="I187" s="18"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="17"/>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="17"/>
-      <c r="I188" s="18"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="17"/>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="17"/>
-      <c r="I189" s="18"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="17"/>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="17"/>
-      <c r="I190" s="18"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="17"/>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H191" s="17"/>
-      <c r="I191" s="18"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="17"/>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="17"/>
-      <c r="I192" s="18"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="17"/>
     </row>
     <row r="193" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H193" s="17"/>
-      <c r="I193" s="18"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="17"/>
     </row>
     <row r="194" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H194" s="17"/>
-      <c r="I194" s="18"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="17"/>
     </row>
     <row r="195" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H195" s="17"/>
-      <c r="I195" s="18"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="17"/>
     </row>
     <row r="196" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H196" s="17"/>
-      <c r="I196" s="18"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="17"/>
     </row>
     <row r="197" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H197" s="17"/>
-      <c r="I197" s="18"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="17"/>
     </row>
     <row r="198" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H198" s="17"/>
-      <c r="I198" s="18"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="17"/>
     </row>
     <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="17"/>
-      <c r="I199" s="18"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="17"/>
     </row>
     <row r="200" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H200" s="17"/>
-      <c r="I200" s="18"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="17"/>
     </row>
     <row r="201" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="17"/>
-      <c r="I201" s="18"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="17"/>
     </row>
     <row r="202" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H202" s="17"/>
-      <c r="I202" s="18"/>
+      <c r="H202" s="16"/>
+      <c r="I202" s="17"/>
     </row>
     <row r="203" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H203" s="17"/>
-      <c r="I203" s="18"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="17"/>
     </row>
     <row r="204" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H204" s="17"/>
-      <c r="I204" s="18"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="17"/>
     </row>
     <row r="205" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H205" s="17"/>
-      <c r="I205" s="18"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="17"/>
     </row>
     <row r="206" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="17"/>
-      <c r="I206" s="18"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="17"/>
     </row>
     <row r="207" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H207" s="17"/>
-      <c r="I207" s="18"/>
+      <c r="H207" s="16"/>
+      <c r="I207" s="17"/>
     </row>
     <row r="208" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="17"/>
-      <c r="I208" s="18"/>
+      <c r="H208" s="16"/>
+      <c r="I208" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="207">
@@ -14336,72 +14820,48 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
   </mergeCells>
-  <conditionalFormatting sqref="R2:R61 R63:R1048576">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="notBetween">
-      <formula>-0.1</formula>
-      <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="lessThan">
+  <conditionalFormatting sqref="R1:R61 R63:R1048576">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q61 Q63:Q1048576">
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S61 S63:S1048576">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="notBetween">
-      <formula>-0.1</formula>
-      <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="25" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O61 O63:O1048576">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="P2:P61 P63:P1048576">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
       <formula>1800</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R62">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P62">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>1800</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S1048576">
+    <cfRule type="cellIs" dxfId="5" priority="24" operator="notBetween">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q62">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S62">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
+  <conditionalFormatting sqref="W2:W1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>1800</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14413,9 +14873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14437,46 +14897,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -14484,13 +14944,13 @@
         <v>43745</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="D2">
         <v>469154.88979999977</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="H2">
         <v>3603.7618333999999</v>
@@ -14512,13 +14972,13 @@
         <v>43768</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="D3">
         <v>592286.43533333309</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="H3">
         <v>3600.6243162000001</v>
@@ -14535,7 +14995,7 @@
         <v>-2.8570731981184649E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -14543,16 +15003,16 @@
         <v>43775</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="D4">
         <v>471229.1394000001</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="H4">
         <v>3893.4923675999999</v>
@@ -14574,16 +15034,16 @@
         <v>43775</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D5">
         <v>1428685.831666667</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="H5">
         <v>3661.4549959999999</v>
@@ -14600,7 +15060,7 @@
         <v>0.11307985414694049</v>
       </c>
       <c r="M5" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -14608,16 +15068,16 @@
         <v>43768</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="D6">
         <v>592286.43533333309</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="H6">
         <v>3786.4904317999999</v>
@@ -14639,16 +15099,16 @@
         <v>43745</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="D7">
         <v>469154.88979999977</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>3601.0539597000002</v>
@@ -14670,16 +15130,16 @@
         <v>43795</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="D8">
         <v>1275847.0800666669</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="H8">
         <v>3902.6114637000001</v>
@@ -14701,16 +15161,16 @@
         <v>43768</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="D9">
         <v>592286.43533333309</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="H9">
         <v>7200.1489792000002</v>
@@ -14732,16 +15192,16 @@
         <v>43745</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="D10">
         <v>475403.35446666653</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="H10">
         <v>3601.0659418</v>
@@ -14758,7 +15218,7 @@
         <v>0.12671645898302314</v>
       </c>
       <c r="M10" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -14766,16 +15226,16 @@
         <v>43768</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="D11">
         <v>600912.63166666601</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="H11">
         <v>3600.2064667</v>
@@ -14797,16 +15257,16 @@
         <v>43745</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="D12">
         <v>494345.58179999999</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="H12">
         <v>7170.8296077000005</v>
@@ -14823,7 +15283,7 @@
         <v>6.5150951451266648E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -14831,16 +15291,16 @@
         <v>43768</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="D13">
         <v>593149.57433333329</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="H13">
         <v>5056.3446751000001</v>
@@ -14862,16 +15322,16 @@
         <v>43795</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="D14">
         <v>1372973.317933334</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H14">
         <v>7318.0830248000002</v>
@@ -14893,16 +15353,16 @@
         <v>43754</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="D15">
         <v>636315.92813333333</v>
       </c>
       <c r="F15" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H15">
         <v>4347.3198690999998</v>
@@ -14924,16 +15384,16 @@
         <v>43745</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="D16">
         <v>538213.87013333349</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="H16">
         <v>7527.1272962000003</v>
@@ -14950,7 +15410,7 @@
         <v>0.13716106668719871</v>
       </c>
       <c r="M16" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -14958,16 +15418,16 @@
         <v>43768</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="D17">
         <v>632705.85299999989</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="H17">
         <v>6666.2375192999998</v>
@@ -14989,16 +15449,16 @@
         <v>43795</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="D18">
         <v>1432583.6294</v>
       </c>
       <c r="F18" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="G18" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="H18">
         <v>7733.803919</v>
@@ -15020,16 +15480,16 @@
         <v>43745</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="D19">
         <v>496052.98146666668</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="G19" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="H19">
         <v>7561.5297926000003</v>
@@ -15046,7 +15506,7 @@
         <v>6.2898892186371402E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -15054,16 +15514,16 @@
         <v>43768</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="D20">
         <v>595195.38266666664</v>
       </c>
       <c r="F20" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="G20" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="H20">
         <v>3968.0924328999999</v>
@@ -15085,16 +15545,16 @@
         <v>43795</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="D21">
         <v>1381861.7179333339</v>
       </c>
       <c r="F21" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="G21" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="H21">
         <v>7200.6445293999996</v>
@@ -15116,16 +15576,16 @@
         <v>43745</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="D22">
         <v>496052.98146666668</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="H22">
         <v>3601.0062647</v>
@@ -15142,7 +15602,7 @@
         <v>6.3194700642623072E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -15150,16 +15610,16 @@
         <v>43768</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="D23">
         <v>595195.38266666664</v>
       </c>
       <c r="F23" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="G23" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="H23">
         <v>3600.8390132</v>
@@ -15181,16 +15641,16 @@
         <v>43795</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="D24">
         <v>1381861.7179333339</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="G24" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="H24">
         <v>3601.3254473000002</v>
@@ -15212,25 +15672,25 @@
         <v>43745</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
-      </c>
-      <c r="D25" s="15">
+        <v>315</v>
+      </c>
+      <c r="D25" s="14">
         <v>496052.98146666668</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="G25" t="s">
-        <v>289</v>
-      </c>
-      <c r="H25" s="15">
+        <v>332</v>
+      </c>
+      <c r="H25" s="14">
         <v>7048.7007022999996</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <v>448073.09313333308</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
         <f t="shared" si="1"/>
         <v>47979.888333333598</v>
       </c>
@@ -15239,7 +15699,7 @@
         <v>9.6723314093330792E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="N25">
         <v>83</v>
@@ -15250,25 +15710,25 @@
         <v>43768</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D26" s="15">
+        <v>319</v>
+      </c>
+      <c r="D26" s="14">
         <v>595195.38266666664</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="G26" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="15">
+        <v>335</v>
+      </c>
+      <c r="H26" s="14">
         <v>7200.4963602999997</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="14">
         <v>559057.74033333291</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14">
         <f t="shared" si="1"/>
         <v>36137.64233333373</v>
       </c>
@@ -15285,25 +15745,25 @@
         <v>43795</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="15">
+        <v>336</v>
+      </c>
+      <c r="D27" s="14">
         <v>1381861.7179333339</v>
       </c>
       <c r="F27" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="G27" t="s">
-        <v>295</v>
-      </c>
-      <c r="H27" s="15">
+        <v>338</v>
+      </c>
+      <c r="H27" s="14">
         <v>7888.9231545000002</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <v>1204977.810166667</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14">
         <f t="shared" si="1"/>
         <v>176883.90776666696</v>
       </c>
@@ -15320,16 +15780,16 @@
         <v>43745</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="D28">
         <v>588323.39749999973</v>
       </c>
       <c r="F28" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="G28" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="H28">
         <v>6176.4342452999999</v>
@@ -15337,7 +15797,7 @@
       <c r="I28">
         <v>541168.93666666653</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="14">
         <f t="shared" si="1"/>
         <v>47154.4608333332</v>
       </c>
@@ -15346,7 +15806,7 @@
         <v>8.0150578803613232E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="N28">
         <v>81</v>
@@ -15357,16 +15817,16 @@
         <v>43768</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="D29">
         <v>692416.29500000016</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="G29" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="H29">
         <v>7200.3923278000002</v>
@@ -15374,7 +15834,7 @@
       <c r="I29">
         <v>661103.9565833332</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="14">
         <f t="shared" si="1"/>
         <v>31312.338416666957</v>
       </c>
@@ -15391,16 +15851,16 @@
         <v>43795</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="D30">
         <v>1565696.622916667</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G30" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="H30">
         <v>7200.5053572999996</v>
@@ -15408,7 +15868,7 @@
       <c r="I30">
         <v>1410468.586666666</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <f t="shared" si="1"/>
         <v>155228.03625000105</v>
       </c>

--- a/vrp_case_study/Solve Times Summary.xlsx
+++ b/vrp_case_study/Solve Times Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" state="visible" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -122,20 +122,19 @@
     <xf numFmtId="15" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="15" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,171 +143,7 @@
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -346,234 +181,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -908,7 +515,7 @@
                   <v>61.30619999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>187.2671</v>
+                  <v>1041.7548</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1228,13 +835,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>172.95837812</v>
+                  <v>169.40622469</v>
                 </pt>
                 <pt idx="1">
-                  <v>265.35310027</v>
+                  <v>280.6807104100001</v>
                 </pt>
                 <pt idx="2">
-                  <v>364.21926135</v>
+                  <v>357.49913709</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1296,13 +903,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>209.98448915</v>
+                  <v>199.6632517100001</v>
                 </pt>
                 <pt idx="1">
-                  <v>310.78821514</v>
+                  <v>301.29726425</v>
                 </pt>
                 <pt idx="2">
-                  <v>559.6389866999999</v>
+                  <v>558.38841605</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1622,13 +1229,13 @@
                 <formatCode>0.00%</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>0.0046</v>
+                  <v>0.004973</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.00932</v>
+                  <v>0.004569999999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.003628999999999999</v>
+                  <v>0.004892</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1693,7 +1300,7 @@
                   <v>-0.005195</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.010691</v>
+                  <v>0.008452000000000001</v>
                 </pt>
                 <pt idx="2">
                   <v>0</v>
@@ -2003,10 +1610,10 @@
                 <formatCode>0</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>8</v>
+                  <v>9</v>
                 </pt>
                 <pt idx="1">
-                  <v>8</v>
+                  <v>9</v>
                 </pt>
                 <pt idx="2">
                   <v>7</v>
@@ -2060,7 +1667,7 @@
                   <v>5</v>
                 </pt>
                 <pt idx="1">
-                  <v>4</v>
+                  <v>8</v>
                 </pt>
                 <pt idx="2">
                   <v>0</v>
@@ -2762,13 +2369,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>172.95837812</v>
+                  <v>169.40622469</v>
                 </pt>
                 <pt idx="1">
-                  <v>265.35310027</v>
+                  <v>280.6807104100001</v>
                 </pt>
                 <pt idx="2">
-                  <v>364.21926135</v>
+                  <v>357.49913709</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2830,13 +2437,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>209.98448915</v>
+                  <v>199.6632517100001</v>
                 </pt>
                 <pt idx="1">
-                  <v>310.78821514</v>
+                  <v>301.29726425</v>
                 </pt>
                 <pt idx="2">
-                  <v>559.6389866999999</v>
+                  <v>558.38841605</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2934,7 +2541,7 @@
                   <v>61.30619999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>187.2671</v>
+                  <v>1041.7548</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3670,18 +3277,18 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
-    <col width="10" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
-    <col width="16" bestFit="1" customWidth="1" style="18" min="3" max="3"/>
-    <col width="12.140625" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
-    <col width="9.5703125" customWidth="1" style="18" min="7" max="7"/>
-    <col width="9.42578125" customWidth="1" style="18" min="8" max="8"/>
+    <col width="8" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="10" bestFit="1" customWidth="1" style="15" min="2" max="2"/>
+    <col width="16" bestFit="1" customWidth="1" style="15" min="3" max="3"/>
+    <col width="12.140625" bestFit="1" customWidth="1" style="15" min="4" max="4"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" style="15" min="5" max="5"/>
+    <col width="9.5703125" customWidth="1" style="15" min="7" max="7"/>
+    <col width="9.42578125" customWidth="1" style="15" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="5">
@@ -3766,7 +3373,7 @@
         <f>_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F2)-2)*10,0,10,1))</f>
         <v/>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f>AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G2)-2)*10,0,10,1))</f>
         <v/>
       </c>
@@ -3812,7 +3419,7 @@
         <f>_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F3)-2)*10,0,10,1))</f>
         <v/>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f>AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G3)-2)*10,0,10,1))</f>
         <v/>
       </c>
@@ -3858,7 +3465,7 @@
         <f>_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F4)-2)*10,0,10,1))</f>
         <v/>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G4)-2)*10,0,10,1))</f>
         <v/>
       </c>
@@ -3904,7 +3511,7 @@
         <f>_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F5)-2)*10,0,10,1))</f>
         <v/>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f>AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G5)-2)*10,0,10,1))</f>
         <v/>
       </c>
@@ -3950,7 +3557,7 @@
         <f>_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F6)-2)*10,0,10,1))</f>
         <v/>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G6)-2)*10,0,10,1))</f>
         <v/>
       </c>
@@ -3996,7 +3603,7 @@
         <f>_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F7)-2)*10,0,10,1))</f>
         <v/>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f>AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G7)-2)*10,0,10,1))</f>
         <v/>
       </c>
@@ -4026,7 +3633,7 @@
     <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="4">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="lessThan" dxfId="0">
+    <cfRule type="cellIs" priority="3" operator="lessThan" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4045,35 +3652,35 @@
   <dimension ref="A1:W208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
-    <col width="10" customWidth="1" style="18" min="2" max="2"/>
-    <col width="5.85546875" bestFit="1" customWidth="1" style="18" min="3" max="3"/>
-    <col width="14.140625" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
-    <col width="15.28515625" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
-    <col width="15.28515625" customWidth="1" style="18" min="7" max="7"/>
+    <col width="8" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="10" customWidth="1" style="15" min="2" max="2"/>
+    <col width="5.85546875" bestFit="1" customWidth="1" style="15" min="3" max="3"/>
+    <col width="14.140625" bestFit="1" customWidth="1" style="15" min="4" max="4"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" style="15" min="5" max="5"/>
+    <col width="15.28515625" bestFit="1" customWidth="1" style="15" min="6" max="6"/>
+    <col width="15.28515625" customWidth="1" style="15" min="7" max="7"/>
     <col width="150.7109375" customWidth="1" style="17" min="8" max="8"/>
     <col width="9.140625" customWidth="1" style="17" min="9" max="9"/>
     <col width="12.140625" bestFit="1" customWidth="1" style="17" min="10" max="10"/>
-    <col width="13.85546875" customWidth="1" style="18" min="11" max="11"/>
-    <col hidden="1" width="13.85546875" customWidth="1" style="12" min="12" max="12"/>
-    <col width="13.85546875" customWidth="1" style="18" min="13" max="14"/>
-    <col width="13.28515625" customWidth="1" style="18" min="15" max="15"/>
-    <col width="16" bestFit="1" customWidth="1" style="18" min="16" max="16"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" style="18" min="17" max="17"/>
-    <col width="19.28515625" customWidth="1" style="18" min="18" max="18"/>
-    <col width="14.140625" customWidth="1" style="18" min="19" max="19"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" style="18" min="21" max="22"/>
-    <col width="14.140625" customWidth="1" style="18" min="23" max="23"/>
+    <col width="13.85546875" customWidth="1" style="15" min="11" max="11"/>
+    <col hidden="1" width="13.85546875" customWidth="1" style="11" min="12" max="12"/>
+    <col width="13.85546875" customWidth="1" style="15" min="13" max="14"/>
+    <col width="13.28515625" customWidth="1" style="15" min="15" max="15"/>
+    <col width="16" bestFit="1" customWidth="1" style="15" min="16" max="16"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="15" min="17" max="17"/>
+    <col width="19.28515625" customWidth="1" style="15" min="18" max="18"/>
+    <col width="14.140625" customWidth="1" style="15" min="19" max="19"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="15" min="20" max="20"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="15" min="21" max="22"/>
+    <col width="14.140625" customWidth="1" style="15" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4188,7 +3795,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="18">
+    <row r="2" ht="15" customHeight="1" s="15">
       <c r="A2" t="n">
         <v>6</v>
       </c>
@@ -4245,11 +3852,11 @@
       <c r="K2" t="n">
         <v>638.4513379340638</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <f>ROUND((K2-G2)/G2,5)</f>
         <v/>
       </c>
-      <c r="N2" s="12" t="inlineStr">
+      <c r="N2" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[5, 4], [4, 11], [1, 1]]], "1": [[[2, 6], [6, 11], [3, 8]]]}</t>
         </is>
@@ -4269,11 +3876,11 @@
       <c r="Q2" t="n">
         <v>638.4513379340638</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="11">
         <f>ROUND((Q2-G2)/G2,5)</f>
         <v/>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <f>ROUND((Q2-K2)/K2,5)</f>
         <v/>
       </c>
@@ -4283,12 +3890,12 @@
       <c r="V2" t="n">
         <v>607.8712085577376</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="12">
         <f>ROUND((V2-U2)/U2,5)</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="18">
+    <row r="3" ht="15" customHeight="1" s="15">
       <c r="A3" t="n">
         <v>6</v>
       </c>
@@ -4346,11 +3953,11 @@
       <c r="K3" t="n">
         <v>813.0586880328467</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <f>ROUND((K3-G3)/G3,5)</f>
         <v/>
       </c>
-      <c r="N3" s="12" t="inlineStr">
+      <c r="N3" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[2, 12]], [[4, 2], [5, 12]]], "1": [[[3, 13], [6, 1], [1, 11]]]}</t>
         </is>
@@ -4371,11 +3978,11 @@
       <c r="Q3" t="n">
         <v>813.0586880328467</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <f>ROUND((Q3-G3)/G3,5)</f>
         <v/>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <f>ROUND((Q3-K3)/K3,5)</f>
         <v/>
       </c>
@@ -4385,12 +3992,12 @@
       <c r="V3" t="n">
         <v>788.9363954883892</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="12">
         <f>ROUND((V3-U3)/U3,5)</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="18">
+    <row r="4" ht="15" customHeight="1" s="15">
       <c r="A4" t="n">
         <v>6</v>
       </c>
@@ -4445,13 +4052,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>789.4920054354812</v>
-      </c>
-      <c r="M4" s="12">
+        <v>779.1938241974813</v>
+      </c>
+      <c r="M4" s="11">
         <f>ROUND((K4-G4)/G4,5)</f>
         <v/>
       </c>
-      <c r="N4" s="12" t="inlineStr">
+      <c r="N4" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[6, 5], [4, 3], [5, 4]]], "1": [[]], "2": [[[1, 11], [2, 9], [3, 4]]]}</t>
         </is>
@@ -4467,16 +4074,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>191.9536535</v>
+        <v>182.0879502</v>
       </c>
       <c r="Q4" t="n">
-        <v>789.4920054354812</v>
-      </c>
-      <c r="R4" s="12">
+        <v>779.1938241974813</v>
+      </c>
+      <c r="R4" s="11">
         <f>ROUND((Q4-G4)/G4,5)</f>
         <v/>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <f>ROUND((Q4-K4)/K4,5)</f>
         <v/>
       </c>
@@ -4486,12 +4093,12 @@
       <c r="V4" t="n">
         <v>686.3314631659716</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="12">
         <f>ROUND((V4-U4)/U4,5)</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="18">
+    <row r="5" ht="15" customHeight="1" s="15">
       <c r="A5" t="n">
         <v>6</v>
       </c>
@@ -4549,11 +4156,11 @@
       <c r="K5" t="n">
         <v>872.8408537938346</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <f>ROUND((K5-G5)/G5,5)</f>
         <v/>
       </c>
-      <c r="N5" s="12" t="inlineStr">
+      <c r="N5" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[5, 10], [1, 9]]], "1": [[[6, 5], [4, 11]]], "2": [[[3, 12], [2, 3]]]}</t>
         </is>
@@ -4575,11 +4182,11 @@
       <c r="Q5" t="n">
         <v>872.8408537938346</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <f>ROUND((Q5-G5)/G5,5)</f>
         <v/>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <f>ROUND((Q5-K5)/K5,5)</f>
         <v/>
       </c>
@@ -4589,12 +4196,12 @@
       <c r="V5" t="n">
         <v>840.4624628971646</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="12">
         <f>ROUND((V5-U5)/U5,5)</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="18">
+    <row r="6" ht="15" customHeight="1" s="15">
       <c r="A6" t="n">
         <v>6</v>
       </c>
@@ -4651,11 +4258,11 @@
       <c r="K6" t="n">
         <v>532.0418049721413</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <f>ROUND((K6-G6)/G6,5)</f>
         <v/>
       </c>
-      <c r="N6" s="12" t="inlineStr">
+      <c r="N6" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[4, 8], [2, 1], [1, 12]]], "1": [[]], "2": [[[6, 7], [5, 7], [3, 7]]]}</t>
         </is>
@@ -4676,11 +4283,11 @@
       <c r="Q6" t="n">
         <v>532.0418049721413</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="11">
         <f>ROUND((Q6-G6)/G6,5)</f>
         <v/>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="12">
         <f>ROUND((Q6-K6)/K6,5)</f>
         <v/>
       </c>
@@ -4690,12 +4297,12 @@
       <c r="V6" t="n">
         <v>506.6298814062009</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="12">
         <f>ROUND((V6-U6)/U6,5)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="18">
+    <row r="7" ht="15" customHeight="1" s="15">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -4753,11 +4360,11 @@
       <c r="K7" t="n">
         <v>796.5139784858068</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <f>ROUND((K7-G7)/G7,5)</f>
         <v/>
       </c>
-      <c r="N7" s="12" t="inlineStr">
+      <c r="N7" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[1, 9]]], "1": [[[6, 11], [3, 8]], [[5, 12], [4, 11], [2, 5]]]}</t>
         </is>
@@ -4778,11 +4385,11 @@
       <c r="Q7" t="n">
         <v>796.5139784858068</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <f>ROUND((Q7-G7)/G7,5)</f>
         <v/>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <f>ROUND((Q7-K7)/K7,5)</f>
         <v/>
       </c>
@@ -4792,12 +4399,12 @@
       <c r="V7" t="n">
         <v>760.5100181390749</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="12">
         <f>ROUND((V7-U7)/U7,5)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="18">
+    <row r="8" ht="15" customHeight="1" s="15">
       <c r="A8" t="n">
         <v>6</v>
       </c>
@@ -4852,37 +4459,37 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>779.8894337260737</v>
-      </c>
-      <c r="M8" s="12">
+        <v>774.2253803153903</v>
+      </c>
+      <c r="M8" s="11">
         <f>ROUND((K8-G8)/G8,5)</f>
         <v/>
       </c>
-      <c r="N8" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[3, 1], [4, 10], [2, 7], [5, 3], [6, 5]]], "1": [[[1, 10]]]}</t>
+      <c r="N8" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[1, 10], [5, 3], [2, 7], [6, 5]]], "1": [[[4, 10], [3, 1]]]}</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-3 (1) -&gt; 4 (10) -&gt; 2 (7) -&gt; 5 (3) -&gt; 6 (5)
+1 (10) -&gt; 5 (3) -&gt; 2 (7) -&gt; 6 (5)
 Rigid (capacity 16):
-1 (10)
+4 (10) -&gt; 3 (1)
 </t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>175.1238964000001</v>
+        <v>169.9795729</v>
       </c>
       <c r="Q8" t="n">
-        <v>772.6741840988848</v>
-      </c>
-      <c r="R8" s="12">
+        <v>774.2253803153903</v>
+      </c>
+      <c r="R8" s="11">
         <f>ROUND((Q8-G8)/G8,5)</f>
         <v/>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <f>ROUND((Q8-K8)/K8,5)</f>
         <v/>
       </c>
@@ -4890,14 +4497,14 @@
         <v>719.3032455616758</v>
       </c>
       <c r="V8" t="n">
-        <v>715.5619210524117</v>
-      </c>
-      <c r="W8" s="13">
+        <v>719.3032455616758</v>
+      </c>
+      <c r="W8" s="12">
         <f>ROUND((V8-U8)/U8,5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="18">
+    <row r="9" ht="15" customHeight="1" s="15">
       <c r="A9" t="n">
         <v>6</v>
       </c>
@@ -4954,11 +4561,11 @@
       <c r="K9" t="n">
         <v>743.3214397132895</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <f>ROUND((K9-G9)/G9,5)</f>
         <v/>
       </c>
-      <c r="N9" s="12" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[4, 5]]], "1": [[[5, 4], [6, 6], [1, 10], [2, 1], [3, 5]]]}</t>
         </is>
@@ -4978,11 +4585,11 @@
       <c r="Q9" t="n">
         <v>743.3214397132895</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <f>ROUND((Q9-G9)/G9,5)</f>
         <v/>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <f>ROUND((Q9-K9)/K9,5)</f>
         <v/>
       </c>
@@ -4992,12 +4599,12 @@
       <c r="V9" t="n">
         <v>720.7340698970215</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="12">
         <f>ROUND((V9-U9)/U9,5)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="18">
+    <row r="10" ht="15" customHeight="1" s="15">
       <c r="A10" t="n">
         <v>6</v>
       </c>
@@ -5052,13 +4659,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>678.5606762090117</v>
-      </c>
-      <c r="M10" s="12">
+        <v>665.3718381867769</v>
+      </c>
+      <c r="M10" s="11">
         <f>ROUND((K10-G10)/G10,5)</f>
         <v/>
       </c>
-      <c r="N10" s="12" t="inlineStr">
+      <c r="N10" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[1, 1], [2, 2], [6, 6], [5, 6], [4, 4]], [[3, 14]]], "1": [[]]}</t>
         </is>
@@ -5073,16 +4680,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>225.7582986</v>
+        <v>213.2704117</v>
       </c>
       <c r="Q10" t="n">
-        <v>678.5606762090117</v>
-      </c>
-      <c r="R10" s="12">
+        <v>665.3718381867769</v>
+      </c>
+      <c r="R10" s="11">
         <f>ROUND((Q10-G10)/G10,5)</f>
         <v/>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <f>ROUND((Q10-K10)/K10,5)</f>
         <v/>
       </c>
@@ -5092,12 +4699,12 @@
       <c r="V10" t="n">
         <v>559.7943291449662</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="12">
         <f>ROUND((V10-U10)/U10,5)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="18">
+    <row r="11" ht="15" customHeight="1" s="15">
       <c r="A11" t="n">
         <v>6</v>
       </c>
@@ -5153,38 +4760,38 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>649.8381449394853</v>
-      </c>
-      <c r="M11" s="12">
+        <v>653.2552840577687</v>
+      </c>
+      <c r="M11" s="11">
         <f>ROUND((K11-G11)/G11,5)</f>
         <v/>
       </c>
-      <c r="N11" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[3, 11], [5, 10], [4, 5]]], "1": [[[2, 5]], [[1, 2], [6, 10]]]}</t>
+      <c r="N11" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[4, 5], [5, 10], [3, 11]]], "1": [[[1, 2], [6, 10]], [[2, 5]]]}</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-3 (11) -&gt; 5 (10) -&gt; 4 (5)
+4 (5) -&gt; 5 (10) -&gt; 3 (11)
 Rigid (capacity 16):
+1 (2) -&gt; 6 (10)
 2 (5)
-1 (2) -&gt; 6 (10)
 </t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>178.3174023000001</v>
+        <v>170.2937817000001</v>
       </c>
       <c r="Q11" t="n">
         <v>685.7417399532771</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="11">
         <f>ROUND((Q11-G11)/G11,5)</f>
         <v/>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="12">
         <f>ROUND((Q11-K11)/K11,5)</f>
         <v/>
       </c>
@@ -5194,12 +4801,12 @@
       <c r="V11" t="n">
         <v>647.2463051245879</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="12">
         <f>ROUND((V11-U11)/U11,5)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="18">
+    <row r="12" ht="15" customHeight="1" s="15">
       <c r="A12" t="n">
         <v>9</v>
       </c>
@@ -5263,11 +4870,11 @@
       <c r="K12" t="n">
         <v>667.7763169555091</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <f>ROUND((K12-G12)/G12,5)</f>
         <v/>
       </c>
-      <c r="N12" s="12" t="inlineStr">
+      <c r="N12" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[9, 6], [6, 7], [2, 8], [1, 4], [7, 4]]], "1": [[]], "2": [[[5, 5], [3, 4], [8, 6], [4, 7]]]}</t>
         </is>
@@ -5283,16 +4890,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>235.8595543</v>
+        <v>234.86645</v>
       </c>
       <c r="Q12" t="n">
         <v>667.7763169555091</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="11">
         <f>ROUND((Q12-G12)/G12,5)</f>
         <v/>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="12">
         <f>ROUND((Q12-K12)/K12,5)</f>
         <v/>
       </c>
@@ -5302,12 +4909,12 @@
       <c r="V12" t="n">
         <v>629.7369311852657</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="12">
         <f>ROUND((V12-U12)/U12,5)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="18">
+    <row r="13" ht="15" customHeight="1" s="15">
       <c r="A13" t="n">
         <v>9</v>
       </c>
@@ -5370,11 +4977,11 @@
       <c r="K13" t="n">
         <v>632.2998388405235</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <f>ROUND((K13-G13)/G13,5)</f>
         <v/>
       </c>
-      <c r="N13" s="12" t="inlineStr">
+      <c r="N13" s="11" t="inlineStr">
         <is>
           <t>{"0": [[]], "1": [[[8, 2]]], "2": [[[9, 7], [2, 1], [6, 2], [1, 5], [5, 2], [4, 7], [3, 4], [7, 1]]]}</t>
         </is>
@@ -5395,11 +5002,11 @@
       <c r="Q13" t="n">
         <v>632.2998388405235</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <f>ROUND((Q13-G13)/G13,5)</f>
         <v/>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <f>ROUND((Q13-K13)/K13,5)</f>
         <v/>
       </c>
@@ -5409,12 +5016,12 @@
       <c r="V13" t="n">
         <v>598.2659663419413</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="12">
         <f>ROUND((V13-U13)/U13,5)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="18">
+    <row r="14" ht="15" customHeight="1" s="15">
       <c r="A14" t="n">
         <v>9</v>
       </c>
@@ -5476,13 +5083,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>934.0682967456817</v>
-      </c>
-      <c r="M14" s="12">
+        <v>932.2962654400412</v>
+      </c>
+      <c r="M14" s="11">
         <f>ROUND((K14-G14)/G14,5)</f>
         <v/>
       </c>
-      <c r="N14" s="12" t="inlineStr">
+      <c r="N14" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[4, 6], [6, 6], [8, 8], [9, 8]]], "1": [[[1, 7], [3, 7]]], "2": [[[5, 6], [2, 6], [7, 4]]]}</t>
         </is>
@@ -5499,16 +5106,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>287.8112921000001</v>
+        <v>281.4502775999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>934.0682967456817</v>
-      </c>
-      <c r="R14" s="12">
+        <v>932.2962654400412</v>
+      </c>
+      <c r="R14" s="11">
         <f>ROUND((Q14-G14)/G14,5)</f>
         <v/>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="12">
         <f>ROUND((Q14-K14)/K14,5)</f>
         <v/>
       </c>
@@ -5518,12 +5125,12 @@
       <c r="V14" t="n">
         <v>875.6021156551393</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="12">
         <f>ROUND((V14-U14)/U14,5)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="18">
+    <row r="15" ht="15" customHeight="1" s="15">
       <c r="A15" t="n">
         <v>9</v>
       </c>
@@ -5586,11 +5193,11 @@
       <c r="K15" t="n">
         <v>530.3001190185752</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <f>ROUND((K15-G15)/G15,5)</f>
         <v/>
       </c>
-      <c r="N15" s="12" t="inlineStr">
+      <c r="N15" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[7, 4], [8, 9], [4, 1], [9, 2], [2, 3], [5, 6]], [[1, 4], [6, 8], [3, 7]]], "1": [[]]}</t>
         </is>
@@ -5610,11 +5217,11 @@
       <c r="Q15" t="n">
         <v>530.3001190185752</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <f>ROUND((Q15-G15)/G15,5)</f>
         <v/>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="12">
         <f>ROUND((Q15-K15)/K15,5)</f>
         <v/>
       </c>
@@ -5624,12 +5231,12 @@
       <c r="V15" t="n">
         <v>508.0636004548157</v>
       </c>
-      <c r="W15" s="13">
+      <c r="W15" s="12">
         <f>ROUND((V15-U15)/U15,5)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="18">
+    <row r="16" ht="15" customHeight="1" s="15">
       <c r="A16" t="n">
         <v>9</v>
       </c>
@@ -5692,11 +5299,11 @@
       <c r="K16" t="n">
         <v>795.4260237259559</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <f>ROUND((K16-G16)/G16,5)</f>
         <v/>
       </c>
-      <c r="N16" s="12" t="inlineStr">
+      <c r="N16" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[3, 4], [1, 3], [6, 8], [8, 4]]], "1": [[[7, 2], [2, 3], [9, 1], [4, 7], [5, 6]]]}</t>
         </is>
@@ -5716,11 +5323,11 @@
       <c r="Q16" t="n">
         <v>795.4260237259559</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <f>ROUND((Q16-G16)/G16,5)</f>
         <v/>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="12">
         <f>ROUND((Q16-K16)/K16,5)</f>
         <v/>
       </c>
@@ -5730,12 +5337,12 @@
       <c r="V16" t="n">
         <v>752.4949209428721</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="12">
         <f>ROUND((V16-U16)/U16,5)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="18">
+    <row r="17" ht="15" customHeight="1" s="15">
       <c r="A17" t="n">
         <v>9</v>
       </c>
@@ -5798,11 +5405,11 @@
       <c r="K17" t="n">
         <v>606.8384365344339</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <f>ROUND((K17-G17)/G17,5)</f>
         <v/>
       </c>
-      <c r="N17" s="12" t="inlineStr">
+      <c r="N17" s="11" t="inlineStr">
         <is>
           <t>{"0": [[]], "1": [[[9, 4], [4, 6], [1, 6], [5, 2], [6, 2], [2, 2], [7, 7]]], "2": [[[3, 5], [8, 7]]]}</t>
         </is>
@@ -5823,11 +5430,11 @@
       <c r="Q17" t="n">
         <v>606.8384365344339</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="11">
         <f>ROUND((Q17-G17)/G17,5)</f>
         <v/>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="12">
         <f>ROUND((Q17-K17)/K17,5)</f>
         <v/>
       </c>
@@ -5837,12 +5444,12 @@
       <c r="V17" t="n">
         <v>578.1636012277588</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="12">
         <f>ROUND((V17-U17)/U17,5)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="18">
+    <row r="18" ht="15" customHeight="1" s="15">
       <c r="A18" t="n">
         <v>9</v>
       </c>
@@ -5904,15 +5511,15 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>734.7596731476024</v>
-      </c>
-      <c r="M18" s="12">
+        <v>727.2300819071808</v>
+      </c>
+      <c r="M18" s="11">
         <f>ROUND((K18-G18)/G18,5)</f>
         <v/>
       </c>
-      <c r="N18" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[4, 3]]], "1": [[[2, 2], [9, 6], [7, 5], [3, 3]], [[8, 1], [5, 7], [1, 2], [6, 5]]]}</t>
+      <c r="N18" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[4, 3]]], "1": [[[8, 1], [5, 7], [1, 2], [6, 5]], [[2, 2], [9, 6], [7, 5], [3, 3]]]}</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -5920,22 +5527,22 @@
           <t xml:space="preserve">11 metre (capacity 30):
 4 (3)
 Rigid (capacity 16):
+8 (1) -&gt; 5 (7) -&gt; 1 (2) -&gt; 6 (5)
 2 (2) -&gt; 9 (6) -&gt; 7 (5) -&gt; 3 (3)
-8 (1) -&gt; 5 (7) -&gt; 1 (2) -&gt; 6 (5)
 </t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>281.1863579000001</v>
+        <v>294.8059946000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>734.7596731476024</v>
-      </c>
-      <c r="R18" s="12">
+        <v>727.2300819071808</v>
+      </c>
+      <c r="R18" s="11">
         <f>ROUND((Q18-G18)/G18,5)</f>
         <v/>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="12">
         <f>ROUND((Q18-K18)/K18,5)</f>
         <v/>
       </c>
@@ -5945,12 +5552,12 @@
       <c r="V18" t="n">
         <v>660.3633141783124</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="12">
         <f>ROUND((V18-U18)/U18,5)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="18">
+    <row r="19" ht="15" customHeight="1" s="15">
       <c r="A19" t="n">
         <v>9</v>
       </c>
@@ -6011,15 +5618,15 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>841.3040532242246</v>
-      </c>
-      <c r="M19" s="12">
+        <v>861.0150341339806</v>
+      </c>
+      <c r="M19" s="11">
         <f>ROUND((K19-G19)/G19,5)</f>
         <v/>
       </c>
-      <c r="N19" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[]], "1": [[[6, 5], [9, 6], [8, 1]]], "2": [[[1, 7], [7, 1], [3, 1], [4, 1], [5, 6], [2, 6]]]}</t>
+      <c r="N19" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[]], "1": [[[6, 5], [9, 6], [8, 1]]], "2": [[[2, 6], [1, 7], [7, 1], [3, 1], [4, 1], [5, 6]]]}</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -6028,21 +5635,21 @@
 Rigid (capacity 16):
 6 (5) -&gt; 9 (6) -&gt; 8 (1)
 8 metre (capacity 22):
-1 (7) -&gt; 7 (1) -&gt; 3 (1) -&gt; 4 (1) -&gt; 5 (6) -&gt; 2 (6)
+2 (6) -&gt; 1 (7) -&gt; 7 (1) -&gt; 3 (1) -&gt; 4 (1) -&gt; 5 (6)
 </t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>284.8996525</v>
+        <v>279.6937158999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>887.7611151354606</v>
-      </c>
-      <c r="R19" s="12">
+        <v>861.0150341339806</v>
+      </c>
+      <c r="R19" s="11">
         <f>ROUND((Q19-G19)/G19,5)</f>
         <v/>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="12">
         <f>ROUND((Q19-K19)/K19,5)</f>
         <v/>
       </c>
@@ -6050,14 +5657,14 @@
         <v>819.5322926332794</v>
       </c>
       <c r="V19" t="n">
-        <v>846.2783736347593</v>
-      </c>
-      <c r="W19" s="13">
+        <v>819.5322926332793</v>
+      </c>
+      <c r="W19" s="12">
         <f>ROUND((V19-U19)/U19,5)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="18">
+    <row r="20" ht="15" customHeight="1" s="15">
       <c r="A20" t="n">
         <v>9</v>
       </c>
@@ -6119,37 +5726,37 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>637.4891259685992</v>
-      </c>
-      <c r="M20" s="12">
+        <v>632.7434936560544</v>
+      </c>
+      <c r="M20" s="11">
         <f>ROUND((K20-G20)/G20,5)</f>
         <v/>
       </c>
-      <c r="N20" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[1, 5], [5, 5], [7, 6]], [[4, 4], [3, 4], [9, 3]], [[2, 5], [8, 4], [6, 3]]]}</t>
+      <c r="N20" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[4, 4], [3, 4], [9, 3]], [[7, 6], [5, 5], [1, 5]], [[2, 5], [8, 4], [6, 3]]]}</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-1 (5) -&gt; 5 (5) -&gt; 7 (6)
 4 (4) -&gt; 3 (4) -&gt; 9 (3)
+7 (6) -&gt; 5 (5) -&gt; 1 (5)
 2 (5) -&gt; 8 (4) -&gt; 6 (3)
 </t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>247.3473273</v>
+        <v>257.9959804</v>
       </c>
       <c r="Q20" t="n">
         <v>661.7039481971021</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <f>ROUND((Q20-G20)/G20,5)</f>
         <v/>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="12">
         <f>ROUND((Q20-K20)/K20,5)</f>
         <v/>
       </c>
@@ -6159,12 +5766,12 @@
       <c r="V20" t="n">
         <v>623.7514315590706</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="12">
         <f>ROUND((V20-U20)/U20,5)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="18">
+    <row r="21" ht="15" customHeight="1" s="15">
       <c r="A21" t="n">
         <v>9</v>
       </c>
@@ -6228,11 +5835,11 @@
       <c r="K21" t="n">
         <v>935.5446906430152</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <f>ROUND((K21-G21)/G21,5)</f>
         <v/>
       </c>
-      <c r="N21" s="12" t="inlineStr">
+      <c r="N21" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[9, 2], [2, 10], [8, 3]], [[1, 7], [3, 1], [5, 6], [6, 6], [4, 10]], [[7, 9]]]}</t>
         </is>
@@ -6252,11 +5859,11 @@
       <c r="Q21" t="n">
         <v>935.5446906430152</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <f>ROUND((Q21-G21)/G21,5)</f>
         <v/>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <f>ROUND((Q21-K21)/K21,5)</f>
         <v/>
       </c>
@@ -6266,12 +5873,12 @@
       <c r="V21" t="n">
         <v>847.0028446991276</v>
       </c>
-      <c r="W21" s="13">
+      <c r="W21" s="12">
         <f>ROUND((V21-U21)/U21,5)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="18">
+    <row r="22" ht="15" customHeight="1" s="15">
       <c r="A22" t="n">
         <v>12</v>
       </c>
@@ -6340,11 +5947,11 @@
       <c r="K22" t="n">
         <v>665.628829734027</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <f>ROUND((K22-G22)/G22,5)</f>
         <v/>
       </c>
-      <c r="N22" s="12" t="inlineStr">
+      <c r="N22" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[3, 5], [11, 4], [10, 5], [8, 2]]], "1": [[[7, 4], [1, 2], [5, 1], [4, 3], [9, 4], [6, 3], [12, 1], [2, 4]]]}</t>
         </is>
@@ -6364,11 +5971,11 @@
       <c r="Q22" t="n">
         <v>665.628829734027</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <f>ROUND((Q22-G22)/G22,5)</f>
         <v/>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="12">
         <f>ROUND((Q22-K22)/K22,5)</f>
         <v/>
       </c>
@@ -6378,12 +5985,12 @@
       <c r="V22" t="n">
         <v>614.7655005468939</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="12">
         <f>ROUND((V22-U22)/U22,5)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="18">
+    <row r="23" ht="15" customHeight="1" s="15">
       <c r="A23" t="n">
         <v>12</v>
       </c>
@@ -6452,11 +6059,11 @@
       <c r="K23" t="n">
         <v>1189.404777283196</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <f>ROUND((K23-G23)/G23,5)</f>
         <v/>
       </c>
-      <c r="N23" s="12" t="inlineStr">
+      <c r="N23" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[8, 1], [10, 1], [6, 2], [1, 1], [2, 2], [3, 1]], [[12, 2], [9, 5], [5, 6], [7, 1], [4, 4], [11, 6]]], "1": [[]]}</t>
         </is>
@@ -6471,16 +6078,16 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>436.2706252</v>
+        <v>441.6552514</v>
       </c>
       <c r="Q23" t="n">
         <v>1189.404777283196</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="11">
         <f>ROUND((Q23-G23)/G23,5)</f>
         <v/>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="12">
         <f>ROUND((Q23-K23)/K23,5)</f>
         <v/>
       </c>
@@ -6490,12 +6097,12 @@
       <c r="V23" t="n">
         <v>1105.825492398589</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="12">
         <f>ROUND((V23-U23)/U23,5)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="18">
+    <row r="24" ht="15" customHeight="1" s="15">
       <c r="A24" t="n">
         <v>12</v>
       </c>
@@ -6563,38 +6170,38 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>848.4988087327888</v>
-      </c>
-      <c r="M24" s="12">
+        <v>855.5133712082734</v>
+      </c>
+      <c r="M24" s="11">
         <f>ROUND((K24-G24)/G24,5)</f>
         <v/>
       </c>
-      <c r="N24" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[2, 5], [6, 6], [9, 2], [8, 3]], [[10, 5], [11, 5]]], "1": [[[7, 3], [5, 3], [12, 6], [4, 6], [3, 6], [1, 6]]]}</t>
+      <c r="N24" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[2, 5], [6, 6], [9, 2], [8, 3]], [[11, 5], [10, 5]]], "1": [[[5, 3], [12, 6], [4, 6], [3, 6], [1, 6], [7, 3]]]}</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
 2 (5) -&gt; 6 (6) -&gt; 9 (2) -&gt; 8 (3)
-10 (5) -&gt; 11 (5)
+11 (5) -&gt; 10 (5)
 11 metre (capacity 30):
-7 (3) -&gt; 5 (3) -&gt; 12 (6) -&gt; 4 (6) -&gt; 3 (6) -&gt; 1 (6)
+5 (3) -&gt; 12 (6) -&gt; 4 (6) -&gt; 3 (6) -&gt; 1 (6) -&gt; 7 (3)
 </t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>346.9195768</v>
+        <v>310.1220506999999</v>
       </c>
       <c r="Q24" t="n">
-        <v>848.4988087327888</v>
-      </c>
-      <c r="R24" s="12">
+        <v>852.0612441589832</v>
+      </c>
+      <c r="R24" s="11">
         <f>ROUND((Q24-G24)/G24,5)</f>
         <v/>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="12">
         <f>ROUND((Q24-K24)/K24,5)</f>
         <v/>
       </c>
@@ -6602,14 +6209,14 @@
         <v>798.9569162999314</v>
       </c>
       <c r="V24" t="n">
-        <v>798.9569162999314</v>
-      </c>
-      <c r="W24" s="13">
+        <v>795.5047892506411</v>
+      </c>
+      <c r="W24" s="12">
         <f>ROUND((V24-U24)/U24,5)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="18">
+    <row r="25" ht="15" customHeight="1" s="15">
       <c r="A25" t="n">
         <v>12</v>
       </c>
@@ -6679,11 +6286,11 @@
       <c r="K25" t="n">
         <v>719.8083018045488</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <f>ROUND((K25-G25)/G25,5)</f>
         <v/>
       </c>
-      <c r="N25" s="12" t="inlineStr">
+      <c r="N25" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[7, 4], [1, 6], [3, 1], [2, 7], [11, 4]]], "1": [[[5, 2], [8, 4], [10, 3], [12, 4], [9, 6], [4, 4], [6, 6]]]}</t>
         </is>
@@ -6703,11 +6310,11 @@
       <c r="Q25" t="n">
         <v>727.5130074671956</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="11">
         <f>ROUND((Q25-G25)/G25,5)</f>
         <v/>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="12">
         <f>ROUND((Q25-K25)/K25,5)</f>
         <v/>
       </c>
@@ -6717,12 +6324,12 @@
       <c r="V25" t="n">
         <v>690.196278882438</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="12">
         <f>ROUND((V25-U25)/U25,5)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="18">
+    <row r="26" ht="15" customHeight="1" s="15">
       <c r="A26" t="n">
         <v>12</v>
       </c>
@@ -6792,11 +6399,11 @@
       <c r="K26" t="n">
         <v>1078.299811829309</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <f>ROUND((K26-G26)/G26,5)</f>
         <v/>
       </c>
-      <c r="N26" s="12" t="inlineStr">
+      <c r="N26" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[3, 5], [5, 4], [1, 4], [7, 1], [4, 2], [8, 5]], [[12, 5], [11, 5], [9, 5], [2, 2], [6, 4]]], "1": [[[10, 4]]]}</t>
         </is>
@@ -6817,11 +6424,11 @@
       <c r="Q26" t="n">
         <v>1078.299811829309</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="11">
         <f>ROUND((Q26-G26)/G26,5)</f>
         <v/>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="12">
         <f>ROUND((Q26-K26)/K26,5)</f>
         <v/>
       </c>
@@ -6831,12 +6438,12 @@
       <c r="V26" t="n">
         <v>1034.284180844275</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="12">
         <f>ROUND((V26-U26)/U26,5)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="18">
+    <row r="27" ht="15" customHeight="1" s="15">
       <c r="A27" t="n">
         <v>12</v>
       </c>
@@ -6906,11 +6513,11 @@
       <c r="K27" t="n">
         <v>1077.167439794624</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="11">
         <f>ROUND((K27-G27)/G27,5)</f>
         <v/>
       </c>
-      <c r="N27" s="12" t="inlineStr">
+      <c r="N27" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[5, 3], [9, 5], [4, 1], [2, 6]]], "1": [[[3, 3], [11, 5]]], "2": [[[12, 6], [8, 6], [10, 4], [6, 6], [1, 5], [7, 2]]]}</t>
         </is>
@@ -6932,11 +6539,11 @@
       <c r="Q27" t="n">
         <v>1077.167439794624</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="11">
         <f>ROUND((Q27-G27)/G27,5)</f>
         <v/>
       </c>
-      <c r="S27" s="13">
+      <c r="S27" s="12">
         <f>ROUND((Q27-K27)/K27,5)</f>
         <v/>
       </c>
@@ -6946,12 +6553,12 @@
       <c r="V27" t="n">
         <v>1022.759507244422</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="12">
         <f>ROUND((V27-U27)/U27,5)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="18">
+    <row r="28" ht="15" customHeight="1" s="15">
       <c r="A28" t="n">
         <v>12</v>
       </c>
@@ -7021,11 +6628,11 @@
       <c r="K28" t="n">
         <v>1048.318016484704</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="11">
         <f>ROUND((K28-G28)/G28,5)</f>
         <v/>
       </c>
-      <c r="N28" s="12" t="inlineStr">
+      <c r="N28" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[11, 6], [1, 3], [9, 2]], [[8, 3], [6, 6], [12, 2]]], "1": [[[3, 4], [5, 4], [4, 4], [2, 2], [10, 3], [7, 3]]]}</t>
         </is>
@@ -7046,11 +6653,11 @@
       <c r="Q28" t="n">
         <v>1048.318016484704</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="11">
         <f>ROUND((Q28-G28)/G28,5)</f>
         <v/>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="12">
         <f>ROUND((Q28-K28)/K28,5)</f>
         <v/>
       </c>
@@ -7060,12 +6667,12 @@
       <c r="V28" t="n">
         <v>1003.589778043422</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="12">
         <f>ROUND((V28-U28)/U28,5)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="18">
+    <row r="29" ht="15" customHeight="1" s="15">
       <c r="A29" t="n">
         <v>12</v>
       </c>
@@ -7134,11 +6741,11 @@
       <c r="K29" t="n">
         <v>1136.667756966691</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <f>ROUND((K29-G29)/G29,5)</f>
         <v/>
       </c>
-      <c r="N29" s="12" t="inlineStr">
+      <c r="N29" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[4, 3], [9, 4], [7, 2], [6, 1], [1, 3], [2, 2]], [[12, 1], [5, 2], [10, 3], [11, 1], [3, 3], [8, 3]]]}</t>
         </is>
@@ -7157,11 +6764,11 @@
       <c r="Q29" t="n">
         <v>1136.667756966691</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="11">
         <f>ROUND((Q29-G29)/G29,5)</f>
         <v/>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="12">
         <f>ROUND((Q29-K29)/K29,5)</f>
         <v/>
       </c>
@@ -7171,12 +6778,12 @@
       <c r="V29" t="n">
         <v>1115.457582835203</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="12">
         <f>ROUND((V29-U29)/U29,5)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="18">
+    <row r="30" ht="15" customHeight="1" s="15">
       <c r="A30" t="n">
         <v>12</v>
       </c>
@@ -7246,11 +6853,11 @@
       <c r="K30" t="n">
         <v>1272.345104477296</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="11">
         <f>ROUND((K30-G30)/G30,5)</f>
         <v/>
       </c>
-      <c r="N30" s="12" t="inlineStr">
+      <c r="N30" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[3, 1], [5, 3], [11, 6], [12, 6]]], "1": [[[2, 4], [8, 5], [1, 6], [6, 1], [10, 4]]], "2": [[[4, 4], [7, 3], [9, 4]]]}</t>
         </is>
@@ -7272,11 +6879,11 @@
       <c r="Q30" t="n">
         <v>1272.345104477296</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="11">
         <f>ROUND((Q30-G30)/G30,5)</f>
         <v/>
       </c>
-      <c r="S30" s="13">
+      <c r="S30" s="12">
         <f>ROUND((Q30-K30)/K30,5)</f>
         <v/>
       </c>
@@ -7286,12 +6893,12 @@
       <c r="V30" t="n">
         <v>1220.227035565441</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="12">
         <f>ROUND((V30-U30)/U30,5)</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="18">
+    <row r="31" ht="15" customHeight="1" s="15">
       <c r="A31" t="n">
         <v>12</v>
       </c>
@@ -7361,11 +6968,11 @@
       <c r="K31" t="n">
         <v>734.1369792097994</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="11">
         <f>ROUND((K31-G31)/G31,5)</f>
         <v/>
       </c>
-      <c r="N31" s="12" t="inlineStr">
+      <c r="N31" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[6, 4], [11, 3], [1, 1], [7, 3], [12, 1], [5, 4]], [[10, 3], [3, 2], [9, 1], [4, 4], [2, 2], [8, 4]]]}</t>
         </is>
@@ -7384,11 +6991,11 @@
       <c r="Q31" t="n">
         <v>765.15981731728</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="11">
         <f>ROUND((Q31-G31)/G31,5)</f>
         <v/>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="12">
         <f>ROUND((Q31-K31)/K31,5)</f>
         <v/>
       </c>
@@ -7398,12 +7005,12 @@
       <c r="V31" t="n">
         <v>730.4929250965572</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="12">
         <f>ROUND((V31-U31)/U31,5)</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="18">
+    <row r="32" ht="15" customHeight="1" s="15">
       <c r="A32" t="n">
         <v>6</v>
       </c>
@@ -7464,11 +7071,11 @@
       <c r="K32" t="n">
         <v>812.2567044500715</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="11">
         <f>ROUND((K32-G32)/G32,5)</f>
         <v/>
       </c>
-      <c r="N32" s="12" t="inlineStr">
+      <c r="N32" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[4, 16], [6, 5]], [[1, 5]]], "1": [[[5, 2], [2, 2], [3, 12]]], "2": [[]]}</t>
         </is>
@@ -7490,11 +7097,11 @@
       <c r="Q32" t="n">
         <v>825.6680875343193</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="11">
         <f>ROUND((Q32-G32)/G32,5)</f>
         <v/>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="12">
         <f>ROUND((Q32-K32)/K32,5)</f>
         <v/>
       </c>
@@ -7504,12 +7111,12 @@
       <c r="V32" t="n">
         <v>750.3182492647884</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="12">
         <f>ROUND((V32-U32)/U32,5)</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="18">
+    <row r="33" ht="15" customHeight="1" s="15">
       <c r="A33" t="n">
         <v>6</v>
       </c>
@@ -7567,13 +7174,13 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>700.1813452705869</v>
-      </c>
-      <c r="M33" s="12">
+        <v>693.0670489755869</v>
+      </c>
+      <c r="M33" s="11">
         <f>ROUND((K33-G33)/G33,5)</f>
         <v/>
       </c>
-      <c r="N33" s="12" t="inlineStr">
+      <c r="N33" s="11" t="inlineStr">
         <is>
           <t>{"0": [[]], "1": [[[6, 9], [4, 4], [1, 9]], [[3, 10]]], "2": [[[2, 8], [5, 14]]]}</t>
         </is>
@@ -7590,16 +7197,16 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>239.3844907999996</v>
+        <v>180.2311289000002</v>
       </c>
       <c r="Q33" t="n">
-        <v>700.1813452705869</v>
-      </c>
-      <c r="R33" s="12">
+        <v>693.0670489755869</v>
+      </c>
+      <c r="R33" s="11">
         <f>ROUND((Q33-G33)/G33,5)</f>
         <v/>
       </c>
-      <c r="S33" s="13">
+      <c r="S33" s="12">
         <f>ROUND((Q33-K33)/K33,5)</f>
         <v/>
       </c>
@@ -7609,12 +7216,12 @@
       <c r="V33" t="n">
         <v>582.0975628366479</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="12">
         <f>ROUND((V33-U33)/U33,5)</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="18">
+    <row r="34" ht="15" customHeight="1" s="15">
       <c r="A34" t="n">
         <v>6</v>
       </c>
@@ -7674,11 +7281,11 @@
       <c r="K34" t="n">
         <v>744.6053920604409</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="11">
         <f>ROUND((K34-G34)/G34,5)</f>
         <v/>
       </c>
-      <c r="N34" s="12" t="inlineStr">
+      <c r="N34" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[5, 18]], [[6, 4], [3, 3]]], "1": [[[4, 9], [1, 9], [2, 12]]], "2": [[]]}</t>
         </is>
@@ -7700,11 +7307,11 @@
       <c r="Q34" t="n">
         <v>733.0820870926568</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="11">
         <f>ROUND((Q34-G34)/G34,5)</f>
         <v/>
       </c>
-      <c r="S34" s="13">
+      <c r="S34" s="12">
         <f>ROUND((Q34-K34)/K34,5)</f>
         <v/>
       </c>
@@ -7714,12 +7321,12 @@
       <c r="V34" t="n">
         <v>663.8094351405824</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="12">
         <f>ROUND((V34-U34)/U34,5)</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="18">
+    <row r="35" ht="15" customHeight="1" s="15">
       <c r="A35" t="n">
         <v>6</v>
       </c>
@@ -7779,11 +7386,11 @@
       <c r="K35" t="n">
         <v>656.5587838417349</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <f>ROUND((K35-G35)/G35,5)</f>
         <v/>
       </c>
-      <c r="N35" s="12" t="inlineStr">
+      <c r="N35" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[5, 7], [6, 1], [4, 13]], [[1, 17], [2, 4]]], "1": [[[3, 11]]]}</t>
         </is>
@@ -7804,11 +7411,11 @@
       <c r="Q35" t="n">
         <v>642.5531845117245</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="11">
         <f>ROUND((Q35-G35)/G35,5)</f>
         <v/>
       </c>
-      <c r="S35" s="13">
+      <c r="S35" s="12">
         <f>ROUND((Q35-K35)/K35,5)</f>
         <v/>
       </c>
@@ -7818,12 +7425,12 @@
       <c r="V35" t="n">
         <v>616.4106772089158</v>
       </c>
-      <c r="W35" s="13">
+      <c r="W35" s="12">
         <f>ROUND((V35-U35)/U35,5)</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="18">
+    <row r="36" ht="15" customHeight="1" s="15">
       <c r="A36" t="n">
         <v>6</v>
       </c>
@@ -7881,39 +7488,39 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1208.932192147432</v>
-      </c>
-      <c r="M36" s="12">
+        <v>1195.611144737432</v>
+      </c>
+      <c r="M36" s="11">
         <f>ROUND((K36-G36)/G36,5)</f>
         <v/>
       </c>
-      <c r="N36" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[]], "1": [[[6, 6]], [[3, 15], [4, 5]]], "2": [[[5, 11], [1, 5], [2, 8]]]}</t>
+      <c r="N36" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[]], "1": [[[3, 15], [4, 5]], [[6, 6]]], "2": [[[2, 8], [1, 5], [5, 11]]]}</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
 8 metre (capacity 22):
+3 (15) -&gt; 4 (5)
 6 (6)
-3 (15) -&gt; 4 (5)
 11 metre (capacity 30):
-5 (11) -&gt; 1 (5) -&gt; 2 (8)
+2 (8) -&gt; 1 (5) -&gt; 5 (11)
 </t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>234.3237515999999</v>
+        <v>190.2647391</v>
       </c>
       <c r="Q36" t="n">
-        <v>1208.932192147432</v>
-      </c>
-      <c r="R36" s="12">
+        <v>1195.611144737432</v>
+      </c>
+      <c r="R36" s="11">
         <f>ROUND((Q36-G36)/G36,5)</f>
         <v/>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="12">
         <f>ROUND((Q36-K36)/K36,5)</f>
         <v/>
       </c>
@@ -7923,12 +7530,12 @@
       <c r="V36" t="n">
         <v>1075.925812216501</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="12">
         <f>ROUND((V36-U36)/U36,5)</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="18">
+    <row r="37" ht="15" customHeight="1" s="15">
       <c r="A37" t="n">
         <v>6</v>
       </c>
@@ -7989,11 +7596,11 @@
       <c r="K37" t="n">
         <v>889.265507951744</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="11">
         <f>ROUND((K37-G37)/G37,5)</f>
         <v/>
       </c>
-      <c r="N37" s="12" t="inlineStr">
+      <c r="N37" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[5, 18]], [[6, 10], [2, 8]]], "1": [[[3, 8], [4, 1], [1, 3]]]}</t>
         </is>
@@ -8014,11 +7621,11 @@
       <c r="Q37" t="n">
         <v>885.2360474818561</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="11">
         <f>ROUND((Q37-G37)/G37,5)</f>
         <v/>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="12">
         <f>ROUND((Q37-K37)/K37,5)</f>
         <v/>
       </c>
@@ -8028,12 +7635,12 @@
       <c r="V37" t="n">
         <v>855.9094820734193</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="12">
         <f>ROUND((V37-U37)/U37,5)</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="18">
+    <row r="38" ht="15" customHeight="1" s="15">
       <c r="A38" t="n">
         <v>6</v>
       </c>
@@ -8094,11 +7701,11 @@
       <c r="K38" t="n">
         <v>678.148251762738</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <f>ROUND((K38-G38)/G38,5)</f>
         <v/>
       </c>
-      <c r="N38" s="12" t="inlineStr">
+      <c r="N38" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[5, 6], [6, 6]]], "1": [[[1, 7], [4, 13]], [[3, 19]], [[2, 15]]], "2": [[]]}</t>
         </is>
@@ -8121,11 +7728,11 @@
       <c r="Q38" t="n">
         <v>659.7577073740965</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="11">
         <f>ROUND((Q38-G38)/G38,5)</f>
         <v/>
       </c>
-      <c r="S38" s="13">
+      <c r="S38" s="12">
         <f>ROUND((Q38-K38)/K38,5)</f>
         <v/>
       </c>
@@ -8135,12 +7742,12 @@
       <c r="V38" t="n">
         <v>604.4934696287221</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="12">
         <f>ROUND((V38-U38)/U38,5)</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="18">
+    <row r="39" ht="15" customHeight="1" s="15">
       <c r="A39" t="n">
         <v>6</v>
       </c>
@@ -8201,11 +7808,11 @@
       <c r="K39" t="n">
         <v>938.3525456101431</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="11">
         <f>ROUND((K39-G39)/G39,5)</f>
         <v/>
       </c>
-      <c r="N39" s="12" t="inlineStr">
+      <c r="N39" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[1, 11]], [[5, 14]]], "1": [[[6, 20], [2, 6]], [[4, 18], [3, 10]]]}</t>
         </is>
@@ -8227,11 +7834,11 @@
       <c r="Q39" t="n">
         <v>938.3525456101431</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="11">
         <f>ROUND((Q39-G39)/G39,5)</f>
         <v/>
       </c>
-      <c r="S39" s="13">
+      <c r="S39" s="12">
         <f>ROUND((Q39-K39)/K39,5)</f>
         <v/>
       </c>
@@ -8241,7 +7848,7 @@
       <c r="V39" t="n">
         <v>868.0017542131443</v>
       </c>
-      <c r="W39" s="13">
+      <c r="W39" s="12">
         <f>ROUND((V39-U39)/U39,5)</f>
         <v/>
       </c>
@@ -8306,11 +7913,11 @@
       <c r="K40" t="n">
         <v>941.6268761430824</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="11">
         <f>ROUND((K40-G40)/G40,5)</f>
         <v/>
       </c>
-      <c r="N40" s="12" t="inlineStr">
+      <c r="N40" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[6, 10], [3, 6]]], "1": [[[5, 14], [2, 10]]], "2": [[[1, 14], [4, 4]]]}</t>
         </is>
@@ -8332,11 +7939,11 @@
       <c r="Q40" t="n">
         <v>941.6268761430824</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="11">
         <f>ROUND((Q40-G40)/G40,5)</f>
         <v/>
       </c>
-      <c r="S40" s="13">
+      <c r="S40" s="12">
         <f>ROUND((Q40-K40)/K40,5)</f>
         <v/>
       </c>
@@ -8346,7 +7953,7 @@
       <c r="V40" t="n">
         <v>898.2859176189384</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="12">
         <f>ROUND((V40-U40)/U40,5)</f>
         <v/>
       </c>
@@ -8411,11 +8018,11 @@
       <c r="K41" t="n">
         <v>672.476663216454</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="11">
         <f>ROUND((K41-G41)/G41,5)</f>
         <v/>
       </c>
-      <c r="N41" s="12" t="inlineStr">
+      <c r="N41" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[3, 10], [4, 8], [5, 2]], [[1, 11]]], "1": [[[2, 13], [6, 14]]], "2": [[]]}</t>
         </is>
@@ -8437,11 +8044,11 @@
       <c r="Q41" t="n">
         <v>672.476663216454</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="11">
         <f>ROUND((Q41-G41)/G41,5)</f>
         <v/>
       </c>
-      <c r="S41" s="13">
+      <c r="S41" s="12">
         <f>ROUND((Q41-K41)/K41,5)</f>
         <v/>
       </c>
@@ -8451,7 +8058,7 @@
       <c r="V41" t="n">
         <v>640.3964061684818</v>
       </c>
-      <c r="W41" s="13">
+      <c r="W41" s="12">
         <f>ROUND((V41-U41)/U41,5)</f>
         <v/>
       </c>
@@ -8521,11 +8128,11 @@
       <c r="K42" t="n">
         <v>893.2598344845564</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <f>ROUND((K42-G42)/G42,5)</f>
         <v/>
       </c>
-      <c r="N42" s="12" t="inlineStr">
+      <c r="N42" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[6, 3], [3, 5], [1, 4], [9, 6], [7, 10]], [[4, 11], [2, 2], [5, 8], [8, 1]]], "1": [[]], "2": [[]]}</t>
         </is>
@@ -8541,16 +8148,16 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>257.9822673999997</v>
+        <v>210.1581165</v>
       </c>
       <c r="Q42" t="n">
         <v>893.2598344845563</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="11">
         <f>ROUND((Q42-G42)/G42,5)</f>
         <v/>
       </c>
-      <c r="S42" s="13">
+      <c r="S42" s="12">
         <f>ROUND((Q42-K42)/K42,5)</f>
         <v/>
       </c>
@@ -8560,7 +8167,7 @@
       <c r="V42" t="n">
         <v>826.9229303309405</v>
       </c>
-      <c r="W42" s="13">
+      <c r="W42" s="12">
         <f>ROUND((V42-U42)/U42,5)</f>
         <v/>
       </c>
@@ -8629,38 +8236,38 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>813.8242183113271</v>
-      </c>
-      <c r="M43" s="12">
+        <v>821.8736830120431</v>
+      </c>
+      <c r="M43" s="11">
         <f>ROUND((K43-G43)/G43,5)</f>
         <v/>
       </c>
-      <c r="N43" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[1, 1], [5, 13], [2, 2], [8, 12]], [[9, 8], [7, 9]], [[4, 14], [3, 2], [6, 7]]], "1": [[]]}</t>
+      <c r="N43" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[1, 1], [5, 13], [2, 2], [8, 12]], [[6, 7], [3, 2], [4, 14]], [[7, 9], [9, 8]]], "1": [[]]}</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
 1 (1) -&gt; 5 (13) -&gt; 2 (2) -&gt; 8 (12)
-9 (8) -&gt; 7 (9)
-4 (14) -&gt; 3 (2) -&gt; 6 (7)
+6 (7) -&gt; 3 (2) -&gt; 4 (14)
+7 (9) -&gt; 9 (8)
 Rigid (capacity 16):
 </t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>274.2841185999996</v>
+        <v>251.2256288999999</v>
       </c>
       <c r="Q43" t="n">
         <v>821.8736830120431</v>
       </c>
-      <c r="R43" s="12">
+      <c r="R43" s="11">
         <f>ROUND((Q43-G43)/G43,5)</f>
         <v/>
       </c>
-      <c r="S43" s="13">
+      <c r="S43" s="12">
         <f>ROUND((Q43-K43)/K43,5)</f>
         <v/>
       </c>
@@ -8668,9 +8275,9 @@
         <v>743.6205606708595</v>
       </c>
       <c r="V43" t="n">
-        <v>743.6205606708596</v>
-      </c>
-      <c r="W43" s="13">
+        <v>743.6205606708594</v>
+      </c>
+      <c r="W43" s="12">
         <f>ROUND((V43-U43)/U43,5)</f>
         <v/>
       </c>
@@ -8742,11 +8349,11 @@
       <c r="K44" t="n">
         <v>777.7085678113841</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <f>ROUND((K44-G44)/G44,5)</f>
         <v/>
       </c>
-      <c r="N44" s="12" t="inlineStr">
+      <c r="N44" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[1, 10], [9, 10], [5, 9], [7, 1]]], "1": [[[3, 1], [2, 15], [6, 3]]], "2": [[[4, 9], [8, 7]]]}</t>
         </is>
@@ -8768,11 +8375,11 @@
       <c r="Q44" t="n">
         <v>815.6774550162049</v>
       </c>
-      <c r="R44" s="12">
+      <c r="R44" s="11">
         <f>ROUND((Q44-G44)/G44,5)</f>
         <v/>
       </c>
-      <c r="S44" s="13">
+      <c r="S44" s="12">
         <f>ROUND((Q44-K44)/K44,5)</f>
         <v/>
       </c>
@@ -8782,7 +8389,7 @@
       <c r="V44" t="n">
         <v>738.6881272862269</v>
       </c>
-      <c r="W44" s="13">
+      <c r="W44" s="12">
         <f>ROUND((V44-U44)/U44,5)</f>
         <v/>
       </c>
@@ -8850,38 +8457,38 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>908.1004723180679</v>
-      </c>
-      <c r="M45" s="12">
+        <v>914.6883021565079</v>
+      </c>
+      <c r="M45" s="11">
         <f>ROUND((K45-G45)/G45,5)</f>
         <v/>
       </c>
-      <c r="N45" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[5, 3], [3, 7], [1, 13], [6, 3], [9, 4]], [[4, 2], [8, 11], [2, 7], [7, 1]]], "1": [[]], "2": [[]]}</t>
+      <c r="N45" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[3, 7], [1, 13], [6, 3], [9, 4]], [[4, 2], [8, 11], [2, 7], [7, 1], [5, 3]]], "1": [[]], "2": [[]]}</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-5 (3) -&gt; 3 (7) -&gt; 1 (13) -&gt; 6 (3) -&gt; 9 (4)
-4 (2) -&gt; 8 (11) -&gt; 2 (7) -&gt; 7 (1)
+3 (7) -&gt; 1 (13) -&gt; 6 (3) -&gt; 9 (4)
+4 (2) -&gt; 8 (11) -&gt; 2 (7) -&gt; 7 (1) -&gt; 5 (3)
 8 metre (capacity 22):
 Rigid (capacity 16):
 </t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>274.9465521000002</v>
+        <v>258.476064</v>
       </c>
       <c r="Q45" t="n">
-        <v>916.2204632570621</v>
-      </c>
-      <c r="R45" s="12">
+        <v>914.6883021565079</v>
+      </c>
+      <c r="R45" s="11">
         <f>ROUND((Q45-G45)/G45,5)</f>
         <v/>
       </c>
-      <c r="S45" s="13">
+      <c r="S45" s="12">
         <f>ROUND((Q45-K45)/K45,5)</f>
         <v/>
       </c>
@@ -8889,9 +8496,9 @@
         <v>867.0337789998922</v>
       </c>
       <c r="V45" t="n">
-        <v>868.5659401004465</v>
-      </c>
-      <c r="W45" s="13">
+        <v>867.0337789998922</v>
+      </c>
+      <c r="W45" s="12">
         <f>ROUND((V45-U45)/U45,5)</f>
         <v/>
       </c>
@@ -8960,13 +8567,13 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1026.007817134059</v>
-      </c>
-      <c r="M46" s="12">
+        <v>1008.26305168901</v>
+      </c>
+      <c r="M46" s="11">
         <f>ROUND((K46-G46)/G46,5)</f>
         <v/>
       </c>
-      <c r="N46" s="12" t="inlineStr">
+      <c r="N46" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[6, 3], [4, 4], [2, 13], [7, 6]], [[8, 14], [1, 9]], [[5, 11], [9, 1], [3, 8]]]}</t>
         </is>
@@ -8981,16 +8588,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>439.0288809000003</v>
+        <v>406.0763162999997</v>
       </c>
       <c r="Q46" t="n">
-        <v>1049.547039018111</v>
-      </c>
-      <c r="R46" s="12">
+        <v>1044.262178499589</v>
+      </c>
+      <c r="R46" s="11">
         <f>ROUND((Q46-G46)/G46,5)</f>
         <v/>
       </c>
-      <c r="S46" s="13">
+      <c r="S46" s="12">
         <f>ROUND((Q46-K46)/K46,5)</f>
         <v/>
       </c>
@@ -9000,7 +8607,7 @@
       <c r="V46" t="n">
         <v>904.1962709155146</v>
       </c>
-      <c r="W46" s="13">
+      <c r="W46" s="12">
         <f>ROUND((V46-U46)/U46,5)</f>
         <v/>
       </c>
@@ -9071,11 +8678,11 @@
       <c r="K47" t="n">
         <v>843.3479719678728</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="11">
         <f>ROUND((K47-G47)/G47,5)</f>
         <v/>
       </c>
-      <c r="N47" s="12" t="inlineStr">
+      <c r="N47" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[7, 1], [2, 4], [4, 8], [9, 3], [5, 5]], [[6, 12]]], "1": [[]], "2": [[[3, 8], [8, 10], [1, 12]]]}</t>
         </is>
@@ -9097,11 +8704,11 @@
       <c r="Q47" t="n">
         <v>843.3479719678728</v>
       </c>
-      <c r="R47" s="12">
+      <c r="R47" s="11">
         <f>ROUND((Q47-G47)/G47,5)</f>
         <v/>
       </c>
-      <c r="S47" s="13">
+      <c r="S47" s="12">
         <f>ROUND((Q47-K47)/K47,5)</f>
         <v/>
       </c>
@@ -9111,7 +8718,7 @@
       <c r="V47" t="n">
         <v>790.211040984113</v>
       </c>
-      <c r="W47" s="13">
+      <c r="W47" s="12">
         <f>ROUND((V47-U47)/U47,5)</f>
         <v/>
       </c>
@@ -9180,39 +8787,39 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>677.6161090392966</v>
-      </c>
-      <c r="M48" s="12">
+        <v>693.9133650269337</v>
+      </c>
+      <c r="M48" s="11">
         <f>ROUND((K48-G48)/G48,5)</f>
         <v/>
       </c>
-      <c r="N48" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[3, 1], [1, 1], [2, 10]], [[6, 5], [8, 11], [7, 1], [4, 4]], [[5, 8], [9, 3]]], "1": [[]], "2": [[]]}</t>
+      <c r="N48" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[2, 10], [1, 1], [3, 1]], [[5, 8], [9, 3]], [[4, 4], [7, 1], [8, 11], [6, 5]]], "1": [[]], "2": [[]]}</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
-3 (1) -&gt; 1 (1) -&gt; 2 (10)
-6 (5) -&gt; 8 (11) -&gt; 7 (1) -&gt; 4 (4)
+2 (10) -&gt; 1 (1) -&gt; 3 (1)
 5 (8) -&gt; 9 (3)
+4 (4) -&gt; 7 (1) -&gt; 8 (11) -&gt; 6 (5)
 8 metre (capacity 22):
 Rigid (capacity 16):
 </t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>296.5032604999997</v>
+        <v>304.6506844</v>
       </c>
       <c r="Q48" t="n">
-        <v>693.9133650269338</v>
-      </c>
-      <c r="R48" s="12">
+        <v>693.9133650269337</v>
+      </c>
+      <c r="R48" s="11">
         <f>ROUND((Q48-G48)/G48,5)</f>
         <v/>
       </c>
-      <c r="S48" s="13">
+      <c r="S48" s="12">
         <f>ROUND((Q48-K48)/K48,5)</f>
         <v/>
       </c>
@@ -9220,9 +8827,9 @@
         <v>636.7042369162627</v>
       </c>
       <c r="V48" t="n">
-        <v>636.7042369162626</v>
-      </c>
-      <c r="W48" s="13">
+        <v>636.7042369162627</v>
+      </c>
+      <c r="W48" s="12">
         <f>ROUND((V48-U48)/U48,5)</f>
         <v/>
       </c>
@@ -9292,11 +8899,11 @@
       <c r="K49" t="n">
         <v>607.1439817452525</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="11">
         <f>ROUND((K49-G49)/G49,5)</f>
         <v/>
       </c>
-      <c r="N49" s="12" t="inlineStr">
+      <c r="N49" s="11" t="inlineStr">
         <is>
           <t>{"0": [[]], "1": [[[5, 2], [9, 13], [4, 5], [7, 4]], [[2, 8], [6, 8], [3, 3], [8, 8], [1, 3]]], "2": [[]]}</t>
         </is>
@@ -9317,11 +8924,11 @@
       <c r="Q49" t="n">
         <v>607.1439817452524</v>
       </c>
-      <c r="R49" s="12">
+      <c r="R49" s="11">
         <f>ROUND((Q49-G49)/G49,5)</f>
         <v/>
       </c>
-      <c r="S49" s="13">
+      <c r="S49" s="12">
         <f>ROUND((Q49-K49)/K49,5)</f>
         <v/>
       </c>
@@ -9331,7 +8938,7 @@
       <c r="V49" t="n">
         <v>564.953581224465</v>
       </c>
-      <c r="W49" s="13">
+      <c r="W49" s="12">
         <f>ROUND((V49-U49)/U49,5)</f>
         <v/>
       </c>
@@ -9401,40 +9008,40 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1030.015770167636</v>
-      </c>
-      <c r="M50" s="12">
+        <v>1019.716741712636</v>
+      </c>
+      <c r="M50" s="11">
         <f>ROUND((K50-G50)/G50,5)</f>
         <v/>
       </c>
-      <c r="N50" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[4, 10], [8, 2]], [[9, 3], [6, 11]]], "1": [[[7, 8], [1, 10]]], "2": [[[5, 12], [2, 2], [3, 11]]]}</t>
+      <c r="N50" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[5, 12]], [[6, 11], [9, 3]]], "1": [[[1, 10], [7, 8]]], "2": [[[8, 2], [4, 10], [3, 11], [2, 2]]]}</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-4 (10) -&gt; 8 (2)
-9 (3) -&gt; 6 (11)
+5 (12)
+6 (11) -&gt; 9 (3)
 8 metre (capacity 22):
-7 (8) -&gt; 1 (10)
+1 (10) -&gt; 7 (8)
 11 metre (capacity 30):
-5 (12) -&gt; 2 (2) -&gt; 3 (11)
+8 (2) -&gt; 4 (10) -&gt; 3 (11) -&gt; 2 (2)
 </t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>272.1558544</v>
+        <v>284.4718016000002</v>
       </c>
       <c r="Q50" t="n">
-        <v>1022.05857548553</v>
-      </c>
-      <c r="R50" s="12">
+        <v>1019.716741712636</v>
+      </c>
+      <c r="R50" s="11">
         <f>ROUND((Q50-G50)/G50,5)</f>
         <v/>
       </c>
-      <c r="S50" s="13">
+      <c r="S50" s="12">
         <f>ROUND((Q50-K50)/K50,5)</f>
         <v/>
       </c>
@@ -9442,9 +9049,9 @@
         <v>945.8806700601344</v>
       </c>
       <c r="V50" t="n">
-        <v>952.3127395564161</v>
-      </c>
-      <c r="W50" s="13">
+        <v>945.8806700601344</v>
+      </c>
+      <c r="W50" s="12">
         <f>ROUND((V50-U50)/U50,5)</f>
         <v/>
       </c>
@@ -9516,37 +9123,37 @@
       <c r="K51" t="n">
         <v>904.5378082988403</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="11">
         <f>ROUND((K51-G51)/G51,5)</f>
         <v/>
       </c>
-      <c r="N51" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[9, 8], [2, 6]], [[6, 5]]], "1": [[[3, 8], [5, 9], [1, 1], [4, 2]], [[8, 11], [7, 10]]]}</t>
+      <c r="N51" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[6, 5]], [[2, 6], [9, 8]]], "1": [[[4, 2], [1, 1], [5, 9], [3, 8]], [[8, 11], [7, 10]]]}</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
           <t xml:space="preserve">Rigid (capacity 16):
-9 (8) -&gt; 2 (6)
 6 (5)
+2 (6) -&gt; 9 (8)
 8 metre (capacity 22):
-3 (8) -&gt; 5 (9) -&gt; 1 (1) -&gt; 4 (2)
+4 (2) -&gt; 1 (1) -&gt; 5 (9) -&gt; 3 (8)
 8 (11) -&gt; 7 (10)
 </t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>257.0605992</v>
+        <v>261.9934125</v>
       </c>
       <c r="Q51" t="n">
         <v>904.5378082988403</v>
       </c>
-      <c r="R51" s="12">
+      <c r="R51" s="11">
         <f>ROUND((Q51-G51)/G51,5)</f>
         <v/>
       </c>
-      <c r="S51" s="13">
+      <c r="S51" s="12">
         <f>ROUND((Q51-K51)/K51,5)</f>
         <v/>
       </c>
@@ -9556,7 +9163,7 @@
       <c r="V51" t="n">
         <v>861.6615285311618</v>
       </c>
-      <c r="W51" s="13">
+      <c r="W51" s="12">
         <f>ROUND((V51-U51)/U51,5)</f>
         <v/>
       </c>
@@ -9634,37 +9241,37 @@
       <c r="K52" t="n">
         <v>1210.828177855486</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="11">
         <f>ROUND((K52-G52)/G52,5)</f>
         <v/>
       </c>
-      <c r="N52" s="12" t="inlineStr">
-        <is>
-          <t>{"0": [[[10, 5], [6, 10], [3, 8], [9, 5], [12, 2]], [[1, 2], [7, 6], [11, 9], [2, 7]]], "1": [[]], "2": [[[5, 5], [8, 6], [4, 8]]]}</t>
+      <c r="N52" s="11" t="inlineStr">
+        <is>
+          <t>{"0": [[[2, 7], [11, 9], [7, 6], [1, 2]], [[10, 5], [6, 10], [3, 8], [9, 5], [12, 2]]], "1": [[]], "2": [[[4, 8], [8, 6], [5, 5]]]}</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
           <t xml:space="preserve">11 metre (capacity 30):
+2 (7) -&gt; 11 (9) -&gt; 7 (6) -&gt; 1 (2)
 10 (5) -&gt; 6 (10) -&gt; 3 (8) -&gt; 9 (5) -&gt; 12 (2)
-1 (2) -&gt; 7 (6) -&gt; 11 (9) -&gt; 2 (7)
 Rigid (capacity 16):
 8 metre (capacity 22):
-5 (5) -&gt; 8 (6) -&gt; 4 (8)
+4 (8) -&gt; 8 (6) -&gt; 5 (5)
 </t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>402.1164343</v>
+        <v>399.6152930000003</v>
       </c>
       <c r="Q52" t="n">
         <v>1222.399933248278</v>
       </c>
-      <c r="R52" s="12">
+      <c r="R52" s="11">
         <f>ROUND((Q52-G52)/G52,5)</f>
         <v/>
       </c>
-      <c r="S52" s="13">
+      <c r="S52" s="12">
         <f>ROUND((Q52-K52)/K52,5)</f>
         <v/>
       </c>
@@ -9674,7 +9281,7 @@
       <c r="V52" t="n">
         <v>1126.916567567835</v>
       </c>
-      <c r="W52" s="13">
+      <c r="W52" s="12">
         <f>ROUND((V52-U52)/U52,5)</f>
         <v/>
       </c>
@@ -9753,11 +9360,11 @@
       <c r="K53" t="n">
         <v>928.2943130868078</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="11">
         <f>ROUND((K53-G53)/G53,5)</f>
         <v/>
       </c>
-      <c r="N53" s="12" t="inlineStr">
+      <c r="N53" s="11" t="inlineStr">
         <is>
           <t>{"0": [[[3, 2], [6, 2], [11, 5]], [[5, 5], [9, 4], [7, 4], [8, 3]], [[2, 8], [10, 1], [4, 1], [12, 3]]], "1": [[[1, 8]]]}</t>
         </is>
@@ -9779,11 +9386,11 @@
       <c r="Q53" t="n">
         <v>959.7170923181206</v>
       </c>
-      <c r="R53" s="12">
+      <c r="R53" s="11">
         <f>ROUND((Q53-G53)/G53,5)</f>
         <v/>
       </c>
-      <c r="S53" s="13">
+      <c r="S53" s="12">
         <f>ROUND((Q53-K53)/K53,5)</f>
         <v/>
       </c>
@@ -9793,7 +9400,7 @@
       <c r="V53" t="n">
         <v>900.9017217174928</v>
       </c>
-      <c r="W53" s="13">
+      <c r="W53" s="12">
         <f>ROUND((V53-U53)/U53,5)</f>
         <v/>
       </c>
@@ -9862,20 +9469,20 @@
 Solve time: 385349</t>
         </is>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="11">
         <f>ROUND((K54-G54)/G54,5)</f>
         <v/>
       </c>
-      <c r="N54" s="12" t="n"/>
-      <c r="R54" s="12">
+      <c r="N54" s="11" t="n"/>
+      <c r="R54" s="11">
         <f>ROUND((Q54-G54)/G54,5)</f>
         <v/>
       </c>
-      <c r="S54" s="13">
+      <c r="S54" s="12">
         <f>ROUND((Q54-K54)/K54,5)</f>
         <v/>
       </c>
-      <c r="W54" s="13">
+      <c r="W54" s="12">
         <f>ROUND((V54-U54)/U54,5)</f>
         <v/>
       </c>
@@ -9944,20 +9551,20 @@
 Solve time: 145025</t>
         </is>
       </c>
-      <c r="M55" s="12">
+      <c r="M55" s="11">
         <f>ROUND((K55-G55)/G55,5)</f>
         <v/>
       </c>
-      <c r="N55" s="12" t="n"/>
-      <c r="R55" s="12">
+      <c r="N55" s="11" t="n"/>
+      <c r="R55" s="11">
         <f>ROUND((Q55-G55)/G55,5)</f>
         <v/>
       </c>
-      <c r="S55" s="13">
+      <c r="S55" s="12">
         <f>ROUND((Q55-K55)/K55,5)</f>
         <v/>
       </c>
-      <c r="W55" s="13">
+      <c r="W55" s="12">
         <f>ROUND((V55-U55)/U55,5)</f>
         <v/>
       </c>
@@ -10026,25 +9633,25 @@
 Solve time: 430708</t>
         </is>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="11">
         <f>ROUND((K56-G56)/G56,5)</f>
         <v/>
       </c>
-      <c r="N56" s="12" t="n"/>
-      <c r="R56" s="12">
+      <c r="N56" s="11" t="n"/>
+      <c r="R56" s="11">
         <f>ROUND((Q56-G56)/G56,5)</f>
         <v/>
       </c>
-      <c r="S56" s="13">
+      <c r="S56" s="12">
         <f>ROUND((Q56-K56)/K56,5)</f>
         <v/>
       </c>
-      <c r="W56" s="13">
+      <c r="W56" s="12">
         <f>ROUND((V56-U56)/U56,5)</f>
         <v/>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15" customHeight="1" s="15">
       <c r="A57" t="n">
         <v>12</v>
       </c>
@@ -10062,26 +9669,71 @@
         <f>F57/1000</f>
         <v/>
       </c>
-      <c r="H57" s="16" t="n"/>
-      <c r="M57" s="12">
+      <c r="F57" t="n">
+        <v>2335436</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1235.52305333</v>
+      </c>
+      <c r="H57" s="16" t="inlineStr">
+        <is>
+          <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (9.323766392, -75.027154434) and average unload time 0.153863026
+Customer 2 has 5 pallets demand and window 0-24 at (-54.026006389, 31.120934846) and average unload time 0.16309667
+Customer 3 has 12 pallets demand and window 0-24 at (61.353022315, 9.197128971) and average unload time 0.081370108
+Customer 4 has 4 pallets demand and window 0-24 at (92.463302392, 34.781071736) and average unload time 0.051990036
+Customer 5 has 4 pallets demand and window 17-18 at (40.33825566, -89.267972485) and average unload time 0.038344625
+Customer 6 has 1 pallets demand and window 0-24 at (84.176793096, 18.764110183) and average unload time 0.089213447
+Customer 7 has 2 pallets demand and window 0-24 at (-25.143650218, 37.440034642) and average unload time 0.117293614
+Customer 8 has 10 pallets demand and window 0-24 at (-92.502826604, -45.905170828) and average unload time 0.041220897
+Customer 9 has 5 pallets demand and window 0-24 at (-30.383074534, -14.636752348) and average unload time 0.157216861
+Customer 10 has 9 pallets demand and window 0-24 at (36.88861806, -73.065528774) and average unload time 0.108515697
+Customer 11 has 9 pallets demand and window 0-24 at (-28.703191014, -43.834436797) and average unload time 0.15624806
+Customer 12 has 12 pallets demand and window 19-20 at (-55.176741996, 98.086344662) and average unload time 0.090735057
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.110220405, and time cost 11.507600006
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.30225705, and time cost 12.003990304
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.110220405, and time cost 11.507600006
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.30225705, and time cost 12.003990304
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.30225705, and time cost 12.003990304
+Output:
+Vehicle SP2 travels from Depot to 8 to deliver 10 pallets. Expected unload start time is 16.8588464
+Vehicle SP2 travels from 2 to 12 to deliver 12 pallets. Expected unload start time is 20
+Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.733093549
+Vehicle SP2 travels from 8 to 2 to deliver 5 pallets. Expected unload start time is 18.347325448
+Vehicle SP2 travels from 12 to 7 to deliver 2 pallets. Expected unload start time is 21.934763342
+Vehicle SP3 travels from Depot to 4 to deliver 4 pallets. Expected unload start time is 21.41613685
+Vehicle SP3 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 24
+Vehicle SP3 travels from 4 to 6 to deliver 1 pallets. Expected unload start time is 21.849516495
+Vehicle SP3 travels from 6 to 3 to deliver 12 pallets. Expected unload start time is 22.248076947
+Vehicle SP4 travels from Depot to 10 to deliver 9 pallets. Expected unload start time is 16.816288701
+Vehicle SP4 travels from 1 to 11 to deliver 9 pallets. Expected unload start time is 19.50249681
+Vehicle SP4 travels from 5 to 1 to deliver 2 pallets. Expected unload start time is 18.579974664
+Vehicle SP4 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.481948952
+Vehicle SP4 travels from 10 to 5 to deliver 4 pallets. Expected unload start time is 18
+Vehicle SP4 travels from 11 to 9 to deliver 5 pallets. Expected unload start time is 21.274303981
+Objective value: 1235.52305333
+Solve time: 2335436</t>
+        </is>
+      </c>
+      <c r="M57" s="11">
         <f>ROUND((K57-G57)/G57,5)</f>
         <v/>
       </c>
-      <c r="N57" s="12" t="n"/>
-      <c r="R57" s="12">
+      <c r="N57" s="11" t="n"/>
+      <c r="R57" s="11">
         <f>ROUND((Q57-G57)/G57,5)</f>
         <v/>
       </c>
-      <c r="S57" s="13">
+      <c r="S57" s="12">
         <f>ROUND((Q57-K57)/K57,5)</f>
         <v/>
       </c>
-      <c r="W57" s="13">
+      <c r="W57" s="12">
         <f>ROUND((V57-U57)/U57,5)</f>
         <v/>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15" customHeight="1" s="15">
       <c r="A58" t="n">
         <v>12</v>
       </c>
@@ -10099,26 +9751,71 @@
         <f>F58/1000</f>
         <v/>
       </c>
-      <c r="H58" s="16" t="n"/>
-      <c r="M58" s="12">
+      <c r="F58" t="n">
+        <v>2049569</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1079.070671831</v>
+      </c>
+      <c r="H58" s="16" t="inlineStr">
+        <is>
+          <t>Input:
+Customer 1 has 6 pallets demand and window 0-24 at (-73.452381273, 54.047136339) and average unload time 0.056688615
+Customer 2 has 3 pallets demand and window 13-14 at (78.971068732, 92.091115195) and average unload time 0.164007106
+Customer 3 has 1 pallets demand and window 0-24 at (58.865778175, 12.797703305) and average unload time 0.133102341
+Customer 4 has 2 pallets demand and window 0-24 at (-50.643364047, -50.936646305) and average unload time 0.03605971
+Customer 5 has 2 pallets demand and window 0-24 at (-96.061971128, 78.200037067) and average unload time 0.088519892
+Customer 6 has 8 pallets demand and window 0-24 at (71.372072565, -38.643780593) and average unload time 0.153633964
+Customer 7 has 10 pallets demand and window 14-15 at (-66.614349811, -78.088687705) and average unload time 0.070560553
+Customer 8 has 6 pallets demand and window 0-24 at (-91.138642303, -18.646419267) and average unload time 0.133443936
+Customer 9 has 5 pallets demand and window 0-24 at (-76.707027158, 34.045959793) and average unload time 0.135998893
+Customer 10 has 1 pallets demand and window 0-24 at (-66.163558086, -14.947527817) and average unload time 0.024720712
+Customer 11 has 4 pallets demand and window 0-24 at (31.702870939, -1.159319746) and average unload time 0.143820536
+Customer 12 has 10 pallets demand and window 0-24 at (99.79328855, -32.38261543) and average unload time 0.114075372
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.28417055, and time cost 9.780776843
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.975382084, and time cost 13.518983981
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.924896712, and time cost 8.940937184
+Vehicle SP4 is a Rigid with capacity 16, distance cost 0.924896712, and time cost 8.940937184
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.975382084, and time cost 13.518983981
+Output:
+Vehicle SP2 travels from Depot to 10 to deliver 1 pallets. Expected unload start time is 13.055239344
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.069338678
+Vehicle SP2 travels from 7 to 4 to deliver 2 pallets. Expected unload start time is 16.09936659
+Vehicle SP2 travels from 8 to 7 to deliver 10 pallets. Expected unload start time is 15
+Vehicle SP2 travels from 10 to 8 to deliver 6 pallets. Expected unload start time is 13.395553898
+Vehicle SP4 travels from Depot to 1 to deliver 6 pallets. Expected unload start time is 1.139924974
+Vehicle SP4 travels from 1 to 5 to deliver 2 pallets. Expected unload start time is 1.893607629
+Vehicle SP4 travels from 5 to 9 to deliver 5 pallets. Expected unload start time is 2.673271414
+Vehicle SP4 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.402305275
+Vehicle SP5 travels from Depot to 11 to deliver 4 pallets. Expected unload start time is 8.091231127
+Vehicle SP5 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.008452326
+Vehicle SP5 travels from 3 to 2 to deliver 3 pallets. Expected unload start time is 14
+Vehicle SP5 travels from 6 to 12 to deliver 10 pallets. Expected unload start time is 10.941590673
+Vehicle SP5 travels from 11 to 6 to deliver 8 pallets. Expected unload start time is 9.348735094
+Vehicle SP5 travels from 12 to 3 to deliver 1 pallets. Expected unload start time is 12.844364968
+Objective value: 1079.070671831
+Solve time: 2049569</t>
+        </is>
+      </c>
+      <c r="M58" s="11">
         <f>ROUND((K58-G58)/G58,5)</f>
         <v/>
       </c>
-      <c r="N58" s="12" t="n"/>
-      <c r="R58" s="12">
+      <c r="N58" s="11" t="n"/>
+      <c r="R58" s="11">
         <f>ROUND((Q58-G58)/G58,5)</f>
         <v/>
       </c>
-      <c r="S58" s="13">
+      <c r="S58" s="12">
         <f>ROUND((Q58-K58)/K58,5)</f>
         <v/>
       </c>
-      <c r="W58" s="13">
+      <c r="W58" s="12">
         <f>ROUND((V58-U58)/U58,5)</f>
         <v/>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15" customHeight="1" s="15">
       <c r="A59" t="n">
         <v>12</v>
       </c>
@@ -10136,26 +9833,71 @@
         <f>F59/1000</f>
         <v/>
       </c>
-      <c r="H59" s="16" t="n"/>
-      <c r="M59" s="12">
+      <c r="F59" t="n">
+        <v>142587</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1065.533632739</v>
+      </c>
+      <c r="H59" s="16" t="inlineStr">
+        <is>
+          <t>Input:
+Customer 1 has 9 pallets demand and window 0-24 at (-21.058710905, -85.732132641) and average unload time 0.08006281
+Customer 2 has 4 pallets demand and window 0-24 at (-61.530467477, 1.737117717) and average unload time 0.094669005
+Customer 3 has 1 pallets demand and window 0-24 at (-50.677734248, -53.936729153) and average unload time 0.022009121
+Customer 4 has 6 pallets demand and window 0-24 at (-69.054106936, -51.628713993) and average unload time 0.155332702
+Customer 5 has 7 pallets demand and window 0-24 at (72.066314682, 21.176732398) and average unload time 0.101851625
+Customer 6 has 4 pallets demand and window 0-24 at (99.703455051, -23.277342091) and average unload time 0.058345596
+Customer 7 has 9 pallets demand and window 0-24 at (-99.403509456, -74.089731337) and average unload time 0.138604905
+Customer 8 has 7 pallets demand and window 0-24 at (-94.024021409, -85.062275023) and average unload time 0.135408239
+Customer 9 has 9 pallets demand and window 20-21 at (33.467209204, -64.83280491) and average unload time 0.079560351
+Customer 10 has 2 pallets demand and window 6-7 at (-89.273295195, 57.58077261) and average unload time 0.03541879
+Customer 11 has 1 pallets demand and window 0-24 at (-23.053132966, 62.283270093) and average unload time 0.128154381
+Customer 12 has 6 pallets demand and window 16-17 at (60.17467471, -61.397482643) and average unload time 0.146222627
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.963034084, and time cost 12.240195381
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.28918797, and time cost 13.157882916
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.963034084, and time cost 12.240195381
+Vehicle SP4 is a Rigid with capacity 16, distance cost 0.734679723, and time cost 14.412072107
+Vehicle SP5 is a 8 metre with capacity 22, distance cost 1.28918797, and time cost 13.157882916
+Output:
+Vehicle SP1 travels from Depot to 5 to deliver 7 pallets. Expected unload start time is 14.712907548
+Vehicle SP1 travels from 5 to 6 to deliver 4 pallets. Expected unload start time is 16.080178708
+Vehicle SP1 travels from 6 to 12 to deliver 6 pallets. Expected unload start time is 17
+Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.628059012
+Vehicle SP1 travels from 12 to 9 to deliver 9 pallets. Expected unload start time is 20
+Vehicle SP3 travels from Depot to 11 to deliver 1 pallets. Expected unload start time is 6.042009098
+Vehicle SP3 travels from 2 to 7 to deliver 9 pallets. Expected unload start time is 9.288441114
+Vehicle SP3 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.26874083
+Vehicle SP3 travels from 4 to 3 to deliver 1 pallets. Expected unload start time is 13.321613177
+Vehicle SP3 travels from 7 to 8 to deliver 7 pallets. Expected unload start time is 10.688638945
+Vehicle SP3 travels from 8 to 4 to deliver 6 pallets. Expected unload start time is 12.158107649
+Vehicle SP3 travels from 10 to 2 to deliver 4 pallets. Expected unload start time is 7.850278313
+Vehicle SP3 travels from 11 to 10 to deliver 2 pallets. Expected unload start time is 7
+Vehicle SP4 travels from Depot to 1 to deliver 9 pallets. Expected unload start time is 1.10350775
+Vehicle SP4 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.927580787
+Objective value: 1065.533632739
+Solve time: 142587</t>
+        </is>
+      </c>
+      <c r="M59" s="11">
         <f>ROUND((K59-G59)/G59,5)</f>
         <v/>
       </c>
-      <c r="N59" s="12" t="n"/>
-      <c r="R59" s="12">
+      <c r="N59" s="11" t="n"/>
+      <c r="R59" s="11">
         <f>ROUND((Q59-G59)/G59,5)</f>
         <v/>
       </c>
-      <c r="S59" s="13">
+      <c r="S59" s="12">
         <f>ROUND((Q59-K59)/K59,5)</f>
         <v/>
       </c>
-      <c r="W59" s="13">
+      <c r="W59" s="12">
         <f>ROUND((V59-U59)/U59,5)</f>
         <v/>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15" customHeight="1" s="15">
       <c r="A60" t="n">
         <v>12</v>
       </c>
@@ -10173,26 +9915,72 @@
         <f>F60/1000</f>
         <v/>
       </c>
-      <c r="H60" s="16" t="n"/>
-      <c r="M60" s="12">
+      <c r="F60" t="n">
+        <v>100543</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1187.542333671</v>
+      </c>
+      <c r="H60" s="16" t="inlineStr">
+        <is>
+          <t>Input:
+Customer 1 has 7 pallets demand and window 0-24 at (91.438134137, 17.447596608) and average unload time 0.084138119
+Customer 2 has 8 pallets demand and window 0-24 at (20.623928657, -14.412303451) and average unload time 0.05011469
+Customer 3 has 2 pallets demand and window 0-24 at (-83.6329276, 1.252347453) and average unload time 0.147704323
+Customer 4 has 8 pallets demand and window 0-24 at (-37.294681917, 10.731904881) and average unload time 0.047134934
+Customer 5 has 9 pallets demand and window 0-24 at (-25.465924875, -60.961725972) and average unload time 0.086974199
+Customer 6 has 8 pallets demand and window 0-24 at (-76.288102705, 97.421796628) and average unload time 0.128563048
+Customer 7 has 5 pallets demand and window 0-24 at (-30.298270095, -74.514043051) and average unload time 0.124786882
+Customer 8 has 3 pallets demand and window 19-20 at (-79.6590541, -7.765564004) and average unload time 0.098181791
+Customer 9 has 3 pallets demand and window 0-24 at (82.043986031, 86.067861937) and average unload time 0.160404827
+Customer 10 has 9 pallets demand and window 10-11 at (83.432869817, 85.176582798) and average unload time 0.025520839
+Customer 11 has 9 pallets demand and window 0-24 at (-55.963300913, 93.273855672) and average unload time 0.072386171
+Customer 12 has 2 pallets demand and window 0-24 at (77.559232238, -37.089194511) and average unload time 0.113464765
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.069854724, and time cost 14.736412156
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.073487361, and time cost 8.473161214
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.073487361, and time cost 8.473161214
+Vehicle SP4 is a Rigid with capacity 16, distance cost 1.073487361, and time cost 8.473161214
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.207594963, and time cost 14.728007226
+Output:
+Vehicle SP1 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 9.4981572
+Vehicle SP1 travels from 1 to 12 to deliver 2 pallets. Expected unload start time is 12.374598469
+Vehicle SP1 travels from 9 to 10 to deliver 9 pallets. Expected unload start time is 10
+Vehicle SP1 travels from 10 to 1 to deliver 7 pallets. Expected unload start time is 11.082193038
+Vehicle SP1 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 13.676167681
+Vehicle SP3 travels from Depot to 2 to deliver 8 pallets. Expected unload start time is 0.314508775
+Vehicle SP3 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 1.029935067
+Vehicle SP4 travels from Depot to 7 to deliver 5 pallets. Expected unload start time is 1.005479346
+Vehicle SP4 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.417869754
+Vehicle SP4 travels from 7 to 5 to deliver 9 pallets. Expected unload start time is 1.809264761
+Vehicle SP5 travels from Depot to 11 to deliver 9 pallets. Expected unload start time is 16.436512346
+Vehicle SP5 travels from 3 to 8 to deliver 3 pallets. Expected unload start time is 20
+Vehicle SP5 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.734558054
+Vehicle SP5 travels from 6 to 3 to deliver 2 pallets. Expected unload start time is 19.581408057
+Vehicle SP5 travels from 8 to 4 to deliver 8 pallets. Expected unload start time is 20.87237758
+Vehicle SP5 travels from 11 to 6 to deliver 8 pallets. Expected unload start time is 17.347284702
+Objective value: 1187.542333671
+Solve time: 100543</t>
+        </is>
+      </c>
+      <c r="M60" s="11">
         <f>ROUND((K60-G60)/G60,5)</f>
         <v/>
       </c>
-      <c r="N60" s="12" t="n"/>
-      <c r="R60" s="12">
+      <c r="N60" s="11" t="n"/>
+      <c r="R60" s="11">
         <f>ROUND((Q60-G60)/G60,5)</f>
         <v/>
       </c>
-      <c r="S60" s="13">
+      <c r="S60" s="12">
         <f>ROUND((Q60-K60)/K60,5)</f>
         <v/>
       </c>
-      <c r="W60" s="13">
+      <c r="W60" s="12">
         <f>ROUND((V60-U60)/U60,5)</f>
         <v/>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15" customHeight="1" s="15">
       <c r="A61" t="n">
         <v>12</v>
       </c>
@@ -10210,37 +9998,83 @@
         <f>F61/1000</f>
         <v/>
       </c>
-      <c r="H61" s="16" t="n"/>
-      <c r="M61" s="12">
+      <c r="F61" t="n">
+        <v>3916742</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1014.184533394</v>
+      </c>
+      <c r="H61" s="16" t="inlineStr">
+        <is>
+          <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (-29.236009491, 13.763775838) and average unload time 0.028283481
+Customer 2 has 4 pallets demand and window 0-24 at (70.149307077, 13.79415784) and average unload time 0.071559976
+Customer 3 has 1 pallets demand and window 0-24 at (-42.049988492, -84.896454508) and average unload time 0.102735431
+Customer 4 has 11 pallets demand and window 0-24 at (47.755556562, -11.732306242) and average unload time 0.096625309
+Customer 5 has 9 pallets demand and window 0-24 at (91.110804245, -45.197705153) and average unload time 0.137938956
+Customer 6 has 9 pallets demand and window 12-13 at (-57.200885301, -12.54838386) and average unload time 0.028373223
+Customer 7 has 4 pallets demand and window 0-24 at (78.032734314, 40.08765245) and average unload time 0.166425632
+Customer 8 has 3 pallets demand and window 14-15 at (-78.467693829, -20.077883184) and average unload time 0.08331469
+Customer 9 has 9 pallets demand and window 0-24 at (-68.401786042, 4.948386826) and average unload time 0.077273626
+Customer 10 has 6 pallets demand and window 0-24 at (72.527057688, -0.556721134) and average unload time 0.02137963
+Customer 11 has 11 pallets demand and window 0-24 at (83.57894321, 10.511544341) and average unload time 0.094713115
+Customer 12 has 2 pallets demand and window 0-24 at (-42.817211399, -51.000071044) and average unload time 0.020278036
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.389215585, and time cost 8.60907932
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.285845201, and time cost 7.081749349
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.285845201, and time cost 7.081749349
+Vehicle SP4 is a Rigid with capacity 16, distance cost 1.088041369, and time cost 14.33111071
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.285845201, and time cost 7.081749349
+Output:
+Vehicle SP2 travels from Depot to 7 to deliver 4 pallets. Expected unload start time is 1.096594692
+Vehicle SP2 travels from 2 to 11 to deliver 11 pallets. Expected unload start time is 2.564473233
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.367630083
+Vehicle SP2 travels from 7 to 2 to deliver 4 pallets. Expected unload start time is 2.105420806
+Vehicle SP2 travels from 10 to 4 to deliver 5 pallets. Expected unload start time is 4.269808466
+Vehicle SP2 travels from 11 to 10 to deliver 6 pallets. Expected unload start time is 3.801833905
+Vehicle SP4 travels from Depot to 5 to deliver 9 pallets. Expected unload start time is 0.732013833
+Vehicle SP4 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.8525201
+Vehicle SP4 travels from 5 to 4 to deliver 6 pallets. Expected unload start time is 2.658073174
+Vehicle SP5 travels from Depot to 1 to deliver 4 pallets. Expected unload start time is 11.429896998
+Vehicle SP5 travels from 1 to 9 to deliver 9 pallets. Expected unload start time is 12.04485091
+Vehicle SP5 travels from 3 to 12 to deliver 2 pallets. Expected unload start time is 15.70584881
+Vehicle SP5 travels from 6 to 8 to deliver 3 pallets. Expected unload start time is 13.999999997
+Vehicle SP5 travels from 8 to 3 to deliver 1 pallets. Expected unload start time is 15.179300064
+Vehicle SP5 travels from 9 to 6 to deliver 9 pallets. Expected unload start time is 13.000000001
+Vehicle SP5 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.578788585
+Objective value: 1014.184533394
+Solve time: 3916742</t>
+        </is>
+      </c>
+      <c r="M61" s="11">
         <f>ROUND((K61-G61)/G61,5)</f>
         <v/>
       </c>
-      <c r="N61" s="12" t="n"/>
-      <c r="R61" s="12">
+      <c r="N61" s="11" t="n"/>
+      <c r="R61" s="11">
         <f>ROUND((Q61-G61)/G61,5)</f>
         <v/>
       </c>
-      <c r="S61" s="13">
+      <c r="S61" s="12">
         <f>ROUND((Q61-K61)/K61,5)</f>
         <v/>
       </c>
-      <c r="W61" s="13">
+      <c r="W61" s="12">
         <f>ROUND((V61-U61)/U61,5)</f>
         <v/>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15" customHeight="1" s="15">
       <c r="H62" s="16" t="n"/>
-      <c r="M62" s="12" t="n"/>
-      <c r="N62" s="12" t="n"/>
-      <c r="R62" s="12" t="n"/>
-      <c r="S62" s="13" t="n"/>
-      <c r="W62" s="13" t="n"/>
-    </row>
-    <row r="63">
+      <c r="M62" s="11" t="n"/>
+      <c r="N62" s="11" t="n"/>
+      <c r="R62" s="11" t="n"/>
+      <c r="S62" s="12" t="n"/>
+      <c r="W62" s="12" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1" s="15">
       <c r="H63" s="16" t="n"/>
     </row>
-    <row r="64">
+    <row r="64" ht="15" customHeight="1" s="15">
       <c r="H64" s="16" t="n"/>
     </row>
     <row r="65">
@@ -10886,12 +10720,12 @@
     <mergeCell ref="H151:I151"/>
   </mergeCells>
   <conditionalFormatting sqref="R63:R1048576 R1:R61">
-    <cfRule type="cellIs" priority="35" operator="lessThan" dxfId="1">
+    <cfRule type="cellIs" priority="35" operator="lessThan" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R62">
-    <cfRule type="cellIs" priority="18" operator="lessThan" dxfId="1">
+    <cfRule type="cellIs" priority="18" operator="lessThan" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10903,7 +10737,7 @@
     <cfRule type="cellIs" priority="34" operator="lessThan" dxfId="4">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="36" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="36" operator="equal" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10915,33 +10749,33 @@
     <cfRule type="cellIs" priority="11" operator="lessThan" dxfId="4">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="cellIs" priority="5" operator="lessThan" dxfId="1">
+    <cfRule type="cellIs" priority="5" operator="lessThan" dxfId="0">
       <formula>-0.01</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="greaterThan" dxfId="4">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P11 P63:P1048576 P19:P61">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="1">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="0">
       <formula>1800</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P62">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" dxfId="0">
       <formula>1800</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P18">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="1">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="0">
       <formula>1800</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10965,19 +10799,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
-    <col width="14.42578125" customWidth="1" style="18" min="3" max="3"/>
-    <col width="12" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
-    <col width="15" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
-    <col width="19" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
-    <col width="51.140625" customWidth="1" style="18" min="7" max="7"/>
-    <col width="16" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
-    <col width="12" bestFit="1" customWidth="1" style="18" min="9" max="9"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="18" min="10" max="10"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
-    <col width="14" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
-    <col width="41.7109375" customWidth="1" style="18" min="13" max="13"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="15" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" style="15" min="3" max="3"/>
+    <col width="12" bestFit="1" customWidth="1" style="15" min="4" max="4"/>
+    <col width="15" bestFit="1" customWidth="1" style="15" min="5" max="5"/>
+    <col width="19" bestFit="1" customWidth="1" style="15" min="6" max="6"/>
+    <col width="51.140625" customWidth="1" style="15" min="7" max="7"/>
+    <col width="16" bestFit="1" customWidth="1" style="15" min="8" max="8"/>
+    <col width="12" bestFit="1" customWidth="1" style="15" min="9" max="9"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="15" min="10" max="10"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="15" min="11" max="11"/>
+    <col width="14" bestFit="1" customWidth="1" style="15" min="12" max="12"/>
+    <col width="41.7109375" customWidth="1" style="15" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11148,12 +10982,12 @@
         <f>D2-I2</f>
         <v/>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <f>K2/D2</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="18">
+    <row r="3" ht="14.25" customHeight="1" s="15">
       <c r="A3" s="10" t="n">
         <v>43768</v>
       </c>
@@ -11265,7 +11099,7 @@
         <f>D3-I3</f>
         <v/>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <f>K3/D3</f>
         <v/>
       </c>
@@ -11393,7 +11227,7 @@
         <f>D4-(I4+J4*10)</f>
         <v/>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <f>K4/D4</f>
         <v/>
       </c>
@@ -11553,7 +11387,7 @@
         <f>D5-(I5+J5*10)</f>
         <v/>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <f>K5/D5</f>
         <v/>
       </c>
@@ -11676,7 +11510,7 @@
         <f>D6-(I6+J6*10)</f>
         <v/>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <f>K6/D6</f>
         <v/>
       </c>
@@ -11766,7 +11600,7 @@
         <f>D7-(I7+J7*10)</f>
         <v/>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <f>K7/D7</f>
         <v/>
       </c>
@@ -11892,7 +11726,7 @@
         <f>D8-(I8+J8*10)</f>
         <v/>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <f>K8/D8</f>
         <v/>
       </c>
@@ -12006,7 +11840,7 @@
         <f>D9-(I9+J9*10)</f>
         <v/>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <f>K9/D9</f>
         <v/>
       </c>
@@ -12096,7 +11930,7 @@
         <f>D10-(I10+J10*10)</f>
         <v/>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <f>K10/D10</f>
         <v/>
       </c>
@@ -12220,7 +12054,7 @@
         <f>D11-(I11+J11*10)</f>
         <v/>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <f>K11/D11</f>
         <v/>
       </c>
@@ -12324,7 +12158,7 @@
         <f>D12-(I12+J12*10)</f>
         <v/>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <f>K12/D12</f>
         <v/>
       </c>
@@ -12454,7 +12288,7 @@
         <f>D13-(I13+J13*10)</f>
         <v/>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <f>K13/D13</f>
         <v/>
       </c>
@@ -12640,7 +12474,7 @@
         <f>D14-(I14+J14*10)</f>
         <v/>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <f>K14/D14</f>
         <v/>
       </c>
@@ -12761,7 +12595,7 @@
         <f>D15-(I15+J15*10)</f>
         <v/>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <f>K15/D15</f>
         <v/>
       </c>
@@ -12864,7 +12698,7 @@
         <f>D16-(I16+J16*10)</f>
         <v/>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <f>K16/D16</f>
         <v/>
       </c>
@@ -13003,7 +12837,7 @@
         <f>D17-(I17+J17*10)</f>
         <v/>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <f>K17/D17</f>
         <v/>
       </c>
@@ -13187,7 +13021,7 @@
         <f>D18-(I18+J18*10)</f>
         <v/>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <f>K18/D18</f>
         <v/>
       </c>
@@ -13290,7 +13124,7 @@
         <f>D19-(I19+J19*10)</f>
         <v/>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <f>K19/D19</f>
         <v/>
       </c>
@@ -13421,7 +13255,7 @@
         <f>D20-(I20+J20*10)</f>
         <v/>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <f>K20/D20</f>
         <v/>
       </c>
@@ -13608,7 +13442,7 @@
         <f>D21-(I21+J21*10)</f>
         <v/>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <f>K21/D21</f>
         <v/>
       </c>
@@ -13704,7 +13538,7 @@
         <f>D22-(I22+J22*10)</f>
         <v/>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <f>K22/D22</f>
         <v/>
       </c>
@@ -13835,7 +13669,7 @@
         <f>D23-(I23+J23*10)</f>
         <v/>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <f>K23/D23</f>
         <v/>
       </c>
@@ -14021,7 +13855,7 @@
         <f>D24-(I24+J24*10)</f>
         <v/>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <f>K24/D24</f>
         <v/>
       </c>
@@ -14035,7 +13869,7 @@
           <t>{"2": [[[17, 24], [164, 4]], [[44, 30]], [[111, 2], [77, 28]], [[149, 27], [148, 3]], [[165, 30]], [[159, 19], [194, 11]], [[41, 30]], [[172, 30]], [[79, 30]], [[104, 30]], [[6, 23], [187, 7]], [[176, 30]], [[153, 30]], [[208, 30]], [[35, 30]], [[100, 30]], [[83, 20]], [[40, 30]], [[117, 7], [126, 14], [125, 9]], [[121, 12], [143, 11], [193, 7]], [[80, 20], [168, 9]], [[135, 5], [182, 15], [95, 10]], [[81, 30]], [[193, 12], [143, 18]], [[121, 19], [135, 10]]], "1": [[[75, 19]], [[149, 22]], [[24, 8], [25, 14]], [[207, 21]], [[72, 22]], [[119, 10], [2, 12]], [[157, 22]], [[46, 20]], [[188, 22]], [[186, 9], [53, 12]], [[130, 22]], [[83, 20]], [[116, 10], [177, 11], [203, 1]], [[27, 22]]], "0": [[[194, 16]], [[16, 10], [165, 4]], [[156, 15], [39, 1]], [[77, 11]], [[120, 11], [198, 5]], [[151, 16]], [[196, 8], [48, 5]], [[34, 14]], [[9, 15]], [[154, 14]], [[8, 16]], [[108, 11]], [[152, 15]], [[120, 12]], [[199, 1], [91, 6], [81, 6]], [[197, 14]], [[131, 16]], [[151, 9], [173, 7]], [[144, 12]], [[166, 6], [28, 2], [3, 8]], [[97, 13]], [[66, 15]], [[101, 5], [19, 11]]]}</t>
         </is>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="13" t="n">
         <v>496052.9814666667</v>
       </c>
       <c r="F25" t="inlineStr">
@@ -14100,18 +13934,18 @@
 </t>
         </is>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H25" s="13" t="n">
         <v>7048.7007023</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="13" t="n">
         <v>448073.0931333331</v>
       </c>
-      <c r="J25" s="14" t="n"/>
-      <c r="K25" s="14">
+      <c r="J25" s="13" t="n"/>
+      <c r="K25" s="13">
         <f>D25-(I25+J25*10)</f>
         <v/>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <f>K25/D25</f>
         <v/>
       </c>
@@ -14133,7 +13967,7 @@
           <t>{"2": [[[149, 30]], [[172, 30]], [[165, 30]], [[44, 30]], [[149, 24], [148, 6]], [[159, 24], [41, 6]], [[77, 30]], [[15, 28]], [[150, 8], [172, 20]], [[98, 16], [153, 14]], [[194, 30]], [[79, 30]], [[6, 14], [187, 8], [194, 8]], [[104, 30]], [[41, 30]], [[153, 30]], [[176, 16], [35, 5], [209, 9]], [[100, 30]], [[208, 24], [152, 4]], [[16, 30]], [[24, 25], [25, 4], [66, 1]], [[110, 19], [174, 5], [104, 6]], [[35, 30]], [[156, 11], [168, 9], [132, 10]], [[25, 30]], [[59, 28]], [[117, 6], [126, 10], [125, 14]], [[40, 30]], [[92, 30]], [[72, 30]], [[29, 29]], [[139, 15], [40, 15]], [[121, 6], [143, 5], [193, 4], [19, 6], [97, 9]], [[186, 1], [95, 12], [182, 6], [101, 10], [75, 1]], [[33, 30]], [[4, 30]], [[49, 21], [197, 9]], [[32, 27]], [[81, 30]], [[8, 30]], [[55, 30]], [[97, 28]], [[140, 30]]], "0": [[[79, 7], [77, 7]], [[120, 10], [198, 6]], [[96, 16]], [[188, 15], [39, 1]], [[151, 14], [123, 1]], [[46, 16]], [[17, 15], [164, 1]], [[42, 12]], [[134, 10], [171, 2]], [[37, 10], [123, 1]], [[9, 10], [48, 5]], [[62, 1], [155, 1], [87, 1], [57, 13]], [[191, 2], [94, 5]], [[196, 13], [157, 3]], [[34, 16]], [[154, 15]], [[144, 3], [49, 3]], [[63, 16]], [[108, 9], [120, 7]], [[199, 10], [74, 5]], [[93, 9], [70, 7]], [[186, 14], [151, 1]], [[91, 13], [81, 2]], [[53, 13], [95, 3]], [[197, 16]], [[66, 12]], [[131, 12], [8, 4]], [[83, 13]], [[75, 5], [28, 6], [135, 5]]], "1": [[[207, 20]], [[83, 18], [2, 4]], [[82, 22]], [[119, 12], [2, 10]], [[68, 10], [1, 3], [18, 8], [112, 1]], [[18, 7], [200, 15]], [[157, 21]], [[163, 17], [3, 5]], [[192, 22]], [[66, 22]], [[38, 22]], [[33, 9], [4, 11]], [[88, 22]], [[3, 22]]]}</t>
         </is>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="13" t="n">
         <v>595195.3826666666</v>
       </c>
       <c r="F26" t="inlineStr">
@@ -14221,18 +14055,18 @@
 </t>
         </is>
       </c>
-      <c r="H26" s="14" t="n">
+      <c r="H26" s="13" t="n">
         <v>7200.4963603</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="13" t="n">
         <v>559057.7403333329</v>
       </c>
-      <c r="J26" s="14" t="n"/>
-      <c r="K26" s="14">
+      <c r="J26" s="13" t="n"/>
+      <c r="K26" s="13">
         <f>D26-(I26+J26*10)</f>
         <v/>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <f>K26/D26</f>
         <v/>
       </c>
@@ -14249,7 +14083,7 @@
           <t>{"3": [[[22, 36]], [[41, 39]], [[23, 40]], [[85, 30]]], "1": [[[156, 17], [132, 5]], [[17, 10], [164, 1], [197, 11]], [[207, 22]], [[83, 22]], [[119, 12], [2, 10]], [[46, 20]], [[188, 20]], [[151, 20]], [[56, 11], [118, 9]], [[72, 15], [18, 7]], [[58, 15], [22, 7]], [[142, 22]], [[50, 2], [78, 6], [113, 4], [94, 6], [102, 4]], [[35, 21]], [[168, 13], [17, 7]], [[163, 18], [3, 4]], [[186, 22]], [[205, 9], [45, 6], [206, 7]], [[144, 21], [106, 1]], [[157, 10], [28, 11], [11, 1]], [[121, 4], [143, 6], [193, 7], [185, 5]], [[135, 11], [95, 3], [182, 7]], [[151, 22]], [[173, 13], [131, 7]], [[40, 22]], [[57, 21]], [[89, 22]], [[158, 22]], [[84, 22]]], "2": [[[59, 30]], [[154, 1], [68, 8], [1, 21]], [[72, 30]], [[29, 30]], [[18, 17], [200, 13]], [[96, 27]], [[152, 4], [15, 26]], [[139, 30]], [[24, 9], [25, 7], [59, 11]], [[40, 30]], [[117, 2], [126, 14], [125, 14]], [[157, 15], [95, 15]], [[135, 15], [33, 5], [182, 10]], [[121, 14], [143, 15]], [[66, 19], [168, 11]], [[69, 30]], [[153, 30]], [[91, 27]], [[49, 30]], [[208, 30]], [[29, 10], [1, 20]], [[12, 20]], [[81, 5], [91, 23]], [[193, 6], [19, 12], [101, 10]], [[104, 12], [100, 15], [153, 3]], [[95, 30]], [[201, 30]], [[111, 30]], [[99, 30]], [[124, 30]], [[150, 30]], [[109, 30]], [[104, 30]], [[15, 30]], [[98, 30]], [[99, 10], [26, 20]], [[149, 30]], [[150, 19], [149, 7], [165, 4]], [[110, 7], [176, 8], [174, 14], [60, 1]], [[172, 20], [111, 10]], [[109, 28]], [[156, 20], [132, 10]], [[10, 30]], [[76, 20], [10, 10]], [[17, 29], [164, 1]], [[53, 14], [130, 16]], [[3, 26], [51, 4]], [[29, 28]], [[154, 30]], [[11, 2], [208, 11], [97, 14]], [[69, 30]], [[157, 1], [193, 6], [143, 12], [121, 11]], [[178, 28], [61, 2]], [[45, 7], [175, 23]], [[185, 17]], [[19, 2], [28, 17], [101, 11]], [[69, 30]], [[147, 7]], [[85, 30]], [[20, 30]], [[84, 30]], [[116, 5], [85, 23]], [[20, 18]], [[92, 30]]], "0": [[[7, 4], [188, 6], [39, 5]], [[120, 9], [198, 6]], [[80, 16]], [[69, 15]], [[134, 13]], [[92, 16]], [[112, 2], [198, 7], [42, 1]], [[51, 12]], [[62, 13], [155, 1], [87, 2]], [[47, 12], [166, 4]], [[128, 14]], [[105, 5], [46, 4], [115, 7]], [[191, 4], [48, 10], [96, 2]], [[186, 16]], [[134, 8], [171, 5]], [[93, 10], [151, 6]], [[8, 5], [33, 5]], [[142, 4], [12, 11]], [[130, 3], [53, 13]], [[13, 16]], [[9, 11]], [[97, 15]], [[75, 3], [135, 6]], [[90, 16]], [[128, 1]], [[128, 1]], [[128, 1]], [[195, 1]], [[83, 16]], [[69, 7]], [[158, 13]]]}</t>
         </is>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="13" t="n">
         <v>1381861.717933334</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -14391,18 +14225,18 @@
 </t>
         </is>
       </c>
-      <c r="H27" s="14" t="n">
+      <c r="H27" s="13" t="n">
         <v>7888.9231545</v>
       </c>
-      <c r="I27" s="14" t="n">
+      <c r="I27" s="13" t="n">
         <v>1204977.810166667</v>
       </c>
-      <c r="J27" s="14" t="n"/>
-      <c r="K27" s="14">
+      <c r="J27" s="13" t="n"/>
+      <c r="K27" s="13">
         <f>D27-(I27+J27*10)</f>
         <v/>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="11">
         <f>K27/D27</f>
         <v/>
       </c>
@@ -14491,11 +14325,11 @@
       <c r="I28" t="n">
         <v>541168.9366666665</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <f>D28-(I28+J28*10)</f>
         <v/>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="11">
         <f>K28/D28</f>
         <v/>
       </c>
@@ -14612,11 +14446,11 @@
       <c r="I29" t="n">
         <v>661103.9565833332</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <f>D29-(I29+J29*10)</f>
         <v/>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <f>K29/D29</f>
         <v/>
       </c>
@@ -14766,11 +14600,11 @@
       <c r="I30" t="n">
         <v>1410468.586666666</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <f>D30-(I30+J30*10)</f>
         <v/>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="11">
         <f>K30/D30</f>
         <v/>
       </c>
@@ -14779,7 +14613,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="L31" s="12" t="n"/>
+      <c r="L31" s="11" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A28"/>

--- a/vrp_case_study/Solve Times Summary.xlsx
+++ b/vrp_case_study/Solve Times Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-Case-Study\vrp_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344CE4D-9F21-4057-91D1-76CBD3FF638B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C48A1-48E0-4216-802F-103A5376D179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="363">
   <si>
     <t># Customers</t>
   </si>
@@ -488,46 +488,41 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (-75.232159038, 50.651970496) and average unload time 0.04190377
-Customer 2 has 8 pallets demand and window 0-24 at (-96.846639189, -60.158093906) and average unload time 0.042988264
-Customer 3 has 4 pallets demand and window 0-24 at (45.664234234, 0.727339747) and average unload time 0.063438252
-Customer 4 has 7 pallets demand and window 0-24 at (16.417783423, 25.645519173) and average unload time 0.020869582
-Customer 5 has 5 pallets demand and window 0-24 at (17.774671062, 7.054072652) and average unload time 0.121386428
-Customer 6 has 7 pallets demand and window 18-19 at (-79.145413936, -87.086455664) and average unload time 0.026540957
-Customer 7 has 4 pallets demand and window 0-24 at (43.201939756, 71.952112418) and average unload time 0.033818959
-Customer 8 has 6 pallets demand and window 0-24 at (59.948291914, 5.538052902) and average unload time 0.104957159
-Customer 9 has 6 pallets demand and window 0-24 at (-22.468218313, -13.59057265) and average unload time 0.084756841
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.796373564, and time cost 14.142957055
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.943917879, and time cost 7.099952725
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.08564923, and time cost 11.653980348
+Customer 1 has 2 pallets demand and window 0-24 at (-80.368103744, -76.386555869) and average unload time 0.021810113
+Customer 2 has 5 pallets demand and window 0-24 at (-86.000608708, 95.752620182) and average unload time 0.046876185
+Customer 3 has 5 pallets demand and window 21-22 at (73.069412679, -57.604511384) and average unload time 0.15766496
+Customer 4 has 4 pallets demand and window 0-24 at (-74.107014751, -93.632673463) and average unload time 0.041066134
+Customer 5 has 6 pallets demand and window 0-24 at (68.226249453, -26.692901959) and average unload time 0.119358604
+Customer 6 has 6 pallets demand and window 0-24 at (27.011504962, -81.414600264) and average unload time 0.049610385
+Customer 7 has 3 pallets demand and window 0-24 at (73.275325121, -68.154920046) and average unload time 0.017542534
+Customer 8 has 7 pallets demand and window 0-24 at (0.259723342, 48.726665853) and average unload time 0.121079919
+Customer 9 has 3 pallets demand and window 0-24 at (-36.519585115, 8.775372158) and average unload time 0.083812594
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.468351635, and time cost 10.298379513
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.432284454, and time cost 13.287541551
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.432284454, and time cost 13.287541551
 Output:
-Vehicle SP1 travels from Depot to 4 to deliver 0 pallets. Expected unload start time is 13.366293409
-Vehicle SP1 travels from 1 to 2 to deliver 8 pallets. Expected unload start time is 17.253277625
-Vehicle SP1 travels from 2 to 6 to deliver 7 pallets. Expected unload start time is 18
-Vehicle SP1 travels from 4 to 7 to deliver 4 pallets. Expected unload start time is 14.034978172
-Vehicle SP1 travels from 6 to 9 to deliver 6 pallets. Expected unload start time is 19.345928753
-Vehicle SP1 travels from 7 to 1 to deliver 4 pallets. Expected unload start time is 15.674432139
-Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 20.182704779
-Vehicle SP3 travels from Depot to 4 to deliver 7 pallets. Expected unload start time is 20.979185343
-Vehicle SP3 travels from 3 to 5 to deliver 5 pallets. Expected unload start time is 23.154027181
-Vehicle SP3 travels from 4 to 8 to deliver 6 pallets. Expected unload start time is 21.724649093
-Vehicle SP3 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.000000005
-Vehicle SP3 travels from 8 to 3 to deliver 4 pallets. Expected unload start time is 22.542797056
-Objective value: 664.142857262
-Solve time: 4298</t>
-  </si>
-  <si>
-    <t>{"0": [[[4, 0], [7, 4], [1, 4], [2, 8], [6, 7], [9, 6]]], "1": [], "2": [[[4, 7], [8, 6], [3, 4], [5, 5]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[9, 6], [6, 7], [2, 8], [1, 4], [7, 4]]], "1": [[]], "2": [[[4, 7], [8, 6], [3, 4], [5, 5]]]}</t>
+Vehicle SP1 travels from Depot to 1 to deliver 2 pallets. Expected unload start time is 19.205820462
+Vehicle SP1 travels from 1 to 4 to deliver 4 pallets. Expected unload start time is 19.478784115
+Vehicle SP1 travels from 3 to 5 to deliver 6 pallets. Expected unload start time is 23.179433766
+Vehicle SP1 travels from 4 to 6 to deliver 6 pallets. Expected unload start time is 20.916223589
+Vehicle SP1 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.81136137
+Vehicle SP1 travels from 6 to 7 to deliver 3 pallets. Expected unload start time is 21.815467175
+Vehicle SP1 travels from 7 to 3 to deliver 5 pallets. Expected unload start time is 22
+Vehicle SP3 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 0.46948896
+Vehicle SP3 travels from 2 to 8 to deliver 7 pallets. Expected unload start time is 3.434221277
+Vehicle SP3 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.890872687
+Vehicle SP3 travels from 9 to 2 to deliver 5 pallets. Expected unload start time is 1.971764798
+Objective value: 1123.601076416
+Solve time: 1721</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 2], [4, 4], [6, 6], [7, 3], [3, 5], [5, 6]]], "1": [[[9, 3], [2, 5], [8, 7]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-9 (6) -&gt; 6 (7) -&gt; 2 (8) -&gt; 1 (4) -&gt; 7 (4)
-Rigid (capacity 16):
+1 (2) -&gt; 4 (4) -&gt; 6 (6) -&gt; 7 (3) -&gt; 3 (5) -&gt; 5 (6)
 8 metre (capacity 22):
-4 (7) -&gt; 8 (6) -&gt; 3 (4) -&gt; 5 (5)
+9 (3) -&gt; 2 (5) -&gt; 8 (7)
 </t>
   </si>
   <si>
@@ -575,44 +570,45 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 7 pallets demand and window 5-6 at (-60.422549047, -10.274650244) and average unload time 0.018767487
-Customer 2 has 6 pallets demand and window 0-24 at (-75.879646711, 88.778960603) and average unload time 0.145132694
-Customer 3 has 7 pallets demand and window 6-7 at (-19.371377623, 33.486940362) and average unload time 0.019405158
-Customer 4 has 6 pallets demand and window 0-24 at (68.698121113, -33.809845838) and average unload time 0.021426329
-Customer 5 has 6 pallets demand and window 0-24 at (-24.465145637, 83.743705605) and average unload time 0.117340142
-Customer 6 has 6 pallets demand and window 10-11 at (90.108743949, -52.931862004) and average unload time 0.038762625
-Customer 7 has 4 pallets demand and window 23-24 at (-32.631608294, 35.585239696) and average unload time 0.130941049
-Customer 8 has 8 pallets demand and window 0-24 at (89.485827219, 15.825330767) and average unload time 0.153165864
-Customer 9 has 8 pallets demand and window 0-24 at (6.155131876, 6.962621909) and average unload time 0.154599424
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.29141309, and time cost 10.451989989
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.426630205, and time cost 14.941381257
-Vehicle SP3 is a Rigid with capacity 16, distance cost 0.79099461, and time cost 11.051666993
+Customer 1 has 2 pallets demand and window 17-18 at (85.633381858, 75.738069557) and average unload time 0.109568619
+Customer 2 has 8 pallets demand and window 0-24 at (-25.560651179, -77.774849255) and average unload time 0.11917186
+Customer 3 has 1 pallets demand and window 0-24 at (59.676572326, 0.227597908) and average unload time 0.139273105
+Customer 4 has 4 pallets demand and window 0-24 at (-86.892130894, 74.624002151) and average unload time 0.158453
+Customer 5 has 7 pallets demand and window 0-24 at (-15.957879135, -24.590271863) and average unload time 0.079280951
+Customer 6 has 8 pallets demand and window 0-24 at (-27.740826754, 1.569486019) and average unload time 0.128362536
+Customer 7 has 1 pallets demand and window 0-24 at (-87.923508403, 10.871222521) and average unload time 0.024357618
+Customer 8 has 8 pallets demand and window 0-24 at (64.620978347, 95.200872466) and average unload time 0.064545747
+Customer 9 has 2 pallets demand and window 0-24 at (-76.938365413, 28.55574336) and average unload time 0.02960661
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.180049312, and time cost 12.912435809
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.863448952, and time cost 14.683703809
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.188113924, and time cost 9.873592478
 Output:
-Vehicle SP1 travels from Depot to 9 to deliver 8 pallets. Expected unload start time is 6.630869135
-Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.67705577
-Vehicle SP1 travels from 6 to 4 to deliver 6 pallets. Expected unload start time is 11.591407679
-Vehicle SP1 travels from 8 to 6 to deliver 6 pallets. Expected unload start time is 11
-Vehicle SP1 travels from 9 to 8 to deliver 8 pallets. Expected unload start time is 8.91517291
-Vehicle SP2 travels from Depot to 1 to deliver 7 pallets. Expected unload start time is 6
-Vehicle SP2 travels from 1 to 3 to deliver 7 pallets. Expected unload start time is 6.881401104
-Vehicle SP2 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.500815258
-Vehicle SP3 travels from Depot to 5 to deliver 6 pallets. Expected unload start time is 20.922453429
-Vehicle SP3 travels from 2 to 7 to deliver 4 pallets. Expected unload start time is 24
-Vehicle SP3 travels from 5 to 2 to deliver 6 pallets. Expected unload start time is 22.272250221
-Vehicle SP3 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.127286558
-Objective value: 934.680820256
-Solve time: 4861</t>
-  </si>
-  <si>
-    <t>{"0": [[[9, 8], [8, 8], [6, 6], [4, 6]]], "1": [[[1, 7], [3, 7]]], "2": [[[5, 6], [2, 6], [7, 4]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-9 (8) -&gt; 8 (8) -&gt; 6 (6) -&gt; 4 (6)
+Vehicle SP2 travels from Depot to 3 to deliver 1 pallets. Expected unload start time is 15.862635962
+Vehicle SP2 travels from 1 to 8 to deliver 8 pallets. Expected unload start time is 17.577152994
+Vehicle SP2 travels from 3 to 1 to deliver 2 pallets. Expected unload start time is 17
+Vehicle SP2 travels from 4 to 9 to deliver 2 pallets. Expected unload start time is 21.227772404
+Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.678989208
+Vehicle SP2 travels from 8 to 4 to deliver 4 pallets. Expected unload start time is 20.004818829
+Vehicle SP2 travels from 9 to 7 to deliver 1 pallets. Expected unload start time is 21.547218586
+Vehicle SP3 travels from Depot to 6 to deliver 8 pallets. Expected unload start time is 0.347314869
+Vehicle SP3 travels from 2 to 5 to deliver 7 pallets. Expected unload start time is 3.995325336
+Vehicle SP3 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.916722273
+Vehicle SP3 travels from 6 to 2 to deliver 8 pallets. Expected unload start time is 2.366393683
+Objective value: 798.340166986
+Solve time: 5712</t>
+  </si>
+  <si>
+    <t>{"0": [], "1": [[[3, 1], [1, 2], [8, 8], [4, 4], [9, 2], [7, 1]]], "2": [[[6, 8], [2, 8], [5, 7]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[7, 1], [9, 2], [4, 4], [8, 8], [1, 2], [3, 1]]], "2": [[[5, 7], [2, 8], [6, 8]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
 8 metre (capacity 22):
-1 (7) -&gt; 3 (7)
-Rigid (capacity 16):
-5 (6) -&gt; 2 (6) -&gt; 7 (4)
+7 (1) -&gt; 9 (2) -&gt; 4 (4) -&gt; 8 (8) -&gt; 1 (2) -&gt; 3 (1)
+11 metre (capacity 30):
+5 (7) -&gt; 2 (8) -&gt; 6 (8)
 </t>
   </si>
   <si>
@@ -744,46 +740,44 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (43.059307731, 76.272794718) and average unload time 0.019247957
-Customer 2 has 2 pallets demand and window 5-6 at (-89.572399331, -8.72591618) and average unload time 0.157669683
-Customer 3 has 3 pallets demand and window 0-24 at (73.519908052, -90.344821865) and average unload time 0.13054633
-Customer 4 has 3 pallets demand and window 0-24 at (3.480901532, -15.222302849) and average unload time 0.163695494
-Customer 5 has 7 pallets demand and window 16-17 at (40.780499851, 24.465226466) and average unload time 0.039993508
-Customer 6 has 5 pallets demand and window 22-23 at (23.591063408, 49.809920081) and average unload time 0.067775892
-Customer 7 has 5 pallets demand and window 0-24 at (-33.50497984, -99.116016827) and average unload time 0.127722992
-Customer 8 has 1 pallets demand and window 0-24 at (29.814098544, -57.379658834) and average unload time 0.087595429
-Customer 9 has 6 pallets demand and window 0-24 at (-59.14887313, -37.316370518) and average unload time 0.146368637
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.221756158, and time cost 13.632215565
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.755254657, and time cost 9.128889166
-Vehicle SP3 is a Rigid with capacity 16, distance cost 0.755254657, and time cost 9.128889166
+Customer 1 has 1 pallets demand and window 0-24 at (67.232047363, -27.627382595) and average unload time 0.031493679
+Customer 2 has 1 pallets demand and window 0-24 at (-85.575002151, 99.453005899) and average unload time 0.027070725
+Customer 3 has 4 pallets demand and window 13-14 at (-55.954402887, 25.222448893) and average unload time 0.022274166
+Customer 4 has 5 pallets demand and window 0-24 at (73.196669529, -57.196797742) and average unload time 0.024098715
+Customer 5 has 1 pallets demand and window 0-24 at (-78.771902292, -79.620618607) and average unload time 0.096014762
+Customer 6 has 4 pallets demand and window 0-24 at (13.106238109, -43.649053015) and average unload time 0.112702315
+Customer 7 has 1 pallets demand and window 12-13 at (82.215708371, -68.119245327) and average unload time 0.145145507
+Customer 8 has 2 pallets demand and window 0-24 at (-60.132966119, -2.222215333) and average unload time 0.140210852
+Customer 9 has 2 pallets demand and window 0-24 at (93.903439055, -78.734908283) and average unload time 0.101614111
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.903628959, and time cost 8.021905454
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.903628959, and time cost 8.021905454
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.180880528, and time cost 14.219388269
 Output:
-Vehicle SP1 travels from Depot to 4 to deliver 3 pallets. Expected unload start time is 0.594453067
-Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 1.280729832
-Vehicle SP2 travels from Depot to 8 to deliver 1 pallets. Expected unload start time is 15.88020068
-Vehicle SP2 travels from 1 to 6 to deliver 5 pallets. Expected unload start time is 22
-Vehicle SP2 travels from 5 to 1 to deliver 2 pallets. Expected unload start time is 17.928175324
-Vehicle SP2 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.02780598
-Vehicle SP2 travels from 8 to 5 to deliver 7 pallets. Expected unload start time is 17
-Vehicle SP3 travels from Depot to 2 to deliver 2 pallets. Expected unload start time is 5
-Vehicle SP3 travels from 2 to 9 to deliver 6 pallets. Expected unload start time is 5.837205759
-Vehicle SP3 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.380317387
-Vehicle SP3 travels from 7 to 3 to deliver 3 pallets. Expected unload start time is 9.53269056
-Vehicle SP3 travels from 9 to 7 to deliver 5 pallets. Expected unload start time is 7.551779268
-Objective value: 732.672918488
-Solve time: 4908</t>
-  </si>
-  <si>
-    <t>{"0": [[[4, 3]]], "1": [[[8, 1], [5, 7], [1, 2], [6, 5]], [[2, 2], [9, 6], [7, 5], [3, 3]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[4, 3]]], "1": [[[2, 2], [9, 6], [7, 5], [3, 3]], [[8, 1], [5, 7], [1, 2], [6, 5]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-4 (3)
-Rigid (capacity 16):
-2 (2) -&gt; 9 (6) -&gt; 7 (5) -&gt; 3 (3)
-8 (1) -&gt; 5 (7) -&gt; 1 (2) -&gt; 6 (5)
+Vehicle SP1 travels from Depot to 2 to deliver 1 pallets. Expected unload start time is 11.973901975
+Vehicle SP1 travels from 2 to 3 to deliver 4 pallets. Expected unload start time is 13
+Vehicle SP1 travels from 3 to 8 to deliver 2 pallets. Expected unload start time is 13.436108457
+Vehicle SP1 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.20770874
+Vehicle SP1 travels from 8 to 5 to deliver 1 pallets. Expected unload start time is 14.71166856
+Vehicle SP2 travels from Depot to 1 to deliver 1 pallets. Expected unload start time is 11.293889685
+Vehicle SP2 travels from 1 to 4 to deliver 5 pallets. Expected unload start time is 11.702445824
+Vehicle SP2 travels from 4 to 7 to deliver 1 pallets. Expected unload start time is 12
+Vehicle SP2 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.667304241
+Vehicle SP2 travels from 7 to 9 to deliver 2 pallets. Expected unload start time is 12.342509126
+Vehicle SP2 travels from 9 to 6 to deliver 4 pallets. Expected unload start time is 13.646816713
+Objective value: 711.266900604
+Solve time: 2607</t>
+  </si>
+  <si>
+    <t>{"0": [[[2, 1], [3, 4], [8, 2], [5, 1]], [[1, 1], [4, 5], [7, 1], [9, 2], [6, 4]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 1], [4, 5], [7, 1], [9, 2], [6, 4]], [[5, 1], [8, 2], [3, 4], [2, 1]]], "1": [[]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+1 (1) -&gt; 4 (5) -&gt; 7 (1) -&gt; 9 (2) -&gt; 6 (4)
+5 (1) -&gt; 8 (2) -&gt; 3 (4) -&gt; 2 (1)
+8 metre (capacity 22):
 </t>
   </si>
   <si>
@@ -831,45 +825,44 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 5 pallets demand and window 0-24 at (51.460841354, 46.749260612) and average unload time 0.138179985
-Customer 2 has 5 pallets demand and window 0-24 at (-26.700398672, -67.188383407) and average unload time 0.061834068
-Customer 3 has 4 pallets demand and window 0-24 at (-34.155340196, 59.808680091) and average unload time 0.061921461
-Customer 4 has 4 pallets demand and window 0-24 at (4.109717574, 50.233026575) and average unload time 0.021670693
-Customer 5 has 5 pallets demand and window 0-24 at (71.203204825, 78.333893925) and average unload time 0.054159369
-Customer 6 has 3 pallets demand and window 23-24 at (6.952433388, -68.351796604) and average unload time 0.100604273
-Customer 7 has 6 pallets demand and window 0-24 at (82.043143964, 1.693587266) and average unload time 0.074338096
-Customer 8 has 4 pallets demand and window 0-24 at (25.640337837, -60.063314449) and average unload time 0.087652723
-Customer 9 has 3 pallets demand and window 0-24 at (-20.588398992, 39.451184681) and average unload time 0.072809013
-Vehicle SP1 is a Rigid with capacity 16, distance cost 0.813302831, and time cost 12.988029548
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.813302831, and time cost 12.988029548
-Vehicle SP3 is a Rigid with capacity 16, distance cost 0.813302831, and time cost 12.988029548
+Customer 1 has 7 pallets demand and window 0-24 at (11.490998468, 16.37494487) and average unload time 0.162796354
+Customer 2 has 9 pallets demand and window 0-24 at (81.03018596, 46.087149304) and average unload time 0.019902571
+Customer 3 has 9 pallets demand and window 0-24 at (12.627829563, -39.055193855) and average unload time 0.050686216
+Customer 4 has 3 pallets demand and window 0-24 at (-63.917512111, 19.697607785) and average unload time 0.056127691
+Customer 5 has 5 pallets demand and window 0-24 at (-89.403586817, 24.927533347) and average unload time 0.073196309
+Customer 6 has 2 pallets demand and window 0-24 at (-10.408242332, -72.652147406) and average unload time 0.155048486
+Customer 7 has 2 pallets demand and window 0-24 at (-86.697673965, -78.326252983) and average unload time 0.08580293
+Customer 8 has 1 pallets demand and window 8-9 at (98.763374391, -62.746511253) and average unload time 0.099031733
+Customer 9 has 9 pallets demand and window 23-24 at (41.227424553, 53.191159775) and average unload time 0.139478769
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.744212447, and time cost 11.827318586
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.744212447, and time cost 11.827318586
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.131495328, and time cost 11.222601634
 Output:
-Vehicle SP1 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 0.556253953
-Vehicle SP1 travels from 3 to 4 to deliver 4 pallets. Expected unload start time is 1.821229865
-Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.537923395
-Vehicle SP1 travels from 9 to 3 to deliver 4 pallets. Expected unload start time is 1.080481559
-Vehicle SP2 travels from Depot to 7 to deliver 6 pallets. Expected unload start time is 1.025757777
-Vehicle SP2 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.735672528
-Vehicle SP2 travels from 5 to 1 to deliver 5 pallets. Expected unload start time is 3.17571137
-Vehicle SP2 travels from 7 to 5 to deliver 5 pallets. Expected unload start time is 2.439325186
-Vehicle SP3 travels from Depot to 2 to deliver 5 pallets. Expected unload start time is 22.269917959
-Vehicle SP3 travels from 2 to 6 to deliver 3 pallets. Expected unload start time is 23
-Vehicle SP3 travels from 6 to 8 to deliver 4 pallets. Expected unload start time is 23.557356574
-Vehicle SP3 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.724307301
-Objective value: 639.705093731
-Solve time: 1544</t>
-  </si>
-  <si>
-    <t>{"0": [[[9, 3], [3, 4], [4, 4]], [[7, 6], [5, 5], [1, 5]], [[2, 5], [6, 3], [8, 4]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[2, 5], [8, 4], [6, 3]], [[9, 3], [3, 4], [4, 4]], [[7, 6], [5, 5], [1, 5]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rigid (capacity 16):
-2 (5) -&gt; 8 (4) -&gt; 6 (3)
-9 (3) -&gt; 3 (4) -&gt; 4 (4)
-7 (6) -&gt; 5 (5) -&gt; 1 (5)
+Vehicle SP1 travels from Depot to 4 to deliver 3 pallets. Expected unload start time is 3.041099754
+Vehicle SP1 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.18496038
+Vehicle SP1 travels from 4 to 5 to deliver 5 pallets. Expected unload start time is 3.53469721
+Vehicle SP1 travels from 5 to 7 to deliver 2 pallets. Expected unload start time is 5.191794211
+Vehicle SP1 travels from 6 to 8 to deliver 1 pallets. Expected unload start time is 8
+Vehicle SP1 travels from 7 to 6 to deliver 2 pallets. Expected unload start time is 6.319651937
+Vehicle SP1 travels from 8 to 3 to deliver 9 pallets. Expected unload start time is 9.215710024
+Vehicle SP2 travels from Depot to 1 to deliver 7 pallets. Expected unload start time is 21.230644759
+Vehicle SP2 travels from 1 to 2 to deliver 9 pallets. Expected unload start time is 23.315479926
+Vehicle SP2 travels from 2 to 9 to deliver 9 pallets. Expected unload start time is 24
+Vehicle SP2 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 26.096531988
+Objective value: 687.77890395
+Solve time: 1206</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 3], [5, 5], [7, 2], [6, 2], [8, 1], [3, 9]], [[1, 7], [2, 9], [9, 9]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 7], [2, 9], [9, 9]], [[3, 9], [8, 1], [6, 2], [7, 2], [5, 5], [4, 3]]], "1": [[]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+1 (7) -&gt; 2 (9) -&gt; 9 (9)
+3 (9) -&gt; 8 (1) -&gt; 6 (2) -&gt; 7 (2) -&gt; 5 (5) -&gt; 4 (3)
+Rigid (capacity 16):
 </t>
   </si>
   <si>
@@ -1007,52 +1000,51 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 6 pallets demand and window 20-21 at (-47.741347291, -85.432022822) and average unload time 0.03774036
-Customer 2 has 5 pallets demand and window 0-24 at (5.074785744, -90.286017378) and average unload time 0.038378348
-Customer 3 has 6 pallets demand and window 0-24 at (-87.811619024, -88.010315238) and average unload time 0.16462961
-Customer 4 has 6 pallets demand and window 15-16 at (-98.930232743, -60.614279115) and average unload time 0.090529283
-Customer 5 has 3 pallets demand and window 0-24 at (-31.105175365, 33.406879261) and average unload time 0.12233739
-Customer 6 has 6 pallets demand and window 0-24 at (19.651119921, -89.810060401) and average unload time 0.098518772
-Customer 7 has 3 pallets demand and window 0-24 at (-22.356872004, -2.610954461) and average unload time 0.106235838
-Customer 8 has 3 pallets demand and window 0-24 at (39.000982764, -70.865333325) and average unload time 0.098985081
-Customer 9 has 2 pallets demand and window 0-24 at (50.087446482, -92.899266737) and average unload time 0.140734764
-Customer 10 has 5 pallets demand and window 0-24 at (73.515074179, 2.807097586) and average unload time 0.017043808
-Customer 11 has 5 pallets demand and window 0-24 at (45.878366976, -19.291541837) and average unload time 0.06849251
-Customer 12 has 6 pallets demand and window 0-24 at (-91.853676929, -6.811101597) and average unload time 0.029831558
-Vehicle SP1 is a Rigid with capacity 16, distance cost 0.737316691, and time cost 8.93038874
-Vehicle SP2 is a Rigid with capacity 16, distance cost 0.737316691, and time cost 8.93038874
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.176718865, and time cost 9.616655827
+Customer 1 has 4 pallets demand and window 0-24 at (-67.068802377, 70.868641246) and average unload time 0.162644845
+Customer 2 has 3 pallets demand and window 0-24 at (12.523007146, -44.563723019) and average unload time 0.142465422
+Customer 3 has 1 pallets demand and window 0-24 at (5.451247053, 80.39060859) and average unload time 0.102905542
+Customer 4 has 3 pallets demand and window 0-24 at (-37.465075358, 93.298529643) and average unload time 0.096243559
+Customer 5 has 3 pallets demand and window 0-24 at (41.814676575, 17.947712218) and average unload time 0.121627033
+Customer 6 has 1 pallets demand and window 0-24 at (-77.001467522, -48.086045017) and average unload time 0.10727547
+Customer 7 has 3 pallets demand and window 0-24 at (78.272769428, -42.600870463) and average unload time 0.043348807
+Customer 8 has 6 pallets demand and window 0-24 at (16.988908681, 18.161986414) and average unload time 0.020949106
+Customer 9 has 6 pallets demand and window 15-16 at (71.863203644, 29.838205914) and average unload time 0.037745261
+Customer 10 has 6 pallets demand and window 0-24 at (74.914272762, -45.194433247) and average unload time 0.018933847
+Customer 11 has 6 pallets demand and window 0-24 at (-96.002316763, -74.293317734) and average unload time 0.122139071
+Customer 12 has 4 pallets demand and window 0-24 at (-69.642268167, -93.0460803) and average unload time 0.020124913
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.085891418, and time cost 9.997609729
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.880803644, and time cost 14.098085645
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.998294804, and time cost 9.962344412
 Output:
-Vehicle SP1 travels from Depot to 8 to deliver 3 pallets. Expected unload start time is 20.63518121
-Vehicle SP1 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 24
-Vehicle SP1 travels from 6 to 2 to deliver 5 pallets. Expected unload start time is 22.677751682
-Vehicle SP1 travels from 8 to 9 to deliver 2 pallets. Expected unload start time is 21.240459512
-Vehicle SP1 travels from 9 to 6 to deliver 6 pallets. Expected unload start time is 21.904337764
-Vehicle SP2 travels from Depot to 11 to deliver 5 pallets. Expected unload start time is 0.622116868
-Vehicle SP2 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.41172598
-Vehicle SP2 travels from 11 to 10 to deliver 5 pallets. Expected unload start time is 1.406898844
-Vehicle SP3 travels from Depot to 7 to deliver 3 pallets. Expected unload start time is 13.08295715
-Vehicle SP3 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.449774365
-Vehicle SP3 travels from 3 to 1 to deliver 6 pallets. Expected unload start time is 20
-Vehicle SP3 travels from 4 to 3 to deliver 6 pallets. Expected unload start time is 16.912754507
-Vehicle SP3 travels from 5 to 12 to deliver 6 pallets. Expected unload start time is 15.142678648
-Vehicle SP3 travels from 7 to 5 to deliver 3 pallets. Expected unload start time is 13.864977657
-Vehicle SP3 travels from 12 to 4 to deliver 6 pallets. Expected unload start time is 16
-Objective value: 855.513371344
-Solve time: 41987</t>
-  </si>
-  <si>
-    <t>{"0": [[[8, 3], [9, 2], [6, 6], [2, 5]], [[11, 5], [10, 5]]], "1": [[[7, 3], [5, 3], [12, 6], [4, 6], [3, 6], [1, 6]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[2, 5], [6, 6], [9, 2], [8, 3]], [[11, 5], [10, 5]]], "1": [[[5, 3], [12, 6], [4, 6], [3, 6], [1, 6], [7, 3]]]}</t>
+Vehicle SP2 travels from Depot to 8 to deliver 6 pallets. Expected unload start time is 17.875290659
+Vehicle SP2 travels from 1 to 6 to deliver 1 pallets. Expected unload start time is 22.350883869
+Vehicle SP2 travels from 3 to 4 to deliver 3 pallets. Expected unload start time is 19.45519867
+Vehicle SP2 travels from 4 to 1 to deliver 4 pallets. Expected unload start time is 20.208196333
+Vehicle SP2 travels from 6 to 11 to deliver 6 pallets. Expected unload start time is 22.86279139
+Vehicle SP2 travels from 8 to 3 to deliver 1 pallets. Expected unload start time is 18.79209992
+Vehicle SP2 travels from 11 to 12 to deliver 4 pallets. Expected unload start time is 24
+Vehicle SP2 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.533278163
+Vehicle SP3 travels from Depot to 5 to deliver 3 pallets. Expected unload start time is 15.231173936
+Vehicle SP3 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.218139316
+Vehicle SP3 travels from 5 to 9 to deliver 6 pallets. Expected unload start time is 16
+Vehicle SP3 travels from 7 to 10 to deliver 6 pallets. Expected unload start time is 17.318586053
+Vehicle SP3 travels from 9 to 7 to deliver 3 pallets. Expected unload start time is 17.135497687
+Vehicle SP3 travels from 10 to 2 to deliver 3 pallets. Expected unload start time is 18.212119804
+Objective value: 835.104988183
+Solve time: 16273</t>
+  </si>
+  <si>
+    <t>{"0": [], "1": [[[8, 6], [3, 1], [4, 3], [1, 4], [6, 1], [11, 6], [12, 4]]], "2": [[[5, 3], [9, 6], [7, 3], [10, 6], [2, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[8, 6], [3, 1], [4, 3], [1, 4], [6, 1], [11, 6], [12, 4]]], "2": [[[2, 3], [10, 6], [7, 3], [9, 6], [5, 3]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-2 (5) -&gt; 6 (6) -&gt; 9 (2) -&gt; 8 (3)
-11 (5) -&gt; 10 (5)
 11 metre (capacity 30):
-5 (3) -&gt; 12 (6) -&gt; 4 (6) -&gt; 3 (6) -&gt; 1 (6) -&gt; 7 (3)
+8 (6) -&gt; 3 (1) -&gt; 4 (3) -&gt; 1 (4) -&gt; 6 (1) -&gt; 11 (6) -&gt; 12 (4)
+8 metre (capacity 22):
+2 (3) -&gt; 10 (6) -&gt; 7 (3) -&gt; 9 (6) -&gt; 5 (3)
 </t>
   </si>
   <si>
@@ -1813,47 +1805,49 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (-2.842875084, -53.696406055) and average unload time 0.146915041
-Customer 2 has 2 pallets demand and window 18-19 at (1.628245077, 50.413728027) and average unload time 0.092700397
-Customer 3 has 5 pallets demand and window 0-24 at (36.532045419, -45.373829527) and average unload time 0.092554417
-Customer 4 has 11 pallets demand and window 0-24 at (-66.240885045, 43.596520138) and average unload time 0.089058496
-Customer 5 has 8 pallets demand and window 0-24 at (33.520254792, 70.634177411) and average unload time 0.01806584
-Customer 6 has 3 pallets demand and window 0-24 at (79.371860781, -30.517780876) and average unload time 0.098680252
-Customer 7 has 10 pallets demand and window 0-24 at (-59.145962489, -70.030044053) and average unload time 0.158415395
-Customer 8 has 1 pallets demand and window 0-24 at (14.51269353, 31.367351415) and average unload time 0.051732711
-Customer 9 has 6 pallets demand and window 0-24 at (-57.372889201, -71.156917316) and average unload time 0.082613763
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.240085255, and time cost 13.855944745
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.240085255, and time cost 13.855944745
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.42429039, and time cost 8.657017533
-Vehicle SP4 is a Rigid with capacity 16, distance cost 1.109336737, and time cost 8.968090051
-Vehicle SP5 is a Rigid with capacity 16, distance cost 1.109336737, and time cost 8.968090051
+Customer 1 has 9 pallets demand and window 0-24 at (54.07041431, -35.211917899) and average unload time 0.157235079
+Customer 2 has 6 pallets demand and window 0-24 at (-16.013417101, 7.034289945) and average unload time 0.106404158
+Customer 3 has 11 pallets demand and window 0-24 at (-73.039971629, -18.938445272) and average unload time 0.093507582
+Customer 4 has 6 pallets demand and window 0-24 at (26.647258853, 87.560160812) and average unload time 0.063578998
+Customer 5 has 5 pallets demand and window 0-24 at (9.448979584, 90.053528265) and average unload time 0.148888832
+Customer 6 has 10 pallets demand and window 0-24 at (39.090677372, 5.105265758) and average unload time 0.029624144
+Customer 7 has 5 pallets demand and window 0-24 at (99.216067281, 74.475958617) and average unload time 0.028216508
+Customer 8 has 4 pallets demand and window 10-11 at (-95.423531792, -29.565781678) and average unload time 0.026279828
+Customer 9 has 5 pallets demand and window 0-24 at (22.110078769, -98.879131234) and average unload time 0.142955131
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.943916893, and time cost 14.086616216
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.943916893, and time cost 14.086616216
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.131397281, and time cost 12.74377055
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.131397281, and time cost 12.74377055
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.87113972, and time cost 8.862116701
 Output:
-Vehicle SP1 travels from Depot to 4 to deliver 11 pallets. Expected unload start time is 16.167723385
-Vehicle SP1 travels from 2 to 5 to deliver 8 pallets. Expected unload start time is 18.657425498
-Vehicle SP1 travels from 4 to 2 to deliver 2 pallets. Expected unload start time is 18
-Vehicle SP1 travels from 5 to 8 to deliver 1 pallets. Expected unload start time is 19.347269071
-Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.83102627
-Vehicle SP2 travels from Depot to 7 to deliver 10 pallets. Expected unload start time is 1.145811117
-Vehicle SP2 travels from 1 to 3 to deliver 5 pallets. Expected unload start time is 5.05834505
-Vehicle SP2 travels from 3 to 6 to deliver 3 pallets. Expected unload start time is 6.087899715
-Vehicle SP2 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.446898256
-Vehicle SP2 travels from 7 to 9 to deliver 6 pallets. Expected unload start time is 2.75622588
-Vehicle SP2 travels from 9 to 1 to deliver 4 pallets. Expected unload start time is 3.967623997
-Objective value: 893.066583203
-Solve time: 9000</t>
-  </si>
-  <si>
-    <t>{"0": [[[4, 11], [2, 2], [5, 8], [8, 1]], [[7, 10], [9, 6], [1, 4], [3, 5], [6, 3]]], "1": [], "2": []}</t>
-  </si>
-  <si>
-    <t>{"0": [[[6, 3], [3, 5], [1, 4], [9, 6], [7, 10]], [[4, 11], [2, 2], [5, 8], [8, 1]]], "1": [[]], "2": [[]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-6 (3) -&gt; 3 (5) -&gt; 1 (4) -&gt; 9 (6) -&gt; 7 (10)
-4 (11) -&gt; 2 (2) -&gt; 5 (8) -&gt; 8 (1)
+Vehicle SP1 travels from Depot to 3 to deliver 11 pallets. Expected unload start time is 8.661687872
+Vehicle SP1 travels from 3 to 8 to deliver 4 pallets. Expected unload start time is 10
+Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.353855289
+Vehicle SP2 travels from Depot to 6 to deliver 10 pallets. Expected unload start time is 0.492783039
+Vehicle SP2 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.335301338
+Vehicle SP2 travels from 6 to 2 to deliver 6 pallets. Expected unload start time is 1.478247583
+Vehicle SP5 travels from Depot to 9 to deliver 5 pallets. Expected unload start time is 1.266512076
+Vehicle SP5 travels from 1 to 7 to deliver 5 pallets. Expected unload start time is 5.769579071
+Vehicle SP5 travels from 4 to 5 to deliver 5 pallets. Expected unload start time is 7.431098106
+Vehicle SP5 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.307390947
+Vehicle SP5 travels from 7 to 4 to deliver 6 pallets. Expected unload start time is 6.832398108
+Vehicle SP5 travels from 9 to 1 to deliver 9 pallets. Expected unload start time is 2.871773648
+Objective value: 873.174272842
+Solve time: 89818</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 11], [8, 4]], [[6, 10], [2, 6]]], "1": [], "2": [[[9, 5], [1, 9], [7, 5], [4, 6], [5, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 4], [3, 11]], [[6, 10], [2, 6]]], "1": [[]], "2": [[[9, 5], [1, 9], [7, 5], [4, 6], [5, 5]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 (4) -&gt; 3 (11)
+6 (10) -&gt; 2 (6)
 8 metre (capacity 22):
-Rigid (capacity 16):
+11 metre (capacity 30):
+9 (5) -&gt; 1 (9) -&gt; 7 (5) -&gt; 4 (6) -&gt; 5 (5)
 </t>
   </si>
   <si>
@@ -1952,92 +1946,95 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 13 pallets demand and window 0-24 at (71.518781569, -24.158061712) and average unload time 0.086021462
-Customer 2 has 7 pallets demand and window 0-24 at (49.681348891, 77.679068759) and average unload time 0.026963223
-Customer 3 has 7 pallets demand and window 13-14 at (74.310046952, 37.033342331) and average unload time 0.047577275
-Customer 4 has 2 pallets demand and window 0-24 at (-66.041993087, 14.458558904) and average unload time 0.066336885
-Customer 5 has 3 pallets demand and window 0-24 at (6.193191469, 26.812871097) and average unload time 0.106920354
-Customer 6 has 3 pallets demand and window 0-24 at (21.130548012, -78.705817473) and average unload time 0.143915003
-Customer 7 has 1 pallets demand and window 22-23 at (68.378468124, 39.265437998) and average unload time 0.15065875
-Customer 8 has 11 pallets demand and window 0-24 at (-85.605506816, 81.902262637) and average unload time 0.040172236
-Customer 9 has 4 pallets demand and window 0-24 at (-7.273509735, -70.890541269) and average unload time 0.053779963
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.015358518, and time cost 14.298149087
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.015358518, and time cost 14.298149087
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.125997757, and time cost 14.897339341
-Vehicle SP4 is a Rigid with capacity 16, distance cost 1.383903905, and time cost 12.904656019
-Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.015358518, and time cost 14.298149087
+Customer 1 has 2 pallets demand and window 0-24 at (-89.303740597, -44.778270319) and average unload time 0.064163421
+Customer 2 has 9 pallets demand and window 0-24 at (84.672718987, 78.782409561) and average unload time 0.073501305
+Customer 3 has 11 pallets demand and window 20-21 at (-63.994538034, -33.126744991) and average unload time 0.069019911
+Customer 4 has 11 pallets demand and window 18-19 at (98.866980444, 41.218539161) and average unload time 0.047255738
+Customer 5 has 10 pallets demand and window 0-24 at (-10.754511294, -82.527035313) and average unload time 0.055605638
+Customer 6 has 2 pallets demand and window 0-24 at (-27.638901054, -57.460005269) and average unload time 0.124085458
+Customer 7 has 8 pallets demand and window 0-24 at (29.983436259, -3.010276265) and average unload time 0.13621895
+Customer 8 has 4 pallets demand and window 0-24 at (-10.483196826, -61.39457688) and average unload time 0.131735572
+Customer 9 has 5 pallets demand and window 0-24 at (97.909525635, 27.072202143) and average unload time 0.109129289
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.104391311, and time cost 12.816931553
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.104391311, and time cost 12.816931553
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.703155774, and time cost 12.676540095
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.104391311, and time cost 12.816931553
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.289403603, and time cost 11.204669995
 Output:
-Vehicle SP2 travels from Depot to 4 to deliver 2 pallets. Expected unload start time is 18.132954008
-Vehicle SP2 travels from 2 to 7 to deliver 1 pallets. Expected unload start time is 22
-Vehicle SP2 travels from 4 to 8 to deliver 11 pallets. Expected unload start time is 19.143425469
-Vehicle SP2 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.608153006
-Vehicle SP2 travels from 7 to 5 to deliver 3 pallets. Expected unload start time is 22.943406644
-Vehicle SP2 travels from 8 to 2 to deliver 7 pallets. Expected unload start time is 21.277229517
-Vehicle SP5 travels from Depot to 9 to deliver 4 pallets. Expected unload start time is 10.172682761
-Vehicle SP5 travels from 1 to 3 to deliver 7 pallets. Expected unload start time is 14
-Vehicle SP5 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.370876072
-Vehicle SP5 travels from 6 to 1 to deliver 13 pallets. Expected unload start time is 12.11603308
-Vehicle SP5 travels from 9 to 6 to deliver 3 pallets. Expected unload start time is 10.756047824
-Objective value: 907.523615797
-Solve time: 5040</t>
-  </si>
-  <si>
-    <t>{"0": [[[4, 2], [8, 11], [2, 7], [7, 1], [5, 3]], [[9, 4], [6, 3], [1, 13], [3, 7]]], "1": [], "2": []}</t>
-  </si>
-  <si>
-    <t>{"0": [[[3, 7], [1, 13], [6, 3], [9, 4]], [[4, 2], [8, 11], [2, 7], [7, 1], [5, 3]]], "1": [[]], "2": [[]]}</t>
+Vehicle SP2 travels from Depot to 8 to deliver 4 pallets. Expected unload start time is 0.778539443
+Vehicle SP2 travels from 5 to 6 to deliver 2 pallets. Expected unload start time is 2.503504949
+Vehicle SP2 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.548697769
+Vehicle SP2 travels from 8 to 5 to deliver 10 pallets. Expected unload start time is 1.56965923
+Vehicle SP3 travels from Depot to 7 to deliver 3 pallets. Expected unload start time is 17.53488278
+Vehicle SP3 travels from 1 to 3 to deliver 11 pallets. Expected unload start time is 20
+Vehicle SP3 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.65997236
+Vehicle SP3 travels from 7 to 1 to deliver 2 pallets. Expected unload start time is 19.523393058
+Vehicle SP5 travels from Depot to 7 to deliver 5 pallets. Expected unload start time is 16.667408028
+Vehicle SP5 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.12896817
+Vehicle SP5 travels from 4 to 2 to deliver 9 pallets. Expected unload start time is 20.021765771
+Vehicle SP5 travels from 7 to 9 to deliver 5 pallets. Expected unload start time is 18.27711979
+Vehicle SP5 travels from 9 to 4 to deliver 11 pallets. Expected unload start time is 19
+Objective value: 898.038150211
+Solve time: 124168</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 4], [5, 10], [6, 2]]], "1": [[[7, 3], [1, 2], [3, 11]]], "2": [[[7, 5], [9, 5], [4, 11], [2, 9]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[7, 8], [5, 10], [8, 4]]], "1": [[[6, 2], [1, 2], [3, 11]]], "2": [[[2, 9], [4, 11], [9, 5]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+7 (8) -&gt; 5 (10) -&gt; 8 (4)
+Rigid (capacity 16):
+6 (2) -&gt; 1 (2) -&gt; 3 (11)
+11 metre (capacity 30):
+2 (9) -&gt; 4 (11) -&gt; 9 (5)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 0-24 at (-66.485719967, -74.843943909) and average unload time 0.160475279
+Customer 2 has 1 pallets demand and window 0-24 at (-23.816395829, -48.533129665) and average unload time 0.111178085
+Customer 3 has 11 pallets demand and window 0-24 at (-18.723177388, -11.956649583) and average unload time 0.019814061
+Customer 4 has 2 pallets demand and window 0-24 at (58.515366717, 11.482284676) and average unload time 0.068152557
+Customer 5 has 14 pallets demand and window 0-24 at (9.927566225, -72.755076267) and average unload time 0.051881214
+Customer 6 has 7 pallets demand and window 0-24 at (-69.640465506, -89.562463038) and average unload time 0.140138299
+Customer 7 has 10 pallets demand and window 0-24 at (82.611420986, 20.202983463) and average unload time 0.024824274
+Customer 8 has 6 pallets demand and window 18-19 at (-77.425009486, 86.537762821) and average unload time 0.160929895
+Customer 9 has 7 pallets demand and window 0-24 at (-28.534995221, -65.555806195) and average unload time 0.027171491
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.778806298, and time cost 13.248999423
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.778806298, and time cost 13.248999423
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.003264906, and time cost 9.547311946
+Vehicle SP4 is a Rigid with capacity 16, distance cost 1.1358619, and time cost 9.679088838
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.778806298, and time cost 13.248999423
+Output:
+Vehicle SP1 travels from Depot to 3 to deliver 11 pallets. Expected unload start time is 17.348787763
+Vehicle SP1 travels from 3 to 8 to deliver 6 pallets. Expected unload start time is 19
+Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.581333253
+Vehicle SP1 travels from 7 to 4 to deliver 2 pallets. Expected unload start time is 22.699636987
+Vehicle SP1 travels from 8 to 7 to deliver 10 pallets. Expected unload start time is 22.131074478
+Vehicle SP5 travels from Depot to 2 to deliver 1 pallets. Expected unload start time is 20.658243371
+Vehicle SP5 travels from 1 to 6 to deliver 7 pallets. Expected unload start time is 21.744671103
+Vehicle SP5 travels from 2 to 1 to deliver 1 pallets. Expected unload start time is 21.396035642
+Vehicle SP5 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.644202872
+Vehicle SP5 travels from 6 to 9 to deliver 7 pallets. Expected unload start time is 23.320667982
+Vehicle SP5 travels from 9 to 5 to deliver 14 pallets. Expected unload start time is 24
+Objective value: 686.78799444
+Solve time: 58782</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 11], [8, 6], [7, 10], [4, 2]], [[2, 1], [1, 1], [6, 7], [9, 7], [5, 14]]], "1": [], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 14], [9, 7], [6, 7], [1, 1], [2, 1]], [[7, 10], [4, 2], [8, 6], [3, 11]]], "1": [[]], "2": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-3 (7) -&gt; 1 (13) -&gt; 6 (3) -&gt; 9 (4)
-4 (2) -&gt; 8 (11) -&gt; 2 (7) -&gt; 7 (1) -&gt; 5 (3)
+5 (14) -&gt; 9 (7) -&gt; 6 (7) -&gt; 1 (1) -&gt; 2 (1)
+7 (10) -&gt; 4 (2) -&gt; 8 (6) -&gt; 3 (11)
 8 metre (capacity 22):
 Rigid (capacity 16):
-</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 9 pallets demand and window 23-24 at (56.251691692, -61.038343794) and average unload time 0.156845316
-Customer 2 has 13 pallets demand and window 15-16 at (-11.920911887, 52.404621349) and average unload time 0.108002827
-Customer 3 has 8 pallets demand and window 12-13 at (81.324664079, -20.440974565) and average unload time 0.165558018
-Customer 4 has 4 pallets demand and window 13-14 at (9.264063476, 60.181450639) and average unload time 0.022359813
-Customer 5 has 11 pallets demand and window 0-24 at (-33.425156411, -6.957317798) and average unload time 0.11082791
-Customer 6 has 3 pallets demand and window 0-24 at (38.105108448, 87.604521775) and average unload time 0.082318298
-Customer 7 has 6 pallets demand and window 22-23 at (-27.640158042, 81.245518547) and average unload time 0.040914944
-Customer 8 has 14 pallets demand and window 0-24 at (-53.07923477, -85.64573807) and average unload time 0.107694044
-Customer 9 has 1 pallets demand and window 0-24 at (53.131278086, 6.921372994) and average unload time 0.150360537
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.975734949, and time cost 10.442526635
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.975734949, and time cost 10.442526635
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.975734949, and time cost 10.442526635
-Vehicle SP4 is a 11 metre with capacity 30, distance cost 0.975734949, and time cost 10.442526635
-Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.975734949, and time cost 10.442526635
-Output:
-Vehicle SP1 travels from Depot to 9 to deliver 1 pallets. Expected unload start time is 12.358536578
-Vehicle SP1 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.449178042
-Vehicle SP1 travels from 3 to 1 to deliver 9 pallets. Expected unload start time is 23
-Vehicle SP1 travels from 9 to 3 to deliver 8 pallets. Expected unload start time is 13
-Vehicle SP3 travels from Depot to 4 to deliver 4 pallets. Expected unload start time is 14
-Vehicle SP3 travels from 2 to 7 to deliver 6 pallets. Expected unload start time is 22
-Vehicle SP3 travels from 4 to 6 to deliver 3 pallets. Expected unload start time is 14.586906385
-Vehicle SP3 travels from 6 to 2 to deliver 13 pallets. Expected unload start time is 16
-Vehicle SP3 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.318220744
-Vehicle SP4 travels from Depot to 8 to deliver 14 pallets. Expected unload start time is 21.478460927
-Vehicle SP4 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.645876369
-Vehicle SP4 travels from 8 to 5 to deliver 11 pallets. Expected unload start time is 24
-Objective value: 1004.77149331
-Solve time: 4493</t>
-  </si>
-  <si>
-    <t>{"0": [[[9, 1], [3, 8], [1, 9]], [[4, 4], [6, 3], [2, 13], [7, 6]], [[8, 14], [5, 11]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[6, 3], [4, 4], [2, 13], [7, 6]], [[5, 11], [9, 1], [3, 8]], [[8, 14], [1, 9]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-6 (3) -&gt; 4 (4) -&gt; 2 (13) -&gt; 7 (6)
-5 (11) -&gt; 9 (1) -&gt; 3 (8)
-8 (14) -&gt; 1 (9)
 </t>
   </si>
   <si>
@@ -2181,153 +2178,152 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 10 pallets demand and window 0-24 at (-66.776460591, -81.535665965) and average unload time 0.144389965
-Customer 2 has 2 pallets demand and window 18-19 at (-24.173763882, 90.827862401) and average unload time 0.130719769
-Customer 3 has 11 pallets demand and window 0-24 at (-41.150094945, 89.428923122) and average unload time 0.11813195
-Customer 4 has 10 pallets demand and window 0-24 at (-93.178970449, 31.562079411) and average unload time 0.070234422
-Customer 5 has 12 pallets demand and window 0-24 at (32.754432351, 77.774523519) and average unload time 0.095641457
-Customer 6 has 11 pallets demand and window 9-10 at (-22.738839525, -13.791376177) and average unload time 0.08163118
-Customer 7 has 8 pallets demand and window 17-18 at (-10.684228971, -86.538191443) and average unload time 0.036268788
-Customer 8 has 2 pallets demand and window 13-14 at (-73.684852985, 21.92949286) and average unload time 0.066631999
-Customer 9 has 3 pallets demand and window 0-24 at (-20.720781396, -12.001150161) and average unload time 0.080087073
-Vehicle SP1 is a Rigid with capacity 16, distance cost 1.209061045, and time cost 9.957548605
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.216273515, and time cost 12.799904093
-Vehicle SP3 is a Rigid with capacity 16, distance cost 1.209061045, and time cost 9.957548605
-Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.216273515, and time cost 12.799904093
-Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.940118414, and time cost 10.299028455
+Customer 1 has 8 pallets demand and window 7-8 at (65.328635226, -81.564038562) and average unload time 0.149952886
+Customer 2 has 9 pallets demand and window 16-17 at (9.622338195, -97.490059291) and average unload time 0.053971882
+Customer 3 has 6 pallets demand and window 22-23 at (45.042662277, -61.941653256) and average unload time 0.131667299
+Customer 4 has 11 pallets demand and window 0-24 at (-64.631553649, 29.395929126) and average unload time 0.068554264
+Customer 5 has 2 pallets demand and window 0-24 at (-2.072377796, -20.575211548) and average unload time 0.069120362
+Customer 6 has 10 pallets demand and window 0-24 at (12.447698689, -88.242097324) and average unload time 0.15386578
+Customer 7 has 12 pallets demand and window 0-24 at (61.463890184, -61.888858517) and average unload time 0.037930636
+Customer 8 has 10 pallets demand and window 5-6 at (88.971934683, -25.72219011) and average unload time 0.074242616
+Customer 9 has 1 pallets demand and window 23-24 at (-72.633925848, -92.039212437) and average unload time 0.117821334
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.992487846, and time cost 10.82382165
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.992487846, and time cost 10.82382165
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.992487846, and time cost 10.82382165
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 0.992487846, and time cost 10.82382165
+Vehicle SP5 is a Rigid with capacity 16, distance cost 1.117199569, and time cost 10.428830473
 Output:
-Vehicle SP1 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 8.726017805
-Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.230371753
-Vehicle SP1 travels from 9 to 6 to deliver 11 pallets. Expected unload start time is 9
-Vehicle SP2 travels from Depot to 1 to deliver 10 pallets. Expected unload start time is 14.852164575
-Vehicle SP2 travels from 1 to 7 to deliver 8 pallets. Expected unload start time is 17
-Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 18.380090907
-Vehicle SP3 travels from Depot to 5 to deliver 12 pallets. Expected unload start time is 0.33242877
-Vehicle SP3 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.535005497
-Vehicle SP5 travels from Depot to 8 to deliver 2 pallets. Expected unload start time is 14
-Vehicle SP5 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.436311303
-Vehicle SP5 travels from 3 to 2 to deliver 2 pallets. Expected unload start time is 18
-Vehicle SP5 travels from 4 to 3 to deliver 11 pallets. Expected unload start time is 16.487625136
-Vehicle SP5 travels from 8 to 4 to deliver 10 pallets. Expected unload start time is 14.81256119
-Objective value: 1012.522905785
-Solve time: 56877</t>
-  </si>
-  <si>
-    <t>{"0": [[[9, 3], [6, 11]], [[5, 12]]], "1": [[[1, 10], [7, 8]]], "2": [[[8, 2], [4, 10], [3, 11], [2, 2]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[5, 12]], [[9, 3], [6, 11]]], "1": [[[1, 10], [7, 8]]], "2": [[[8, 2], [4, 10], [3, 11], [2, 2]]]}</t>
+Vehicle SP1 travels from Depot to 5 to deliver 2 pallets. Expected unload start time is 15.889273722
+Vehicle SP1 travels from 2 to 6 to deliver 10 pallets. Expected unload start time is 20.39676329
+Vehicle SP1 travels from 5 to 2 to deliver 9 pallets. Expected unload start time is 17
+Vehicle SP1 travels from 6 to 9 to deliver 1 pallets. Expected unload start time is 23
+Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.583411222
+Vehicle SP2 travels from Depot to 4 to deliver 11 pallets. Expected unload start time is 24
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.641628446
+Vehicle SP3 travels from Depot to 3 to deliver 6 pallets. Expected unload start time is 22
+Vehicle SP3 travels from 3 to 7 to deliver 12 pallets. Expected unload start time is 22.995270152
+Vehicle SP3 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.540738821
+Vehicle SP4 travels from Depot to 8 to deliver 10 pallets. Expected unload start time is 5.499562704
+Vehicle SP4 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.505889412
+Vehicle SP4 travels from 8 to 1 to deliver 8 pallets. Expected unload start time is 7
+Objective value: 1101.900893564
+Solve time: 46550</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 2], [2, 9], [6, 10], [9, 1]], [[4, 11]], [[3, 6], [7, 12]], [[8, 10], [1, 8]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 2], [2, 9], [6, 10], [9, 1]], [[8, 10], [1, 8]], [[4, 11]], [[3, 6], [7, 12]]], "1": [[]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+5 (2) -&gt; 2 (9) -&gt; 6 (10) -&gt; 9 (1)
+8 (10) -&gt; 1 (8)
+4 (11)
+3 (6) -&gt; 7 (12)
+Rigid (capacity 16):
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 5 pallets demand and window 0-24 at (73.245281143, -13.609964329) and average unload time 0.118875813
+Customer 2 has 12 pallets demand and window 6-7 at (83.782278361, 9.376638159) and average unload time 0.089267979
+Customer 3 has 13 pallets demand and window 0-24 at (-32.101622478, 80.957258907) and average unload time 0.065064774
+Customer 4 has 1 pallets demand and window 0-24 at (83.167366974, -69.341807027) and average unload time 0.128947884
+Customer 5 has 4 pallets demand and window 0-24 at (42.382040152, -21.940418128) and average unload time 0.093993618
+Customer 6 has 1 pallets demand and window 0-24 at (-42.995722086, 23.070369739) and average unload time 0.114285458
+Customer 7 has 12 pallets demand and window 13-14 at (-72.142887932, 31.384473521) and average unload time 0.144760354
+Customer 8 has 13 pallets demand and window 0-24 at (72.213800557, -79.839988428) and average unload time 0.028689441
+Customer 9 has 3 pallets demand and window 9-10 at (-61.280387402, -10.008612086) and average unload time 0.100652248
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.367712706, and time cost 12.66257678
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.367712706, and time cost 12.66257678
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.367712706, and time cost 12.66257678
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.306366902, and time cost 12.825109862
+Vehicle SP5 is a 8 metre with capacity 22, distance cost 1.367712706, and time cost 12.66257678
+Output:
+Vehicle SP1 travels from Depot to 1 to deliver 5 pallets. Expected unload start time is 5.089538421
+Vehicle SP1 travels from 1 to 2 to deliver 12 pallets. Expected unload start time is 6
+Vehicle SP1 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 8.125032583
+Vehicle SP3 travels from Depot to 8 to deliver 13 pallets. Expected unload start time is 1.345667628
+Vehicle SP3 travels from 4 to 5 to deliver 4 pallets. Expected unload start time is 2.818887763
+Vehicle SP3 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.791417356
+Vehicle SP3 travels from 8 to 4 to deliver 1 pallets. Expected unload start time is 1.90828153
+Vehicle SP4 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 10
+Vehicle SP4 travels from 3 to 6 to deliver 1 pallets. Expected unload start time is 17.115806414
+Vehicle SP4 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.840019387
+Vehicle SP4 travels from 7 to 3 to deliver 13 pallets. Expected unload start time is 15.533675796
+Vehicle SP4 travels from 9 to 7 to deliver 12 pallets. Expected unload start time is 13
+Objective value: 1140.275214781
+Solve time: 78490</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 5], [2, 12]], [[8, 13], [4, 1], [5, 4]]], "1": [[[9, 3], [7, 12], [3, 13], [6, 1]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[2, 12], [1, 5]], [[8, 13], [4, 1], [5, 4]]], "1": [[[9, 3], [7, 12], [3, 13], [6, 1]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+2 (12) -&gt; 1 (5)
+8 (13) -&gt; 4 (1) -&gt; 5 (4)
+11 metre (capacity 30):
+9 (3) -&gt; 7 (12) -&gt; 3 (13) -&gt; 6 (1)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 7 pallets demand and window 0-24 at (-51.620022152, -8.929680233) and average unload time 0.145776854
+Customer 2 has 2 pallets demand and window 0-24 at (-18.378937485, 63.92293702) and average unload time 0.046061973
+Customer 3 has 8 pallets demand and window 0-24 at (-52.148496423, 83.866397215) and average unload time 0.019465707
+Customer 4 has 6 pallets demand and window 0-24 at (45.333464265, -85.163919486) and average unload time 0.14458388
+Customer 5 has 9 pallets demand and window 18-19 at (-54.144917187, -81.803919629) and average unload time 0.090896431
+Customer 6 has 8 pallets demand and window 0-24 at (60.602461708, 43.384460181) and average unload time 0.121315548
+Customer 7 has 7 pallets demand and window 0-24 at (54.162027298, -22.878682126) and average unload time 0.045577344
+Customer 8 has 7 pallets demand and window 0-24 at (-81.11843669, 32.182457276) and average unload time 0.083404126
+Customer 9 has 3 pallets demand and window 7-8 at (-86.742981623, 12.015557709) and average unload time 0.141908053
+Customer 10 has 5 pallets demand and window 18-19 at (-38.036555914, -36.52131734) and average unload time 0.134269998
+Customer 11 has 8 pallets demand and window 0-24 at (-39.779619693, 32.986289056) and average unload time 0.150272543
+Customer 12 has 9 pallets demand and window 0-24 at (63.447521778, -47.249795797) and average unload time 0.106963434
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.976878526, and time cost 8.073410431
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.795689112, and time cost 13.407168172
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.795689112, and time cost 13.407168172
+Vehicle SP4 is a Rigid with capacity 16, distance cost 0.976878526, and time cost 8.073410431
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.015316086, and time cost 12.623662886
+Output:
+Vehicle SP2 travels from Depot to 2 to deliver 2 pallets. Expected unload start time is 5.675760867
+Vehicle SP2 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.883287487
+Vehicle SP2 travels from 2 to 3 to deliver 8 pallets. Expected unload start time is 6.258121476
+Vehicle SP2 travels from 3 to 8 to deliver 7 pallets. Expected unload start time is 7.154464177
+Vehicle SP2 travels from 8 to 9 to deliver 3 pallets. Expected unload start time is 8
+Vehicle SP2 travels from 9 to 1 to deliver 2 pallets. Expected unload start time is 8.936900083
+Vehicle SP3 travels from Depot to 11 to deliver 8 pallets. Expected unload start time is 15.613008147
+Vehicle SP3 travels from 1 to 5 to deliver 9 pallets. Expected unload start time is 19
+Vehicle SP3 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.044314272
+Vehicle SP3 travels from 11 to 1 to deliver 5 pallets. Expected unload start time is 17.359641146
+Vehicle SP4 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 18
+Vehicle SP4 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.330490792
+Vehicle SP5 travels from Depot to 6 to deliver 8 pallets. Expected unload start time is 0.931637482
+Vehicle SP5 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.94078492
+Vehicle SP5 travels from 6 to 7 to deliver 7 pallets. Expected unload start time is 2.734354305
+Vehicle SP5 travels from 7 to 12 to deliver 9 pallets. Expected unload start time is 3.379396957
+Vehicle SP5 travels from 12 to 4 to deliver 6 pallets. Expected unload start time is 4.867305886
+Objective value: 1100.115529865
+Solve time: 6655433</t>
+  </si>
+  <si>
+    <t>{"0": [[[10, 5]]], "1": [[[2, 2], [3, 8], [8, 7], [9, 3], [1, 2]], [[11, 8], [1, 5], [5, 9]]], "2": [[[6, 8], [7, 7], [12, 9], [4, 6]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 7], [10, 5]]], "1": [[[11, 8], [5, 9]], [[9, 3], [8, 7], [3, 8], [2, 2]]], "2": [[[6, 8], [7, 7], [12, 9], [4, 6]]]}</t>
   </si>
   <si>
     <t xml:space="preserve">Rigid (capacity 16):
-5 (12)
-9 (3) -&gt; 6 (11)
+1 (7) -&gt; 10 (5)
 8 metre (capacity 22):
-1 (10) -&gt; 7 (8)
+11 (8) -&gt; 5 (9)
+9 (3) -&gt; 8 (7) -&gt; 3 (8) -&gt; 2 (2)
 11 metre (capacity 30):
-8 (2) -&gt; 4 (10) -&gt; 3 (11) -&gt; 2 (2)
-</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 1 pallets demand and window 0-24 at (72.412402197, -53.826023528) and average unload time 0.081047045
-Customer 2 has 6 pallets demand and window 0-24 at (-45.736918932, -41.990959188) and average unload time 0.087051307
-Customer 3 has 8 pallets demand and window 0-24 at (38.036276142, 60.325987803) and average unload time 0.088336633
-Customer 4 has 2 pallets demand and window 0-24 at (58.85665966, -71.92832111) and average unload time 0.142180416
-Customer 5 has 9 pallets demand and window 13-14 at (52.615973342, -0.647028304) and average unload time 0.145761893
-Customer 6 has 5 pallets demand and window 14-15 at (1.176581339, -16.102022976) and average unload time 0.092595204
-Customer 7 has 10 pallets demand and window 10-11 at (26.137036033, 90.823179266) and average unload time 0.023638029
-Customer 8 has 11 pallets demand and window 0-24 at (8.249493434, 84.796327213) and average unload time 0.068984326
-Customer 9 has 8 pallets demand and window 0-24 at (-20.693037202, 9.943253515) and average unload time 0.032179549
-Vehicle SP1 is a Rigid with capacity 16, distance cost 1.161348168, and time cost 10.950163257
-Vehicle SP2 is a Rigid with capacity 16, distance cost 1.161348168, and time cost 10.950163257
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.148403785, and time cost 8.661394962
-Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.148403785, and time cost 8.661394962
-Vehicle SP5 is a Rigid with capacity 16, distance cost 1.161348168, and time cost 10.950163257
-Output:
-Vehicle SP1 travels from Depot to 9 to deliver 8 pallets. Expected unload start time is 21.72342135
-Vehicle SP1 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 24
-Vehicle SP1 travels from 9 to 2 to deliver 6 pallets. Expected unload start time is 22.701573366
-Vehicle SP3 travels from Depot to 7 to deliver 10 pallets. Expected unload start time is 10
-Vehicle SP3 travels from 7 to 8 to deliver 11 pallets. Expected unload start time is 10.472324914
-Vehicle SP3 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.296110775
-Vehicle SP4 travels from Depot to 4 to deliver 2 pallets. Expected unload start time is 11.642598511
-Vehicle SP4 travels from 1 to 5 to deliver 9 pallets. Expected unload start time is 13
-Vehicle SP4 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.693650025
-Vehicle SP4 travels from 4 to 1 to deliver 1 pallets. Expected unload start time is 12.209650466
-Vehicle SP4 travels from 5 to 3 to deliver 8 pallets. Expected unload start time is 15.095505978
-Vehicle SP5 travels from Depot to 6 to deliver 5 pallets. Expected unload start time is 14
-Vehicle SP5 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.664787924
-Objective value: 900.172491194
-Solve time: 51550</t>
-  </si>
-  <si>
-    <t>{"0": [[[9, 8], [2, 6]], [[6, 5]]], "1": [[[7, 10], [8, 11]], [[4, 2], [1, 1], [5, 9], [3, 8]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[2, 6], [9, 8]], [[6, 5]]], "1": [[[8, 11], [7, 10]], [[3, 8], [5, 9], [1, 1], [4, 2]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rigid (capacity 16):
-2 (6) -&gt; 9 (8)
-6 (5)
-8 metre (capacity 22):
-8 (11) -&gt; 7 (10)
-3 (8) -&gt; 5 (9) -&gt; 1 (1) -&gt; 4 (2)
-</t>
-  </si>
-  <si>
-    <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (-86.018041576, -18.309401959) and average unload time 0.02426454
-Customer 2 has 7 pallets demand and window 0-24 at (97.145189081, -85.615840496) and average unload time 0.101105023
-Customer 3 has 8 pallets demand and window 0-24 at (44.485758541, 68.954488341) and average unload time 0.058404782
-Customer 4 has 8 pallets demand and window 0-24 at (-25.557138511, 8.215942554) and average unload time 0.105231086
-Customer 5 has 5 pallets demand and window 0-24 at (-25.339011966, 83.481342741) and average unload time 0.101223886
-Customer 6 has 10 pallets demand and window 0-24 at (91.701596752, 54.140179069) and average unload time 0.133629236
-Customer 7 has 6 pallets demand and window 0-24 at (-56.453168325, -92.039782739) and average unload time 0.064868241
-Customer 8 has 6 pallets demand and window 0-24 at (-36.216259447, 64.238791874) and average unload time 0.03872407
-Customer 9 has 5 pallets demand and window 0-24 at (29.914902065, 88.947189086) and average unload time 0.15367619
-Customer 10 has 5 pallets demand and window 0-24 at (81.434885477, 42.040501488) and average unload time 0.139541855
-Customer 11 has 9 pallets demand and window 0-24 at (35.258528277, -74.417479493) and average unload time 0.148835244
-Customer 12 has 2 pallets demand and window 23-24 at (1.130894366, 28.755529997) and average unload time 0.030813584
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.988733766, and time cost 13.759122689
-Vehicle SP2 is a Rigid with capacity 16, distance cost 1.190221567, and time cost 11.682641751
-Vehicle SP3 is a Rigid with capacity 16, distance cost 1.190221567, and time cost 11.682641751
-Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.322405981, and time cost 9.780990029
-Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.988733766, and time cost 13.759122689
-Output:
-Vehicle SP1 travels from Depot to 2 to deliver 7 pallets. Expected unload start time is 1.618605684
-Vehicle SP1 travels from 1 to 4 to deliver 3 pallets. Expected unload start time is 7.875368472
-Vehicle SP1 travels from 2 to 11 to deliver 9 pallets. Expected unload start time is 3.11248671
-Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 8.526627725
-Vehicle SP1 travels from 7 to 1 to deliver 2 pallets. Expected unload start time is 7.001544493
-Vehicle SP1 travels from 11 to 7 to deliver 6 pallets. Expected unload start time is 5.619371459
-Vehicle SP3 travels from Depot to 5 to deliver 5 pallets. Expected unload start time is 22.272386957
-Vehicle SP3 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.861721425
-Vehicle SP3 travels from 5 to 8 to deliver 6 pallets. Expected unload start time is 23.054807364
-Vehicle SP3 travels from 8 to 4 to deliver 5 pallets. Expected unload start time is 24
-Vehicle SP5 travels from Depot to 10 to deliver 5 pallets. Expected unload start time is 17.770219672
-Vehicle SP5 travels from 3 to 9 to deliver 5 pallets. Expected unload start time is 21.397619374
-Vehicle SP5 travels from 6 to 3 to deliver 8 pallets. Expected unload start time is 20.621143662
-Vehicle SP5 travels from 9 to 12 to deliver 2 pallets. Expected unload start time is 23
-Vehicle SP5 travels from 10 to 6 to deliver 10 pallets. Expected unload start time is 18.666284516
-Vehicle SP5 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.421349158
-Objective value: 1213.639145111
-Solve time: 216795</t>
-  </si>
-  <si>
-    <t>{"0": [[[2, 7], [11, 9], [7, 6], [1, 2], [4, 3]], [[10, 5], [6, 10], [3, 8], [9, 5], [12, 2]]], "1": [[[5, 5], [8, 6], [4, 5]]], "2": []}</t>
-  </si>
-  <si>
-    <t>{"0": [[[10, 5], [6, 10], [3, 8], [9, 5], [12, 2]], [[2, 7], [11, 9], [7, 6], [1, 2]]], "1": [[]], "2": [[[4, 8], [8, 6], [5, 5]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-10 (5) -&gt; 6 (10) -&gt; 3 (8) -&gt; 9 (5) -&gt; 12 (2)
-2 (7) -&gt; 11 (9) -&gt; 7 (6) -&gt; 1 (2)
-Rigid (capacity 16):
-8 metre (capacity 22):
-4 (8) -&gt; 8 (6) -&gt; 5 (5)
+6 (8) -&gt; 7 (7) -&gt; 12 (9) -&gt; 4 (6)
 </t>
   </si>
   <si>
@@ -2440,55 +2436,58 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (-81.985780248, -82.331847855) and average unload time 0.12840829
-Customer 2 has 2 pallets demand and window 0-24 at (-4.522517911, 64.911452344) and average unload time 0.056335039
-Customer 3 has 3 pallets demand and window 6-7 at (93.63802422, -5.116180676) and average unload time 0.093760044
-Customer 4 has 4 pallets demand and window 0-24 at (-59.432155865, 75.538592058) and average unload time 0.088767008
-Customer 5 has 3 pallets demand and window 0-24 at (28.559050144, -8.647935123) and average unload time 0.062721373
-Customer 6 has 10 pallets demand and window 8-9 at (41.387723878, 74.104924211) and average unload time 0.01958016
-Customer 7 has 4 pallets demand and window 0-24 at (-70.64915921, 91.729511492) and average unload time 0.017056964
-Customer 8 has 2 pallets demand and window 0-24 at (-18.24689122, 6.327854727) and average unload time 0.095296834
-Customer 9 has 7 pallets demand and window 0-24 at (-99.277178862, 17.161670003) and average unload time 0.119909402
-Customer 10 has 7 pallets demand and window 0-24 at (-96.058322364, -76.117960774) and average unload time 0.108853797
-Customer 11 has 10 pallets demand and window 0-24 at (-39.724086402, -9.740444034) and average unload time 0.114284914
-Customer 12 has 3 pallets demand and window 0-24 at (-2.278265143, -72.236800486) and average unload time 0.109068944
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.756188701, and time cost 13.074098524
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.741494683, and time cost 11.898809092
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.756188701, and time cost 13.074098524
-Vehicle SP4 is a 8 metre with capacity 22, distance cost 0.756188701, and time cost 13.074098524
-Vehicle SP5 is a Rigid with capacity 16, distance cost 1.093494981, and time cost 9.728241995
+Customer 1 has 2 pallets demand and window 0-24 at (84.1439079, 87.868454183) and average unload time 0.104306011
+Customer 2 has 8 pallets demand and window 18-19 at (-22.827489859, -73.603077013) and average unload time 0.03841007
+Customer 3 has 6 pallets demand and window 20-21 at (25.294054245, -69.039837188) and average unload time 0.090851872
+Customer 4 has 9 pallets demand and window 5-6 at (-77.588233236, -12.589294208) and average unload time 0.034388936
+Customer 5 has 6 pallets demand and window 0-24 at (-67.597098539, 8.057010486) and average unload time 0.093691393
+Customer 6 has 5 pallets demand and window 0-24 at (-7.191180977, 35.815434882) and average unload time 0.020798326
+Customer 7 has 4 pallets demand and window 0-24 at (-51.557432257, -47.491661179) and average unload time 0.10927067
+Customer 8 has 7 pallets demand and window 0-24 at (-27.198409993, 71.430274233) and average unload time 0.162273529
+Customer 9 has 7 pallets demand and window 0-24 at (-83.039232946, 60.328662328) and average unload time 0.118999851
+Customer 10 has 4 pallets demand and window 0-24 at (-68.038973628, 35.787410523) and average unload time 0.103787972
+Customer 11 has 4 pallets demand and window 0-24 at (-33.140989177, -95.789400389) and average unload time 0.139107142
+Customer 12 has 6 pallets demand and window 9-10 at (15.06222528, -78.330843512) and average unload time 0.043281621
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.364080689, and time cost 7.648409053
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.364762788, and time cost 8.766607358
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.364080689, and time cost 7.648409053
+Vehicle SP4 is a Rigid with capacity 16, distance cost 1.364080689, and time cost 7.648409053
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.992012312, and time cost 9.082630768
 Output:
-Vehicle SP1 travels from Depot to 8 to deliver 2 pallets. Expected unload start time is 0.241412117
-Vehicle SP1 travels from 8 to 11 to deliver 10 pallets. Expected unload start time is 0.767290211
-Vehicle SP1 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.421399936
-Vehicle SP2 travels from Depot to 4 to deliver 4 pallets. Expected unload start time is 0.372995918
-Vehicle SP2 travels from 1 to 12 to deliver 3 pallets. Expected unload start time is 6.51919378
-Vehicle SP2 travels from 4 to 7 to deliver 4 pallets. Expected unload start time is 0.974274936
-Vehicle SP2 travels from 7 to 9 to deliver 7 pallets. Expected unload start time is 2.040933317
-Vehicle SP2 travels from 9 to 10 to deliver 7 pallets. Expected unload start time is 4.046988529
-Vehicle SP2 travels from 10 to 1 to deliver 4 pallets. Expected unload start time is 5.00125754
-Vehicle SP2 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.749809591
-Vehicle SP3 travels from Depot to 5 to deliver 3 pallets. Expected unload start time is 5.529617117
-Vehicle SP3 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.707102848
-Vehicle SP3 travels from 3 to 6 to deliver 10 pallets. Expected unload start time is 7.999999998
-Vehicle SP3 travels from 5 to 3 to deliver 3 pallets. Expected unload start time is 6.53246543
-Vehicle SP3 travels from 6 to 2 to deliver 2 pallets. Expected unload start time is 8.781072667
-Objective value: 825.277177842
-Solve time: 145025</t>
-  </si>
-  <si>
-    <t>{"0": [[[8, 2], [11, 10]], [[5, 3], [3, 3], [6, 10], [2, 2]]], "1": [[[4, 4], [7, 4], [9, 7], [10, 7], [1, 4], [12, 3]]], "2": []}</t>
-  </si>
-  <si>
-    <t>{"0": [[[5, 3], [3, 3], [6, 10], [2, 2]], [[11, 10], [8, 2]]], "1": [[[12, 3], [1, 4], [10, 7], [9, 7], [7, 4], [4, 4]]], "2": [[]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 metre (capacity 22):
-5 (3) -&gt; 3 (3) -&gt; 6 (10) -&gt; 2 (2)
-11 (10) -&gt; 8 (2)
+Vehicle SP1 travels from Depot to 7 to deliver 2 pallets. Expected unload start time is 18.296172723
+Vehicle SP1 travels from 2 to 3 to deliver 6 pallets. Expected unload start time is 20
+Vehicle SP1 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.46420456
+Vehicle SP1 travels from 7 to 2 to deliver 8 pallets. Expected unload start time is 19
+Vehicle SP2 travels from Depot to 5 to deliver 1 pallets. Expected unload start time is 5.619599731
+Vehicle SP2 travels from 4 to 7 to deliver 2 pallets. Expected unload start time is 6.85375706
+Vehicle SP2 travels from 5 to 4 to deliver 9 pallets. Expected unload start time is 6
+Vehicle SP2 travels from 7 to 11 to deliver 4 pallets. Expected unload start time is 7.802728347
+Vehicle SP2 travels from 11 to 12 to deliver 6 pallets. Expected unload start time is 9
+Vehicle SP2 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.256762915
+Vehicle SP5 travels from Depot to 6 to deliver 5 pallets. Expected unload start time is 0.456628004
+Vehicle SP5 travels from 1 to 8 to deliver 7 pallets. Expected unload start time is 3.490180115
+Vehicle SP5 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 8.611523299
+Vehicle SP5 travels from 6 to 1 to deliver 2 pallets. Expected unload start time is 1.874702921
+Vehicle SP5 travels from 8 to 9 to deliver 7 pallets. Expected unload start time is 5.337765749
+Vehicle SP5 travels from 9 to 10 to deliver 4 pallets. Expected unload start time is 6.530295827
+Vehicle SP5 travels from 10 to 5 to deliver 5 pallets. Expected unload start time is 7.292121718
+Objective value: 1337.306652706
+Solve time: 697211</t>
+  </si>
+  <si>
+    <t>{"0": [[[7, 2], [2, 8], [3, 6]]], "1": [[[5, 1], [4, 9], [7, 2], [11, 4], [12, 6]]], "2": [[[6, 5], [1, 2], [8, 7], [9, 7], [10, 4], [5, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[12, 6], [3, 6]], [[2, 8], [11, 4], [7, 4]], [[5, 6], [4, 9]]], "1": [[]], "2": [[[10, 4], [9, 7], [8, 7], [1, 2], [6, 5]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+12 (6) -&gt; 3 (6)
+2 (8) -&gt; 11 (4) -&gt; 7 (4)
+5 (6) -&gt; 4 (9)
+8 metre (capacity 22):
 11 metre (capacity 30):
-12 (3) -&gt; 1 (4) -&gt; 10 (7) -&gt; 9 (7) -&gt; 7 (4) -&gt; 4 (4)
-Rigid (capacity 16):
+10 (4) -&gt; 9 (7) -&gt; 8 (7) -&gt; 1 (2) -&gt; 6 (5)
 </t>
   </si>
   <si>
@@ -2533,66 +2532,66 @@
     <t>{"0": [[[6, 7], [11, 6], [5, 4], [1, 8], [4, 1]], [[8, 5], [9, 1], [3, 12], [12, 11]], [[10, 8], [2, 12], [7, 2]]], "1": []}</t>
   </si>
   <si>
-    <t>{"0": [[[12, 11], [3, 12], [9, 1], [8, 5]], [[2, 12], [10, 8], [7, 2]], [[4, 1], [11, 6], [5, 4], [1, 8], [6, 7]]], "1": [[]]}</t>
+    <t>{"0": [[[10, 8], [2, 12], [7, 2]], [[8, 5], [11, 6], [5, 4], [1, 8], [4, 1]], [[12, 11], [3, 12], [9, 1]], [[6, 7]]], "1": [[]]}</t>
   </si>
   <si>
     <t xml:space="preserve">11 metre (capacity 30):
-12 (11) -&gt; 3 (12) -&gt; 9 (1) -&gt; 8 (5)
-2 (12) -&gt; 10 (8) -&gt; 7 (2)
-4 (1) -&gt; 11 (6) -&gt; 5 (4) -&gt; 1 (8) -&gt; 6 (7)
+10 (8) -&gt; 2 (12) -&gt; 7 (2)
+8 (5) -&gt; 11 (6) -&gt; 5 (4) -&gt; 1 (8) -&gt; 4 (1)
+12 (11) -&gt; 3 (12) -&gt; 9 (1)
+6 (7)
 Rigid (capacity 16):
 </t>
   </si>
   <si>
     <t>Input:
-Customer 1 has 2 pallets demand and window 0-24 at (9.323766392, -75.027154434) and average unload time 0.153863026
-Customer 2 has 5 pallets demand and window 0-24 at (-54.026006389, 31.120934846) and average unload time 0.16309667
-Customer 3 has 12 pallets demand and window 0-24 at (61.353022315, 9.197128971) and average unload time 0.081370108
-Customer 4 has 4 pallets demand and window 0-24 at (92.463302392, 34.781071736) and average unload time 0.051990036
-Customer 5 has 4 pallets demand and window 17-18 at (40.33825566, -89.267972485) and average unload time 0.038344625
-Customer 6 has 1 pallets demand and window 0-24 at (84.176793096, 18.764110183) and average unload time 0.089213447
-Customer 7 has 2 pallets demand and window 0-24 at (-25.143650218, 37.440034642) and average unload time 0.117293614
-Customer 8 has 10 pallets demand and window 0-24 at (-92.502826604, -45.905170828) and average unload time 0.041220897
-Customer 9 has 5 pallets demand and window 0-24 at (-30.383074534, -14.636752348) and average unload time 0.157216861
-Customer 10 has 9 pallets demand and window 0-24 at (36.88861806, -73.065528774) and average unload time 0.108515697
-Customer 11 has 9 pallets demand and window 0-24 at (-28.703191014, -43.834436797) and average unload time 0.15624806
-Customer 12 has 12 pallets demand and window 19-20 at (-55.176741996, 98.086344662) and average unload time 0.090735057
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.110220405, and time cost 11.507600006
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.30225705, and time cost 12.003990304
-Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.110220405, and time cost 11.507600006
-Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.30225705, and time cost 12.003990304
-Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.30225705, and time cost 12.003990304
+Customer 1 has 8 pallets demand and window 14-15 at (99.638339255, 18.382089932) and average unload time 0.023385936
+Customer 2 has 1 pallets demand and window 13-14 at (-57.221223447, -62.415902476) and average unload time 0.106371274
+Customer 3 has 4 pallets demand and window 0-24 at (44.214552992, 89.041511803) and average unload time 0.023637058
+Customer 4 has 2 pallets demand and window 0-24 at (33.794574689, 74.449419395) and average unload time 0.046156487
+Customer 5 has 7 pallets demand and window 0-24 at (-98.277899517, 33.213570953) and average unload time 0.022596267
+Customer 6 has 8 pallets demand and window 0-24 at (70.506227512, -39.228783623) and average unload time 0.036281252
+Customer 7 has 1 pallets demand and window 10-11 at (-89.584839045, -42.414788328) and average unload time 0.054332175
+Customer 8 has 4 pallets demand and window 0-24 at (-90.654979556, -34.146553642) and average unload time 0.069236214
+Customer 9 has 4 pallets demand and window 0-24 at (-76.980109815, 33.472189655) and average unload time 0.131148982
+Customer 10 has 4 pallets demand and window 9-10 at (60.474893649, -66.311650236) and average unload time 0.164935725
+Customer 11 has 1 pallets demand and window 22-23 at (-92.926625754, 81.858540341) and average unload time 0.073329689
+Customer 12 has 2 pallets demand and window 0-24 at (39.328405404, 46.591707922) and average unload time 0.032021349
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.39024987, and time cost 14.185535036
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.39024987, and time cost 14.185535036
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.282030613, and time cost 14.505405651
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.220666838, and time cost 8.266663359
+Vehicle SP5 is a 8 metre with capacity 22, distance cost 1.282030613, and time cost 14.505405651
 Output:
-Vehicle SP2 travels from Depot to 8 to deliver 10 pallets. Expected unload start time is 16.8588464
-Vehicle SP2 travels from 2 to 12 to deliver 12 pallets. Expected unload start time is 20
-Vehicle SP2 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.733093549
-Vehicle SP2 travels from 8 to 2 to deliver 5 pallets. Expected unload start time is 18.347325448
-Vehicle SP2 travels from 12 to 7 to deliver 2 pallets. Expected unload start time is 21.934763342
-Vehicle SP3 travels from Depot to 4 to deliver 4 pallets. Expected unload start time is 21.41613685
-Vehicle SP3 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 24
-Vehicle SP3 travels from 4 to 6 to deliver 1 pallets. Expected unload start time is 21.849516495
-Vehicle SP3 travels from 6 to 3 to deliver 12 pallets. Expected unload start time is 22.248076947
-Vehicle SP4 travels from Depot to 10 to deliver 9 pallets. Expected unload start time is 16.816288701
-Vehicle SP4 travels from 1 to 11 to deliver 9 pallets. Expected unload start time is 19.50249681
-Vehicle SP4 travels from 5 to 1 to deliver 2 pallets. Expected unload start time is 18.579974664
-Vehicle SP4 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 22.481948952
-Vehicle SP4 travels from 10 to 5 to deliver 4 pallets. Expected unload start time is 18
-Vehicle SP4 travels from 11 to 9 to deliver 5 pallets. Expected unload start time is 21.274303981
-Objective value: 1235.52305333
-Solve time: 2335436</t>
-  </si>
-  <si>
-    <t>{"0": [[[4, 4], [6, 1], [3, 12]]], "1": [[[8, 10], [2, 5], [12, 12], [7, 2]], [[10, 9], [5, 4], [1, 2], [11, 9], [9, 5]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[3, 12], [6, 1], [4, 4]]], "1": [[[9, 5], [11, 9], [1, 2], [5, 4], [10, 9]], [[7, 2], [12, 12], [2, 5], [8, 10]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 metre (capacity 22):
-3 (12) -&gt; 6 (1) -&gt; 4 (4)
+Vehicle SP4 travels from Depot to 10 to deliver 4 pallets. Expected unload start time is 10
+Vehicle SP4 travels from 1 to 12 to deliver 2 pallets. Expected unload start time is 15.019353843
+Vehicle SP4 travels from 3 to 11 to deliver 1 pallets. Expected unload start time is 22
+Vehicle SP4 travels from 4 to 3 to deliver 4 pallets. Expected unload start time is 15.754866948
+Vehicle SP4 travels from 6 to 1 to deliver 8 pallets. Expected unload start time is 14
+Vehicle SP4 travels from 10 to 6 to deliver 8 pallets. Expected unload start time is 11.020754785
+Vehicle SP4 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.621321251
+Vehicle SP4 travels from 12 to 4 to deliver 2 pallets. Expected unload start time is 15.438421929
+Vehicle SP5 travels from Depot to 9 to deliver 4 pallets. Expected unload start time is 8.822452315
+Vehicle SP5 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.164820412
+Vehicle SP5 travels from 5 to 8 to deliver 4 pallets. Expected unload start time is 10.618840142
+Vehicle SP5 travels from 7 to 2 to deliver 1 pallets. Expected unload start time is 13
+Vehicle SP5 travels from 8 to 7 to deliver 1 pallets. Expected unload start time is 11
+Vehicle SP5 travels from 9 to 5 to deliver 7 pallets. Expected unload start time is 9.61329024
+Objective value: 1284.681273827
+Solve time: 131190</t>
+  </si>
+  <si>
+    <t>{"0": [], "1": [[[9, 4], [5, 7], [8, 4], [7, 1], [2, 1]]], "2": [[[10, 4], [6, 8], [1, 8], [12, 2], [4, 2], [3, 4], [11, 1]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[9, 4], [5, 7], [8, 4], [7, 1], [2, 1]]], "2": [[[10, 4], [6, 8], [1, 8], [12, 2], [4, 2], [3, 4], [11, 1]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 metre (capacity 22):
+9 (4) -&gt; 5 (7) -&gt; 8 (4) -&gt; 7 (1) -&gt; 2 (1)
 11 metre (capacity 30):
-9 (5) -&gt; 11 (9) -&gt; 1 (2) -&gt; 5 (4) -&gt; 10 (9)
-7 (2) -&gt; 12 (12) -&gt; 2 (5) -&gt; 8 (10)
+10 (4) -&gt; 6 (8) -&gt; 1 (8) -&gt; 12 (2) -&gt; 4 (2) -&gt; 3 (4) -&gt; 11 (1)
 </t>
   </si>
   <si>
@@ -2650,55 +2649,56 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 9 pallets demand and window 0-24 at (-21.058710905, -85.732132641) and average unload time 0.08006281
-Customer 2 has 4 pallets demand and window 0-24 at (-61.530467477, 1.737117717) and average unload time 0.094669005
-Customer 3 has 1 pallets demand and window 0-24 at (-50.677734248, -53.936729153) and average unload time 0.022009121
-Customer 4 has 6 pallets demand and window 0-24 at (-69.054106936, -51.628713993) and average unload time 0.155332702
-Customer 5 has 7 pallets demand and window 0-24 at (72.066314682, 21.176732398) and average unload time 0.101851625
-Customer 6 has 4 pallets demand and window 0-24 at (99.703455051, -23.277342091) and average unload time 0.058345596
-Customer 7 has 9 pallets demand and window 0-24 at (-99.403509456, -74.089731337) and average unload time 0.138604905
-Customer 8 has 7 pallets demand and window 0-24 at (-94.024021409, -85.062275023) and average unload time 0.135408239
-Customer 9 has 9 pallets demand and window 20-21 at (33.467209204, -64.83280491) and average unload time 0.079560351
-Customer 10 has 2 pallets demand and window 6-7 at (-89.273295195, 57.58077261) and average unload time 0.03541879
-Customer 11 has 1 pallets demand and window 0-24 at (-23.053132966, 62.283270093) and average unload time 0.128154381
-Customer 12 has 6 pallets demand and window 16-17 at (60.17467471, -61.397482643) and average unload time 0.146222627
-Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.963034084, and time cost 12.240195381
-Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.28918797, and time cost 13.157882916
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.963034084, and time cost 12.240195381
-Vehicle SP4 is a Rigid with capacity 16, distance cost 0.734679723, and time cost 14.412072107
-Vehicle SP5 is a 8 metre with capacity 22, distance cost 1.28918797, and time cost 13.157882916
+Customer 1 has 4 pallets demand and window 0-24 at (-93.391038658, -30.537894878) and average unload time 0.156410086
+Customer 2 has 9 pallets demand and window 17-18 at (-42.368383634, -28.781239322) and average unload time 0.103266879
+Customer 3 has 7 pallets demand and window 0-24 at (33.49595074, -60.507929181) and average unload time 0.133326343
+Customer 4 has 10 pallets demand and window 0-24 at (19.707402936, 93.646077334) and average unload time 0.07292757
+Customer 5 has 10 pallets demand and window 0-24 at (71.948316959, -24.80808413) and average unload time 0.151922626
+Customer 6 has 3 pallets demand and window 0-24 at (-98.18379299, 58.476472729) and average unload time 0.070449963
+Customer 7 has 2 pallets demand and window 0-24 at (14.901580308, 36.346883893) and average unload time 0.070074489
+Customer 8 has 2 pallets demand and window 21-22 at (81.818554504, -7.216671671) and average unload time 0.097775504
+Customer 9 has 10 pallets demand and window 0-24 at (-54.449627026, -78.424678437) and average unload time 0.109741694
+Customer 10 has 4 pallets demand and window 0-24 at (-98.229149414, 5.39880745) and average unload time 0.139628281
+Customer 11 has 4 pallets demand and window 15-16 at (89.78266515, 45.12914804) and average unload time 0.151582442
+Customer 12 has 3 pallets demand and window 0-24 at (-83.503872904, -91.862838668) and average unload time 0.022603086
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.421828054, and time cost 9.698361705
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.049145864, and time cost 7.641085249
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.484572717, and time cost 12.117699953
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.049145864, and time cost 7.641085249
+Vehicle SP5 is a Rigid with capacity 16, distance cost 1.421828054, and time cost 9.698361705
 Output:
-Vehicle SP1 travels from Depot to 5 to deliver 7 pallets. Expected unload start time is 14.712907548
-Vehicle SP1 travels from 5 to 6 to deliver 4 pallets. Expected unload start time is 16.080178708
-Vehicle SP1 travels from 6 to 12 to deliver 6 pallets. Expected unload start time is 17
-Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.628059012
-Vehicle SP1 travels from 12 to 9 to deliver 9 pallets. Expected unload start time is 20
-Vehicle SP3 travels from Depot to 11 to deliver 1 pallets. Expected unload start time is 6.042009098
-Vehicle SP3 travels from 2 to 7 to deliver 9 pallets. Expected unload start time is 9.288441114
-Vehicle SP3 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.26874083
-Vehicle SP3 travels from 4 to 3 to deliver 1 pallets. Expected unload start time is 13.321613177
-Vehicle SP3 travels from 7 to 8 to deliver 7 pallets. Expected unload start time is 10.688638945
-Vehicle SP3 travels from 8 to 4 to deliver 6 pallets. Expected unload start time is 12.158107649
-Vehicle SP3 travels from 10 to 2 to deliver 4 pallets. Expected unload start time is 7.850278313
-Vehicle SP3 travels from 11 to 10 to deliver 2 pallets. Expected unload start time is 7
-Vehicle SP4 travels from Depot to 1 to deliver 9 pallets. Expected unload start time is 1.10350775
-Vehicle SP4 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.927580787
-Objective value: 1065.533632739
-Solve time: 142587</t>
-  </si>
-  <si>
-    <t>{"0": [[[5, 7], [6, 4], [12, 6], [9, 9]], [[11, 1], [10, 2], [2, 4], [7, 9], [8, 7], [4, 6], [3, 1]]], "1": [], "2": [[[1, 9]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[[11, 1], [10, 2], [2, 4], [7, 9], [8, 7], [4, 6], [3, 1]], [[5, 7], [6, 4], [12, 6], [9, 9]]], "1": [[]], "2": [[[1, 9]]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 metre (capacity 30):
-11 (1) -&gt; 10 (2) -&gt; 2 (4) -&gt; 7 (9) -&gt; 8 (7) -&gt; 4 (6) -&gt; 3 (1)
-5 (7) -&gt; 6 (4) -&gt; 12 (6) -&gt; 9 (9)
+Vehicle SP2 travels from Depot to 3 to deliver 6 pallets. Expected unload start time is 0.864507465
+Vehicle SP2 travels from 1 to 10 to deliver 4 pallets. Expected unload start time is 6.207098409
+Vehicle SP2 travels from 3 to 9 to deliver 10 pallets. Expected unload start time is 2.786366432
+Vehicle SP2 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.068912612
+Vehicle SP2 travels from 9 to 12 to deliver 3 pallets. Expected unload start time is 4.283926582
+Vehicle SP2 travels from 10 to 6 to deliver 3 pallets. Expected unload start time is 7.429082593
+Vehicle SP2 travels from 12 to 1 to deliver 4 pallets. Expected unload start time is 5.128196639
+Vehicle SP4 travels from Depot to 7 to deliver 2 pallets. Expected unload start time is 13.34642492
+Vehicle SP4 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.620622253
+Vehicle SP4 travels from 4 to 11 to deliver 4 pallets. Expected unload start time is 16
+Vehicle SP4 travels from 5 to 3 to deliver 1 pallets. Expected unload start time is 23.622788445
+Vehicle SP4 travels from 7 to 4 to deliver 10 pallets. Expected unload start time is 14.205328627
+Vehicle SP4 travels from 8 to 5 to deliver 10 pallets. Expected unload start time is 21.44769165
+Vehicle SP4 travels from 11 to 8 to deliver 2 pallets. Expected unload start time is 21
+Vehicle SP5 travels from Depot to 2 to deliver 9 pallets. Expected unload start time is 18
+Vehicle SP5 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 19.569645965
+Objective value: 1200.660510133
+Solve time: 27298</t>
+  </si>
+  <si>
+    <t>{"0": [[[2, 9]]], "1": [[[3, 6], [9, 10], [12, 3], [1, 4], [10, 4], [6, 3]], [[7, 2], [4, 10], [11, 4], [8, 2], [5, 10], [3, 1]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 7], [2, 9]]], "1": [[[7, 2], [4, 10], [11, 4], [8, 2], [5, 10]], [[9, 10], [12, 3], [1, 4], [10, 4], [6, 3]]], "2": [[]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+3 (7) -&gt; 2 (9)
+11 metre (capacity 30):
+7 (2) -&gt; 4 (10) -&gt; 11 (4) -&gt; 8 (2) -&gt; 5 (10)
+9 (10) -&gt; 12 (3) -&gt; 1 (4) -&gt; 10 (4) -&gt; 6 (3)
 8 metre (capacity 22):
-Rigid (capacity 16):
-1 (9)
 </t>
   </si>
   <si>
@@ -2758,56 +2758,57 @@
   </si>
   <si>
     <t>Input:
-Customer 1 has 4 pallets demand and window 0-24 at (-29.236009491, 13.763775838) and average unload time 0.028283481
-Customer 2 has 4 pallets demand and window 0-24 at (70.149307077, 13.79415784) and average unload time 0.071559976
-Customer 3 has 1 pallets demand and window 0-24 at (-42.049988492, -84.896454508) and average unload time 0.102735431
-Customer 4 has 11 pallets demand and window 0-24 at (47.755556562, -11.732306242) and average unload time 0.096625309
-Customer 5 has 9 pallets demand and window 0-24 at (91.110804245, -45.197705153) and average unload time 0.137938956
-Customer 6 has 9 pallets demand and window 12-13 at (-57.200885301, -12.54838386) and average unload time 0.028373223
-Customer 7 has 4 pallets demand and window 0-24 at (78.032734314, 40.08765245) and average unload time 0.166425632
-Customer 8 has 3 pallets demand and window 14-15 at (-78.467693829, -20.077883184) and average unload time 0.08331469
-Customer 9 has 9 pallets demand and window 0-24 at (-68.401786042, 4.948386826) and average unload time 0.077273626
-Customer 10 has 6 pallets demand and window 0-24 at (72.527057688, -0.556721134) and average unload time 0.02137963
-Customer 11 has 11 pallets demand and window 0-24 at (83.57894321, 10.511544341) and average unload time 0.094713115
-Customer 12 has 2 pallets demand and window 0-24 at (-42.817211399, -51.000071044) and average unload time 0.020278036
-Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.389215585, and time cost 8.60907932
-Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.285845201, and time cost 7.081749349
-Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.285845201, and time cost 7.081749349
-Vehicle SP4 is a Rigid with capacity 16, distance cost 1.088041369, and time cost 14.33111071
-Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.285845201, and time cost 7.081749349
+Customer 1 has 7 pallets demand and window 23-24 at (-52.269798055, -33.240903212) and average unload time 0.139865703
+Customer 2 has 4 pallets demand and window 0-24 at (-82.188117447, -7.400977625) and average unload time 0.069437073
+Customer 3 has 4 pallets demand and window 0-24 at (45.716154945, 79.253655916) and average unload time 0.045499622
+Customer 4 has 8 pallets demand and window 0-24 at (-9.883483185, 78.821464069) and average unload time 0.15001443
+Customer 5 has 3 pallets demand and window 0-24 at (73.933625949, 5.680527656) and average unload time 0.122329764
+Customer 6 has 8 pallets demand and window 7-8 at (43.787397277, 57.208244002) and average unload time 0.060305318
+Customer 7 has 7 pallets demand and window 0-24 at (4.289413612, 62.371038369) and average unload time 0.021938111
+Customer 8 has 2 pallets demand and window 0-24 at (-65.371807794, -80.178242986) and average unload time 0.0608005
+Customer 9 has 8 pallets demand and window 0-24 at (-10.750559365, -92.766249858) and average unload time 0.025774195
+Customer 10 has 2 pallets demand and window 0-24 at (54.734128261, -31.68997894) and average unload time 0.128488049
+Customer 11 has 7 pallets demand and window 18-19 at (39.642068702, -20.669627808) and average unload time 0.056990063
+Customer 12 has 5 pallets demand and window 0-24 at (-21.132596777, -72.007643948) and average unload time 0.05230802
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.713175233, and time cost 12.919402679
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.016961319, and time cost 12.027955648
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.016961319, and time cost 12.027955648
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 1.193626358, and time cost 7.153446829
+Vehicle SP5 is a Rigid with capacity 16, distance cost 0.713175233, and time cost 12.919402679
 Output:
-Vehicle SP2 travels from Depot to 7 to deliver 4 pallets. Expected unload start time is 1.096594692
-Vehicle SP2 travels from 2 to 11 to deliver 11 pallets. Expected unload start time is 2.564473233
-Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.367630083
-Vehicle SP2 travels from 7 to 2 to deliver 4 pallets. Expected unload start time is 2.105420806
-Vehicle SP2 travels from 10 to 4 to deliver 5 pallets. Expected unload start time is 4.269808466
-Vehicle SP2 travels from 11 to 10 to deliver 6 pallets. Expected unload start time is 3.801833905
-Vehicle SP4 travels from Depot to 5 to deliver 9 pallets. Expected unload start time is 0.732013833
-Vehicle SP4 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.8525201
-Vehicle SP4 travels from 5 to 4 to deliver 6 pallets. Expected unload start time is 2.658073174
-Vehicle SP5 travels from Depot to 1 to deliver 4 pallets. Expected unload start time is 11.429896998
-Vehicle SP5 travels from 1 to 9 to deliver 9 pallets. Expected unload start time is 12.04485091
-Vehicle SP5 travels from 3 to 12 to deliver 2 pallets. Expected unload start time is 15.70584881
-Vehicle SP5 travels from 6 to 8 to deliver 3 pallets. Expected unload start time is 13.999999997
-Vehicle SP5 travels from 8 to 3 to deliver 1 pallets. Expected unload start time is 15.179300064
-Vehicle SP5 travels from 9 to 6 to deliver 9 pallets. Expected unload start time is 13.000000001
-Vehicle SP5 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.578788585
-Objective value: 1014.184533394
-Solve time: 3916742</t>
-  </si>
-  <si>
-    <t>{"0": [], "1": [[[7, 4], [2, 4], [11, 11], [10, 6], [4, 5]], [[1, 4], [9, 9], [6, 9], [8, 3], [3, 1], [12, 2]]], "2": [[[5, 9], [4, 6]]]}</t>
-  </si>
-  <si>
-    <t>{"0": [[]], "1": [[[1, 4], [9, 9], [6, 9], [8, 3], [3, 1], [12, 2]], [[10, 6], [11, 11], [2, 4], [7, 4]], [[5, 9], [4, 11]]], "2": [[]]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 metre (capacity 22):
+Vehicle SP1 travels from Depot to 8 to deliver 2 pallets. Expected unload start time is 1.293132335
+Vehicle SP1 travels from 8 to 9 to deliver 8 pallets. Expected unload start time is 2.115395822
+Vehicle SP1 travels from 9 to 12 to deliver 5 pallets. Expected unload start time is 2.61171501
+Vehicle SP1 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.811312228
+Vehicle SP3 travels from Depot to 11 to deliver 7 pallets. Expected unload start time is 18
+Vehicle SP3 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 20.70855718
+Vehicle SP3 travels from 10 to 5 to deliver 3 pallets. Expected unload start time is 19.41467376
+Vehicle SP3 travels from 11 to 10 to deliver 2 pallets. Expected unload start time is 18.632522769
+Vehicle SP4 travels from Depot to 6 to deliver 8 pallets. Expected unload start time is 7
+Vehicle SP4 travels from 3 to 4 to deliver 8 pallets. Expected unload start time is 8.636077814
+Vehicle SP4 travels from 4 to 7 to deliver 7 pallets. Expected unload start time is 10.107615296
+Vehicle SP4 travels from 6 to 3 to deliver 4 pallets. Expected unload start time is 7.759062853
+Vehicle SP4 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.042661586
+Vehicle SP5 travels from Depot to 2 to deliver 4 pallets. Expected unload start time is 22.228097194
+Vehicle SP5 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.753362976
+Vehicle SP5 travels from 2 to 1 to deliver 7 pallets. Expected unload start time is 23
+Objective value: 946.822108155
+Solve time: 664615</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 2], [9, 8], [12, 5]], [[2, 4], [1, 7]]], "1": [[[11, 7], [10, 2], [5, 3]]], "2": [[[6, 8], [3, 4], [4, 8], [7, 7]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[12, 5], [9, 8], [8, 2]], [[2, 4], [1, 7]]], "1": [[[11, 7], [10, 2], [5, 3]]], "2": [[[7, 7], [4, 8], [3, 4], [6, 8]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+12 (5) -&gt; 9 (8) -&gt; 8 (2)
+2 (4) -&gt; 1 (7)
+8 metre (capacity 22):
+11 (7) -&gt; 10 (2) -&gt; 5 (3)
 11 metre (capacity 30):
-1 (4) -&gt; 9 (9) -&gt; 6 (9) -&gt; 8 (3) -&gt; 3 (1) -&gt; 12 (2)
-10 (6) -&gt; 11 (11) -&gt; 2 (4) -&gt; 7 (4)
-5 (9) -&gt; 4 (11)
-Rigid (capacity 16):
+7 (7) -&gt; 4 (8) -&gt; 3 (4) -&gt; 6 (8)
 </t>
   </si>
   <si>
@@ -5689,6 +5690,266 @@
 41-C (39)
 </t>
   </si>
+  <si>
+    <t>{"0": [[[131, 16]], [[154, 14]]], "1": [[[2, 12], [119, 10]], [[80, 20]], [[24, 8], [25, 14]], [[27, 22]], [[207, 21]], [[72, 22]], [[144, 12], [16, 10]], [[159, 19]]], "2": [[[156, 15], [66, 15]], [[208, 30]], [[152, 15], [108, 11]], [[117, 7], [197, 14], [125, 9]], [[46, 20], [168, 9]], [[149, 19], [77, 9], [111, 2]], [[79, 30]], [[35, 30]], [[77, 30]], [[3, 8], [157, 22]], [[172, 30]], [[40, 30]], [[194, 27]], [[100, 30]], [[176, 30]], [[121, 30]], [[120, 23], [198, 5]], [[75, 19], [101, 5]], [[188, 22], [39, 1], [91, 6], [199, 1]], [[187, 7], [116, 10], [203, 1], [177, 11]], [[41, 30]], [[104, 30]], [[166, 6], [17, 24]], [[193, 19], [19, 11]], [[44, 30]], [[151, 25]], [[6, 23]], [[9, 15], [97, 13]], [[149, 30]], [[153, 30]], [[186, 9], [8, 16]], [[143, 29]], [[28, 2], [95, 10], [126, 14], [164, 4]], [[34, 14], [121, 1], [182, 15]], [[130, 22], [173, 7]]], "3": [[[53, 12], [196, 8], [135, 15], [48, 5]], [[83, 40]], [[81, 36]], [[148, 3], [165, 34]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+131-P (16)
+154-S (14)
+8 Metre (capacity 22):
+2-A (12) -&gt; 119-O (10)
+80-H (20)
+24-B (8) -&gt; 25-C (14)
+27-C (22)
+207-Y (21)
+72-G (22)
+144-Q (12) -&gt; 16-B (10)
+159-S (19)
+11 Metre (capacity 30):
+156-S (15) -&gt; 66-G (15)
+208-Z (30)
+152-R (15) -&gt; 108-M (11)
+117-N (7) -&gt; 197-W (14) -&gt; 125-P (9)
+46-D (20) -&gt; 168-S (9)
+149-R (19) -&gt; 77-H (9) -&gt; 111-M (2)
+79-H (30)
+35-C (30)
+77-H (30)
+3-A (8) -&gt; 157-S (22)
+172-S (30)
+40-C (30)
+194-V (27)
+100-L (30)
+176-T (30)
+121-O (30)
+120-O (23) -&gt; 198-W (5)
+75-H (19) -&gt; 101-L (5)
+188-V (22) -&gt; 39-C (1) -&gt; 91-K (6) -&gt; 199-W (1)
+187-V (7) -&gt; 116-N (10) -&gt; 203-W (1) -&gt; 177-T (11)
+41-C (30)
+104-M (30)
+166-S (6) -&gt; 17-B (24)
+193-V (19) -&gt; 19-B (11)
+44-D (30)
+151-R (25)
+6-B (23)
+9-B (15) -&gt; 97-K (13)
+149-R (30)
+153-S (30)
+186-V (9) -&gt; 8-B (16)
+143-P (29)
+28-C (2) -&gt; 95-K (10) -&gt; 126-P (14) -&gt; 164-S (4)
+34-C (14) -&gt; 121-O (1) -&gt; 182-U (15)
+130-P (22) -&gt; 173-T (7)
+Link (capacity 40):
+53-E (12) -&gt; 196-W (8) -&gt; 135-P (15) -&gt; 48-D (5)
+83-H (40)
+81-H (36)
+148-R (3) -&gt; 165-S (34)
+</t>
+  </si>
+  <si>
+    <t>Verification bugfixing</t>
+  </si>
+  <si>
+    <t>{"0": [[[188, 15], [39, 1]], [[87, 1], [57, 13], [155, 1], [62, 1]]], "1": [[[186, 15]], [[192, 22]], [[70, 7], [154, 15]], [[207, 20], [171, 2]], [[38, 22]], [[63, 16]], [[82, 22]], [[151, 15]]], "2": [[[123, 2], [198, 6], [68, 10], [1, 3], [93, 9]], [[29, 29], [112, 1]], [[134, 10], [120, 17]], [[2, 14], [119, 12]], [[208, 24]], [[8, 30]], [[37, 10], [9, 10], [48, 5]], [[88, 22], [74, 5]], [[100, 30]], [[81, 2], [49, 24]], [[172, 30]], [[121, 6], [157, 24]], [[143, 5], [197, 25]], [[8, 4], [17, 15], [164, 1], [132, 10]], [[59, 28]], [[34, 16], [108, 9]], [[194, 30]], [[55, 30]], [[33, 30]], [[19, 6], [75, 6], [101, 10], [97, 7]], [[165, 30]], [[148, 6], [149, 24]], [[150, 8], [172, 20]], [[153, 14], [98, 16]], [[92, 30]], [[200, 15], [18, 15]], [[153, 30]], [[97, 30]], [[4, 25]], [[96, 16], [42, 12]], [[182, 6], [95, 15], [28, 6]], [[163, 17], [196, 13]], [[6, 14], [194, 8], [187, 8]], [[15, 28]], [[46, 16], [91, 13]], [[104, 30]], [[4, 16], [33, 9]], [[152, 4], [159, 24]], [[81, 30]], [[53, 13], [135, 5], [131, 12]], [[32, 27]], [[40, 30]], [[149, 30]], [[44, 30]], [[140, 30]], [[191, 2], [176, 16], [209, 9]], [[16, 30]], [[24, 25], [25, 4]], [[72, 30]], [[174, 5], [110, 19], [104, 6]], [[3, 27]], [[199, 10], [156, 11], [168, 9]], [[25, 30]], [[139, 15], [40, 15]], [[125, 14], [117, 6], [126, 10]]], "3": [[[94, 5], [83, 31]], [[41, 36]], [[193, 4], [35, 35]], [[66, 35]], [[144, 3], [79, 37]], [[77, 37]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+188-V (15) -&gt; 39-C (1)
+87-K (1) -&gt; 57-F (13) -&gt; 155-S (1) -&gt; 62-G (1)
+8 Metre (capacity 22):
+186-V (15)
+192-V (22)
+70-G (7) -&gt; 154-S (15)
+207-Y (20) -&gt; 171-S (2)
+38-C (22)
+63-G (16)
+82-H (22)
+151-R (15)
+11 Metre (capacity 30):
+123-O (2) -&gt; 198-W (6) -&gt; 68-G (10) -&gt; 1-A (3) -&gt; 93-K (9)
+29-C (29) -&gt; 112-M (1)
+134-P (10) -&gt; 120-O (17)
+2-A (14) -&gt; 119-O (12)
+208-Z (24)
+8-B (30)
+37-C (10) -&gt; 9-B (10) -&gt; 48-D (5)
+88-K (22) -&gt; 74-G (5)
+100-L (30)
+81-H (2) -&gt; 49-D (24)
+172-S (30)
+121-O (6) -&gt; 157-S (24)
+143-P (5) -&gt; 197-W (25)
+8-B (4) -&gt; 17-B (15) -&gt; 164-S (1) -&gt; 132-P (10)
+59-G (28)
+34-C (16) -&gt; 108-M (9)
+194-V (30)
+55-E (30)
+33-C (30)
+19-B (6) -&gt; 75-H (6) -&gt; 101-L (10) -&gt; 97-K (7)
+165-S (30)
+148-R (6) -&gt; 149-R (24)
+150-R (8) -&gt; 172-S (20)
+153-S (14) -&gt; 98-L (16)
+92-K (30)
+200-W (15) -&gt; 18-B (15)
+153-S (30)
+97-K (30)
+4-A (25)
+96-K (16) -&gt; 42-C (12)
+182-U (6) -&gt; 95-K (15) -&gt; 28-C (6)
+163-S (17) -&gt; 196-W (13)
+6-B (14) -&gt; 194-V (8) -&gt; 187-V (8)
+15-B (28)
+46-D (16) -&gt; 91-K (13)
+104-M (30)
+4-A (16) -&gt; 33-C (9)
+152-R (4) -&gt; 159-S (24)
+81-H (30)
+53-E (13) -&gt; 135-P (5) -&gt; 131-P (12)
+32-C (27)
+40-C (30)
+149-R (30)
+44-D (30)
+140-P (30)
+191-V (2) -&gt; 176-T (16) -&gt; 209-Z (9)
+16-B (30)
+24-B (25) -&gt; 25-C (4)
+72-G (30)
+174-T (5) -&gt; 110-M (19) -&gt; 104-M (6)
+3-A (27)
+199-W (10) -&gt; 156-S (11) -&gt; 168-S (9)
+25-C (30)
+139-P (15) -&gt; 40-C (15)
+125-P (14) -&gt; 117-N (6) -&gt; 126-P (10)
+Link (capacity 40):
+94-K (5) -&gt; 83-H (31)
+41-C (36)
+193-V (4) -&gt; 35-C (35)
+66-G (35)
+144-Q (3) -&gt; 79-H (37)
+77-H (37)
+</t>
+  </si>
+  <si>
+    <t>{"0": [[[186, 8]], [[45, 13], [11, 3]], [[29, 16]], [[100, 15]]], "1": [[[130, 19]], [[207, 22]], [[76, 20], [61, 2]], [[134, 21]], [[185, 22]], [[172, 20]], [[29, 22]], [[89, 22]]], "2": [[[125, 14], [132, 15]], [[101, 21], [195, 1]], [[91, 22], [81, 5], [112, 2]], [[135, 30]], [[69, 30]], [[85, 30]], [[143, 30]], [[198, 13]], [[176, 8], [35, 21]], [[93, 10], [151, 18]], [[152, 4], [104, 26]], [[156, 30]], [[98, 30]], [[84, 30]], [[1, 11], [72, 15]], [[131, 7], [95, 18]], [[17, 16], [19, 14]], [[9, 11], [8, 5], [33, 10]], [[69, 30]], [[97, 29]], [[46, 24], [39, 5]], [[96, 29]], [[188, 26]], [[182, 17], [118, 9], [143, 3]], [[28, 28]], [[22, 13], [58, 15]], [[29, 30]], [[49, 30]], [[91, 28]], [[56, 11], [66, 19]], [[90, 16], [200, 13]], [[15, 30]], [[17, 30]], [[150, 30]], [[18, 24]], [[1, 30]], [[68, 8], [193, 19], [75, 3]], [[40, 30]], [[186, 30]], [[139, 30]], [[83, 30]], [[158, 30]], [[95, 30]], [[92, 30]], [[69, 22], [50, 2], [78, 6]], [[12, 1], [57, 21], [113, 4]], [[72, 30]], [[13, 16], [173, 13]], [[53, 27]], [[175, 23], [206, 7]], [[156, 7], [80, 16]], [[87, 2], [155, 1], [94, 6], [102, 4], [62, 13]], [[24, 9], [150, 19]], [[40, 22], [110, 7], [60, 1]], [[12, 30]], [[121, 29]], [[168, 24], [7, 4]], [[51, 16], [171, 5], [120, 9]], [[174, 14], [104, 16]], [[191, 4], [157, 26]], [[124, 30]], [[128, 17], [48, 10]], [[20, 30]], [[105, 5], [166, 4], [115, 7], [164, 2], [47, 12]], [[205, 9], [144, 21]], [[69, 30]], [[59, 11], [92, 16]], [[109, 28], [106, 1]], [[25, 7], [111, 16], [149, 7]], [[20, 18], [116, 5]], [[111, 24], [165, 4]], [[147, 7], [85, 23]], [[109, 30]], [[178, 28]], [[149, 30]], [[99, 30]], [[142, 26]], [[158, 5], [84, 22]], [[85, 30]], [[15, 26]], [[151, 30]], [[3, 30]], [[2, 10], [119, 12], [83, 8]], [[208, 30]], [[22, 30]], [[59, 30]], [[135, 2], [197, 11], [117, 2], [126, 14]], [[163, 18], [208, 11]], [[26, 20], [99, 10]], [[201, 30]]], "3": [[[42, 1], [153, 33]], [[23, 40]], [[154, 31]], [[10, 40]], [[41, 39]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+186-V (8)
+45-D (13) -&gt; 11-B (3)
+29-C (16)
+100-L (15)
+8 Metre (capacity 22):
+130-P (19)
+207-Y (22)
+76-H (20) -&gt; 61-G (2)
+134-P (21)
+185-V (22)
+172-S (20)
+29-C (22)
+89-K (22)
+11 Metre (capacity 30):
+125-P (14) -&gt; 132-P (15)
+101-L (21) -&gt; 195-W (1)
+91-K (22) -&gt; 81-H (5) -&gt; 112-M (2)
+135-P (30)
+69-G (30)
+85-K (30)
+143-P (30)
+198-W (13)
+176-T (8) -&gt; 35-C (21)
+93-K (10) -&gt; 151-R (18)
+152-R (4) -&gt; 104-M (26)
+156-S (30)
+98-L (30)
+84-K (30)
+1-A (11) -&gt; 72-G (15)
+131-P (7) -&gt; 95-K (18)
+17-B (16) -&gt; 19-B (14)
+9-B (11) -&gt; 8-B (5) -&gt; 33-C (10)
+69-G (30)
+97-K (29)
+46-D (24) -&gt; 39-C (5)
+96-K (29)
+188-V (26)
+182-U (17) -&gt; 118-N (9) -&gt; 143-P (3)
+28-C (28)
+22-B (13) -&gt; 58-G (15)
+29-C (30)
+49-D (30)
+91-K (28)
+56-F (11) -&gt; 66-G (19)
+90-K (16) -&gt; 200-W (13)
+15-B (30)
+17-B (30)
+150-R (30)
+18-B (24)
+1-A (30)
+68-G (8) -&gt; 193-V (19) -&gt; 75-H (3)
+40-C (30)
+186-V (30)
+139-P (30)
+83-H (30)
+158-S (30)
+95-K (30)
+92-K (30)
+69-G (22) -&gt; 50-D (2) -&gt; 78-H (6)
+12-B (1) -&gt; 57-F (21) -&gt; 113-M (4)
+72-G (30)
+13-B (16) -&gt; 173-T (13)
+53-E (27)
+175-T (23) -&gt; 206-W (7)
+156-S (7) -&gt; 80-H (16)
+87-K (2) -&gt; 155-S (1) -&gt; 94-K (6) -&gt; 102-L (4) -&gt; 62-G (13)
+24-B (9) -&gt; 150-R (19)
+40-C (22) -&gt; 110-M (7) -&gt; 60-G (1)
+12-B (30)
+121-O (29)
+168-S (24) -&gt; 7-B (4)
+51-D (16) -&gt; 171-S (5) -&gt; 120-O (9)
+174-T (14) -&gt; 104-M (16)
+191-V (4) -&gt; 157-S (26)
+124-O (30)
+128-P (17) -&gt; 48-D (10)
+20-B (30)
+105-M (5) -&gt; 166-S (4) -&gt; 115-N (7) -&gt; 164-S (2) -&gt; 47-D (12)
+205-W (9) -&gt; 144-Q (21)
+69-G (30)
+59-G (11) -&gt; 92-K (16)
+109-M (28) -&gt; 106-M (1)
+25-C (7) -&gt; 111-M (16) -&gt; 149-R (7)
+20-B (18) -&gt; 116-N (5)
+111-M (24) -&gt; 165-S (4)
+147-R (7) -&gt; 85-K (23)
+109-M (30)
+178-T (28)
+149-R (30)
+99-L (30)
+142-P (26)
+158-S (5) -&gt; 84-K (22)
+85-K (30)
+15-B (26)
+151-R (30)
+3-A (30)
+2-A (10) -&gt; 119-O (12) -&gt; 83-H (8)
+208-Z (30)
+22-B (30)
+59-G (30)
+135-P (2) -&gt; 197-W (11) -&gt; 117-N (2) -&gt; 126-P (14)
+163-S (18) -&gt; 208-Z (11)
+26-C (20) -&gt; 99-L (10)
+201-W (30)
+Link (capacity 40):
+42-C (1) -&gt; 153-S (33)
+23-B (40)
+154-S (31)
+10-B (40)
+41-C (39)
+</t>
+  </si>
 </sst>
 </file>
 
@@ -5781,7 +6042,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5804,6 +6065,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6045,7 +6309,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:f>Graphs!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6071,10 +6335,10 @@
                   <c:v>0.7198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.722100000000001</c:v>
+                  <c:v>19.285599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.28110000000001</c:v>
+                  <c:v>107.7097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6082,7 +6346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A923-4818-B849-418845B6329B}"/>
+              <c16:uniqueId val="{00000000-93D7-40FE-BD33-8CE1FA38F877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6118,7 +6382,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:f>Graphs!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6144,10 +6408,10 @@
                   <c:v>2.2959000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.30619999999999</c:v>
+                  <c:v>88.390999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1041.7547999999999</c:v>
+                  <c:v>1183.671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6155,7 +6419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A923-4818-B849-418845B6329B}"/>
+              <c16:uniqueId val="{00000001-93D7-40FE-BD33-8CE1FA38F877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6359,7 +6623,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.1219414360208584"/>
           <c:y val="6.8615484813373873E-2"/>
-          <c:w val="0.10727844142255449"/>
+          <c:w val="0.12640050371800005"/>
           <c:h val="0.1107563601935707"/>
         </c:manualLayout>
       </c:layout>
@@ -6396,6 +6660,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -6482,10 +6751,10 @@
                   <c:v>169.40622469000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>279.14496061</c:v>
+                  <c:v>257.40850343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>362.14479675000007</c:v>
+                  <c:v>366.95077983000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,7 +6762,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C7A7-4C97-B6BC-A6472D1B793E}"/>
+              <c16:uniqueId val="{00000000-3F8E-432D-B841-6EEBF611E25F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6555,10 +6824,10 @@
                   <c:v>192.57580280000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>318.03024214000004</c:v>
+                  <c:v>317.59357763000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.04565878000005</c:v>
+                  <c:v>482.48021997000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6566,7 +6835,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C7A7-4C97-B6BC-A6472D1B793E}"/>
+              <c16:uniqueId val="{00000001-3F8E-432D-B841-6EEBF611E25F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6893,10 +7162,10 @@
                   <c:v>4.973E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6660000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8919999999999996E-3</c:v>
+                  <c:v>5.2960000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6904,7 +7173,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B402-456B-A0FD-50C716847161}"/>
+              <c16:uniqueId val="{00000000-14A8-435B-AB2D-B85ACF904040}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6966,10 +7235,10 @@
                   <c:v>2.5399999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4520000000000012E-3</c:v>
+                  <c:v>6.3109999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3189999999999992E-3</c:v>
+                  <c:v>1.4512000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6977,7 +7246,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B402-456B-A0FD-50C716847161}"/>
+              <c16:uniqueId val="{00000001-14A8-435B-AB2D-B85ACF904040}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7291,17 +7560,17 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63B5-4501-B08D-FE08D068AD32}"/>
+              <c16:uniqueId val="{00000000-1E63-41F3-BF08-C31C9FF52628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7350,17 +7619,17 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63B5-4501-B08D-FE08D068AD32}"/>
+              <c16:uniqueId val="{00000001-1E63-41F3-BF08-C31C9FF52628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7691,7 +7960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CCDD-430E-92A3-48DE728C1305}"/>
+              <c16:uniqueId val="{00000000-C8E6-4ABA-BF9C-402C4FEF2E9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7758,7 +8027,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CCDD-430E-92A3-48DE728C1305}"/>
+              <c16:uniqueId val="{00000001-C8E6-4ABA-BF9C-402C4FEF2E9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8030,7 +8299,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>3 Vehicles</c:v>
+            <c:v>3 Vehicles (metaheuristic)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8058,7 +8327,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:f>Graphs!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8084,10 +8353,10 @@
                   <c:v>169.40622469000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>279.14496061</c:v>
+                  <c:v>257.40850343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>362.14479675000007</c:v>
+                  <c:v>366.95077983000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8095,7 +8364,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-666A-4F6B-89AE-74161D4185EA}"/>
+              <c16:uniqueId val="{00000000-87DE-4343-A747-7CD502CBD5A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8103,7 +8372,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>5 Vehicles</c:v>
+            <c:v>5 Vehicles (metaheuristic)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8131,7 +8400,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
+              <c:f>Graphs!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8157,10 +8426,10 @@
                   <c:v>192.57580280000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>318.03024214000004</c:v>
+                  <c:v>317.59357763000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.04565878000005</c:v>
+                  <c:v>482.48021997000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8168,7 +8437,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-666A-4F6B-89AE-74161D4185EA}"/>
+              <c16:uniqueId val="{00000001-87DE-4343-A747-7CD502CBD5A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8176,7 +8445,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3 Vehicles</c:v>
+            <c:v>3 Vehicles (exact)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -8187,8 +8456,6 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -8197,10 +8464,27 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Graphs!$C$2:$C$4</c:f>
@@ -8211,10 +8495,10 @@
                   <c:v>0.7198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.722100000000001</c:v>
+                  <c:v>19.285599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.28110000000001</c:v>
+                  <c:v>107.7097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8222,7 +8506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-666A-4F6B-89AE-74161D4185EA}"/>
+              <c16:uniqueId val="{00000001-A1DF-4766-BC53-DE15DA30A4CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8230,7 +8514,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>5 Vehicles</c:v>
+            <c:v>5 vehicles (exact)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -8251,10 +8535,27 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Graphs!$C$5:$C$7</c:f>
@@ -8265,10 +8566,10 @@
                   <c:v>2.2959000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.30619999999999</c:v>
+                  <c:v>88.390999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1041.7547999999999</c:v>
+                  <c:v>1183.671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8276,7 +8577,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-666A-4F6B-89AE-74161D4185EA}"/>
+              <c16:uniqueId val="{00000002-A1DF-4766-BC53-DE15DA30A4CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8474,22 +8775,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1283594063377457"/>
           <c:y val="8.4210024808825709E-2"/>
-          <c:w val="0.1072526223030786"/>
-          <c:h val="0.1052638817192207"/>
+          <c:w val="0.22598507316549329"/>
+          <c:h val="0.18635548969557"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -8525,6 +8818,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9051,10 +9349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9154,7 +9452,7 @@
       </c>
       <c r="C3">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C3)-2)*10,0,10,1))</f>
-        <v>19.722100000000001</v>
+        <v>19.285599999999999</v>
       </c>
       <c r="D3">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D3)-2)*10,0,10,1))</f>
@@ -9166,23 +9464,23 @@
       </c>
       <c r="F3">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F3)-2)*10,0,10,1))</f>
-        <v>51.045625720634582</v>
+        <v>51.203772541570494</v>
       </c>
       <c r="G3" s="11">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G3)-2)*10,0,10,1))</f>
-        <v>-3.5979999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H3)-2)*10,0,10,1))</f>
-        <v>279.14496061</v>
+        <v>257.40850343</v>
       </c>
       <c r="I3" s="2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I3)-2)*10,0,10,1))</f>
-        <v>6.6660000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J3)-2)*10,0,10,1), "=0")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -9197,7 +9495,7 @@
       </c>
       <c r="C4">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C4)-2)*10,0,10,1))</f>
-        <v>110.28110000000001</v>
+        <v>107.7097</v>
       </c>
       <c r="D4">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D4)-2)*10,0,10,1))</f>
@@ -9209,7 +9507,7 @@
       </c>
       <c r="F4">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F4)-2)*10,0,10,1))</f>
-        <v>200.18126742555108</v>
+        <v>201.3179288378625</v>
       </c>
       <c r="G4" s="11">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G4)-2)*10,0,10,1))</f>
@@ -9217,15 +9515,15 @@
       </c>
       <c r="H4" s="6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H4)-2)*10,0,10,1))</f>
-        <v>362.14479675000007</v>
+        <v>366.95077983000004</v>
       </c>
       <c r="I4" s="2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I4)-2)*10,0,10,1))</f>
-        <v>4.8919999999999996E-3</v>
+        <v>5.2960000000000004E-3</v>
       </c>
       <c r="J4" s="4">
         <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J4)-2)*10,0,10,1), "=0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -9283,11 +9581,11 @@
       </c>
       <c r="C6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C6)-2)*10,0,10,1))</f>
-        <v>61.30619999999999</v>
+        <v>88.390999999999991</v>
       </c>
       <c r="D6">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D6)-2)*10,0,10,1))</f>
-        <v>4.4930000000000003</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="E6">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E6)-2)*10,0,10,1))</f>
@@ -9295,23 +9593,23 @@
       </c>
       <c r="F6">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F6)-2)*10,0,10,1))</f>
-        <v>102.66046986146995</v>
+        <v>96.353659111744278</v>
       </c>
       <c r="G6" s="11">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G6)-2)*10,0,10,1))</f>
-        <v>2.3530000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H6)-2)*10,0,10,1))</f>
-        <v>318.03024214000004</v>
+        <v>317.59357763000003</v>
       </c>
       <c r="I6" s="2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I6)-2)*10,0,10,1))</f>
-        <v>8.4520000000000012E-3</v>
+        <v>6.3109999999999998E-3</v>
       </c>
       <c r="J6" s="4">
         <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J6)-2)*10,0,10,1), "=0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -9326,37 +9624,47 @@
       </c>
       <c r="C7">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C7)-2)*10,0,10,1))</f>
-        <v>1041.7547999999999</v>
+        <v>1183.671</v>
       </c>
       <c r="D7">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D7)-2)*10,0,10,1))</f>
-        <v>100.54300000000001</v>
+        <v>27.297999999999998</v>
       </c>
       <c r="E7">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E7)-2)*10,0,10,1))</f>
-        <v>3916.7420000000002</v>
+        <v>6655.433</v>
       </c>
       <c r="F7">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F7)-2)*10,0,10,1))</f>
-        <v>1293.5114079623902</v>
+        <v>2007.1365519853291</v>
       </c>
       <c r="G7" s="11">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G7)-2)*10,0,10,1))</f>
-        <v>2.5300000000000002E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H7)-2)*10,0,10,1))</f>
-        <v>451.04565878000005</v>
+        <v>482.48021997000006</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I7)-2)*10,0,10,1))</f>
-        <v>9.3189999999999992E-3</v>
+        <v>1.4512000000000001E-2</v>
       </c>
       <c r="J7" s="4">
         <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J7)-2)*10,0,10,1), "=0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="17">
+        <f ca="1">AVERAGE(I2:I7)</f>
+        <v>5.6053333333333337E-3</v>
+      </c>
+      <c r="J8" s="18">
+        <f ca="1">SUM(J2:J7)</f>
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I7">
@@ -9381,11 +9689,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U49" sqref="U49"/>
+      <selection pane="bottomRight" activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9505,10 +9813,10 @@
       <c r="G2">
         <v>638.45133799799999</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="20"/>
       <c r="J2" t="s">
         <v>30</v>
       </c>
@@ -9574,10 +9882,10 @@
       <c r="G3">
         <v>813.05868798699998</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>34</v>
       </c>
@@ -9643,10 +9951,10 @@
       <c r="G4">
         <v>779.19382424699995</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="20"/>
       <c r="J4" t="s">
         <v>37</v>
       </c>
@@ -9712,10 +10020,10 @@
       <c r="G5">
         <v>872.84085373899995</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="20"/>
       <c r="J5" t="s">
         <v>41</v>
       </c>
@@ -9781,10 +10089,10 @@
       <c r="G6">
         <v>532.04180500099994</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="20"/>
       <c r="J6" t="s">
         <v>44</v>
       </c>
@@ -9850,10 +10158,10 @@
       <c r="G7">
         <v>796.51397832700002</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="20"/>
       <c r="J7" t="s">
         <v>48</v>
       </c>
@@ -9919,10 +10227,10 @@
       <c r="G8">
         <v>774.22538047800003</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="20"/>
       <c r="J8" t="s">
         <v>52</v>
       </c>
@@ -9988,10 +10296,10 @@
       <c r="G9">
         <v>743.32143997499998</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="20"/>
       <c r="J9" t="s">
         <v>56</v>
       </c>
@@ -10057,10 +10365,10 @@
       <c r="G10">
         <v>665.371838131</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="20"/>
       <c r="J10" t="s">
         <v>59</v>
       </c>
@@ -10126,10 +10434,10 @@
       <c r="G11">
         <v>653.255284093</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="20"/>
       <c r="J11" t="s">
         <v>63</v>
       </c>
@@ -10183,61 +10491,61 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>7.1633333333333341E-2</v>
+        <v>2.8683333333333335E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>4.298</v>
+        <v>1.7210000000000001</v>
       </c>
       <c r="F12">
-        <v>4298</v>
+        <v>1721</v>
       </c>
       <c r="G12">
-        <v>664.14285726200001</v>
-      </c>
-      <c r="H12" s="16" t="s">
+        <v>1123.6010764160001</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="20"/>
       <c r="J12" t="s">
         <v>67</v>
       </c>
       <c r="K12">
-        <v>654.07084427016457</v>
+        <v>1123.60107632264</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="2"/>
-        <v>-1.5169999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
         <v>68</v>
       </c>
-      <c r="O12" t="s">
-        <v>69</v>
-      </c>
       <c r="P12">
-        <v>267.08934199999999</v>
+        <v>233.18609660000001</v>
       </c>
       <c r="Q12">
-        <v>667.77631695550906</v>
+        <v>1123.60107632264</v>
       </c>
       <c r="R12" s="11">
         <f t="shared" si="3"/>
-        <v>5.47E-3</v>
+        <v>0</v>
       </c>
       <c r="S12" s="12">
         <f t="shared" si="4"/>
-        <v>2.095E-2</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>629.75609217103306</v>
+        <v>1084.641795074084</v>
       </c>
       <c r="V12">
-        <v>629.73693118526569</v>
+        <v>1084.641795074084</v>
       </c>
       <c r="W12" s="12">
         <f t="shared" si="5"/>
-        <v>-3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10264,12 +10572,12 @@
       <c r="G13">
         <v>632.29983854700004</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" t="s">
         <v>70</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" t="s">
-        <v>71</v>
       </c>
       <c r="K13">
         <v>632.29983884052353</v>
@@ -10279,10 +10587,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
         <v>72</v>
-      </c>
-      <c r="O13" t="s">
-        <v>73</v>
       </c>
       <c r="P13">
         <v>218.5622214</v>
@@ -10321,31 +10629,31 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>8.1016666666666667E-2</v>
+        <v>9.5199999999999993E-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>4.8609999999999998</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="F14">
-        <v>4861</v>
+        <v>5712</v>
       </c>
       <c r="G14">
-        <v>934.68082025599995</v>
-      </c>
-      <c r="H14" s="16" t="s">
+        <v>798.34016698599999</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" t="s">
-        <v>75</v>
-      </c>
       <c r="K14">
-        <v>932.29626544004122</v>
+        <v>798.34016712219773</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="2"/>
-        <v>-2.5500000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>75</v>
@@ -10354,24 +10662,24 @@
         <v>76</v>
       </c>
       <c r="P14">
-        <v>314.78079609999998</v>
+        <v>237.53775769999999</v>
       </c>
       <c r="Q14">
-        <v>932.29626544004122</v>
+        <v>798.3401671221975</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" si="3"/>
-        <v>-2.5500000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="S14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <v>875.6021156551393</v>
+        <v>749.92942903079143</v>
       </c>
       <c r="V14">
-        <v>875.6021156551393</v>
+        <v>749.92942903079143</v>
       </c>
       <c r="W14" s="12">
         <f t="shared" si="5"/>
@@ -10402,10 +10710,10 @@
       <c r="G15">
         <v>530.30011891499998</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="20"/>
       <c r="J15" t="s">
         <v>78</v>
       </c>
@@ -10471,10 +10779,10 @@
       <c r="G16">
         <v>795.42602363900005</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="20"/>
       <c r="J16" t="s">
         <v>82</v>
       </c>
@@ -10540,10 +10848,10 @@
       <c r="G17">
         <v>606.838436731</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="20"/>
       <c r="J17" t="s">
         <v>86</v>
       </c>
@@ -10597,31 +10905,31 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>8.1800000000000012E-2</v>
+        <v>4.3450000000000003E-2</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>4.9080000000000004</v>
+        <v>2.6070000000000002</v>
       </c>
       <c r="F18">
-        <v>4908</v>
+        <v>2607</v>
       </c>
       <c r="G18">
-        <v>732.67291848800005</v>
-      </c>
-      <c r="H18" s="16" t="s">
+        <v>711.26690060400006</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="20"/>
       <c r="J18" t="s">
         <v>90</v>
       </c>
       <c r="K18">
-        <v>727.23008190718076</v>
+        <v>711.26690045658347</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="2"/>
-        <v>-7.43E-3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>91</v>
@@ -10630,24 +10938,24 @@
         <v>92</v>
       </c>
       <c r="P18">
-        <v>345.78703669999987</v>
+        <v>213.53107270000001</v>
       </c>
       <c r="Q18">
-        <v>727.23008190718076</v>
+        <v>711.26690045658347</v>
       </c>
       <c r="R18" s="11">
         <f t="shared" si="3"/>
-        <v>-7.43E-3</v>
+        <v>0</v>
       </c>
       <c r="S18" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <v>660.36331417831241</v>
+        <v>699.68508114549331</v>
       </c>
       <c r="V18">
-        <v>660.36331417831241</v>
+        <v>699.68508114549331</v>
       </c>
       <c r="W18" s="12">
         <f t="shared" si="5"/>
@@ -10678,10 +10986,10 @@
       <c r="G19">
         <v>861.015034163</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="20"/>
       <c r="J19" t="s">
         <v>94</v>
       </c>
@@ -10735,31 +11043,31 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>2.5733333333333334E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>1.544</v>
+        <v>1.206</v>
       </c>
       <c r="F20">
-        <v>1544</v>
+        <v>1206</v>
       </c>
       <c r="G20">
-        <v>639.70509373100003</v>
-      </c>
-      <c r="H20" s="16" t="s">
+        <v>687.77890394999997</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="20"/>
       <c r="J20" t="s">
         <v>98</v>
       </c>
       <c r="K20">
-        <v>632.77976912252484</v>
+        <v>687.7789037823643</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="2"/>
-        <v>-1.0829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>99</v>
@@ -10768,28 +11076,28 @@
         <v>100</v>
       </c>
       <c r="P20">
-        <v>267.6718967999999</v>
+        <v>293.70957279999999</v>
       </c>
       <c r="Q20">
-        <v>661.70394819710214</v>
+        <v>687.77890378236418</v>
       </c>
       <c r="R20" s="11">
         <f t="shared" si="3"/>
-        <v>3.4389999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="12">
         <f t="shared" si="4"/>
-        <v>4.5710000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>601.75257731370903</v>
+        <v>638.75133690170469</v>
       </c>
       <c r="V20">
-        <v>623.75143155907062</v>
+        <v>638.7513369017048</v>
       </c>
       <c r="W20" s="12">
         <f t="shared" si="5"/>
-        <v>3.6560000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10816,10 +11124,10 @@
       <c r="G21">
         <v>935.54469035099999</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="20"/>
       <c r="J21" t="s">
         <v>102</v>
       </c>
@@ -10885,10 +11193,10 @@
       <c r="G22">
         <v>665.62882969700001</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="20"/>
       <c r="J22" t="s">
         <v>105</v>
       </c>
@@ -10954,10 +11262,10 @@
       <c r="G23">
         <v>1189.40477706</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="20"/>
       <c r="J23" t="s">
         <v>108</v>
       </c>
@@ -11011,27 +11319,27 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.69978333333333331</v>
+        <v>0.27121666666666666</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>41.987000000000002</v>
+        <v>16.273</v>
       </c>
       <c r="F24">
-        <v>41987</v>
+        <v>16273</v>
       </c>
       <c r="G24">
-        <v>855.51337134400001</v>
-      </c>
-      <c r="H24" s="16" t="s">
+        <v>835.10498818300005</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="20"/>
       <c r="J24" t="s">
         <v>112</v>
       </c>
       <c r="K24">
-        <v>855.51337120827338</v>
+        <v>835.10498817922348</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="2"/>
@@ -11044,28 +11352,28 @@
         <v>114</v>
       </c>
       <c r="P24">
-        <v>356.57864730000011</v>
+        <v>404.63847809999999</v>
       </c>
       <c r="Q24">
-        <v>852.06124415898319</v>
+        <v>835.10498817922348</v>
       </c>
       <c r="R24" s="11">
         <f t="shared" si="3"/>
-        <v>-4.0400000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="S24" s="12">
         <f t="shared" si="4"/>
-        <v>-4.0400000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>798.95691629993144</v>
+        <v>793.08440942253526</v>
       </c>
       <c r="V24">
-        <v>795.50478925064112</v>
+        <v>793.08440942253526</v>
       </c>
       <c r="W24" s="12">
         <f t="shared" si="5"/>
-        <v>-4.3200000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11092,10 +11400,10 @@
       <c r="G25">
         <v>719.80830177400003</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="20"/>
       <c r="J25" t="s">
         <v>116</v>
       </c>
@@ -11161,10 +11469,10 @@
       <c r="G26">
         <v>1078.299811826</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="20"/>
       <c r="J26" t="s">
         <v>120</v>
       </c>
@@ -11230,10 +11538,10 @@
       <c r="G27">
         <v>1077.167439887</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="17"/>
+      <c r="I27" s="20"/>
       <c r="J27" t="s">
         <v>124</v>
       </c>
@@ -11299,10 +11607,10 @@
       <c r="G28">
         <v>1048.3180166340001</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="20"/>
       <c r="J28" t="s">
         <v>128</v>
       </c>
@@ -11368,10 +11676,10 @@
       <c r="G29">
         <v>1136.6677573520001</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="20"/>
       <c r="J29" t="s">
         <v>132</v>
       </c>
@@ -11437,10 +11745,10 @@
       <c r="G30">
         <v>1272.3451047040001</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="20"/>
       <c r="J30" t="s">
         <v>136</v>
       </c>
@@ -11506,10 +11814,10 @@
       <c r="G31">
         <v>734.13697920300001</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="20"/>
       <c r="J31" t="s">
         <v>140</v>
       </c>
@@ -11575,10 +11883,10 @@
       <c r="G32">
         <v>812.25670442800003</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I32" s="17"/>
+      <c r="I32" s="20"/>
       <c r="J32" t="s">
         <v>144</v>
       </c>
@@ -11644,10 +11952,10 @@
       <c r="G33">
         <v>693.06704887700005</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="20"/>
       <c r="J33" t="s">
         <v>148</v>
       </c>
@@ -11713,10 +12021,10 @@
       <c r="G34">
         <v>737.52980437500003</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="20"/>
       <c r="J34" t="s">
         <v>152</v>
       </c>
@@ -11782,10 +12090,10 @@
       <c r="G35">
         <v>656.55878409499996</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="20"/>
       <c r="J35" t="s">
         <v>156</v>
       </c>
@@ -11851,10 +12159,10 @@
       <c r="G36">
         <v>1195.6111446150001</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="20"/>
       <c r="J36" t="s">
         <v>159</v>
       </c>
@@ -11920,10 +12228,10 @@
       <c r="G37">
         <v>889.26550826300002</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="I37" s="17"/>
+      <c r="I37" s="20"/>
       <c r="J37" t="s">
         <v>163</v>
       </c>
@@ -11989,10 +12297,10 @@
       <c r="G38">
         <v>678.14825158600001</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="17"/>
+      <c r="I38" s="20"/>
       <c r="J38" t="s">
         <v>167</v>
       </c>
@@ -12058,10 +12366,10 @@
       <c r="G39">
         <v>938.35254567799996</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="I39" s="17"/>
+      <c r="I39" s="20"/>
       <c r="J39" t="s">
         <v>171</v>
       </c>
@@ -12127,10 +12435,10 @@
       <c r="G40">
         <v>941.62687629200002</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="I40" s="17"/>
+      <c r="I40" s="20"/>
       <c r="J40" t="s">
         <v>175</v>
       </c>
@@ -12196,10 +12504,10 @@
       <c r="G41">
         <v>672.47666342499997</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="17"/>
+      <c r="I41" s="20"/>
       <c r="J41" t="s">
         <v>179</v>
       </c>
@@ -12253,31 +12561,31 @@
       </c>
       <c r="D42">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>1.4969666666666666</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>89.817999999999998</v>
       </c>
       <c r="F42">
-        <v>9000</v>
+        <v>89818</v>
       </c>
       <c r="G42">
-        <v>893.06658320300005</v>
-      </c>
-      <c r="H42" s="16" t="s">
+        <v>873.17427284200005</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I42" s="17"/>
+      <c r="I42" s="20"/>
       <c r="J42" t="s">
         <v>183</v>
       </c>
       <c r="K42">
-        <v>893.25983448455645</v>
+        <v>873.17427312299662</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" si="8"/>
-        <v>2.2000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>184</v>
@@ -12286,24 +12594,24 @@
         <v>185</v>
       </c>
       <c r="P42">
-        <v>235.1294491999997</v>
+        <v>282.97389629999998</v>
       </c>
       <c r="Q42">
-        <v>893.25983448455634</v>
+        <v>873.17427312299651</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" si="9"/>
-        <v>2.2000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S42" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U42">
-        <v>826.92293033094052</v>
+        <v>813.93429758684249</v>
       </c>
       <c r="V42">
-        <v>826.92293033094052</v>
+        <v>813.93429758684249</v>
       </c>
       <c r="W42" s="12">
         <f t="shared" si="11"/>
@@ -12334,10 +12642,10 @@
       <c r="G43">
         <v>821.873682734</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="20"/>
       <c r="J43" t="s">
         <v>187</v>
       </c>
@@ -12403,10 +12711,10 @@
       <c r="G44">
         <v>777.70856796600003</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="20"/>
       <c r="J44" t="s">
         <v>191</v>
       </c>
@@ -12460,31 +12768,31 @@
       </c>
       <c r="D45">
         <f t="shared" si="6"/>
-        <v>8.4000000000000005E-2</v>
+        <v>2.0694666666666666</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>5.04</v>
+        <v>124.16800000000001</v>
       </c>
       <c r="F45">
-        <v>5040</v>
+        <v>124168</v>
       </c>
       <c r="G45">
-        <v>907.52361579700005</v>
-      </c>
-      <c r="H45" s="16" t="s">
+        <v>898.03815021100002</v>
+      </c>
+      <c r="H45" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I45" s="17"/>
+      <c r="I45" s="20"/>
       <c r="J45" t="s">
         <v>195</v>
       </c>
       <c r="K45">
-        <v>914.68830215650792</v>
+        <v>898.03815043279405</v>
       </c>
       <c r="M45" s="11">
         <f t="shared" si="8"/>
-        <v>7.8899999999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>196</v>
@@ -12493,28 +12801,28 @@
         <v>197</v>
       </c>
       <c r="P45">
-        <v>284.70445550000022</v>
+        <v>294.10803340000012</v>
       </c>
       <c r="Q45">
-        <v>914.68830215650792</v>
+        <v>901.65812449323471</v>
       </c>
       <c r="R45" s="11">
         <f t="shared" si="9"/>
-        <v>7.8899999999999994E-3</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="S45" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="U45">
-        <v>867.03377899989221</v>
+        <v>837.5636898205878</v>
       </c>
       <c r="V45">
-        <v>867.03377899989221</v>
+        <v>840.06303014398509</v>
       </c>
       <c r="W45" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.98E-3</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -12529,31 +12837,31 @@
       </c>
       <c r="D46">
         <f t="shared" si="6"/>
-        <v>7.4883333333333343E-2</v>
+        <v>0.9796999999999999</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>4.4930000000000003</v>
+        <v>58.781999999999996</v>
       </c>
       <c r="F46">
-        <v>4493</v>
+        <v>58782</v>
       </c>
       <c r="G46">
-        <v>1004.77149331</v>
-      </c>
-      <c r="H46" s="16" t="s">
+        <v>686.78799444000003</v>
+      </c>
+      <c r="H46" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="17"/>
+      <c r="I46" s="20"/>
       <c r="J46" t="s">
         <v>199</v>
       </c>
       <c r="K46">
-        <v>1008.26305168901</v>
+        <v>686.78799469955561</v>
       </c>
       <c r="M46" s="11">
         <f t="shared" si="8"/>
-        <v>3.47E-3</v>
+        <v>0</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>200</v>
@@ -12562,28 +12870,28 @@
         <v>201</v>
       </c>
       <c r="P46">
-        <v>474.1591525</v>
+        <v>277.16683579999989</v>
       </c>
       <c r="Q46">
-        <v>1044.262178499589</v>
+        <v>693.83239613801766</v>
       </c>
       <c r="R46" s="11">
         <f t="shared" si="9"/>
-        <v>3.9300000000000002E-2</v>
+        <v>1.026E-2</v>
       </c>
       <c r="S46" s="12">
         <f t="shared" si="10"/>
-        <v>3.5700000000000003E-2</v>
+        <v>1.026E-2</v>
       </c>
       <c r="U46">
-        <v>796.6434310344963</v>
+        <v>637.2732936954784</v>
       </c>
       <c r="V46">
-        <v>904.19627091551456</v>
+        <v>644.31769513394056</v>
       </c>
       <c r="W46" s="12">
         <f t="shared" si="11"/>
-        <v>0.13500999999999999</v>
+        <v>1.1050000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -12610,10 +12918,10 @@
       <c r="G47">
         <v>843.347971669</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="I47" s="17"/>
+      <c r="I47" s="20"/>
       <c r="J47" t="s">
         <v>203</v>
       </c>
@@ -12679,10 +12987,10 @@
       <c r="G48">
         <v>693.91336487399997</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="I48" s="17"/>
+      <c r="I48" s="20"/>
       <c r="J48" t="s">
         <v>207</v>
       </c>
@@ -12748,10 +13056,10 @@
       <c r="G49">
         <v>607.14398191199996</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="20"/>
       <c r="J49" t="s">
         <v>211</v>
       </c>
@@ -12805,31 +13113,31 @@
       </c>
       <c r="D50">
         <f t="shared" si="6"/>
-        <v>0.94795000000000007</v>
+        <v>0.77583333333333326</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>56.877000000000002</v>
+        <v>46.55</v>
       </c>
       <c r="F50">
-        <v>56877</v>
+        <v>46550</v>
       </c>
       <c r="G50">
-        <v>1012.522905785</v>
-      </c>
-      <c r="H50" s="16" t="s">
+        <v>1101.9008935639999</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="20"/>
       <c r="J50" t="s">
         <v>215</v>
       </c>
       <c r="K50">
-        <v>1019.716741712636</v>
+        <v>1101.900893734814</v>
       </c>
       <c r="M50" s="11">
         <f t="shared" si="8"/>
-        <v>7.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>216</v>
@@ -12838,24 +13146,24 @@
         <v>217</v>
       </c>
       <c r="P50">
-        <v>313.4437307</v>
+        <v>434.625721</v>
       </c>
       <c r="Q50">
-        <v>1019.716741712636</v>
+        <v>1101.900893734814</v>
       </c>
       <c r="R50" s="11">
         <f t="shared" si="9"/>
-        <v>7.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="S50" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U50">
-        <v>945.88067006013443</v>
+        <v>1004.357406961276</v>
       </c>
       <c r="V50">
-        <v>945.88067006013443</v>
+        <v>1004.357406961276</v>
       </c>
       <c r="W50" s="12">
         <f t="shared" si="11"/>
@@ -12874,31 +13182,31 @@
       </c>
       <c r="D51">
         <f t="shared" si="6"/>
-        <v>0.85916666666666663</v>
+        <v>1.3081666666666665</v>
       </c>
       <c r="E51">
         <f t="shared" si="7"/>
-        <v>51.55</v>
+        <v>78.489999999999995</v>
       </c>
       <c r="F51">
-        <v>51550</v>
+        <v>78490</v>
       </c>
       <c r="G51">
-        <v>900.17249119400003</v>
-      </c>
-      <c r="H51" s="16" t="s">
+        <v>1140.2752147809999</v>
+      </c>
+      <c r="H51" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="17"/>
+      <c r="I51" s="20"/>
       <c r="J51" t="s">
         <v>219</v>
       </c>
       <c r="K51">
-        <v>904.53780829884033</v>
+        <v>1140.275215036743</v>
       </c>
       <c r="M51" s="11">
         <f t="shared" si="8"/>
-        <v>4.8500000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="N51" s="11" t="s">
         <v>220</v>
@@ -12907,24 +13215,24 @@
         <v>221</v>
       </c>
       <c r="P51">
-        <v>281.06870190000001</v>
+        <v>295.26435819999978</v>
       </c>
       <c r="Q51">
-        <v>904.53780829884033</v>
+        <v>1140.275215036743</v>
       </c>
       <c r="R51" s="11">
         <f t="shared" si="9"/>
-        <v>4.8500000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="S51" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U51">
-        <v>861.66152853116193</v>
+        <v>1041.8609005986179</v>
       </c>
       <c r="V51">
-        <v>861.66152853116193</v>
+        <v>1041.8609005986179</v>
       </c>
       <c r="W51" s="12">
         <f t="shared" si="11"/>
@@ -12943,31 +13251,31 @@
       </c>
       <c r="D52">
         <f t="shared" si="6"/>
-        <v>3.6132499999999999</v>
+        <v>110.92388333333334</v>
       </c>
       <c r="E52">
         <f t="shared" si="7"/>
-        <v>216.79499999999999</v>
+        <v>6655.433</v>
       </c>
       <c r="F52">
-        <v>216795</v>
+        <v>6655433</v>
       </c>
       <c r="G52">
-        <v>1213.6391451110001</v>
-      </c>
-      <c r="H52" s="16" t="s">
+        <v>1100.1155298650001</v>
+      </c>
+      <c r="H52" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I52" s="17"/>
+      <c r="I52" s="20"/>
       <c r="J52" t="s">
         <v>223</v>
       </c>
       <c r="K52">
-        <v>1210.828177855486</v>
+        <v>1100.115529475954</v>
       </c>
       <c r="M52" s="11">
         <f t="shared" si="8"/>
-        <v>-2.32E-3</v>
+        <v>0</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>224</v>
@@ -12976,28 +13284,28 @@
         <v>225</v>
       </c>
       <c r="P52">
-        <v>418.95284959999992</v>
+        <v>549.80384809999998</v>
       </c>
       <c r="Q52">
-        <v>1222.3999332482781</v>
+        <v>1121.1884105540989</v>
       </c>
       <c r="R52" s="11">
         <f t="shared" si="9"/>
-        <v>7.2199999999999999E-3</v>
+        <v>1.916E-2</v>
       </c>
       <c r="S52" s="12">
         <f t="shared" si="10"/>
-        <v>9.5600000000000008E-3</v>
+        <v>1.916E-2</v>
       </c>
       <c r="U52">
-        <v>1111.6840770833639</v>
+        <v>997.68769973988174</v>
       </c>
       <c r="V52">
-        <v>1126.916567567835</v>
+        <v>1024.203349782395</v>
       </c>
       <c r="W52" s="12">
         <f t="shared" si="11"/>
-        <v>1.37E-2</v>
+        <v>2.6579999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -13024,19 +13332,19 @@
       <c r="G53">
         <v>928.29431308680796</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="I53" s="17"/>
+      <c r="I53" s="20"/>
       <c r="J53" t="s">
         <v>227</v>
       </c>
       <c r="K53">
-        <v>928.29431308680785</v>
+        <v>941.28639150548668</v>
       </c>
       <c r="M53" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="N53" s="11" t="s">
         <v>228</v>
@@ -13045,18 +13353,18 @@
         <v>229</v>
       </c>
       <c r="P53">
-        <v>717.1615390999998</v>
+        <v>574.15233499999999</v>
       </c>
       <c r="Q53">
-        <v>959.71709231812065</v>
+        <v>948.3910670901206</v>
       </c>
       <c r="R53" s="11">
         <f t="shared" si="9"/>
-        <v>3.3849999999999998E-2</v>
+        <v>2.1649999999999999E-2</v>
       </c>
       <c r="S53" s="12">
         <f t="shared" si="10"/>
-        <v>3.3849999999999998E-2</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="U53">
         <v>899.70899341124164</v>
@@ -13093,10 +13401,10 @@
       <c r="G54">
         <v>994.23965793800005</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="I54" s="17"/>
+      <c r="I54" s="20"/>
       <c r="J54" t="s">
         <v>231</v>
       </c>
@@ -13150,31 +13458,31 @@
       </c>
       <c r="D55">
         <f t="shared" si="6"/>
-        <v>2.4170833333333333</v>
+        <v>11.620183333333333</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>145.02500000000001</v>
+        <v>697.21100000000001</v>
       </c>
       <c r="F55">
-        <v>145025</v>
+        <v>697211</v>
       </c>
       <c r="G55">
-        <v>825.27717784200001</v>
-      </c>
-      <c r="H55" s="16" t="s">
+        <v>1337.306652706</v>
+      </c>
+      <c r="H55" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="I55" s="17"/>
+      <c r="I55" s="20"/>
       <c r="J55" t="s">
         <v>235</v>
       </c>
       <c r="K55">
-        <v>826.1398682635263</v>
+        <v>1337.306653073121</v>
       </c>
       <c r="M55" s="11">
         <f t="shared" si="8"/>
-        <v>1.0499999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="N55" s="11" t="s">
         <v>236</v>
@@ -13183,28 +13491,28 @@
         <v>237</v>
       </c>
       <c r="P55">
-        <v>439.43610460000002</v>
+        <v>654.51762029999986</v>
       </c>
       <c r="Q55">
-        <v>826.1398682635263</v>
+        <v>1398.697548421555</v>
       </c>
       <c r="R55" s="11">
         <f t="shared" si="9"/>
-        <v>1.0499999999999999E-3</v>
+        <v>4.5909999999999999E-2</v>
       </c>
       <c r="S55" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.5909999999999999E-2</v>
       </c>
       <c r="U55">
-        <v>764.43997718877927</v>
+        <v>1286.346981227126</v>
       </c>
       <c r="V55">
-        <v>764.43997718877927</v>
+        <v>1278.2569936269269</v>
       </c>
       <c r="W55" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6.2899999999999996E-3</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -13231,10 +13539,10 @@
       <c r="G56">
         <v>847.96983126400005</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I56" s="17"/>
+      <c r="I56" s="20"/>
       <c r="J56" t="s">
         <v>239</v>
       </c>
@@ -13252,28 +13560,28 @@
         <v>241</v>
       </c>
       <c r="P56">
-        <v>505.48367850000022</v>
+        <v>439.23778230000022</v>
       </c>
       <c r="Q56">
-        <v>887.20669573984162</v>
+        <v>887.0093418654709</v>
       </c>
       <c r="R56" s="11">
         <f t="shared" si="9"/>
-        <v>4.6269999999999999E-2</v>
+        <v>4.6039999999999998E-2</v>
       </c>
       <c r="S56" s="12">
         <f t="shared" si="10"/>
-        <v>4.6269999999999999E-2</v>
+        <v>4.6039999999999998E-2</v>
       </c>
       <c r="U56">
         <v>720.87225584465955</v>
       </c>
       <c r="V56">
-        <v>760.10911998493611</v>
+        <v>759.9117661105654</v>
       </c>
       <c r="W56" s="12">
         <f t="shared" si="11"/>
-        <v>5.4429999999999999E-2</v>
+        <v>5.416E-2</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13288,31 +13596,31 @@
       </c>
       <c r="D57">
         <f t="shared" si="6"/>
-        <v>38.923933333333338</v>
+        <v>2.1865000000000001</v>
       </c>
       <c r="E57">
         <f t="shared" si="7"/>
-        <v>2335.4360000000001</v>
+        <v>131.19</v>
       </c>
       <c r="F57">
-        <v>2335436</v>
+        <v>131190</v>
       </c>
       <c r="G57">
-        <v>1235.52305333</v>
-      </c>
-      <c r="H57" s="16" t="s">
+        <v>1284.681273827</v>
+      </c>
+      <c r="H57" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="I57" s="17"/>
+      <c r="I57" s="20"/>
       <c r="J57" t="s">
         <v>243</v>
       </c>
       <c r="K57">
-        <v>1235.642400546355</v>
+        <v>1284.681273819707</v>
       </c>
       <c r="M57" s="11">
         <f t="shared" si="8"/>
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="N57" s="11" t="s">
         <v>244</v>
@@ -13321,24 +13629,24 @@
         <v>245</v>
       </c>
       <c r="P57">
-        <v>392.14459770000008</v>
+        <v>563.62307599999986</v>
       </c>
       <c r="Q57">
-        <v>1235.642400546355</v>
+        <v>1284.681273819707</v>
       </c>
       <c r="R57" s="11">
         <f t="shared" si="9"/>
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="S57" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U57">
-        <v>1146.7875303220189</v>
+        <v>1182.812350525463</v>
       </c>
       <c r="V57">
-        <v>1146.7875303220189</v>
+        <v>1182.812350525463</v>
       </c>
       <c r="W57" s="12">
         <f t="shared" si="11"/>
@@ -13369,10 +13677,10 @@
       <c r="G58">
         <v>1079.070671831</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="I58" s="17"/>
+      <c r="I58" s="20"/>
       <c r="J58" t="s">
         <v>247</v>
       </c>
@@ -13426,31 +13734,31 @@
       </c>
       <c r="D59">
         <f t="shared" si="6"/>
-        <v>2.3764499999999997</v>
+        <v>0.45496666666666663</v>
       </c>
       <c r="E59">
         <f t="shared" si="7"/>
-        <v>142.58699999999999</v>
+        <v>27.297999999999998</v>
       </c>
       <c r="F59">
-        <v>142587</v>
+        <v>27298</v>
       </c>
       <c r="G59">
-        <v>1065.533632739</v>
-      </c>
-      <c r="H59" s="16" t="s">
+        <v>1200.6605101329999</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="I59" s="17"/>
+      <c r="I59" s="20"/>
       <c r="J59" t="s">
         <v>251</v>
       </c>
       <c r="K59">
-        <v>1061.361051315876</v>
+        <v>1200.660510291423</v>
       </c>
       <c r="M59" s="11">
         <f t="shared" si="8"/>
-        <v>-3.9199999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="N59" s="11" t="s">
         <v>252</v>
@@ -13459,28 +13767,28 @@
         <v>253</v>
       </c>
       <c r="P59">
-        <v>477.41659730000009</v>
+        <v>431.32710730000008</v>
       </c>
       <c r="Q59">
-        <v>1061.361051315876</v>
+        <v>1232.425317136597</v>
       </c>
       <c r="R59" s="11">
         <f t="shared" si="9"/>
-        <v>-3.9199999999999999E-3</v>
+        <v>2.6460000000000001E-2</v>
       </c>
       <c r="S59" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.6460000000000001E-2</v>
       </c>
       <c r="U59">
-        <v>952.40875475486087</v>
+        <v>1112.0545136647349</v>
       </c>
       <c r="V59">
-        <v>952.40875475486064</v>
+        <v>1141.8992964849799</v>
       </c>
       <c r="W59" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.6839999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13507,10 +13815,10 @@
       <c r="G60">
         <v>1187.5423336710001</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="I60" s="17"/>
+      <c r="I60" s="20"/>
       <c r="J60" t="s">
         <v>255</v>
       </c>
@@ -13564,31 +13872,31 @@
       </c>
       <c r="D61">
         <f t="shared" si="6"/>
-        <v>65.279033333333331</v>
+        <v>11.076916666666667</v>
       </c>
       <c r="E61">
         <f t="shared" si="7"/>
-        <v>3916.7420000000002</v>
+        <v>664.61500000000001</v>
       </c>
       <c r="F61">
-        <v>3916742</v>
+        <v>664615</v>
       </c>
       <c r="G61">
-        <v>1014.184533394</v>
-      </c>
-      <c r="H61" s="16" t="s">
+        <v>946.82210815500002</v>
+      </c>
+      <c r="H61" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="I61" s="17"/>
+      <c r="I61" s="20"/>
       <c r="J61" t="s">
         <v>259</v>
       </c>
       <c r="K61">
-        <v>1021.913374076028</v>
+        <v>946.82210818578142</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" si="8"/>
-        <v>7.62E-3</v>
+        <v>0</v>
       </c>
       <c r="N61" s="11" t="s">
         <v>260</v>
@@ -13597,33 +13905,33 @@
         <v>261</v>
       </c>
       <c r="P61">
-        <v>391.02740569999969</v>
+        <v>443.30661539999983</v>
       </c>
       <c r="Q61">
-        <v>1025.5007261907151</v>
+        <v>946.82210818578142</v>
       </c>
       <c r="R61" s="11">
         <f t="shared" si="9"/>
-        <v>1.116E-2</v>
+        <v>0</v>
       </c>
       <c r="S61" s="12">
         <f t="shared" si="10"/>
-        <v>3.5100000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>963.76847342320582</v>
+        <v>896.23116196264618</v>
       </c>
       <c r="V61">
-        <v>980.55838026747676</v>
+        <v>896.23116196264618</v>
       </c>
       <c r="W61" s="12">
         <f t="shared" si="11"/>
-        <v>1.7420000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="20"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="R62" s="11"/>
@@ -13631,611 +13939,758 @@
       <c r="W62" s="12"/>
     </row>
     <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="20"/>
+      <c r="T63" s="16">
+        <f>AVERAGE(S2:S61)</f>
+        <v>5.6053333333333337E-3</v>
+      </c>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="20"/>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="20"/>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="20"/>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="20"/>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="20"/>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="20"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="20"/>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="20"/>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="20"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="20"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="20"/>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="20"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="20"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="20"/>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="20"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="20"/>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="20"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="20"/>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="16"/>
-      <c r="I103" s="17"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="20"/>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H104" s="16"/>
-      <c r="I104" s="17"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="20"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H105" s="16"/>
-      <c r="I105" s="17"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="20"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="16"/>
-      <c r="I106" s="17"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="20"/>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="16"/>
-      <c r="I107" s="17"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="20"/>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="16"/>
-      <c r="I108" s="17"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="20"/>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="16"/>
-      <c r="I109" s="17"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="20"/>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H110" s="16"/>
-      <c r="I110" s="17"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="20"/>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="16"/>
-      <c r="I111" s="17"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="20"/>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="16"/>
-      <c r="I112" s="17"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="20"/>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="16"/>
-      <c r="I113" s="17"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="20"/>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="16"/>
-      <c r="I114" s="17"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="20"/>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="16"/>
-      <c r="I115" s="17"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="20"/>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="16"/>
-      <c r="I116" s="17"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="20"/>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="16"/>
-      <c r="I117" s="17"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="20"/>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="16"/>
-      <c r="I118" s="17"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="20"/>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="16"/>
-      <c r="I119" s="17"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="20"/>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="16"/>
-      <c r="I120" s="17"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="20"/>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="16"/>
-      <c r="I121" s="17"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="20"/>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="16"/>
-      <c r="I122" s="17"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="20"/>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="16"/>
-      <c r="I123" s="17"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="20"/>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="16"/>
-      <c r="I124" s="17"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="20"/>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="16"/>
-      <c r="I125" s="17"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="20"/>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="16"/>
-      <c r="I126" s="17"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="20"/>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="16"/>
-      <c r="I127" s="17"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="20"/>
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H128" s="16"/>
-      <c r="I128" s="17"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="20"/>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="16"/>
-      <c r="I129" s="17"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="20"/>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="16"/>
-      <c r="I130" s="17"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="20"/>
     </row>
     <row r="131" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="16"/>
-      <c r="I131" s="17"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="20"/>
     </row>
     <row r="132" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="16"/>
-      <c r="I132" s="17"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="20"/>
     </row>
     <row r="133" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="16"/>
-      <c r="I133" s="17"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="20"/>
     </row>
     <row r="134" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="16"/>
-      <c r="I134" s="17"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="20"/>
     </row>
     <row r="135" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="16"/>
-      <c r="I135" s="17"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="20"/>
     </row>
     <row r="136" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="16"/>
-      <c r="I136" s="17"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="20"/>
     </row>
     <row r="137" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="16"/>
-      <c r="I137" s="17"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="20"/>
     </row>
     <row r="138" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="16"/>
-      <c r="I138" s="17"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="20"/>
     </row>
     <row r="139" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="16"/>
-      <c r="I139" s="17"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="20"/>
     </row>
     <row r="140" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="16"/>
-      <c r="I140" s="17"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="20"/>
     </row>
     <row r="141" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="16"/>
-      <c r="I141" s="17"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="20"/>
     </row>
     <row r="142" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="16"/>
-      <c r="I142" s="17"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="20"/>
     </row>
     <row r="143" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="16"/>
-      <c r="I143" s="17"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="20"/>
     </row>
     <row r="144" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="16"/>
-      <c r="I144" s="17"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="20"/>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="16"/>
-      <c r="I145" s="17"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="20"/>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="16"/>
-      <c r="I146" s="17"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="20"/>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="16"/>
-      <c r="I147" s="17"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="20"/>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="16"/>
-      <c r="I148" s="17"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="20"/>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="16"/>
-      <c r="I149" s="17"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="20"/>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="16"/>
-      <c r="I150" s="17"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="20"/>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="16"/>
-      <c r="I151" s="17"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="20"/>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="16"/>
-      <c r="I152" s="17"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="20"/>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="16"/>
-      <c r="I153" s="17"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="20"/>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="16"/>
-      <c r="I154" s="17"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="20"/>
     </row>
     <row r="155" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="16"/>
-      <c r="I155" s="17"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="20"/>
     </row>
     <row r="156" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="16"/>
-      <c r="I156" s="17"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="20"/>
     </row>
     <row r="157" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="16"/>
-      <c r="I157" s="17"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="20"/>
     </row>
     <row r="158" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="16"/>
-      <c r="I158" s="17"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="20"/>
     </row>
     <row r="159" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="16"/>
-      <c r="I159" s="17"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="20"/>
     </row>
     <row r="160" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="16"/>
-      <c r="I160" s="17"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="20"/>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="16"/>
-      <c r="I161" s="17"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="20"/>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="16"/>
-      <c r="I162" s="17"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="20"/>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="16"/>
-      <c r="I163" s="17"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="20"/>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="16"/>
-      <c r="I164" s="17"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="20"/>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="16"/>
-      <c r="I165" s="17"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="20"/>
     </row>
     <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="16"/>
-      <c r="I166" s="17"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="20"/>
     </row>
     <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="16"/>
-      <c r="I167" s="17"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="20"/>
     </row>
     <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="16"/>
-      <c r="I168" s="17"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="20"/>
     </row>
     <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="16"/>
-      <c r="I169" s="17"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="20"/>
     </row>
     <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="16"/>
-      <c r="I170" s="17"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="20"/>
     </row>
     <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="16"/>
-      <c r="I171" s="17"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="20"/>
     </row>
     <row r="172" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H172" s="16"/>
-      <c r="I172" s="17"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="20"/>
     </row>
     <row r="173" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="16"/>
-      <c r="I173" s="17"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="20"/>
     </row>
     <row r="174" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="16"/>
-      <c r="I174" s="17"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="20"/>
     </row>
     <row r="175" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H175" s="16"/>
-      <c r="I175" s="17"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="20"/>
     </row>
     <row r="176" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H176" s="16"/>
-      <c r="I176" s="17"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="20"/>
     </row>
     <row r="177" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H177" s="16"/>
-      <c r="I177" s="17"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="20"/>
     </row>
     <row r="178" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H178" s="16"/>
-      <c r="I178" s="17"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="20"/>
     </row>
     <row r="179" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H179" s="16"/>
-      <c r="I179" s="17"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="20"/>
     </row>
     <row r="180" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H180" s="16"/>
-      <c r="I180" s="17"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="20"/>
     </row>
     <row r="181" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="16"/>
-      <c r="I181" s="17"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="20"/>
     </row>
     <row r="182" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H182" s="16"/>
-      <c r="I182" s="17"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="20"/>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H183" s="16"/>
-      <c r="I183" s="17"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="20"/>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H184" s="16"/>
-      <c r="I184" s="17"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="20"/>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H185" s="16"/>
-      <c r="I185" s="17"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="20"/>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H186" s="16"/>
-      <c r="I186" s="17"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="20"/>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H187" s="16"/>
-      <c r="I187" s="17"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="20"/>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="16"/>
-      <c r="I188" s="17"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="20"/>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="16"/>
-      <c r="I189" s="17"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="20"/>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="16"/>
-      <c r="I190" s="17"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="20"/>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H191" s="16"/>
-      <c r="I191" s="17"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="20"/>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="16"/>
-      <c r="I192" s="17"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="20"/>
     </row>
     <row r="193" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H193" s="16"/>
-      <c r="I193" s="17"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="20"/>
     </row>
     <row r="194" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H194" s="16"/>
-      <c r="I194" s="17"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="20"/>
     </row>
     <row r="195" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H195" s="16"/>
-      <c r="I195" s="17"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="20"/>
     </row>
     <row r="196" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H196" s="16"/>
-      <c r="I196" s="17"/>
+      <c r="H196" s="19"/>
+      <c r="I196" s="20"/>
     </row>
     <row r="197" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H197" s="16"/>
-      <c r="I197" s="17"/>
+      <c r="H197" s="19"/>
+      <c r="I197" s="20"/>
     </row>
     <row r="198" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H198" s="16"/>
-      <c r="I198" s="17"/>
+      <c r="H198" s="19"/>
+      <c r="I198" s="20"/>
     </row>
     <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="16"/>
-      <c r="I199" s="17"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="20"/>
     </row>
     <row r="200" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H200" s="16"/>
-      <c r="I200" s="17"/>
+      <c r="H200" s="19"/>
+      <c r="I200" s="20"/>
     </row>
     <row r="201" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="16"/>
-      <c r="I201" s="17"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="20"/>
     </row>
     <row r="202" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H202" s="16"/>
-      <c r="I202" s="17"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="20"/>
     </row>
     <row r="203" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H203" s="16"/>
-      <c r="I203" s="17"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="20"/>
     </row>
     <row r="204" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H204" s="16"/>
-      <c r="I204" s="17"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="20"/>
     </row>
     <row r="205" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H205" s="16"/>
-      <c r="I205" s="17"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="20"/>
     </row>
     <row r="206" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="16"/>
-      <c r="I206" s="17"/>
+      <c r="H206" s="19"/>
+      <c r="I206" s="20"/>
     </row>
     <row r="207" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H207" s="16"/>
-      <c r="I207" s="17"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="20"/>
     </row>
     <row r="208" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="16"/>
-      <c r="I208" s="17"/>
+      <c r="H208" s="19"/>
+      <c r="I208" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
     <mergeCell ref="H205:I205"/>
     <mergeCell ref="H206:I206"/>
     <mergeCell ref="H207:I207"/>
@@ -14260,169 +14715,26 @@
     <mergeCell ref="H192:I192"/>
     <mergeCell ref="H193:I193"/>
     <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="R63:R1048576 R1:R61">
     <cfRule type="cellIs" dxfId="13" priority="35" operator="lessThan">
@@ -14491,11 +14803,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14515,7 +14827,7 @@
     <col min="13" max="13" width="41.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>262</v>
       </c>
@@ -14558,8 +14870,11 @@
       <c r="N1" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43745</v>
       </c>
@@ -14587,7 +14902,7 @@
         <v>2.9036620164271349E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43768</v>
       </c>
@@ -14618,7 +14933,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43775</v>
       </c>
@@ -14649,7 +14964,7 @@
         <v>4.974219837758781E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43775</v>
       </c>
@@ -14683,7 +14998,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43768</v>
       </c>
@@ -14714,7 +15029,7 @@
         <v>-3.3168933972986682E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43745</v>
       </c>
@@ -14745,7 +15060,7 @@
         <v>0.12079447725851343</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43795</v>
       </c>
@@ -14776,7 +15091,7 @@
         <v>0.105950345757427</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43768</v>
       </c>
@@ -14807,7 +15122,7 @@
         <v>-1.9547239268025863E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43745</v>
       </c>
@@ -14841,7 +15156,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>43768</v>
       </c>
@@ -14872,7 +15187,7 @@
         <v>-1.4481975484296224E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>43745</v>
       </c>
@@ -14906,7 +15221,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>43768</v>
       </c>
@@ -14937,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43795</v>
       </c>
@@ -14968,7 +15283,7 @@
         <v>8.6127143736483655E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>43754</v>
       </c>
@@ -14999,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>43745</v>
       </c>
@@ -15033,7 +15348,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>43768</v>
       </c>
@@ -15064,7 +15379,7 @@
         <v>6.6456467568034458E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43795</v>
       </c>
@@ -15095,7 +15410,7 @@
         <v>0.12408410691373345</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>43745</v>
       </c>
@@ -15129,7 +15444,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>43768</v>
       </c>
@@ -15160,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43795</v>
       </c>
@@ -15191,7 +15506,7 @@
         <v>9.9489608993302683E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>43745</v>
       </c>
@@ -15225,7 +15540,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>43768</v>
       </c>
@@ -15256,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43795</v>
       </c>
@@ -15287,7 +15602,7 @@
         <v>3.1070945770328682E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43745</v>
       </c>
@@ -15325,7 +15640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>43768</v>
       </c>
@@ -15360,7 +15675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43795</v>
       </c>
@@ -15395,7 +15710,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>43745</v>
       </c>
@@ -15431,8 +15746,11 @@
       <c r="N28">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>43768</v>
       </c>
@@ -15465,8 +15783,11 @@
       <c r="N29">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>43795</v>
       </c>
@@ -15499,35 +15820,130 @@
       <c r="N30">
         <v>165</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>43745</v>
+      </c>
       <c r="B31" t="s">
         <v>325</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="13">
         <v>588019.64749999973</v>
       </c>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>356</v>
+      </c>
+      <c r="G31" t="s">
+        <v>357</v>
+      </c>
+      <c r="H31">
+        <v>7201.3244121999996</v>
+      </c>
+      <c r="I31" s="13">
+        <v>542245.44183333335</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13">
+        <f t="shared" ref="K31:K33" si="2">D31-(I31+J31*10)</f>
+        <v>45774.205666666385</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" ref="L31:L33" si="3">K31/D31</f>
+        <v>7.7844687437363919E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>358</v>
+      </c>
+      <c r="N31">
+        <v>82</v>
+      </c>
+      <c r="O31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>43768</v>
+      </c>
       <c r="B32" t="s">
         <v>329</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="13">
         <v>692146.29500000016</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>359</v>
+      </c>
+      <c r="G32" t="s">
+        <v>360</v>
+      </c>
+      <c r="H32">
+        <v>7200.3894149999996</v>
+      </c>
+      <c r="I32" s="13">
+        <v>663791.73558333307</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13">
+        <f t="shared" si="2"/>
+        <v>28354.559416667093</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="3"/>
+        <v>4.096613623665657E-2</v>
+      </c>
+      <c r="N32">
+        <v>125</v>
+      </c>
+      <c r="O32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>43795</v>
+      </c>
       <c r="B33" t="s">
         <v>346</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="13">
         <v>1564771.872916667</v>
+      </c>
+      <c r="F33" t="s">
+        <v>361</v>
+      </c>
+      <c r="G33" t="s">
+        <v>362</v>
+      </c>
+      <c r="H33">
+        <v>7200.2668686999996</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1395249.4233333319</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13">
+        <f t="shared" si="2"/>
+        <v>169522.44958333508</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="3"/>
+        <v>0.10833684610354899</v>
+      </c>
+      <c r="N33">
+        <v>170</v>
+      </c>
+      <c r="O33">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A28" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <conditionalFormatting sqref="L32:L1048576 M1:N1 L1:L30">
+  <conditionalFormatting sqref="L1:L1048576 M1:O1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/vrp_case_study/Solve Times Summary.xlsx
+++ b/vrp_case_study/Solve Times Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Documents\Git Repositories\VRP-Case-Study\vrp_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C48A1-48E0-4216-802F-103A5376D179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A330BC-8E77-4064-9FFC-B4B3B81EF2AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="449">
   <si>
     <t># Customers</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>Number of identical solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interupted Runs: </t>
+  </si>
+  <si>
+    <t>Overnight run interrupted at unknown time by Windows Update</t>
+  </si>
+  <si>
+    <t>Out of memory</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Seconds</t>
   </si>
   <si>
     <t># Stores</t>
@@ -1391,6 +1415,549 @@
     <t xml:space="preserve">Rigid (capacity 16):
 6 (4) -&gt; 11 (3) -&gt; 1 (1) -&gt; 7 (3) -&gt; 12 (1) -&gt; 5 (4)
 10 (3) -&gt; 3 (2) -&gt; 9 (1) -&gt; 4 (4) -&gt; 2 (2) -&gt; 8 (4)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (-24.138781697, 4.981693385) and average unload time 0.138443851
+Customer 2 has 4 pallets demand and window 0-24 at (7.70016153, 2.233660989) and average unload time 0.136202001
+Customer 3 has 1 pallets demand and window 0-24 at (24.285068514, -30.611684185) and average unload time 0.044424379
+Customer 4 has 1 pallets demand and window 0-24 at (-41.635785714, -18.276747391) and average unload time 0.164659607
+Customer 5 has 1 pallets demand and window 0-24 at (56.166205357, 47.750611309) and average unload time 0.054877088
+Customer 6 has 4 pallets demand and window 0-24 at (-85.027338517, -5.045236993) and average unload time 0.026341095
+Customer 7 has 1 pallets demand and window 0-24 at (54.937751154, 2.132241598) and average unload time 0.054412253
+Customer 8 has 4 pallets demand and window 0-24 at (22.253617824, -95.42241946) and average unload time 0.162039469
+Customer 9 has 1 pallets demand and window 0-24 at (-73.739198429, -96.090121706) and average unload time 0.051455379
+Customer 10 has 3 pallets demand and window 0-24 at (-75.558158168, 27.707567868) and average unload time 0.041552999
+Customer 11 has 4 pallets demand and window 0-24 at (-83.840653516, -30.378391682) and average unload time 0.161305686
+Customer 12 has 3 pallets demand and window 0-24 at (27.069375848, 28.910266751) and average unload time 0.146152008
+Customer 13 has 3 pallets demand and window 5-6 at (4.036525199, 95.092970463) and average unload time 0.074938058
+Customer 14 has 4 pallets demand and window 0-24 at (93.827012865, 3.517193774) and average unload time 0.107855765
+Customer 15 has 3 pallets demand and window 0-24 at (73.584272474, 38.077376369) and average unload time 0.157848453
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.148728925, and time cost 13.910011272
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.148728925, and time cost 13.910011272
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.755033563, and time cost 8.074872811
+Output:
+Vehicle SP1 travels from Depot to 3 to deliver 1 pallets. Expected unload start time is 1.948021936
+Vehicle SP1 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.256634929
+Vehicle SP1 travels from 3 to 8 to deliver 4 pallets. Expected unload start time is 2.802978373
+Vehicle SP1 travels from 4 to 1 to deliver 4 pallets. Expected unload start time is 8.39476608
+Vehicle SP1 travels from 6 to 10 to deliver 3 pallets. Expected unload start time is 7.02735179
+Vehicle SP1 travels from 8 to 9 to deliver 1 pallets. Expected unload start time is 4.651075479
+Vehicle SP1 travels from 9 to 11 to deliver 4 pallets. Expected unload start time is 5.533576026
+Vehicle SP1 travels from 10 to 4 to deliver 1 pallets. Expected unload start time is 7.866294147
+Vehicle SP1 travels from 11 to 6 to deliver 4 pallets. Expected unload start time is 6.495810438
+Vehicle SP2 travels from Depot to 2 to deliver 3 pallets. Expected unload start time is 0.299254446
+Vehicle SP2 travels from 2 to DepotReturn to deliver 0 pallets. Expected unload start time is 0.808080308
+Vehicle SP3 travels from Depot to 2 to deliver 1 pallets. Expected unload start time is 2.142710269
+Vehicle SP3 travels from 2 to 7 to deliver 1 pallets. Expected unload start time is 2.869383501
+Vehicle SP3 travels from 5 to 13 to deliver 3 pallets. Expected unload start time is 6
+Vehicle SP3 travels from 7 to 14 to deliver 4 pallets. Expected unload start time is 3.41021969
+Vehicle SP3 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 8.03428397
+Vehicle SP3 travels from 13 to 12 to deliver 3 pallets. Expected unload start time is 7.100765664
+Vehicle SP3 travels from 14 to 15 to deliver 3 pallets. Expected unload start time is 4.342294629
+Vehicle SP3 travels from 15 to 5 to deliver 1 pallets. Expected unload start time is 5.064888344
+Objective value: 969.444375029
+Solve time: 148766</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 1], [8, 4], [9, 1], [11, 4], [6, 4], [10, 3], [4, 1], [1, 4]], [[2, 3]]], "1": [[[2, 1], [7, 1], [14, 4], [15, 3], [5, 1], [13, 3], [12, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 4], [4, 1], [10, 3], [6, 4], [11, 4], [9, 1], [8, 4], [3, 1]], [[2, 4]]], "1": [[[12, 3], [13, 3], [5, 1], [15, 3], [14, 4], [7, 1]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+1 (4) -&gt; 4 (1) -&gt; 10 (3) -&gt; 6 (4) -&gt; 11 (4) -&gt; 9 (1) -&gt; 8 (4) -&gt; 3 (1)
+2 (4)
+Rigid (capacity 16):
+12 (3) -&gt; 13 (3) -&gt; 5 (1) -&gt; 15 (3) -&gt; 14 (4) -&gt; 7 (1)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (-24.420968116, 84.479314326) and average unload time 0.14273125
+Customer 2 has 4 pallets demand and window 7-8 at (68.308910726, 11.072944126) and average unload time 0.020091677
+Customer 3 has 4 pallets demand and window 0-24 at (-47.080246575, -38.104739625) and average unload time 0.069210202
+Customer 4 has 4 pallets demand and window 7-8 at (97.302114088, 19.507038257) and average unload time 0.020480073
+Customer 5 has 2 pallets demand and window 0-24 at (-45.388786039, 31.217211719) and average unload time 0.086281386
+Customer 6 has 1 pallets demand and window 0-24 at (28.532236919, -25.301017707) and average unload time 0.10100013
+Customer 7 has 1 pallets demand and window 0-24 at (-2.791221135, -11.882725784) and average unload time 0.066560353
+Customer 8 has 3 pallets demand and window 0-24 at (-40.090880893, -14.938970426) and average unload time 0.062739631
+Customer 9 has 5 pallets demand and window 0-24 at (-80.487978341, -85.381375474) and average unload time 0.106478878
+Customer 10 has 5 pallets demand and window 0-24 at (-91.78482179, -38.416249134) and average unload time 0.156882399
+Customer 11 has 5 pallets demand and window 0-24 at (80.991062135, -4.666122384) and average unload time 0.070138306
+Customer 12 has 5 pallets demand and window 0-24 at (-38.414575584, -60.477204004) and average unload time 0.097655846
+Customer 13 has 1 pallets demand and window 0-24 at (56.490701521, 55.424378036) and average unload time 0.107160831
+Customer 14 has 1 pallets demand and window 0-24 at (50.149570814, -73.668786051) and average unload time 0.113205634
+Customer 15 has 4 pallets demand and window 0-24 at (63.133615252, 79.164989676) and average unload time 0.11644872
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.041993573, and time cost 12.32292849
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.434297318, and time cost 10.300865105
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.113113357, and time cost 14.262384707
+Output:
+Vehicle SP1 travels from Depot to 5 to deliver 2 pallets. Expected unload start time is 3.709978304
+Vehicle SP1 travels from 1 to 15 to deliver 4 pallets. Expected unload start time is 5.979959148
+Vehicle SP1 travels from 2 to 11 to deliver 5 pallets. Expected unload start time is 8.333026055
+Vehicle SP1 travels from 4 to 2 to deliver 4 pallets. Expected unload start time is 8
+Vehicle SP1 travels from 5 to 1 to deliver 2 pallets. Expected unload start time is 4.598050178
+Vehicle SP1 travels from 6 to 7 to deliver 1 pallets. Expected unload start time is 10.930883467
+Vehicle SP1 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 11.150020689
+Vehicle SP1 travels from 11 to 14 to deliver 1 pallets. Expected unload start time is 9.628486503
+Vehicle SP1 travels from 13 to 4 to deliver 4 pallets. Expected unload start time is 7.540641847
+Vehicle SP1 travels from 14 to 6 to deliver 1 pallets. Expected unload start time is 10.403926771
+Vehicle SP1 travels from 15 to 13 to deliver 1 pallets. Expected unload start time is 6.753910073
+Vehicle SP3 travels from Depot to 8 to deliver 3 pallets. Expected unload start time is 20.141894754
+Vehicle SP3 travels from 3 to 10 to deliver 5 pallets. Expected unload start time is 21.468240111
+Vehicle SP3 travels from 8 to 3 to deliver 4 pallets. Expected unload start time is 20.632578546
+Vehicle SP3 travels from 9 to 12 to deliver 5 pallets. Expected unload start time is 24.000000005
+Vehicle SP3 travels from 10 to 9 to deliver 5 pallets. Expected unload start time is 22.856460559
+Vehicle SP3 travels from 12 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.3838562
+Objective value: 1062.985739505
+Solve time: 123028</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 2], [1, 2], [15, 4], [13, 1], [4, 4], [2, 4], [11, 5], [14, 1], [6, 1], [7, 1]]], "1": [], "2": [[[8, 3], [3, 4], [10, 5], [9, 5], [12, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[7, 1], [8, 3], [3, 4], [10, 5], [9, 5], [12, 5], [14, 1], [2, 4]]], "1": [[]], "2": [[[5, 2], [1, 2], [15, 4], [13, 1], [4, 4], [11, 5], [6, 1]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+7 (1) -&gt; 8 (3) -&gt; 3 (4) -&gt; 10 (5) -&gt; 9 (5) -&gt; 12 (5) -&gt; 14 (1) -&gt; 2 (4)
+Rigid (capacity 16):
+8 metre (capacity 22):
+5 (2) -&gt; 1 (2) -&gt; 15 (4) -&gt; 13 (1) -&gt; 4 (4) -&gt; 11 (5) -&gt; 6 (1)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 0-24 at (42.976731899, 75.573606687) and average unload time 0.069275924
+Customer 2 has 3 pallets demand and window 10-11 at (50.837753625, -55.836924344) and average unload time 0.136399283
+Customer 3 has 2 pallets demand and window 0-24 at (59.853779548, -61.943322552) and average unload time 0.032266418
+Customer 4 has 1 pallets demand and window 0-24 at (90.837457719, -8.515575536) and average unload time 0.141362618
+Customer 5 has 2 pallets demand and window 0-24 at (-66.837173186, 7.182176931) and average unload time 0.021999575
+Customer 6 has 4 pallets demand and window 0-24 at (-68.753050915, 2.125562317) and average unload time 0.137360193
+Customer 7 has 2 pallets demand and window 11-12 at (10.110259633, -70.350607167) and average unload time 0.066747291
+Customer 8 has 1 pallets demand and window 0-24 at (-74.066736216, -67.17061021) and average unload time 0.059754822
+Customer 9 has 2 pallets demand and window 0-24 at (-96.047993768, 23.435036767) and average unload time 0.126156494
+Customer 10 has 4 pallets demand and window 0-24 at (15.794323612, -94.214232418) and average unload time 0.111340306
+Customer 11 has 4 pallets demand and window 23-24 at (-56.907381227, -36.951177522) and average unload time 0.124294085
+Customer 12 has 3 pallets demand and window 0-24 at (-47.290278968, 39.927482693) and average unload time 0.094734551
+Customer 13 has 3 pallets demand and window 0-24 at (33.268072961, 47.41139787) and average unload time 0.110961631
+Customer 14 has 1 pallets demand and window 0-24 at (-33.714543647, -82.14130402) and average unload time 0.042631179
+Customer 15 has 2 pallets demand and window 0-24 at (82.177909264, -21.733217061) and average unload time 0.166429191
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.039444932, and time cost 14.699023576
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.039444932, and time cost 14.699023576
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.854684795, and time cost 12.353953503
+Output:
+Vehicle SP1 travels from Depot to 12 to deliver 3 pallets. Expected unload start time is 20.230798821
+Vehicle SP1 travels from 5 to 6 to deliver 4 pallets. Expected unload start time is 21.940150156
+Vehicle SP1 travels from 6 to 11 to deliver 4 pallets. Expected unload start time is 23
+Vehicle SP1 travels from 9 to 5 to deliver 2 pallets. Expected unload start time is 21.828558547
+Vehicle SP1 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.345321336
+Vehicle SP1 travels from 12 to 9 to deliver 2 pallets. Expected unload start time is 21.158396249
+Vehicle SP3 travels from Depot to 13 to deliver 3 pallets. Expected unload start time is 7.568750272
+Vehicle SP3 travels from 1 to 4 to deliver 1 pallets. Expected unload start time is 9.552714717
+Vehicle SP3 travels from 2 to 7 to deliver 2 pallets. Expected unload start time is 11.949651328
+Vehicle SP3 travels from 3 to 2 to deliver 3 pallets. Expected unload start time is 11
+Vehicle SP3 travels from 4 to 15 to deliver 2 pallets. Expected unload start time is 9.891598626
+Vehicle SP3 travels from 7 to 10 to deliver 4 pallets. Expected unload start time is 12.389786272
+Vehicle SP3 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.362386614
+Vehicle SP3 travels from 10 to 14 to deliver 1 pallets. Expected unload start time is 13.472142827
+Vehicle SP3 travels from 13 to 1 to deliver 1 pallets. Expected unload start time is 8.273994212
+Vehicle SP3 travels from 14 to 8 to deliver 1 pallets. Expected unload start time is 14.052771032
+Vehicle SP3 travels from 15 to 3 to deliver 2 pallets. Expected unload start time is 10.799350933
+Objective value: 929.493488485
+Solve time: 58495</t>
+  </si>
+  <si>
+    <t>{"0": [[[12, 3], [9, 2], [5, 2], [6, 4], [11, 4]]], "1": [[[13, 3], [1, 1], [4, 1], [15, 2], [3, 2], [2, 3], [7, 2], [10, 4], [14, 1], [8, 1]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+12 (3) -&gt; 9 (2) -&gt; 5 (2) -&gt; 6 (4) -&gt; 11 (4)
+8 metre (capacity 22):
+13 (3) -&gt; 1 (1) -&gt; 4 (1) -&gt; 15 (2) -&gt; 3 (2) -&gt; 2 (3) -&gt; 7 (2) -&gt; 10 (4) -&gt; 14 (1) -&gt; 8 (1)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (51.136964202, -67.214410049) and average unload time 0.083318235
+Customer 2 has 1 pallets demand and window 0-24 at (85.47687359, -97.475484945) and average unload time 0.021252299
+Customer 3 has 4 pallets demand and window 11-12 at (-40.509951075, 91.566884491) and average unload time 0.111875707
+Customer 4 has 3 pallets demand and window 20-21 at (41.509267388, -66.704516749) and average unload time 0.165656546
+Customer 5 has 1 pallets demand and window 12-13 at (-52.899405499, -35.953263731) and average unload time 0.1166665
+Customer 6 has 2 pallets demand and window 0-24 at (-19.902340543, -1.071137629) and average unload time 0.158187313
+Customer 7 has 1 pallets demand and window 0-24 at (95.824233825, 59.717041917) and average unload time 0.030825664
+Customer 8 has 2 pallets demand and window 0-24 at (35.820075359, -79.743973633) and average unload time 0.120769795
+Customer 9 has 2 pallets demand and window 0-24 at (71.027976927, -76.732838355) and average unload time 0.020238941
+Customer 10 has 2 pallets demand and window 0-24 at (78.585204983, -58.162894917) and average unload time 0.100799558
+Customer 11 has 1 pallets demand and window 0-24 at (8.920800398, 97.144066277) and average unload time 0.065933732
+Customer 12 has 3 pallets demand and window 0-24 at (-75.21800928, -48.67842353) and average unload time 0.082504836
+Customer 13 has 4 pallets demand and window 0-24 at (-93.553192584, -62.631483586) and average unload time 0.071975087
+Customer 14 has 3 pallets demand and window 0-24 at (-10.409498774, -1.988658769) and average unload time 0.154847455
+Customer 15 has 3 pallets demand and window 0-24 at (-93.891482232, -30.019541815) and average unload time 0.14358966
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.71775259, and time cost 7.343352721
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.890815187, and time cost 7.396370561
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.890815187, and time cost 7.396370561
+Output:
+Vehicle SP1 travels from Depot to 3 to deliver 4 pallets. Expected unload start time is 12
+Vehicle SP1 travels from 1 to 8 to deliver 2 pallets. Expected unload start time is 19.580628704
+Vehicle SP1 travels from 2 to 9 to deliver 2 pallets. Expected unload start time is 18.683878467
+Vehicle SP1 travels from 3 to 11 to deliver 1 pallets. Expected unload start time is 13.069307678
+Vehicle SP1 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.479036324
+Vehicle SP1 travels from 7 to 10 to deliver 2 pallets. Expected unload start time is 15.837992583
+Vehicle SP1 travels from 8 to 4 to deliver 3 pallets. Expected unload start time is 20
+Vehicle SP1 travels from 9 to 1 to deliver 4 pallets. Expected unload start time is 18.999995623
+Vehicle SP1 travels from 10 to 2 to deliver 1 pallets. Expected unload start time is 18.346638627
+Vehicle SP1 travels from 11 to 7 to deliver 1 pallets. Expected unload start time is 14.31799435
+Vehicle SP2 travels from Depot to 5 to deliver 1 pallets. Expected unload start time is 13
+Vehicle SP2 travels from 5 to 12 to deliver 3 pallets. Expected unload start time is 13.437809421
+Vehicle SP2 travels from 6 to 14 to deliver 3 pallets. Expected unload start time is 16.528392349
+Vehicle SP2 travels from 12 to 13 to deliver 4 pallets. Expected unload start time is 13.973330774
+Vehicle SP2 travels from 13 to 15 to deliver 3 pallets. Expected unload start time is 14.668902326
+Vehicle SP2 travels from 14 to DepotReturn to deliver 0 pallets. Expected unload start time is 17.125406663
+Vehicle SP2 travels from 15 to 6 to deliver 2 pallets. Expected unload start time is 16.092804227
+Objective value: 765.246603843
+Solve time: 1206771</t>
+  </si>
+  <si>
+    <t>{"0": [[[3, 4], [11, 1], [7, 1], [10, 2], [2, 1], [9, 2], [1, 4], [8, 2], [4, 3]]], "1": [[[5, 1], [12, 3], [13, 4], [15, 3], [6, 2], [14, 3]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+3 (4) -&gt; 11 (1) -&gt; 7 (1) -&gt; 10 (2) -&gt; 2 (1) -&gt; 9 (2) -&gt; 1 (4) -&gt; 8 (2) -&gt; 4 (3)
+Rigid (capacity 16):
+5 (1) -&gt; 12 (3) -&gt; 13 (4) -&gt; 15 (3) -&gt; 6 (2) -&gt; 14 (3)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (10.987192952, -5.748838853) and average unload time 0.082941878
+Customer 2 has 5 pallets demand and window 0-24 at (-90.933084508, 73.236139518) and average unload time 0.071480764
+Customer 3 has 3 pallets demand and window 0-24 at (-24.019635793, 43.180732595) and average unload time 0.138552281
+Customer 4 has 6 pallets demand and window 0-24 at (89.120567468, -38.323901498) and average unload time 0.105561451
+Customer 5 has 3 pallets demand and window 0-24 at (-7.353772385, -59.525704345) and average unload time 0.16389141
+Customer 6 has 2 pallets demand and window 15-16 at (56.682090211, 72.495753249) and average unload time 0.130223377
+Customer 7 has 4 pallets demand and window 0-24 at (-86.254213506, 45.94987976) and average unload time 0.076564595
+Customer 8 has 5 pallets demand and window 9-10 at (-68.980352084, -40.92622095) and average unload time 0.02143852
+Customer 9 has 1 pallets demand and window 0-24 at (26.595586234, -45.10800471) and average unload time 0.133453061
+Customer 10 has 6 pallets demand and window 0-24 at (-27.142575157, 64.721991944) and average unload time 0.028116031
+Customer 11 has 5 pallets demand and window 0-24 at (58.634193995, 8.247768942) and average unload time 0.082834494
+Customer 12 has 3 pallets demand and window 0-24 at (-99.029046744, 39.216436524) and average unload time 0.101499517
+Customer 13 has 2 pallets demand and window 0-24 at (-67.805290738, 70.020135693) and average unload time 0.026576553
+Customer 14 has 3 pallets demand and window 0-24 at (39.949270832, -5.33252621) and average unload time 0.061629912
+Customer 15 has 6 pallets demand and window 0-24 at (41.021800054, 49.257456742) and average unload time 0.071466383
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.762299845, and time cost 12.568583511
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.762299845, and time cost 12.568583511
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.998071273, and time cost 14.295032108
+Output:
+Vehicle SP1 travels from Depot to 5 to deliver 3 pallets. Expected unload start time is 11.580877696
+Vehicle SP1 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 18.589874029
+Vehicle SP1 travels from 4 to 11 to deliver 5 pallets. Expected unload start time is 14.782357109
+Vehicle SP1 travels from 5 to 9 to deliver 1 pallets. Expected unload start time is 12.533601851
+Vehicle SP1 travels from 6 to 15 to deliver 6 pallets. Expected unload start time is 16.610728584
+Vehicle SP1 travels from 9 to 4 to deliver 6 pallets. Expected unload start time is 13.453204283
+Vehicle SP1 travels from 11 to 6 to deliver 2 pallets. Expected unload start time is 16
+Vehicle SP1 travels from 14 to 1 to deliver 2 pallets. Expected unload start time is 18.268986464
+Vehicle SP1 travels from 15 to 14 to deliver 3 pallets. Expected unload start time is 17.722033356
+Vehicle SP2 travels from Depot to 3 to deliver 3 pallets. Expected unload start time is 4.721343393
+Vehicle SP2 travels from 2 to 7 to deliver 4 pallets. Expected unload start time is 7.13884967
+Vehicle SP2 travels from 3 to 10 to deliver 6 pallets. Expected unload start time is 5.409080935
+Vehicle SP2 travels from 7 to 12 to deliver 3 pallets. Expected unload start time is 7.625617579
+Vehicle SP2 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.109786465
+Vehicle SP2 travels from 10 to 13 to deliver 2 pallets. Expected unload start time is 6.090357411
+Vehicle SP2 travels from 12 to 8 to deliver 5 pallets. Expected unload start time is 9
+Vehicle SP2 travels from 13 to 2 to deliver 5 pallets. Expected unload start time is 6.435389538
+Objective value: 816.773242006
+Solve time: 402400</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 3], [9, 1], [4, 6], [11, 5], [6, 2], [15, 6], [14, 3], [1, 2]], [[3, 3], [10, 6], [13, 2], [2, 5], [7, 4], [12, 3], [8, 5]]], "1": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 3], [9, 1], [4, 6], [11, 5], [6, 2], [15, 6], [14, 3], [1, 2]], [[3, 3], [10, 6], [13, 2], [2, 5], [7, 4], [12, 3], [8, 5]]], "1": [[]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+5 (3) -&gt; 9 (1) -&gt; 4 (6) -&gt; 11 (5) -&gt; 6 (2) -&gt; 15 (6) -&gt; 14 (3) -&gt; 1 (2)
+3 (3) -&gt; 10 (6) -&gt; 13 (2) -&gt; 2 (5) -&gt; 7 (4) -&gt; 12 (3) -&gt; 8 (5)
+8 metre (capacity 22):
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 5 pallets demand and window 0-24 at (-73.718070857, 91.079714945) and average unload time 0.037357686
+Customer 2 has 3 pallets demand and window 0-24 at (-66.940931726, 33.621638274) and average unload time 0.072200581
+Customer 3 has 5 pallets demand and window 0-24 at (50.332110333, -10.913255315) and average unload time 0.165691184
+Customer 4 has 5 pallets demand and window 0-24 at (61.963259917, 62.104971968) and average unload time 0.159984754
+Customer 5 has 3 pallets demand and window 0-24 at (43.863515313, 94.654198647) and average unload time 0.128968032
+Customer 6 has 2 pallets demand and window 0-24 at (-84.032631312, -92.256698005) and average unload time 0.031610833
+Customer 7 has 2 pallets demand and window 0-24 at (-85.667767447, -61.207622243) and average unload time 0.146616051
+Customer 8 has 2 pallets demand and window 10-11 at (38.714277384, -7.971673412) and average unload time 0.064480524
+Customer 9 has 3 pallets demand and window 0-24 at (41.584355922, 90.077208418) and average unload time 0.079462137
+Customer 10 has 1 pallets demand and window 0-24 at (22.757947342, 61.771919685) and average unload time 0.149102746
+Customer 11 has 4 pallets demand and window 13-14 at (-62.300250821, 49.705177269) and average unload time 0.04057667
+Customer 12 has 2 pallets demand and window 0-24 at (-85.916347048, 19.293370992) and average unload time 0.15870734
+Customer 13 has 2 pallets demand and window 0-24 at (-66.148024698, -62.635669069) and average unload time 0.106023152
+Customer 14 has 3 pallets demand and window 0-24 at (-21.606200286, -4.247988456) and average unload time 0.032417249
+Customer 15 has 1 pallets demand and window 14-15 at (72.660626914, -8.64538822) and average unload time 0.079218503
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.72176286, and time cost 7.022532479
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 1.42730741, and time cost 14.852718276
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.72176286, and time cost 7.022532479
+Output:
+Vehicle SP1 travels from Depot to 1 to deliver 5 pallets. Expected unload start time is 13.276698089
+Vehicle SP1 travels from 1 to 11 to deliver 4 pallets. Expected unload start time is 14
+Vehicle SP1 travels from 2 to 12 to deliver 2 pallets. Expected unload start time is 14.885371878
+Vehicle SP1 travels from 11 to 2 to deliver 3 pallets. Expected unload start time is 14.371552405
+Vehicle SP1 travels from 12 to 14 to deliver 2 pallets. Expected unload start time is 16.058830381
+Vehicle SP1 travels from 14 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.398912864
+Vehicle SP2 travels from Depot to 10 to deliver 1 pallets. Expected unload start time is 1.048521937
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.673841747
+Vehicle SP2 travels from 5 to 4 to deliver 5 pallets. Expected unload start time is 2.777298662
+Vehicle SP2 travels from 9 to 5 to deliver 3 pallets. Expected unload start time is 1.924855074
+Vehicle SP2 travels from 10 to 9 to deliver 3 pallets. Expected unload start time is 1.622555382
+Vehicle SP3 travels from Depot to 8 to deliver 2 pallets. Expected unload start time is 11
+Vehicle SP3 travels from 3 to 15 to deliver 1 pallets. Expected unload start time is 14
+Vehicle SP3 travels from 6 to 7 to deliver 2 pallets. Expected unload start time is 17.037392713
+Vehicle SP3 travels from 7 to 14 to deliver 1 pallets. Expected unload start time is 18.40215149
+Vehicle SP3 travels from 8 to 3 to deliver 5 pallets. Expected unload start time is 11.278766624
+Vehicle SP3 travels from 13 to 6 to deliver 2 pallets. Expected unload start time is 16.585519778
+Vehicle SP3 travels from 14 to DepotReturn to deliver 0 pallets. Expected unload start time is 18.709816723
+Vehicle SP3 travels from 15 to 13 to deliver 2 pallets. Expected unload start time is 15.940954596
+Objective value: 987.662265061
+Solve time: 6878870</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 5], [11, 4], [2, 3], [12, 2], [14, 2]], [[8, 2], [3, 5], [15, 1], [13, 2], [6, 2], [7, 2], [14, 1]]], "1": [[[10, 1], [9, 3], [5, 3], [4, 5]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[1, 5], [11, 4], [2, 3], [12, 2]], [[14, 3], [7, 2], [6, 2], [13, 2]]], "1": [[[8, 2], [3, 5], [15, 1], [4, 5], [5, 3], [9, 3], [10, 1]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+1 (5) -&gt; 11 (4) -&gt; 2 (3) -&gt; 12 (2)
+14 (3) -&gt; 7 (2) -&gt; 6 (2) -&gt; 13 (2)
+11 metre (capacity 30):
+8 (2) -&gt; 3 (5) -&gt; 15 (1) -&gt; 4 (5) -&gt; 5 (3) -&gt; 9 (3) -&gt; 10 (1)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 3 pallets demand and window 0-24 at (87.422288415, -5.416421293) and average unload time 0.097606548
+Customer 2 has 4 pallets demand and window 0-24 at (76.09019643, 1.324726291) and average unload time 0.133269044
+Customer 3 has 4 pallets demand and window 0-24 at (59.116336328, 95.190798298) and average unload time 0.060713275
+Customer 4 has 2 pallets demand and window 0-24 at (-13.340609264, 86.30741243) and average unload time 0.085459293
+Customer 5 has 3 pallets demand and window 0-24 at (-80.699258905, 93.535162417) and average unload time 0.06670742
+Customer 6 has 4 pallets demand and window 0-24 at (95.3488233, -38.949481696) and average unload time 0.142601548
+Customer 7 has 2 pallets demand and window 0-24 at (-95.49872556, -79.750607659) and average unload time 0.076769562
+Customer 8 has 4 pallets demand and window 0-24 at (4.066942541, 8.563247152) and average unload time 0.038882893
+Customer 9 has 4 pallets demand and window 0-24 at (-46.653858703, -79.771995871) and average unload time 0.018517647
+Customer 10 has 4 pallets demand and window 0-24 at (-47.317717304, 14.531335765) and average unload time 0.023820931
+Customer 11 has 1 pallets demand and window 0-24 at (-12.621447794, 39.558589124) and average unload time 0.031684024
+Customer 12 has 5 pallets demand and window 0-24 at (-77.02242336, -21.768866329) and average unload time 0.101075418
+Customer 13 has 3 pallets demand and window 0-24 at (-20.016659638, -34.111659181) and average unload time 0.151430945
+Customer 14 has 4 pallets demand and window 0-24 at (-91.077576967, 64.704454456) and average unload time 0.022607976
+Customer 15 has 4 pallets demand and window 0-24 at (-48.308062962, 16.106792163) and average unload time 0.132336
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.117464776, and time cost 14.488615501
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.149184102, and time cost 10.148935734
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 1.117464776, and time cost 14.488615501
+Output:
+Vehicle SP1 travels from Depot to 8 to deliver 4 pallets. Expected unload start time is 16.882467982
+Vehicle SP1 travels from 1 to 6 to deliver 4 pallets. Expected unload start time is 24
+Vehicle SP1 travels from 2 to 1 to deliver 3 pallets. Expected unload start time is 23.276465815
+Vehicle SP1 travels from 3 to 2 to deliver 4 pallets. Expected unload start time is 22.578569955
+Vehicle SP1 travels from 4 to 3 to deliver 4 pallets. Expected unload start time is 21.143361555
+Vehicle SP1 travels from 5 to 4 to deliver 2 pallets. Expected unload start time is 20.059949518
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.857873438
+Vehicle SP1 travels from 8 to 11 to deliver 1 pallets. Expected unload start time is 17.478030377
+Vehicle SP1 travels from 11 to 14 to deliver 4 pallets. Expected unload start time is 18.539556527
+Vehicle SP1 travels from 14 to 5 to deliver 3 pallets. Expected unload start time is 19.013010788
+Vehicle SP2 travels from Depot to 10 to deliver 4 pallets. Expected unload start time is 1.612746737
+Vehicle SP2 travels from 7 to 9 to deliver 4 pallets. Expected unload start time is 4.884914533
+Vehicle SP2 travels from 9 to 13 to deliver 3 pallets. Expected unload start time is 5.619761974
+Vehicle SP2 travels from 10 to 15 to deliver 4 pallets. Expected unload start time is 1.731291372
+Vehicle SP2 travels from 12 to 7 to deliver 2 pallets. Expected unload start time is 4.120814515
+Vehicle SP2 travels from 13 to DepotReturn to deliver 0 pallets. Expected unload start time is 6.568440784
+Vehicle SP2 travels from 15 to 12 to deliver 5 pallets. Expected unload start time is 2.854757622
+Objective value: 1171.754089029
+Solve time: 160661</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 4], [11, 1], [14, 4], [5, 3], [4, 2], [3, 4], [2, 4], [1, 3], [6, 4]]], "1": [[[10, 4], [15, 4], [12, 5], [7, 2], [9, 4], [13, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[6, 4], [1, 3], [2, 4], [3, 4], [4, 2], [5, 3], [14, 4], [11, 1], [8, 4]]], "1": [[[13, 3], [9, 4], [7, 2], [12, 5], [15, 4], [10, 4]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+6 (4) -&gt; 1 (3) -&gt; 2 (4) -&gt; 3 (4) -&gt; 4 (2) -&gt; 5 (3) -&gt; 14 (4) -&gt; 11 (1) -&gt; 8 (4)
+8 metre (capacity 22):
+13 (3) -&gt; 9 (4) -&gt; 7 (2) -&gt; 12 (5) -&gt; 15 (4) -&gt; 10 (4)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (-9.064441489, -76.588130577) and average unload time 0.057446867
+Customer 2 has 2 pallets demand and window 0-24 at (-15.130790012, 66.676653234) and average unload time 0.021120159
+Customer 3 has 2 pallets demand and window 0-24 at (44.71174822, 36.00888536) and average unload time 0.147955169
+Customer 4 has 1 pallets demand and window 0-24 at (97.808761445, 74.523153514) and average unload time 0.096981035
+Customer 5 has 6 pallets demand and window 0-24 at (-22.119222888, 14.119034561) and average unload time 0.130520638
+Customer 6 has 2 pallets demand and window 0-24 at (18.328599449, 18.16640095) and average unload time 0.122540762
+Customer 7 has 1 pallets demand and window 0-24 at (67.59779402, -93.495543954) and average unload time 0.065769432
+Customer 8 has 5 pallets demand and window 0-24 at (-74.431988013, -71.593915773) and average unload time 0.152697098
+Customer 9 has 6 pallets demand and window 0-24 at (15.341168614, -33.185821721) and average unload time 0.164910578
+Customer 10 has 5 pallets demand and window 0-24 at (-61.005432367, 2.516603529) and average unload time 0.13214124
+Customer 11 has 4 pallets demand and window 0-24 at (-38.035832816, -87.334294914) and average unload time 0.160892972
+Customer 12 has 3 pallets demand and window 0-24 at (8.755965668, -81.946119494) and average unload time 0.050328042
+Customer 13 has 3 pallets demand and window 0-24 at (33.980077507, -38.045094481) and average unload time 0.050169745
+Customer 14 has 4 pallets demand and window 0-24 at (80.055146666, 17.903017583) and average unload time 0.140559267
+Customer 15 has 4 pallets demand and window 0-24 at (35.988310988, -74.072436102) and average unload time 0.060702034
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.947289255, and time cost 8.712792477
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.808194283, and time cost 14.021067223
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.947289255, and time cost 8.712792477
+Output:
+Vehicle SP1 travels from Depot to 8 to deliver 5 pallets. Expected unload start time is 2.697733902
+Vehicle SP1 travels from 1 to 12 to deliver 3 pallets. Expected unload start time is 5.33421815
+Vehicle SP1 travels from 7 to 13 to deliver 3 pallets. Expected unload start time is 7.422443264
+Vehicle SP1 travels from 8 to 11 to deliver 4 pallets. Expected unload start time is 3.95689438
+Vehicle SP1 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.260192772
+Vehicle SP1 travels from 11 to 1 to deliver 2 pallets. Expected unload start time is 4.986718607
+Vehicle SP1 travels from 12 to 15 to deliver 4 pallets. Expected unload start time is 5.839549281
+Vehicle SP1 travels from 13 to 9 to deliver 6 pallets. Expected unload start time is 7.813726465
+Vehicle SP1 travels from 15 to 7 to deliver 1 pallets. Expected unload start time is 6.546108519
+Vehicle SP2 travels from Depot to 5 to deliver 6 pallets. Expected unload start time is 17.01424143
+Vehicle SP2 travels from 2 to 4 to deliver 1 pallets. Expected unload start time is 21.408627879
+Vehicle SP2 travels from 3 to 6 to deliver 2 pallets. Expected unload start time is 24
+Vehicle SP2 travels from 4 to 14 to deliver 4 pallets. Expected unload start time is 22.247337326
+Vehicle SP2 travels from 5 to 10 to deliver 5 pallets. Expected unload start time is 18.304617923
+Vehicle SP2 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.567657989
+Vehicle SP2 travels from 10 to 2 to deliver 2 pallets. Expected unload start time is 19.951240161
+Vehicle SP2 travels from 14 to 3 to deliver 2 pallets. Expected unload start time is 23.305964212
+Objective value: 901.181107228
+Solve time: 183467</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 5], [11, 4], [1, 2], [12, 3], [15, 4], [7, 1], [13, 3], [9, 6]]], "1": [[[5, 6], [10, 5], [2, 2], [4, 1], [14, 4], [3, 2], [6, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[9, 6], [13, 3], [7, 1], [15, 4], [12, 3], [1, 2], [11, 4], [8, 5]]], "1": [[[6, 2], [3, 2], [14, 4], [4, 1], [2, 2], [10, 5], [5, 6]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+9 (6) -&gt; 13 (3) -&gt; 7 (1) -&gt; 15 (4) -&gt; 12 (3) -&gt; 1 (2) -&gt; 11 (4) -&gt; 8 (5)
+8 metre (capacity 22):
+6 (2) -&gt; 3 (2) -&gt; 14 (4) -&gt; 4 (1) -&gt; 2 (2) -&gt; 10 (5) -&gt; 5 (6)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 5 pallets demand and window 0-24 at (-86.517627714, -4.646549277) and average unload time 0.094958434
+Customer 2 has 2 pallets demand and window 0-24 at (-36.52068524, -55.120482981) and average unload time 0.048993863
+Customer 3 has 5 pallets demand and window 0-24 at (-54.469231407, 86.012803643) and average unload time 0.156560749
+Customer 4 has 3 pallets demand and window 0-24 at (-34.606630838, -27.660352428) and average unload time 0.048615766
+Customer 5 has 5 pallets demand and window 0-24 at (59.666082287, 85.545499347) and average unload time 0.161323906
+Customer 6 has 2 pallets demand and window 0-24 at (-22.695435076, -52.943749588) and average unload time 0.155221928
+Customer 7 has 2 pallets demand and window 5-6 at (54.264241078, 36.466904004) and average unload time 0.083128842
+Customer 8 has 4 pallets demand and window 0-24 at (28.533739427, -79.796330562) and average unload time 0.025518472
+Customer 9 has 2 pallets demand and window 0-24 at (38.669520592, 19.382373801) and average unload time 0.147994342
+Customer 10 has 2 pallets demand and window 0-24 at (0.680873926, -11.042984709) and average unload time 0.048818634
+Customer 11 has 2 pallets demand and window 0-24 at (-80.405754187, -77.535743732) and average unload time 0.042142801
+Customer 12 has 2 pallets demand and window 13-14 at (95.286143677, 22.348573552) and average unload time 0.147026905
+Customer 13 has 5 pallets demand and window 0-24 at (89.759378786, -16.187628285) and average unload time 0.080046115
+Customer 14 has 4 pallets demand and window 0-24 at (98.741334004, -54.148590891) and average unload time 0.021859637
+Customer 15 has 2 pallets demand and window 0-24 at (85.655030097, -28.826524149) and average unload time 0.081735272
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.399733474, and time cost 7.917550936
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.984275465, and time cost 12.379255256
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.399733474, and time cost 7.917550936
+Output:
+Vehicle SP1 travels from Depot to 10 to deliver 2 pallets. Expected unload start time is 0.454055413
+Vehicle SP1 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 0.689992121
+Vehicle SP2 travels from Depot to 7 to deliver 2 pallets. Expected unload start time is 6
+Vehicle SP2 travels from 1 to 11 to deliver 2 pallets. Expected unload start time is 12.390641812
+Vehicle SP2 travels from 2 to 6 to deliver 2 pallets. Expected unload start time is 13.363837425
+Vehicle SP2 travels from 3 to 1 to deliver 5 pallets. Expected unload start time is 11.001537257
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.222527262
+Vehicle SP2 travels from 5 to 3 to deliver 5 pallets. Expected unload start time is 9.016767805
+Vehicle SP2 travels from 6 to 8 to deliver 4 pallets. Expected unload start time is 14.397283855
+Vehicle SP2 travels from 7 to 5 to deliver 5 pallets. Expected unload start time is 6.783444902
+Vehicle SP2 travels from 8 to 4 to deliver 3 pallets. Expected unload start time is 15.522898364
+Vehicle SP2 travels from 11 to 2 to deliver 2 pallets. Expected unload start time is 13.090905193
+Vehicle SP3 travels from Depot to 14 to deliver 4 pallets. Expected unload start time is 12.339825637
+Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.839410293
+Vehicle SP3 travels from 12 to 9 to deliver 2 pallets. Expected unload start time is 15.002732201
+Vehicle SP3 travels from 13 to 12 to deliver 2 pallets. Expected unload start time is 14.000000004
+Vehicle SP3 travels from 14 to 15 to deliver 2 pallets. Expected unload start time is 12.783559885
+Vehicle SP3 travels from 15 to 13 to deliver 5 pallets. Expected unload start time is 13.113138154
+Objective value: 1335.201246375
+Solve time: 610109</t>
+  </si>
+  <si>
+    <t>{"0": [[[10, 2]], [[14, 4], [15, 2], [13, 5], [12, 2], [9, 2]]], "1": [[[7, 2], [5, 5], [3, 5], [1, 5], [11, 2], [2, 2], [6, 2], [8, 4], [4, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[14, 4], [15, 2], [13, 5], [12, 2], [9, 2]], [[10, 2]]], "1": [[[4, 3], [8, 4], [6, 2], [2, 2], [11, 2], [1, 5], [3, 5], [5, 5], [7, 2]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+14 (4) -&gt; 15 (2) -&gt; 13 (5) -&gt; 12 (2) -&gt; 9 (2)
+10 (2)
+11 metre (capacity 30):
+4 (3) -&gt; 8 (4) -&gt; 6 (2) -&gt; 2 (2) -&gt; 11 (2) -&gt; 1 (5) -&gt; 3 (5) -&gt; 5 (5) -&gt; 7 (2)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (34.917816938, 12.634536457) and average unload time 0.040425149
+Customer 2 has 4 pallets demand and window 0-24 at (-82.628184807, -12.821131585) and average unload time 0.126873778
+Customer 3 has 3 pallets demand and window 0-24 at (4.610586402, 72.906563045) and average unload time 0.148844199
+Customer 4 has 1 pallets demand and window 11-12 at (44.027262993, 2.002888182) and average unload time 0.061985417
+Customer 5 has 2 pallets demand and window 0-24 at (50.451068622, 61.517125985) and average unload time 0.107258996
+Customer 6 has 2 pallets demand and window 0-24 at (47.643850794, 70.240754918) and average unload time 0.105421374
+Customer 7 has 1 pallets demand and window 0-24 at (-70.642868313, -15.474242962) and average unload time 0.066420993
+Customer 8 has 2 pallets demand and window 0-24 at (26.879901206, 63.930534519) and average unload time 0.099297253
+Customer 9 has 4 pallets demand and window 0-24 at (49.154288766, 59.701875062) and average unload time 0.130412933
+Customer 10 has 4 pallets demand and window 0-24 at (88.498648404, 84.857622549) and average unload time 0.023317746
+Customer 11 has 4 pallets demand and window 0-24 at (-33.226064385, 49.180315877) and average unload time 0.066751718
+Customer 12 has 2 pallets demand and window 0-24 at (64.382672382, 0.216708306) and average unload time 0.103472515
+Customer 13 has 2 pallets demand and window 0-24 at (-35.825692037, 93.59285431) and average unload time 0.054211473
+Customer 14 has 1 pallets demand and window 0-24 at (82.605213511, -37.756331184) and average unload time 0.025019158
+Customer 15 has 2 pallets demand and window 0-24 at (20.729413567, -44.052074847) and average unload time 0.084627095
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.376225862, and time cost 14.228793906
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.773479002, and time cost 14.949842721
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.376225862, and time cost 14.228793906
+Output:
+Vehicle SP1 travels from Depot to 4 to deliver 1 pallets. Expected unload start time is 12
+Vehicle SP1 travels from 4 to 12 to deliver 2 pallets. Expected unload start time is 12.31740576
+Vehicle SP1 travels from 12 to 14 to deliver 1 pallets. Expected unload start time is 13.050838671
+Vehicle SP1 travels from 14 to 15 to deliver 2 pallets. Expected unload start time is 13.853298644
+Vehicle SP1 travels from 15 to DepotReturn to deliver 0 pallets. Expected unload start time is 14.631123635
+Vehicle SP2 travels from Depot to 7 to deliver 1 pallets. Expected unload start time is 1.482581357
+Vehicle SP2 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.244904974
+Vehicle SP2 travels from 2 to 11 to deliver 4 pallets. Expected unload start time is 3.200895766
+Vehicle SP2 travels from 3 to 8 to deliver 2 pallets. Expected unload start time is 5.446848439
+Vehicle SP2 travels from 5 to 9 to deliver 4 pallets. Expected unload start time is 7.563570103
+Vehicle SP2 travels from 6 to 10 to deliver 4 pallets. Expected unload start time is 6.669941827
+Vehicle SP2 travels from 7 to 2 to deliver 4 pallets. Expected unload start time is 1.702445546
+Vehicle SP2 travels from 8 to 6 to deliver 2 pallets. Expected unload start time is 5.916713245
+Vehicle SP2 travels from 9 to 1 to deliver 2 pallets. Expected unload start time is 8.69988784
+Vehicle SP2 travels from 10 to 5 to deliver 2 pallets. Expected unload start time is 7.321166256
+Vehicle SP2 travels from 11 to 13 to deliver 2 pallets. Expected unload start time is 4.024009591
+Vehicle SP2 travels from 13 to 3 to deliver 3 pallets. Expected unload start time is 4.700187884
+Objective value: 852.68954256
+Solve time: 50914</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 1], [12, 2], [14, 1], [15, 2]]], "1": [[[7, 1], [2, 4], [11, 4], [13, 2], [3, 3], [8, 2], [6, 2], [10, 4], [5, 2], [9, 4], [1, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 2], [14, 1], [12, 2], [4, 1]]], "1": [[[7, 1], [2, 4], [11, 4], [13, 2], [3, 3], [8, 2], [6, 2], [10, 4], [5, 2], [9, 4], [1, 2]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+15 (2) -&gt; 14 (1) -&gt; 12 (2) -&gt; 4 (1)
+11 metre (capacity 30):
+7 (1) -&gt; 2 (4) -&gt; 11 (4) -&gt; 13 (2) -&gt; 3 (3) -&gt; 8 (2) -&gt; 6 (2) -&gt; 10 (4) -&gt; 5 (2) -&gt; 9 (4) -&gt; 1 (2)
 </t>
   </si>
   <si>
@@ -2809,6 +3376,592 @@
 11 (7) -&gt; 10 (2) -&gt; 5 (3)
 11 metre (capacity 30):
 7 (7) -&gt; 4 (8) -&gt; 3 (4) -&gt; 6 (8)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 0-24 at (-39.032053541, 7.249999794) and average unload time 0.052706153
+Customer 2 has 5 pallets demand and window 0-24 at (80.444663829, 62.352235705) and average unload time 0.134248995
+Customer 3 has 4 pallets demand and window 6-7 at (56.359069787, 73.224890785) and average unload time 0.043490986
+Customer 4 has 7 pallets demand and window 0-24 at (-51.103167819, -50.782175155) and average unload time 0.154152833
+Customer 5 has 2 pallets demand and window 7-8 at (-43.039801017, 22.925187913) and average unload time 0.067420062
+Customer 6 has 5 pallets demand and window 0-24 at (45.579407181, 3.537435266) and average unload time 0.081539
+Customer 7 has 2 pallets demand and window 0-24 at (16.010871384, 87.594613422) and average unload time 0.037129452
+Customer 8 has 6 pallets demand and window 9-10 at (23.313365752, 67.272975801) and average unload time 0.099512564
+Customer 9 has 3 pallets demand and window 0-24 at (71.18762443, -61.526565684) and average unload time 0.070537646
+Customer 10 has 6 pallets demand and window 0-24 at (-89.400181137, 80.723434011) and average unload time 0.15175885
+Customer 11 has 4 pallets demand and window 0-24 at (-15.604321421, -47.17028664) and average unload time 0.050093607
+Customer 12 has 3 pallets demand and window 0-24 at (76.418660884, 85.515719378) and average unload time 0.144794069
+Customer 13 has 2 pallets demand and window 0-24 at (-95.948983309, -93.024406601) and average unload time 0.077234868
+Customer 14 has 6 pallets demand and window 0-24 at (-27.185523731, 83.171299473) and average unload time 0.134219833
+Customer 15 has 5 pallets demand and window 0-24 at (25.201650907, -22.525990783) and average unload time 0.065993371
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.761468868, and time cost 8.001055878
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.029350483, and time cost 11.911847582
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.764522981, and time cost 10.739486761
+Vehicle SP4 is a Rigid with capacity 16, distance cost 1.029350483, and time cost 11.911847582
+Vehicle SP5 is a Rigid with capacity 16, distance cost 1.029350483, and time cost 11.911847582
+Output:
+Vehicle SP1 travels from Depot to 15 to deliver 1 pallets. Expected unload start time is 2.72229498
+Vehicle SP1 travels from 2 to 12 to deliver 3 pallets. Expected unload start time is 6.271548375
+Vehicle SP1 travels from 3 to 8 to deliver 6 pallets. Expected unload start time is 9
+Vehicle SP1 travels from 7 to 14 to deliver 6 pallets. Expected unload start time is 10.48403619
+Vehicle SP1 travels from 8 to 7 to deliver 2 pallets. Expected unload start time is 9.866998806
+Vehicle SP1 travels from 9 to 2 to deliver 5 pallets. Expected unload start time is 5.306418944
+Vehicle SP1 travels from 12 to 3 to deliver 4 pallets. Expected unload start time is 7
+Vehicle SP1 travels from 14 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.383124312
+Vehicle SP1 travels from 15 to 9 to deliver 3 pallets. Expected unload start time is 3.542003587
+Vehicle SP3 travels from Depot to 1 to deliver 1 pallets. Expected unload start time is 7.745051124
+Vehicle SP3 travels from 1 to 5 to deliver 2 pallets. Expected unload start time is 8
+Vehicle SP3 travels from 4 to 11 to deliver 4 pallets. Expected unload start time is 14.594625368
+Vehicle SP3 travels from 5 to 10 to deliver 6 pallets. Expected unload start time is 9.06101523
+Vehicle SP3 travels from 10 to 13 to deliver 2 pallets. Expected unload start time is 12.144958503
+Vehicle SP3 travels from 11 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.416053688
+Vehicle SP3 travels from 13 to 4 to deliver 7 pallets. Expected unload start time is 13.069529013
+Vehicle SP5 travels from Depot to 15 to deliver 4 pallets. Expected unload start time is 0.782700138
+Vehicle SP5 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 2.439375291
+Vehicle SP5 travels from 15 to 6 to deliver 5 pallets. Expected unload start time is 1.460224393
+Objective value: 1020.84532158
+Solve time: 1918911</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 1], [9, 3], [2, 5], [12, 3], [3, 4], [8, 6], [7, 2], [14, 6]]], "1": [[[15, 4], [6, 5]]], "2": [[[1, 1], [5, 2], [10, 6], [13, 2], [4, 7], [11, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[11, 4], [4, 7], [13, 2], [10, 6], [14, 6], [5, 2], [1, 1]]], "1": [[[15, 5], [9, 3], [6, 5]]], "2": [[[2, 5], [12, 3], [3, 4], [7, 2], [8, 6]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+11 (4) -&gt; 4 (7) -&gt; 13 (2) -&gt; 10 (6) -&gt; 14 (6) -&gt; 5 (2) -&gt; 1 (1)
+Rigid (capacity 16):
+15 (5) -&gt; 9 (3) -&gt; 6 (5)
+8 metre (capacity 22):
+2 (5) -&gt; 12 (3) -&gt; 3 (4) -&gt; 7 (2) -&gt; 8 (6)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (-83.520821258, 55.802243323) and average unload time 0.135895261
+Customer 2 has 8 pallets demand and window 0-24 at (89.289330005, -43.024739796) and average unload time 0.156445092
+Customer 3 has 2 pallets demand and window 0-24 at (-50.500463437, -27.952296504) and average unload time 0.027310169
+Customer 4 has 4 pallets demand and window 0-24 at (-17.450388307, 90.52258207) and average unload time 0.13675751
+Customer 5 has 4 pallets demand and window 0-24 at (31.918019538, -12.169024267) and average unload time 0.139534579
+Customer 6 has 1 pallets demand and window 0-24 at (43.022218647, 16.203787333) and average unload time 0.017639662
+Customer 7 has 4 pallets demand and window 0-24 at (15.219285811, 93.671874086) and average unload time 0.159829157
+Customer 8 has 6 pallets demand and window 0-24 at (95.798806869, -49.744339038) and average unload time 0.040921043
+Customer 9 has 5 pallets demand and window 0-24 at (60.025991716, 20.568455039) and average unload time 0.135134765
+Customer 10 has 4 pallets demand and window 0-24 at (-63.582702182, 46.048613361) and average unload time 0.056465104
+Customer 11 has 7 pallets demand and window 13-14 at (22.54141338, 64.070654946) and average unload time 0.081578726
+Customer 12 has 1 pallets demand and window 0-24 at (66.124573887, -73.392306181) and average unload time 0.081648149
+Customer 13 has 3 pallets demand and window 0-24 at (-87.516585394, 1.418459467) and average unload time 0.147579315
+Customer 14 has 8 pallets demand and window 0-24 at (-28.109105236, 26.462218397) and average unload time 0.152192447
+Customer 15 has 2 pallets demand and window 0-24 at (-0.978116187, 21.803846872) and average unload time 0.091012218
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.828707647, and time cost 10.4078428
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.264576942, and time cost 13.655243709
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.896771313, and time cost 10.305486272
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 0.896771313, and time cost 10.305486272
+Vehicle SP5 is a Rigid with capacity 16, distance cost 1.264576942, and time cost 13.655243709
+Output:
+Vehicle SP1 travels from Depot to 5 to deliver 4 pallets. Expected unload start time is 3.213257022
+Vehicle SP1 travels from 2 to 9 to deliver 5 pallets. Expected unload start time is 7.693059785
+Vehicle SP1 travels from 5 to 12 to deliver 1 pallets. Expected unload start time is 4.648034749
+Vehicle SP1 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.180467676
+Vehicle SP1 travels from 8 to 2 to deliver 8 pallets. Expected unload start time is 5.56646
+Vehicle SP1 travels from 9 to 6 to deliver 1 pallets. Expected unload start time is 8.588171321
+Vehicle SP1 travels from 12 to 8 to deliver 6 pallets. Expected unload start time is 5.203989374
+Vehicle SP3 travels from Depot to 11 to deliver 7 pallets. Expected unload start time is 13
+Vehicle SP3 travels from 4 to 15 to deliver 2 pallets. Expected unload start time is 16.432146482
+Vehicle SP3 travels from 7 to 4 to deliver 4 pallets. Expected unload start time is 15.001798805
+Vehicle SP3 travels from 11 to 7 to deliver 4 pallets. Expected unload start time is 13.952218229
+Vehicle SP3 travels from 15 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.886993104
+Vehicle SP4 travels from Depot to 14 to deliver 8 pallets. Expected unload start time is 2.600130257
+Vehicle SP4 travels from 1 to 13 to deliver 3 pallets. Expected unload start time is 5.780920788
+Vehicle SP4 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 7.590443233
+Vehicle SP4 travels from 10 to 1 to deliver 2 pallets. Expected unload start time is 4.827500546
+Vehicle SP4 travels from 13 to 3 to deliver 2 pallets. Expected unload start time is 6.814319723
+Vehicle SP4 travels from 14 to 10 to deliver 4 pallets. Expected unload start time is 4.324190278
+Objective value: 912.918897545
+Solve time: 2367126</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 4], [12, 1], [8, 6], [2, 8], [9, 5], [6, 1]]], "1": [], "2": [[[11, 7], [7, 4], [4, 4], [15, 2]], [[14, 8], [10, 4], [1, 2], [13, 3], [3, 2]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[5, 4], [12, 1], [8, 6], [2, 8], [9, 5], [6, 1]]], "1": [[]], "2": [[[14, 8], [10, 4], [1, 2], [13, 3], [3, 2]], [[15, 2], [4, 4], [7, 4], [11, 7]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+5 (4) -&gt; 12 (1) -&gt; 8 (6) -&gt; 2 (8) -&gt; 9 (5) -&gt; 6 (1)
+Rigid (capacity 16):
+8 metre (capacity 22):
+14 (8) -&gt; 10 (4) -&gt; 1 (2) -&gt; 13 (3) -&gt; 3 (2)
+15 (2) -&gt; 4 (4) -&gt; 7 (4) -&gt; 11 (7)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 3 pallets demand and window 0-24 at (27.328903497, -73.236997424) and average unload time 0.03574595
+Customer 2 has 8 pallets demand and window 0-24 at (-45.497311648, 94.819688879) and average unload time 0.12503958
+Customer 3 has 3 pallets demand and window 0-24 at (-60.766826473, -35.734271071) and average unload time 0.164003067
+Customer 4 has 6 pallets demand and window 0-24 at (-45.002774549, -98.129723249) and average unload time 0.101421843
+Customer 5 has 2 pallets demand and window 0-24 at (-87.020748175, 23.913081076) and average unload time 0.112565726
+Customer 6 has 2 pallets demand and window 0-24 at (34.694048358, 84.316747956) and average unload time 0.070931482
+Customer 7 has 5 pallets demand and window 0-24 at (94.119331073, -78.119545067) and average unload time 0.076139181
+Customer 8 has 5 pallets demand and window 0-24 at (-20.781700583, 20.765920917) and average unload time 0.105293925
+Customer 9 has 2 pallets demand and window 5-6 at (-0.41662534, -15.288318747) and average unload time 0.148514863
+Customer 10 has 8 pallets demand and window 0-24 at (61.716230077, 75.39941278) and average unload time 0.034497516
+Customer 11 has 3 pallets demand and window 0-24 at (79.51554338, -16.8529641) and average unload time 0.107877536
+Customer 12 has 2 pallets demand and window 0-24 at (26.039209462, 86.617765604) and average unload time 0.137122114
+Customer 13 has 4 pallets demand and window 0-24 at (53.557948168, -84.690947933) and average unload time 0.120925875
+Customer 14 has 4 pallets demand and window 6-7 at (98.196296929, -53.372659325) and average unload time 0.023493868
+Customer 15 has 1 pallets demand and window 10-11 at (-1.558486125, 6.320601503) and average unload time 0.081997479
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 0.930227826, and time cost 12.897234816
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.047179642, and time cost 14.848708666
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.380510193, and time cost 12.199494415
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.380510193, and time cost 12.199494415
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.930227826, and time cost 12.897234816
+Output:
+Vehicle SP1 travels from Depot to 15 to deliver 1 pallets. Expected unload start time is 11
+Vehicle SP1 travels from 2 to 12 to deliver 2 pallets. Expected unload start time is 15.890601767
+Vehicle SP1 travels from 5 to 2 to deliver 8 pallets. Expected unload start time is 13.990220427
+Vehicle SP1 travels from 6 to 10 to deliver 8 pallets. Expected unload start time is 16.774346787
+Vehicle SP1 travels from 8 to 5 to deliver 2 pallets. Expected unload start time is 12.737961396
+Vehicle SP1 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 18.268289125
+Vehicle SP1 travels from 12 to 6 to deliver 2 pallets. Expected unload start time is 16.276789702
+Vehicle SP1 travels from 15 to 8 to deliver 5 pallets. Expected unload start time is 11.382569649
+Vehicle SP2 travels from Depot to 9 to deliver 2 pallets. Expected unload start time is 5
+Vehicle SP2 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.488204657
+Vehicle SP5 travels from Depot to 11 to deliver 3 pallets. Expected unload start time is 6.163614605
+Vehicle SP5 travels from 1 to 4 to deliver 6 pallets. Expected unload start time is 10.206698336
+Vehicle SP5 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.992876415
+Vehicle SP5 travels from 4 to 3 to deliver 3 pallets. Expected unload start time is 11.619679687
+Vehicle SP5 travels from 7 to 13 to deliver 4 pallets. Expected unload start time is 8.301805458
+Vehicle SP5 travels from 11 to 14 to deliver 4 pallets. Expected unload start time is 7
+Vehicle SP5 travels from 13 to 1 to deliver 3 pallets. Expected unload start time is 9.143270174
+Vehicle SP5 travels from 14 to 7 to deliver 5 pallets. Expected unload start time is 7.407481354
+Objective value: 1043.294018849
+Solve time: 1008065</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 1], [8, 5], [5, 2], [2, 8], [12, 2], [6, 2], [10, 8]], [[11, 3], [14, 4], [7, 5], [13, 4], [1, 3], [4, 6], [3, 3]]], "1": [[[9, 2]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 1], [8, 5], [5, 2], [2, 8], [12, 2], [6, 2], [10, 8]], [[3, 3], [4, 6], [1, 3], [13, 4], [7, 5], [14, 4], [11, 3]]], "1": [[[9, 2]]], "2": [[]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+15 (1) -&gt; 8 (5) -&gt; 5 (2) -&gt; 2 (8) -&gt; 12 (2) -&gt; 6 (2) -&gt; 10 (8)
+3 (3) -&gt; 4 (6) -&gt; 1 (3) -&gt; 13 (4) -&gt; 7 (5) -&gt; 14 (4) -&gt; 11 (3)
+Rigid (capacity 16):
+9 (2)
+8 metre (capacity 22):
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 0-24 at (7.006323872, -23.430169157) and average unload time 0.031563421
+Customer 2 has 2 pallets demand and window 0-24 at (66.167873599, 94.658667652) and average unload time 0.068661661
+Customer 3 has 3 pallets demand and window 0-24 at (-10.307330892, -41.495563938) and average unload time 0.12534377
+Customer 4 has 1 pallets demand and window 0-24 at (13.069908874, 49.439416409) and average unload time 0.052395404
+Customer 5 has 2 pallets demand and window 0-24 at (-74.40802058, 21.036726392) and average unload time 0.120892336
+Customer 6 has 4 pallets demand and window 8-9 at (-43.238677966, 3.076430869) and average unload time 0.048100089
+Customer 7 has 6 pallets demand and window 0-24 at (-84.707114912, -76.975516719) and average unload time 0.043310175
+Customer 8 has 4 pallets demand and window 0-24 at (30.295400602, 32.135645155) and average unload time 0.136235092
+Customer 9 has 3 pallets demand and window 0-24 at (99.567327578, -9.188141369) and average unload time 0.14857005
+Customer 10 has 4 pallets demand and window 0-24 at (27.531430369, 16.509881766) and average unload time 0.070974786
+Customer 11 has 4 pallets demand and window 0-24 at (-42.008477029, 52.756161377) and average unload time 0.165795042
+Customer 12 has 5 pallets demand and window 0-24 at (-54.773935691, -60.848341099) and average unload time 0.13113815
+Customer 13 has 7 pallets demand and window 0-24 at (48.321160563, 38.222857414) and average unload time 0.061147035
+Customer 14 has 4 pallets demand and window 0-24 at (-42.70368536, -55.009297675) and average unload time 0.162643538
+Customer 15 has 3 pallets demand and window 21-22 at (-28.527138421, -43.092688425) and average unload time 0.032769392
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.369572021, and time cost 12.832067823
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.369572021, and time cost 12.832067823
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.369572021, and time cost 12.832067823
+Vehicle SP4 is a Rigid with capacity 16, distance cost 1.369572021, and time cost 12.832067823
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.103142574, and time cost 8.520889676
+Output:
+Vehicle SP1 travels from Depot to 8 to deliver 4 pallets. Expected unload start time is 0.902352429
+Vehicle SP1 travels from 8 to 13 to deliver 7 pallets. Expected unload start time is 1.685115661
+Vehicle SP1 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 3.174085463
+Vehicle SP1 travels from 13 to 10 to deliver 4 pallets. Expected unload start time is 2.488907922
+Vehicle SP3 travels from Depot to 1 to deliver 1 pallets. Expected unload start time is 6.58690219
+Vehicle SP3 travels from 1 to 3 to deliver 3 pallets. Expected unload start time is 6.931245767
+Vehicle SP3 travels from 3 to 6 to deliver 4 pallets. Expected unload start time is 8
+Vehicle SP3 travels from 6 to DepotReturn to deliver 0 pallets. Expected unload start time is 8.734250154
+Vehicle SP5 travels from Depot to 9 to deliver 3 pallets. Expected unload start time is 12.345603231
+Vehicle SP5 travels from 2 to 4 to deliver 1 pallets. Expected unload start time is 15.164003003
+Vehicle SP5 travels from 4 to 11 to deliver 4 pallets. Expected unload start time is 15.906125413
+Vehicle SP5 travels from 5 to 7 to deliver 6 pallets. Expected unload start time is 18.609757566
+Vehicle SP5 travels from 7 to 12 to deliver 5 pallets. Expected unload start time is 19.294633506
+Vehicle SP5 travels from 9 to 2 to deliver 2 pallets. Expected unload start time is 14.15488425
+Vehicle SP5 travels from 11 to 5 to deliver 2 pallets. Expected unload start time is 17.136074517
+Vehicle SP5 travels from 12 to 14 to deliver 4 pallets. Expected unload start time is 20.117929341
+Vehicle SP5 travels from 14 to 15 to deliver 3 pallets. Expected unload start time is 21
+Vehicle SP5 travels from 15 to DepotReturn to deliver 0 pallets. Expected unload start time is 21.744302736
+Objective value: 1202.942669572
+Solve time: 29802528</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 4], [13, 7], [10, 4]], [[1, 1], [3, 3], [6, 4]]], "1": [[[9, 3], [2, 2], [4, 1], [11, 4], [5, 2], [7, 6], [12, 5], [14, 4], [15, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 1], [13, 7], [8, 4], [10, 4]], [[15, 3], [3, 3], [1, 1]]], "1": [[[14, 4], [12, 5], [7, 6], [6, 4], [5, 2], [11, 4], [2, 2], [9, 3]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+4 (1) -&gt; 13 (7) -&gt; 8 (4) -&gt; 10 (4)
+15 (3) -&gt; 3 (3) -&gt; 1 (1)
+11 metre (capacity 30):
+14 (4) -&gt; 12 (5) -&gt; 7 (6) -&gt; 6 (4) -&gt; 5 (2) -&gt; 11 (4) -&gt; 2 (2) -&gt; 9 (3)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (67.93242389, 52.337597634) and average unload time 0.146396718
+Customer 2 has 1 pallets demand and window 0-24 at (67.215257142, -68.41211295) and average unload time 0.159410616
+Customer 3 has 5 pallets demand and window 8-9 at (-91.772847101, 56.40861121) and average unload time 0.148920243
+Customer 4 has 7 pallets demand and window 0-24 at (34.262359058, -30.657421168) and average unload time 0.151441229
+Customer 5 has 3 pallets demand and window 0-24 at (-99.728938359, 10.032949033) and average unload time 0.037319573
+Customer 6 has 5 pallets demand and window 5-6 at (-32.363589704, 39.121572022) and average unload time 0.165515465
+Customer 7 has 5 pallets demand and window 0-24 at (-81.004303945, 8.47708451) and average unload time 0.08527862
+Customer 8 has 9 pallets demand and window 0-24 at (-57.297415143, 5.247915168) and average unload time 0.125124844
+Customer 9 has 6 pallets demand and window 0-24 at (-3.401034044, 26.763464031) and average unload time 0.075040427
+Customer 10 has 5 pallets demand and window 13-14 at (-91.246514507, 20.381884101) and average unload time 0.099910265
+Customer 11 has 3 pallets demand and window 0-24 at (-63.809986231, 56.024969681) and average unload time 0.09456988
+Customer 12 has 2 pallets demand and window 10-11 at (-80.011721506, -60.872640858) and average unload time 0.122119363
+Customer 13 has 2 pallets demand and window 0-24 at (74.95201433, -28.166161406) and average unload time 0.030386253
+Customer 14 has 8 pallets demand and window 0-24 at (-0.539101405, 99.252523681) and average unload time 0.087607393
+Customer 15 has 1 pallets demand and window 0-24 at (-44.54042885, 48.13654891) and average unload time 0.157462016
+Vehicle SP1 is a 11 metre with capacity 30, distance cost 1.195410402, and time cost 10.904888924
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.223513132, and time cost 9.294498444
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.223513132, and time cost 9.294498444
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.223513132, and time cost 9.294498444
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.195410402, and time cost 10.904888924
+Output:
+Vehicle SP1 travels from Depot to 12 to deliver 2 pallets. Expected unload start time is 11
+Vehicle SP1 travels from 5 to 10 to deliver 5 pallets. Expected unload start time is 13
+Vehicle SP1 travels from 7 to 8 to deliver 9 pallets. Expected unload start time is 14.421321563
+Vehicle SP1 travels from 8 to DepotReturn to deliver 0 pallets. Expected unload start time is 16.266660701
+Vehicle SP1 travels from 10 to 7 to deliver 5 pallets. Expected unload start time is 13.69585591
+Vehicle SP1 travels from 12 to 5 to deliver 3 pallets. Expected unload start time is 12.720778403
+Vehicle SP3 travels from Depot to 1 to deliver 4 pallets. Expected unload start time is 21.045416955
+Vehicle SP3 travels from 1 to 13 to deliver 2 pallets. Expected unload start time is 22.641119063
+Vehicle SP3 travels from 2 to 4 to deliver 7 pallets. Expected unload start time is 24
+Vehicle SP3 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.634787808
+Vehicle SP3 travels from 13 to 2 to deliver 1 pallets. Expected unload start time is 23.214177199
+Vehicle SP5 travels from Depot to 6 to deliver 5 pallets. Expected unload start time is 5.932026792
+Vehicle SP5 travels from 3 to 14 to deliver 8 pallets. Expected unload start time is 10.004511754
+Vehicle SP5 travels from 6 to 15 to deliver 1 pallets. Expected unload start time is 6.948988487
+Vehicle SP5 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.399666326
+Vehicle SP5 travels from 11 to 3 to deliver 5 pallets. Expected unload start time is 8
+Vehicle SP5 travels from 14 to 9 to deliver 6 pallets. Expected unload start time is 11.612190063
+Vehicle SP5 travels from 15 to 11 to deliver 3 pallets. Expected unload start time is 7.366721703
+Objective value: 1313.294287954
+Solve time: 66642833</t>
+  </si>
+  <si>
+    <t>{"0": [[[12, 2], [5, 3], [10, 5], [7, 5], [8, 9]], [[6, 5], [15, 1], [11, 3], [3, 5], [14, 8], [9, 6]]], "1": [[[1, 4], [13, 2], [2, 1], [4, 7]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[12, 2], [5, 3], [10, 5], [7, 5], [8, 9]], [[4, 7], [2, 1], [13, 2], [1, 4], [14, 8], [9, 6]]], "1": [[[6, 5], [15, 1], [3, 5], [11, 3]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 metre (capacity 30):
+12 (2) -&gt; 5 (3) -&gt; 10 (5) -&gt; 7 (5) -&gt; 8 (9)
+4 (7) -&gt; 2 (1) -&gt; 13 (2) -&gt; 1 (4) -&gt; 14 (8) -&gt; 9 (6)
+8 metre (capacity 22):
+6 (5) -&gt; 15 (1) -&gt; 3 (5) -&gt; 11 (3)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 5 pallets demand and window 0-24 at (12.390644286, 58.142573768) and average unload time 0.017885087
+Customer 2 has 2 pallets demand and window 11-12 at (82.340485964, -1.065005669) and average unload time 0.159738107
+Customer 3 has 4 pallets demand and window 0-24 at (59.990871589, -21.89710531) and average unload time 0.049095605
+Customer 4 has 3 pallets demand and window 0-24 at (-63.905956164, -42.611763228) and average unload time 0.054265322
+Customer 5 has 6 pallets demand and window 0-24 at (32.669740647, -93.476101509) and average unload time 0.046909888
+Customer 6 has 1 pallets demand and window 9-10 at (89.717444854, -81.969577409) and average unload time 0.059570673
+Customer 7 has 1 pallets demand and window 0-24 at (-33.319036769, 56.106502171) and average unload time 0.068484732
+Customer 8 has 5 pallets demand and window 6-7 at (81.576606398, 3.075495515) and average unload time 0.018366337
+Customer 9 has 7 pallets demand and window 0-24 at (-27.08607424, -91.924071493) and average unload time 0.048462899
+Customer 10 has 2 pallets demand and window 0-24 at (-33.316051273, 8.306337073) and average unload time 0.119577759
+Customer 11 has 8 pallets demand and window 0-24 at (81.449633342, 92.950710993) and average unload time 0.106046671
+Customer 12 has 3 pallets demand and window 0-24 at (14.74707629, 68.006606371) and average unload time 0.064499592
+Customer 13 has 2 pallets demand and window 0-24 at (-83.270336251, -8.901661475) and average unload time 0.077010266
+Customer 14 has 1 pallets demand and window 0-24 at (-6.189197101, 39.466678888) and average unload time 0.110387181
+Customer 15 has 2 pallets demand and window 0-24 at (-22.38692844, 47.637297742) and average unload time 0.100614654
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.214373272, and time cost 12.743815173
+Vehicle SP2 is a 11 metre with capacity 30, distance cost 0.927175301, and time cost 13.558774621
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 1.214373272, and time cost 12.743815173
+Vehicle SP4 is a Rigid with capacity 16, distance cost 1.410458653, and time cost 8.591553826
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.927175301, and time cost 13.558774621
+Output:
+Vehicle SP2 travels from Depot to 8 to deliver 5 pallets. Expected unload start time is 7
+Vehicle SP2 travels from 1 to 7 to deliver 1 pallets. Expected unload start time is 10.935453556
+Vehicle SP2 travels from 7 to 15 to deliver 2 pallets. Expected unload start time is 11.176799512
+Vehicle SP2 travels from 8 to 11 to deliver 8 pallets. Expected unload start time is 8.215273001
+Vehicle SP2 travels from 11 to 12 to deliver 3 pallets. Expected unload start time is 9.953821865
+Vehicle SP2 travels from 12 to 1 to deliver 5 pallets. Expected unload start time is 10.274090554
+Vehicle SP2 travels from 14 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.214551569
+Vehicle SP2 travels from 15 to 14 to deliver 1 pallets. Expected unload start time is 11.604801528
+Vehicle SP5 travels from Depot to 10 to deliver 2 pallets. Expected unload start time is 5.433008103
+Vehicle SP5 travels from 2 to 3 to deliver 4 pallets. Expected unload start time is 11.776460969
+Vehicle SP5 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.771121605
+Vehicle SP5 travels from 4 to 9 to deliver 7 pallets. Expected unload start time is 7.904643679
+Vehicle SP5 travels from 5 to 6 to deliver 1 pallets. Expected unload start time is 10
+Vehicle SP5 travels from 6 to 2 to deliver 2 pallets. Expected unload start time is 11.075073108
+Vehicle SP5 travels from 9 to 5 to deliver 6 pallets. Expected unload start time is 8.99108356
+Vehicle SP5 travels from 10 to 13 to deliver 2 pallets. Expected unload start time is 6.332602136
+Vehicle SP5 travels from 13 to 4 to deliver 3 pallets. Expected unload start time is 6.972573761
+Objective value: 1071.867370112
+Solve time: 55065</t>
+  </si>
+  <si>
+    <t>{"0": [], "1": [[[8, 5], [11, 8], [12, 3], [1, 5], [7, 1], [15, 2], [14, 1]], [[10, 2], [13, 2], [4, 3], [9, 7], [5, 6], [6, 1], [2, 2], [3, 4]]], "2": []}</t>
+  </si>
+  <si>
+    <t>{"0": [[]], "1": [[[10, 2], [13, 2], [4, 3], [9, 7], [5, 6], [6, 1], [2, 2], [3, 4]], [[14, 1], [15, 2], [7, 1], [1, 5], [12, 3], [11, 8], [8, 5]]], "2": [[]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+11 metre (capacity 30):
+10 (2) -&gt; 13 (2) -&gt; 4 (3) -&gt; 9 (7) -&gt; 5 (6) -&gt; 6 (1) -&gt; 2 (2) -&gt; 3 (4)
+14 (1) -&gt; 15 (2) -&gt; 7 (1) -&gt; 1 (5) -&gt; 12 (3) -&gt; 11 (8) -&gt; 8 (5)
+Rigid (capacity 16):
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 1 pallets demand and window 0-24 at (-73.587199133, -19.178603131) and average unload time 0.155592931
+Customer 2 has 4 pallets demand and window 0-24 at (40.60819046, 89.625663688) and average unload time 0.028773857
+Customer 3 has 3 pallets demand and window 0-24 at (-87.159358466, -37.882298227) and average unload time 0.050341263
+Customer 4 has 3 pallets demand and window 0-24 at (3.467995817, -41.333207926) and average unload time 0.156991891
+Customer 5 has 4 pallets demand and window 0-24 at (-92.058797313, 30.956328408) and average unload time 0.072769913
+Customer 6 has 6 pallets demand and window 0-24 at (2.961426534, -43.226628858) and average unload time 0.131399779
+Customer 7 has 4 pallets demand and window 0-24 at (-67.464459943, 45.486970178) and average unload time 0.157194185
+Customer 8 has 4 pallets demand and window 0-24 at (24.386013751, 87.701900819) and average unload time 0.154156218
+Customer 9 has 7 pallets demand and window 0-24 at (70.824673247, 22.001858142) and average unload time 0.02868093
+Customer 10 has 3 pallets demand and window 0-24 at (-35.647406479, -47.155278006) and average unload time 0.07064722
+Customer 11 has 5 pallets demand and window 0-24 at (-0.087216962, -22.416107292) and average unload time 0.07848545
+Customer 12 has 4 pallets demand and window 0-24 at (-55.230088851, -16.670996483) and average unload time 0.127132743
+Customer 13 has 4 pallets demand and window 23-24 at (61.965232961, -9.922085192) and average unload time 0.033943037
+Customer 14 has 6 pallets demand and window 5-6 at (-16.823712231, 29.943854931) and average unload time 0.037847888
+Customer 15 has 3 pallets demand and window 0-24 at (77.504981998, -11.172960509) and average unload time 0.14015293
+Vehicle SP1 is a Rigid with capacity 16, distance cost 1.108665156, and time cost 10.821527244
+Vehicle SP2 is a Rigid with capacity 16, distance cost 1.108665156, and time cost 10.821527244
+Vehicle SP3 is a Rigid with capacity 16, distance cost 1.108665156, and time cost 10.821527244
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.069098342, and time cost 11.675039209
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 1.002108659, and time cost 7.666340944
+Output:
+Vehicle SP2 travels from Depot to 11 to deliver 5 pallets. Expected unload start time is 1.769691077
+Vehicle SP2 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 4.227381387
+Vehicle SP2 travels from 6 to 4 to deliver 3 pallets. Expected unload start time is 3.237925203
+Vehicle SP2 travels from 11 to 6 to deliver 6 pallets. Expected unload start time is 2.425026353
+Vehicle SP4 travels from Depot to 8 to deliver 4 pallets. Expected unload start time is 19.899126554
+Vehicle SP4 travels from 2 to 9 to deliver 7 pallets. Expected unload start time is 21.760890401
+Vehicle SP4 travels from 8 to 2 to deliver 4 pallets. Expected unload start time is 20.719949505
+Vehicle SP4 travels from 9 to 15 to deliver 3 pallets. Expected unload start time is 22.384666057
+Vehicle SP4 travels from 13 to DepotReturn to deliver 0 pallets. Expected unload start time is 23.920204454
+Vehicle SP4 travels from 15 to 13 to deliver 4 pallets. Expected unload start time is 23
+Vehicle SP5 travels from Depot to 14 to deliver 6 pallets. Expected unload start time is 4.999999993
+Vehicle SP5 travels from 1 to 12 to deliver 4 pallets. Expected unload start time is 8.855909729
+Vehicle SP5 travels from 3 to 1 to deliver 1 pallets. Expected unload start time is 8.468721924
+Vehicle SP5 travels from 5 to 3 to deliver 3 pallets. Expected unload start time is 8.028834057
+Vehicle SP5 travels from 7 to 5 to deliver 4 pallets. Expected unload start time is 6.875094908
+Vehicle SP5 travels from 10 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.768198628
+Vehicle SP5 travels from 12 to 10 to deliver 3 pallets. Expected unload start time is 9.817343297
+Vehicle SP5 travels from 14 to 7 to deliver 4 pallets. Expected unload start time is 5.889242155
+Objective value: 934.00151356
+Solve time: 518807</t>
+  </si>
+  <si>
+    <t>{"0": [[[11, 5], [6, 6], [4, 3]]], "1": [[[8, 4], [2, 4], [9, 7], [15, 3], [13, 4]]], "2": [[[14, 6], [7, 4], [5, 4], [3, 3], [1, 1], [12, 4], [10, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[4, 3], [6, 6], [11, 5]]], "1": [[[8, 4], [2, 4], [9, 7], [15, 3], [13, 4]]], "2": [[[14, 6], [7, 4], [5, 4], [3, 3], [1, 1], [12, 4], [10, 3]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+4 (3) -&gt; 6 (6) -&gt; 11 (5)
+8 metre (capacity 22):
+8 (4) -&gt; 2 (4) -&gt; 9 (7) -&gt; 15 (3) -&gt; 13 (4)
+11 metre (capacity 30):
+14 (6) -&gt; 7 (4) -&gt; 5 (4) -&gt; 3 (3) -&gt; 1 (1) -&gt; 12 (4) -&gt; 10 (3)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 2 pallets demand and window 0-24 at (23.94286835, -72.489108936) and average unload time 0.103617927
+Customer 2 has 8 pallets demand and window 0-24 at (54.657704498, 85.011657212) and average unload time 0.133972607
+Customer 3 has 7 pallets demand and window 0-24 at (-65.249567573, -18.125515735) and average unload time 0.079666474
+Customer 4 has 8 pallets demand and window 0-24 at (-84.062683251, -49.531001774) and average unload time 0.04344042
+Customer 5 has 4 pallets demand and window 0-24 at (48.730831153, 10.754814297) and average unload time 0.07117381
+Customer 6 has 2 pallets demand and window 0-24 at (79.491738229, 2.294948727) and average unload time 0.059720924
+Customer 7 has 7 pallets demand and window 0-24 at (45.581282555, -1.020287731) and average unload time 0.048174095
+Customer 8 has 1 pallets demand and window 0-24 at (43.387656398, -56.521593987) and average unload time 0.092322982
+Customer 9 has 2 pallets demand and window 0-24 at (-84.774098098, 74.179360931) and average unload time 0.127036066
+Customer 10 has 1 pallets demand and window 0-24 at (15.474956597, -61.991684804) and average unload time 0.109423865
+Customer 11 has 1 pallets demand and window 0-24 at (75.974883273, -14.900896417) and average unload time 0.047104639
+Customer 12 has 5 pallets demand and window 0-24 at (-91.288423383, 69.934508208) and average unload time 0.082191773
+Customer 13 has 4 pallets demand and window 0-24 at (-71.276978341, 55.316167728) and average unload time 0.031974613
+Customer 14 has 7 pallets demand and window 5-6 at (9.493765979, -60.538113154) and average unload time 0.080824188
+Customer 15 has 7 pallets demand and window 0-24 at (49.683830698, 60.705876686) and average unload time 0.144310386
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 1.175058287, and time cost 9.478065177
+Vehicle SP2 is a Rigid with capacity 16, distance cost 0.866176325, and time cost 12.738789175
+Vehicle SP3 is a Rigid with capacity 16, distance cost 0.866176325, and time cost 12.738789175
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 1.175058287, and time cost 9.478065177
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.810972497, and time cost 7.24859874
+Output:
+Vehicle SP1 travels from Depot to 14 to deliver 7 pallets. Expected unload start time is 6
+Vehicle SP1 travels from 1 to 8 to deliver 1 pallets. Expected unload start time is 7.442467501
+Vehicle SP1 travels from 6 to 7 to deliver 7 pallets. Expected unload start time is 9.007389507
+Vehicle SP1 travels from 7 to DepotReturn to deliver 0 pallets. Expected unload start time is 9.914516924
+Vehicle SP1 travels from 8 to 11 to deliver 1 pallets. Expected unload start time is 8.195544056
+Vehicle SP1 travels from 10 to 1 to deliver 2 pallets. Expected unload start time is 6.920722774
+Vehicle SP1 travels from 11 to 6 to deliver 2 pallets. Expected unload start time is 8.462046079
+Vehicle SP1 travels from 14 to 10 to deliver 1 pallets. Expected unload start time is 6.642710355
+Vehicle SP2 travels from Depot to 4 to deliver 8 pallets. Expected unload start time is 3.219288285
+Vehicle SP2 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 5.428596579
+Vehicle SP2 travels from 4 to 3 to deliver 7 pallets. Expected unload start time is 4.024427388
+Vehicle SP5 travels from Depot to 5 to deliver 4 pallets. Expected unload start time is 4.623126809
+Vehicle SP5 travels from 2 to 9 to deliver 2 pallets. Expected unload start time is 9.672545338
+Vehicle SP5 travels from 5 to 15 to deliver 7 pallets. Expected unload start time is 5.532323955
+Vehicle SP5 travels from 9 to 12 to deliver 5 pallets. Expected unload start time is 10.023808654
+Vehicle SP5 travels from 12 to 13 to deliver 4 pallets. Expected unload start time is 10.744544105
+Vehicle SP5 travels from 13 to DepotReturn to deliver 0 pallets. Expected unload start time is 12.00023673
+Vehicle SP5 travels from 15 to 2 to deliver 8 pallets. Expected unload start time is 6.852615181
+Objective value: 1017.010337055
+Solve time: 9934549</t>
+  </si>
+  <si>
+    <t>{"0": [[[14, 7], [10, 1], [1, 2], [8, 1], [11, 1], [6, 2], [7, 7]]], "1": [[[4, 8], [3, 7]]], "2": [[[5, 4], [15, 7], [2, 8], [9, 2], [12, 5], [13, 4]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[14, 7], [10, 1], [1, 2], [8, 1], [7, 7], [5, 4]]], "1": [[[4, 8], [3, 7]]], "2": [[[11, 1], [6, 2], [15, 7], [2, 8], [9, 2], [12, 5], [13, 4]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+14 (7) -&gt; 10 (1) -&gt; 1 (2) -&gt; 8 (1) -&gt; 7 (7) -&gt; 5 (4)
+Rigid (capacity 16):
+4 (8) -&gt; 3 (7)
+11 metre (capacity 30):
+11 (1) -&gt; 6 (2) -&gt; 15 (7) -&gt; 2 (8) -&gt; 9 (2) -&gt; 12 (5) -&gt; 13 (4)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 4 pallets demand and window 0-24 at (-98.809020948, -54.018606133) and average unload time 0.058229747
+Customer 2 has 6 pallets demand and window 0-24 at (-96.541446734, -54.477494731) and average unload time 0.162120816
+Customer 3 has 5 pallets demand and window 0-24 at (89.386872791, 65.231940393) and average unload time 0.154301757
+Customer 4 has 4 pallets demand and window 0-24 at (82.882883677, -87.935085485) and average unload time 0.102415211
+Customer 5 has 7 pallets demand and window 0-24 at (-36.417334845, 4.465762875) and average unload time 0.152410859
+Customer 6 has 2 pallets demand and window 0-24 at (74.895369879, -62.095801754) and average unload time 0.098178369
+Customer 7 has 6 pallets demand and window 0-24 at (57.560288321, -47.438391162) and average unload time 0.063370367
+Customer 8 has 1 pallets demand and window 7-8 at (-4.512747656, 70.649237347) and average unload time 0.042043682
+Customer 9 has 7 pallets demand and window 0-24 at (42.16288756, -20.223077598) and average unload time 0.118265435
+Customer 10 has 1 pallets demand and window 0-24 at (-79.341746229, -29.131063896) and average unload time 0.115893959
+Customer 11 has 5 pallets demand and window 0-24 at (32.526171801, -66.374424887) and average unload time 0.06771739
+Customer 12 has 4 pallets demand and window 0-24 at (-18.284381235, -99.890391151) and average unload time 0.067181579
+Customer 13 has 8 pallets demand and window 0-24 at (-88.411992642, 5.267608637) and average unload time 0.115622353
+Customer 14 has 2 pallets demand and window 21-22 at (95.761550226, -42.20288262) and average unload time 0.142102829
+Customer 15 has 1 pallets demand and window 12-13 at (-88.864079926, 9.316777589) and average unload time 0.121111206
+Vehicle SP1 is a Rigid with capacity 16, distance cost 0.772769933, and time cost 12.346334856
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 1.129085077, and time cost 9.030285638
+Vehicle SP3 is a 11 metre with capacity 30, distance cost 0.701640031, and time cost 8.715851822
+Vehicle SP4 is a 11 metre with capacity 30, distance cost 0.701640031, and time cost 8.715851822
+Vehicle SP5 is a 8 metre with capacity 22, distance cost 1.129085077, and time cost 9.030285638
+Output:
+Vehicle SP1 travels from Depot to 8 to deliver 1 pallets. Expected unload start time is 7
+Vehicle SP1 travels from 3 to DepotReturn to deliver 0 pallets. Expected unload start time is 10.372475934
+Vehicle SP1 travels from 8 to 3 to deliver 5 pallets. Expected unload start time is 8.217740671
+Vehicle SP3 travels from Depot to 12 to deliver 4 pallets. Expected unload start time is 18.642641712
+Vehicle SP3 travels from 4 to 6 to deliver 2 pallets. Expected unload start time is 21.443277625
+Vehicle SP3 travels from 6 to 14 to deliver 2 pallets. Expected unload start time is 22
+Vehicle SP3 travels from 7 to 9 to deliver 7 pallets. Expected unload start time is 23.537270409
+Vehicle SP3 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.949653095
+Vehicle SP3 travels from 11 to 4 to deliver 4 pallets. Expected unload start time is 20.695545747
+Vehicle SP3 travels from 12 to 11 to deliver 5 pallets. Expected unload start time is 19.672230233
+Vehicle SP3 travels from 14 to 7 to deliver 6 pallets. Expected unload start time is 22.766185131
+Vehicle SP4 travels from Depot to 10 to deliver 1 pallets. Expected unload start time is 9.538357611
+Vehicle SP4 travels from 1 to 13 to deliver 8 pallets. Expected unload start time is 12.024092071
+Vehicle SP4 travels from 2 to 1 to deliver 4 pallets. Expected unload start time is 11.038785897
+Vehicle SP4 travels from 5 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.304996441
+Vehicle SP4 travels from 10 to 2 to deliver 6 pallets. Expected unload start time is 10.037141742
+Vehicle SP4 travels from 13 to 15 to deliver 1 pallets. Expected unload start time is 13
+Vehicle SP4 travels from 15 to 5 to deliver 7 pallets. Expected unload start time is 13.779493861
+Objective value: 896.09260947
+Solve time: 5739711</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 1], [3, 5]]], "1": [], "2": [[[12, 4], [11, 5], [4, 4], [6, 2], [14, 2], [7, 6], [9, 7]], [[10, 1], [2, 6], [1, 4], [13, 8], [15, 1], [5, 7]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[8, 1], [3, 5]]], "1": [[]], "2": [[[10, 1], [2, 6], [1, 4], [13, 8], [15, 1], [5, 7]], [[12, 4], [11, 5], [4, 4], [6, 2], [14, 2], [7, 6], [9, 7]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid (capacity 16):
+8 (1) -&gt; 3 (5)
+8 metre (capacity 22):
+11 metre (capacity 30):
+10 (1) -&gt; 2 (6) -&gt; 1 (4) -&gt; 13 (8) -&gt; 15 (1) -&gt; 5 (7)
+12 (4) -&gt; 11 (5) -&gt; 4 (4) -&gt; 6 (2) -&gt; 14 (2) -&gt; 7 (6) -&gt; 9 (7)
+</t>
+  </si>
+  <si>
+    <t>Input:
+Customer 1 has 8 pallets demand and window 23-24 at (-58.593079203, -64.202552263) and average unload time 0.126846449
+Customer 2 has 6 pallets demand and window 11-12 at (62.327580393, -79.390798405) and average unload time 0.100052533
+Customer 3 has 6 pallets demand and window 0-24 at (49.204085049, 83.191772134) and average unload time 0.107616559
+Customer 4 has 3 pallets demand and window 23-24 at (42.97528345, -78.77733931) and average unload time 0.150412029
+Customer 5 has 1 pallets demand and window 0-24 at (1.835945185, 67.292728349) and average unload time 0.046518475
+Customer 6 has 6 pallets demand and window 0-24 at (90.65358144, 70.084613411) and average unload time 0.14313446
+Customer 7 has 1 pallets demand and window 0-24 at (-51.1371753, -1.138039152) and average unload time 0.13496538
+Customer 8 has 2 pallets demand and window 6-7 at (-40.215924861, 30.076048672) and average unload time 0.156808309
+Customer 9 has 3 pallets demand and window 13-14 at (91.525854639, -48.335872143) and average unload time 0.140657291
+Customer 10 has 4 pallets demand and window 0-24 at (92.637146566, 21.610176868) and average unload time 0.11807864
+Customer 11 has 4 pallets demand and window 0-24 at (-54.582049742, 98.265912191) and average unload time 0.132241032
+Customer 12 has 4 pallets demand and window 0-24 at (0.903574557, -64.584328211) and average unload time 0.095235233
+Customer 13 has 3 pallets demand and window 20-21 at (94.213121094, -12.300559862) and average unload time 0.08091942
+Customer 14 has 8 pallets demand and window 0-24 at (86.66931866, -99.087703652) and average unload time 0.149282198
+Customer 15 has 2 pallets demand and window 0-24 at (-45.108581443, -0.411744881) and average unload time 0.052151084
+Vehicle SP1 is a 8 metre with capacity 22, distance cost 0.98606581, and time cost 10.898279748
+Vehicle SP2 is a 8 metre with capacity 22, distance cost 0.98606581, and time cost 10.898279748
+Vehicle SP3 is a 8 metre with capacity 22, distance cost 0.98606581, and time cost 10.898279748
+Vehicle SP4 is a 8 metre with capacity 22, distance cost 0.98606581, and time cost 10.898279748
+Vehicle SP5 is a 11 metre with capacity 30, distance cost 0.826603251, and time cost 11.586019484
+Output:
+Vehicle SP1 travels from Depot to 15 to deliver 2 pallets. Expected unload start time is 21.891033537
+Vehicle SP1 travels from 1 to DepotReturn to deliver 0 pallets. Expected unload start time is 25.101273767
+Vehicle SP1 travels from 7 to 1 to deliver 8 pallets. Expected unload start time is 23
+Vehicle SP1 travels from 15 to 7 to deliver 1 pallets. Expected unload start time is 22.071238035
+Vehicle SP4 travels from Depot to 12 to deliver 4 pallets. Expected unload start time is 9.829266764
+Vehicle SP4 travels from 2 to 14 to deliver 8 pallets. Expected unload start time is 11.991724569
+Vehicle SP4 travels from 9 to DepotReturn to deliver 0 pallets. Expected unload start time is 15.539065601
+Vehicle SP4 travels from 12 to 2 to deliver 6 pallets. Expected unload start time is 11
+Vehicle SP4 travels from 14 to 9 to deliver 3 pallets. Expected unload start time is 13.823277993
+Vehicle SP5 travels from Depot to 8 to deliver 2 pallets. Expected unload start time is 7
+Vehicle SP5 travels from 3 to 6 to deliver 6 pallets. Expected unload start time is 11.378365608
+Vehicle SP5 travels from 4 to DepotReturn to deliver 0 pallets. Expected unload start time is 24.572949633
+Vehicle SP5 travels from 5 to 3 to deliver 6 pallets. Expected unload start time is 10.189259992
+Vehicle SP5 travels from 6 to 10 to deliver 4 pallets. Expected unload start time is 20.103343714
+Vehicle SP5 travels from 8 to 11 to deliver 4 pallets. Expected unload start time is 8.184700985
+Vehicle SP5 travels from 10 to 13 to deliver 3 pallets. Expected unload start time is 21
+Vehicle SP5 travels from 11 to 5 to deliver 1 pallets. Expected unload start time is 9.518176636
+Vehicle SP5 travels from 13 to 4 to deliver 3 pallets. Expected unload start time is 23
+Objective value: 1309.325020181
+Solve time: 407526</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 2], [7, 1], [1, 8]], [[12, 4], [2, 6], [14, 8], [9, 3]]], "1": [[[8, 2], [11, 4], [5, 1], [3, 6], [6, 6], [10, 4], [13, 3], [4, 3]]]}</t>
+  </si>
+  <si>
+    <t>{"0": [[[15, 2], [7, 1], [1, 8]], [[14, 8], [2, 6], [9, 3], [12, 4]]], "1": [[[8, 2], [11, 4], [5, 1], [3, 6], [6, 6], [10, 4], [13, 3], [4, 3]]]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 metre (capacity 22):
+15 (2) -&gt; 7 (1) -&gt; 1 (8)
+14 (8) -&gt; 2 (6) -&gt; 9 (3) -&gt; 12 (4)
+11 metre (capacity 30):
+8 (2) -&gt; 11 (4) -&gt; 5 (1) -&gt; 3 (6) -&gt; 6 (6) -&gt; 10 (4) -&gt; 13 (3) -&gt; 4 (3)
 </t>
   </si>
   <si>
@@ -6062,12 +7215,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6082,7 +7235,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6115,16 +7268,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -6140,6 +7283,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6194,16 +7347,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6309,10 +7452,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:f>Graphs!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6322,15 +7465,18 @@
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$2:$C$4</c:f>
+              <c:f>Graphs!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.7198</c:v>
                 </c:pt>
@@ -6340,13 +7486,16 @@
                 <c:pt idx="2">
                   <c:v>107.7097</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>982.34810000000016</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93D7-40FE-BD33-8CE1FA38F877}"/>
+              <c16:uniqueId val="{00000000-6858-4810-A283-2DE914D6A8FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6382,10 +7531,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:f>Graphs!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -6395,15 +7544,18 @@
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$5:$C$7</c:f>
+              <c:f>Graphs!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.2959000000000001</c:v>
                 </c:pt>
@@ -6413,13 +7565,16 @@
                 <c:pt idx="2">
                   <c:v>1183.671</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>11839.512099999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-93D7-40FE-BD33-8CE1FA38F877}"/>
+              <c16:uniqueId val="{00000001-6858-4810-A283-2DE914D6A8FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6623,7 +7778,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.1219414360208584"/>
           <c:y val="6.8615484813373873E-2"/>
-          <c:w val="0.12640050371800005"/>
+          <c:w val="0.12640050371799999"/>
           <c:h val="0.1107563601935707"/>
         </c:manualLayout>
       </c:layout>
@@ -6730,31 +7885,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$H$2:$H$4</c:f>
+              <c:f>Graphs!$I$2:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>169.40622469000002</c:v>
+                  <c:v>4.973E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257.40850343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>366.95077983000004</c:v>
+                  <c:v>5.2960000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6762,7 +7917,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F8E-432D-B841-6EEBF611E25F}"/>
+              <c16:uniqueId val="{00000000-F036-4F11-BE05-0F81EC7639ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6803,424 +7958,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$H$5:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>192.57580280000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>317.59357763000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>482.48021997000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F8E-432D-B841-6EEBF611E25F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="146188400"/>
-        <c:axId val="297081680"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="146188400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Customers</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="297081680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="297081680"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mean Solution Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="146188400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1283594063377457"/>
-          <c:y val="8.4210024808825709E-2"/>
-          <c:w val="0.10727844142255449"/>
-          <c:h val="0.1107563601935707"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>3 Vehicles</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!$I$2:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.973E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2960000000000004E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-14A8-435B-AB2D-B85ACF904040}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>5 Vehicles</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7232,13 +7976,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1.1438E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.5399999999999997E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.3109999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4512000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7246,7 +7990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-14A8-435B-AB2D-B85ACF904040}"/>
+              <c16:uniqueId val="{00000001-F036-4F11-BE05-0F81EC7639ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7494,7 +8238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7539,13 +8283,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7570,7 +8314,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E63-41F3-BF08-C31C9FF52628}"/>
+              <c16:uniqueId val="{00000000-ABB8-4E93-BB06-175B553DBB99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7598,13 +8342,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7616,20 +8360,20 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E63-41F3-BF08-C31C9FF52628}"/>
+              <c16:uniqueId val="{00000001-ABB8-4E93-BB06-175B553DBB99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7877,405 +8621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>3 Vehicles</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8E6-4ABA-BF9C-402C4FEF2E9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>5 Vehicles</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Graphs!$A$5:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Graphs!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C8E6-4ABA-BF9C-402C4FEF2E9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="146188400"/>
-        <c:axId val="297081680"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="146188400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Customers</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="297081680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="297081680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Meta Solution Cost Difference</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="146188400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16526273565984759"/>
-          <c:y val="4.3664220820651002E-2"/>
-          <c:w val="0.10727844142255449"/>
-          <c:h val="0.1107563601935707"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8327,10 +8673,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:f>Graphs!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -8340,15 +8686,18 @@
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$H$2:$H$4</c:f>
+              <c:f>Graphs!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>169.40622469000002</c:v>
                 </c:pt>
@@ -8358,13 +8707,16 @@
                 <c:pt idx="2">
                   <c:v>366.95077983000004</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>652.44922425000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-87DE-4343-A747-7CD502CBD5A1}"/>
+              <c16:uniqueId val="{00000000-A7AD-4611-8A40-4FACFA198119}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8400,10 +8752,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:f>Graphs!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -8413,15 +8765,18 @@
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$H$5:$H$7</c:f>
+              <c:f>Graphs!$H$6:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>192.57580280000002</c:v>
                 </c:pt>
@@ -8431,13 +8786,16 @@
                 <c:pt idx="2">
                   <c:v>482.48021997000006</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>787.19565838000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-87DE-4343-A747-7CD502CBD5A1}"/>
+              <c16:uniqueId val="{00000001-A7AD-4611-8A40-4FACFA198119}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8469,10 +8827,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:f>Graphs!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -8482,15 +8840,18 @@
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$2:$C$4</c:f>
+              <c:f>Graphs!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.7198</c:v>
                 </c:pt>
@@ -8500,13 +8861,16 @@
                 <c:pt idx="2">
                   <c:v>107.7097</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>982.34810000000016</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A1DF-4766-BC53-DE15DA30A4CD}"/>
+              <c16:uniqueId val="{00000002-A7AD-4611-8A40-4FACFA198119}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8535,15 +8899,16 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Graphs!$A$2:$A$4</c:f>
+              <c:f>Graphs!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -8553,15 +8918,18 @@
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$5:$C$7</c:f>
+              <c:f>Graphs!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.2959000000000001</c:v>
                 </c:pt>
@@ -8571,13 +8939,16 @@
                 <c:pt idx="2">
                   <c:v>1183.671</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>11839.512099999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A1DF-4766-BC53-DE15DA30A4CD}"/>
+              <c16:uniqueId val="{00000003-A7AD-4611-8A40-4FACFA198119}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8837,13 +9208,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8871,15 +9242,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8907,15 +9278,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8944,15 +9315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8972,78 +9343,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9349,10 +9648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,7 +9665,7 @@
     <col min="8" max="8" width="9.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9398,7 +9697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A2)-2)*10,0,1,1)</f>
         <v>6</v>
@@ -9441,7 +9740,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A3)-2)*10,0,1,1)</f>
         <v>9</v>
@@ -9484,7 +9783,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A4)-2)*10,0,1,1)</f>
         <v>12</v>
@@ -9527,53 +9826,53 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A5)-2)*10,0,1,1)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B5)-2)*10,0,1,1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C5)-2)*10,0,10,1))</f>
-        <v>2.2959000000000001</v>
+        <v>982.34810000000016</v>
       </c>
       <c r="D5">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D5)-2)*10,0,10,1))</f>
-        <v>0.53400000000000003</v>
+        <v>50.914000000000001</v>
       </c>
       <c r="E5">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E5)-2)*10,0,10,1))</f>
-        <v>8.1349999999999998</v>
+        <v>6878.87</v>
       </c>
       <c r="F5">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F5)-2)*10,0,10,1))</f>
-        <v>2.3437412850208341</v>
+        <v>2101.9034439303632</v>
       </c>
       <c r="G5" s="11">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G5)-2)*10,0,10,1))</f>
-        <v>0</v>
+        <v>-3.8012999999999998E-2</v>
       </c>
       <c r="H5" s="6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H5)-2)*10,0,10,1))</f>
-        <v>192.57580280000002</v>
+        <v>652.44922425000004</v>
       </c>
       <c r="I5" s="2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I5)-2)*10,0,10,1))</f>
-        <v>2.5399999999999997E-3</v>
+        <v>1.1438E-2</v>
       </c>
       <c r="J5" s="4">
         <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J5)-2)*10,0,10,1), "=0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A6)-2)*10,0,1,1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B6)-2)*10,0,1,1)</f>
@@ -9581,19 +9880,19 @@
       </c>
       <c r="C6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C6)-2)*10,0,10,1))</f>
-        <v>88.390999999999991</v>
+        <v>2.2959000000000001</v>
       </c>
       <c r="D6">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D6)-2)*10,0,10,1))</f>
-        <v>8.1969999999999992</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="E6">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E6)-2)*10,0,10,1))</f>
-        <v>347.16399999999999</v>
+        <v>8.1349999999999998</v>
       </c>
       <c r="F6">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F6)-2)*10,0,10,1))</f>
-        <v>96.353659111744278</v>
+        <v>2.3437412850208341</v>
       </c>
       <c r="G6" s="11">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G6)-2)*10,0,10,1))</f>
@@ -9601,22 +9900,46 @@
       </c>
       <c r="H6" s="6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H6)-2)*10,0,10,1))</f>
-        <v>317.59357763000003</v>
+        <v>192.57580280000002</v>
       </c>
       <c r="I6" s="2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I6)-2)*10,0,10,1))</f>
-        <v>6.3109999999999998E-3</v>
+        <v>2.5399999999999997E-3</v>
       </c>
       <c r="J6" s="4">
         <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J6)-2)*10,0,10,1), "=0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A7)-2)*10,0,1,1)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B7)-2)*10,0,1,1)</f>
@@ -9624,58 +9947,252 @@
       </c>
       <c r="C7">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C7)-2)*10,0,10,1))</f>
-        <v>1183.671</v>
+        <v>88.390999999999991</v>
       </c>
       <c r="D7">
         <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D7)-2)*10,0,10,1))</f>
-        <v>27.297999999999998</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="E7">
         <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E7)-2)*10,0,10,1))</f>
-        <v>6655.433</v>
+        <v>347.16399999999999</v>
       </c>
       <c r="F7">
         <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F7)-2)*10,0,10,1))</f>
-        <v>2007.1365519853291</v>
+        <v>96.353659111744278</v>
       </c>
       <c r="G7" s="11">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G7)-2)*10,0,10,1))</f>
-        <v>1.4E-3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H7)-2)*10,0,10,1))</f>
-        <v>482.48021997000006</v>
+        <v>317.59357763000003</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I7)-2)*10,0,10,1))</f>
-        <v>1.4512000000000001E-2</v>
+        <v>6.3109999999999998E-3</v>
       </c>
       <c r="J7" s="4">
         <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J7)-2)*10,0,10,1), "=0")</f>
+        <v>7</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A8)-2)*10,0,1,1)</f>
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B8)-2)*10,0,1,1)</f>
         <v>5</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I8" s="17">
-        <f ca="1">AVERAGE(I2:I7)</f>
-        <v>5.6053333333333337E-3</v>
-      </c>
-      <c r="J8" s="18">
-        <f ca="1">SUM(J2:J7)</f>
-        <v>47</v>
+      <c r="C8">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C8)-2)*10,0,10,1))</f>
+        <v>1183.671</v>
+      </c>
+      <c r="D8">
+        <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D8)-2)*10,0,10,1))</f>
+        <v>27.297999999999998</v>
+      </c>
+      <c r="E8">
+        <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E8)-2)*10,0,10,1))</f>
+        <v>6655.433</v>
+      </c>
+      <c r="F8">
+        <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F8)-2)*10,0,10,1))</f>
+        <v>2007.1365519853291</v>
+      </c>
+      <c r="G8" s="11">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G8)-2)*10,0,10,1))</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H8)-2)*10,0,10,1))</f>
+        <v>482.48021997000006</v>
+      </c>
+      <c r="I8" s="2">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I8)-2)*10,0,10,1))</f>
+        <v>1.4512000000000001E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J8)-2)*10,0,10,1), "=0")</f>
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>42</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f ca="1">OFFSET('Run Data'!A$2, (ROWS(Graphs!A$1:A9)-2)*10,0,1,1)</f>
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f ca="1">OFFSET('Run Data'!B$2, (ROWS(Graphs!B$1:B9)-2)*10,0,1,1)</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$E$2, (ROWS(Graphs!C$1:C9)-2)*10,0,10,1))</f>
+        <v>11839.512099999998</v>
+      </c>
+      <c r="D9">
+        <f ca="1">MIN(OFFSET('Run Data'!$E$2, (ROWS(Graphs!D$1:D9)-2)*10,0,10,1))</f>
+        <v>55.064999999999998</v>
+      </c>
+      <c r="E9">
+        <f ca="1">MAX(OFFSET('Run Data'!$E$2, (ROWS(Graphs!E$1:E9)-2)*10,0,10,1))</f>
+        <v>66642.832999999999</v>
+      </c>
+      <c r="F9">
+        <f ca="1">_xlfn.STDEV.S(OFFSET('Run Data'!$E$2, (ROWS(Graphs!F$1:F9)-2)*10,0,10,1))</f>
+        <v>21265.770394544328</v>
+      </c>
+      <c r="G9" s="11">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$M$2, (ROWS(Graphs!G$1:G9)-2)*10,0,10,1))</f>
+        <v>-4.8887999999999994E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$P$2, (ROWS(Graphs!H$1:H9)-2)*10,0,10,1))</f>
+        <v>787.19565838000005</v>
+      </c>
+      <c r="I9" s="2">
+        <f ca="1">AVERAGE(OFFSET('Run Data'!$S$2, (ROWS(Graphs!I$1:I9)-2)*10,0,10,1))</f>
+        <v>9.8640000000000012E-3</v>
+      </c>
+      <c r="J9" s="4">
+        <f ca="1">COUNTIF(OFFSET('Run Data'!$S$2, (ROWS(Graphs!J$1:J9)-2)*10,0,10,1), "=0")</f>
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>53</v>
+      </c>
+      <c r="P9">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I10" s="16">
+        <f ca="1">AVERAGE(I2:I9)</f>
+        <v>6.8667499999999996E-3</v>
+      </c>
+      <c r="J10" s="17">
+        <f ca="1">SUM(J2:J9)</f>
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>90</v>
+      </c>
+      <c r="Q10">
+        <v>77</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:S11" si="0">ROUND(N9+(60*(N8+(60*N7)))+(N10/100),0)</f>
+        <v>4250</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>9353</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2539</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>4295</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>46933</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>23019</v>
+      </c>
+      <c r="U11">
+        <f>AVERAGE(N11:S11)</f>
+        <v>15064.833333333334</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I7">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="notBetween">
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="notBetween">
       <formula>-0.1</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9687,13 +10204,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W208"/>
+  <dimension ref="A1:W218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S59" sqref="S59"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9705,9 +10222,9 @@
     <col min="5" max="5" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="150.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="150.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="14" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="11" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="13.85546875" style="14" customWidth="1"/>
@@ -9723,70 +10240,70 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9814,11 +10331,11 @@
         <v>638.45133799799999</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K2">
         <v>638.45133793406376</v>
@@ -9828,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P2">
         <v>154.85583740000001</v>
@@ -9883,11 +10400,11 @@
         <v>813.05868798699998</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>813.0586880328467</v>
@@ -9897,10 +10414,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P3">
         <v>161.15963450000001</v>
@@ -9952,11 +10469,11 @@
         <v>779.19382424699995</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>779.19382419748126</v>
@@ -9966,10 +10483,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>182.08795019999999</v>
@@ -10021,11 +10538,11 @@
         <v>872.84085373899995</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>872.84085379383464</v>
@@ -10035,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P5">
         <v>165.82973039999999</v>
@@ -10090,11 +10607,11 @@
         <v>532.04180500099994</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>532.04180497214134</v>
@@ -10104,10 +10621,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P6">
         <v>157.78722760000011</v>
@@ -10159,11 +10676,11 @@
         <v>796.51397832700002</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K7">
         <v>796.51397848580677</v>
@@ -10173,10 +10690,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P7">
         <v>154.35885289999999</v>
@@ -10228,11 +10745,11 @@
         <v>774.22538047800003</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <v>774.22538031539034</v>
@@ -10242,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P8">
         <v>169.97957289999999</v>
@@ -10297,11 +10814,11 @@
         <v>743.32143997499998</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K9">
         <v>743.32143971328946</v>
@@ -10311,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P9">
         <v>164.43924759999979</v>
@@ -10366,11 +10883,11 @@
         <v>665.371838131</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K10">
         <v>665.37183818677693</v>
@@ -10380,10 +10897,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="P10">
         <v>213.27041170000001</v>
@@ -10435,11 +10952,11 @@
         <v>653.255284093</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K11">
         <v>653.25528405776868</v>
@@ -10449,10 +10966,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P11">
         <v>170.2937817000001</v>
@@ -10504,11 +11021,11 @@
         <v>1123.6010764160001</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K12">
         <v>1123.60107632264</v>
@@ -10518,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P12">
         <v>233.18609660000001</v>
@@ -10573,11 +11090,11 @@
         <v>632.29983854700004</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>632.29983884052353</v>
@@ -10587,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P13">
         <v>218.5622214</v>
@@ -10642,11 +11159,11 @@
         <v>798.34016698599999</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K14">
         <v>798.34016712219773</v>
@@ -10656,10 +11173,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P14">
         <v>237.53775769999999</v>
@@ -10711,11 +11228,11 @@
         <v>530.30011891499998</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K15">
         <v>530.30011901857517</v>
@@ -10725,10 +11242,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P15">
         <v>220.49484009999989</v>
@@ -10780,11 +11297,11 @@
         <v>795.42602363900005</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K16">
         <v>795.42602372595593</v>
@@ -10794,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P16">
         <v>201.94597710000011</v>
@@ -10849,11 +11366,11 @@
         <v>606.838436731</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K17">
         <v>606.83843653443387</v>
@@ -10863,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P17">
         <v>263.74877780000003</v>
@@ -10918,11 +11435,11 @@
         <v>711.26690060400006</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K18">
         <v>711.26690045658347</v>
@@ -10932,10 +11449,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P18">
         <v>213.53107270000001</v>
@@ -10987,11 +11504,11 @@
         <v>861.015034163</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>861.01503413398063</v>
@@ -11001,10 +11518,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P19">
         <v>279.69371589999992</v>
@@ -11056,11 +11573,11 @@
         <v>687.77890394999997</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K20">
         <v>687.7789037823643</v>
@@ -11070,10 +11587,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P20">
         <v>293.70957279999999</v>
@@ -11125,11 +11642,11 @@
         <v>935.54469035099999</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>935.5446906430152</v>
@@ -11139,10 +11656,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P21">
         <v>411.67500219999999</v>
@@ -11194,11 +11711,11 @@
         <v>665.62882969700001</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K22">
         <v>665.62882973402702</v>
@@ -11208,10 +11725,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O22" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P22">
         <v>316.81027019999999</v>
@@ -11263,11 +11780,11 @@
         <v>1189.40477706</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K23">
         <v>1189.4047772831959</v>
@@ -11277,10 +11794,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P23">
         <v>441.6552514</v>
@@ -11332,11 +11849,11 @@
         <v>835.10498818300005</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K24">
         <v>835.10498817922348</v>
@@ -11346,10 +11863,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P24">
         <v>404.63847809999999</v>
@@ -11401,11 +11918,11 @@
         <v>719.80830177400003</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>719.80830180454882</v>
@@ -11415,10 +11932,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O25" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P25">
         <v>330.79136660000012</v>
@@ -11470,11 +11987,11 @@
         <v>1078.299811826</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K26">
         <v>1078.299811829309</v>
@@ -11484,10 +12001,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P26">
         <v>323.16483360000012</v>
@@ -11539,11 +12056,11 @@
         <v>1077.167439887</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K27">
         <v>1077.167439794624</v>
@@ -11553,10 +12070,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O27" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="P27">
         <v>396.63036310000012</v>
@@ -11608,11 +12125,11 @@
         <v>1048.3180166340001</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K28">
         <v>1048.318016484704</v>
@@ -11622,10 +12139,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O28" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="P28">
         <v>500.61596079999998</v>
@@ -11677,11 +12194,11 @@
         <v>1136.6677573520001</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K29">
         <v>1136.6677569666911</v>
@@ -11691,10 +12208,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P29">
         <v>171.47822330000011</v>
@@ -11746,11 +12263,11 @@
         <v>1272.3451047040001</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K30">
         <v>1272.345104477296</v>
@@ -11760,10 +12277,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O30" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P30">
         <v>387.33385050000021</v>
@@ -11815,11 +12332,11 @@
         <v>734.13697920300001</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K31">
         <v>734.13697920979939</v>
@@ -11829,10 +12346,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P31">
         <v>396.38920069999989</v>
@@ -11861,274 +12378,274 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>7.0733333333333329E-2</v>
+        <v>2.4794333333333332</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>4.2439999999999998</v>
+        <v>148.76599999999999</v>
       </c>
       <c r="F32">
-        <v>4244</v>
+        <v>148766</v>
       </c>
       <c r="G32">
-        <v>812.25670442800003</v>
+        <v>969.44437502899996</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K32">
-        <v>812.25670445007154</v>
+        <v>937.80130917447354</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.2640000000000002E-2</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O32" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="P32">
-        <v>226.4990143</v>
+        <v>648.6942775</v>
       </c>
       <c r="Q32">
-        <v>825.66808753431928</v>
+        <v>938.35967070208073</v>
       </c>
       <c r="R32" s="11">
         <f t="shared" si="3"/>
-        <v>1.651E-2</v>
+        <v>-3.2059999999999998E-2</v>
       </c>
       <c r="S32" s="12">
         <f t="shared" si="4"/>
-        <v>1.651E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="U32">
-        <v>765.59628022172717</v>
+        <v>884.95426194868537</v>
       </c>
       <c r="V32">
-        <v>750.31824926478839</v>
+        <v>884.71786594179252</v>
       </c>
       <c r="W32" s="12">
         <f t="shared" si="5"/>
-        <v>-1.9959999999999999E-2</v>
+        <v>-2.7E-4</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>8.8999999999999999E-3</v>
+        <v>2.0504666666666669</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>0.53400000000000003</v>
+        <v>123.02800000000001</v>
       </c>
       <c r="F33">
-        <v>534</v>
+        <v>123028</v>
       </c>
       <c r="G33">
-        <v>693.06704887700005</v>
+        <v>1062.9857395050001</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K33">
-        <v>693.06704897558689</v>
+        <v>1015.069155849449</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4.5080000000000002E-2</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="O33" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="P33">
-        <v>180.23112890000019</v>
+        <v>730.97571099999993</v>
       </c>
       <c r="Q33">
-        <v>693.06704897558689</v>
+        <v>1125.111491029689</v>
       </c>
       <c r="R33" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.8439999999999999E-2</v>
       </c>
       <c r="S33" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10841000000000001</v>
       </c>
       <c r="U33">
-        <v>582.09756283664785</v>
+        <v>965.44695356562272</v>
       </c>
       <c r="V33">
-        <v>582.09756283664785</v>
+        <v>1071.616229691492</v>
       </c>
       <c r="W33" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.10997</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D61" si="6">E34/60</f>
-        <v>1.3949999999999999E-2</v>
+        <f t="shared" ref="D34:D65" si="6">E34/60</f>
+        <v>0.97491666666666665</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E61" si="7">F34/1000</f>
-        <v>0.83699999999999997</v>
+        <f t="shared" ref="E34:E65" si="7">F34/1000</f>
+        <v>58.494999999999997</v>
       </c>
       <c r="F34">
-        <v>837</v>
+        <v>58495</v>
       </c>
       <c r="G34">
-        <v>737.52980437500003</v>
+        <v>929.49348848499994</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K34">
-        <v>737.52980444844081</v>
+        <v>891.74816182787549</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34:M61" si="8">ROUND((K34-G34)/G34,5)</f>
-        <v>0</v>
+        <f t="shared" ref="M34:M65" si="8">ROUND((K34-G34)/G34,5)</f>
+        <v>-4.061E-2</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O34" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P34">
-        <v>224.5469248</v>
+        <v>1119.4125171999999</v>
       </c>
       <c r="Q34">
-        <v>737.52980444844081</v>
+        <v>891.74816182787549</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" ref="R34:R61" si="9">ROUND((Q34-G34)/G34,5)</f>
-        <v>0</v>
+        <f t="shared" ref="R34:R65" si="9">ROUND((Q34-G34)/G34,5)</f>
+        <v>-4.061E-2</v>
       </c>
       <c r="S34" s="12">
-        <f t="shared" ref="S34:S61" si="10">ROUND((Q34-K34)/K34,5)</f>
+        <f t="shared" ref="S34:S65" si="10">ROUND((Q34-K34)/K34,5)</f>
         <v>0</v>
       </c>
       <c r="U34">
-        <v>663.80943514058231</v>
+        <v>842.7356402438885</v>
       </c>
       <c r="V34">
-        <v>663.80943514058231</v>
+        <v>842.7356402438885</v>
       </c>
       <c r="W34" s="12">
-        <f t="shared" ref="W34:W61" si="11">ROUND((V34-U34)/U34,5)</f>
+        <f t="shared" ref="W34:W65" si="11">ROUND((V34-U34)/U34,5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
         <f t="shared" si="6"/>
-        <v>1.4316666666666667E-2</v>
+        <v>20.112849999999998</v>
       </c>
       <c r="E35">
         <f t="shared" si="7"/>
-        <v>0.85899999999999999</v>
+        <v>1206.771</v>
       </c>
       <c r="F35">
-        <v>859</v>
+        <v>1206771</v>
       </c>
       <c r="G35">
-        <v>656.55878409499996</v>
+        <v>765.246603843</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K35">
-        <v>656.55878384173491</v>
+        <v>737.79578450416454</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-3.5869999999999999E-2</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P35">
-        <v>180.5833846999999</v>
+        <v>529.13751020000018</v>
       </c>
       <c r="Q35">
-        <v>656.55878384173491</v>
+        <v>737.79578450416454</v>
       </c>
       <c r="R35" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3.5869999999999999E-2</v>
       </c>
       <c r="S35" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <v>616.41067720891579</v>
+        <v>696.93191430755849</v>
       </c>
       <c r="V35">
-        <v>616.41067720891579</v>
+        <v>696.93191430755849</v>
       </c>
       <c r="W35" s="12">
         <f t="shared" si="11"/>
@@ -12137,67 +12654,67 @@
     </row>
     <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36">
         <f t="shared" si="6"/>
-        <v>1.2699999999999999E-2</v>
+        <v>6.7066666666666661</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>0.76200000000000001</v>
+        <v>402.4</v>
       </c>
       <c r="F36">
-        <v>762</v>
+        <v>402400</v>
       </c>
       <c r="G36">
-        <v>1195.6111446150001</v>
+        <v>816.77324200600003</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K36">
-        <v>1195.6111447374319</v>
+        <v>742.549972143133</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-9.0870000000000006E-2</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O36" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P36">
-        <v>190.26473910000001</v>
+        <v>631.32229749999988</v>
       </c>
       <c r="Q36">
-        <v>1195.6111447374319</v>
+        <v>742.549972143133</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-9.0870000000000006E-2</v>
       </c>
       <c r="S36" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1075.9258122165011</v>
+        <v>686.92712141377501</v>
       </c>
       <c r="V36">
-        <v>1075.9258122165011</v>
+        <v>686.92712141377501</v>
       </c>
       <c r="W36" s="12">
         <f t="shared" si="11"/>
@@ -12206,136 +12723,136 @@
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37">
         <f t="shared" si="6"/>
-        <v>3.323333333333333E-2</v>
+        <v>114.64783333333334</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>1.994</v>
+        <v>6878.87</v>
       </c>
       <c r="F37">
-        <v>1994</v>
+        <v>6878870</v>
       </c>
       <c r="G37">
-        <v>889.26550826300002</v>
+        <v>987.66226506099997</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K37">
-        <v>889.26550795174398</v>
+        <v>980.21754136108211</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-7.5399999999999998E-3</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="O37" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="P37">
-        <v>186.16824980000001</v>
+        <v>612.2390478999996</v>
       </c>
       <c r="Q37">
-        <v>897.16783934061004</v>
+        <v>985.47912065241417</v>
       </c>
       <c r="R37" s="11">
         <f t="shared" si="9"/>
-        <v>8.8900000000000003E-3</v>
+        <v>-2.2100000000000002E-3</v>
       </c>
       <c r="S37" s="12">
         <f t="shared" si="10"/>
-        <v>8.8900000000000003E-3</v>
+        <v>5.3699999999999998E-3</v>
       </c>
       <c r="U37">
-        <v>843.92278586964096</v>
+        <v>927.3559316905372</v>
       </c>
       <c r="V37">
-        <v>855.90948207341944</v>
+        <v>911.87636266197978</v>
       </c>
       <c r="W37" s="12">
         <f t="shared" si="11"/>
-        <v>1.4200000000000001E-2</v>
+        <v>-1.669E-2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38">
         <f t="shared" si="6"/>
-        <v>0.13558333333333333</v>
+        <v>2.6776833333333334</v>
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>8.1349999999999998</v>
+        <v>160.661</v>
       </c>
       <c r="F38">
-        <v>8135</v>
+        <v>160661</v>
       </c>
       <c r="G38">
-        <v>678.14825158600001</v>
+        <v>1171.7540890289999</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K38">
-        <v>678.14825176273803</v>
+        <v>1142.681646892928</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-2.4809999999999999E-2</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O38" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P38">
-        <v>192.1365174</v>
+        <v>467.02864149999999</v>
       </c>
       <c r="Q38">
-        <v>678.14825176273803</v>
+        <v>1142.681646892928</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2.4809999999999999E-2</v>
       </c>
       <c r="S38" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <v>604.4934696287221</v>
+        <v>1091.145031340737</v>
       </c>
       <c r="V38">
-        <v>604.49346962872232</v>
+        <v>1091.145031340737</v>
       </c>
       <c r="W38" s="12">
         <f t="shared" si="11"/>
@@ -12344,214 +12861,214 @@
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
         <f t="shared" si="6"/>
-        <v>1.6083333333333331E-2</v>
+        <v>3.0577833333333335</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>0.96499999999999997</v>
+        <v>183.46700000000001</v>
       </c>
       <c r="F39">
-        <v>965</v>
+        <v>183467</v>
       </c>
       <c r="G39">
-        <v>938.35254567799996</v>
+        <v>901.18110722799997</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K39">
-        <v>938.35254561014312</v>
+        <v>873.42603553287745</v>
       </c>
       <c r="M39" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-3.0800000000000001E-2</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O39" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P39">
-        <v>180.77540519999999</v>
+        <v>524.43503390000024</v>
       </c>
       <c r="Q39">
-        <v>938.35254561014312</v>
+        <v>873.42603553287745</v>
       </c>
       <c r="R39" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-3.0800000000000001E-2</v>
       </c>
       <c r="S39" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U39">
-        <v>868.0017542131443</v>
+        <v>808.56466325264535</v>
       </c>
       <c r="V39">
-        <v>868.0017542131443</v>
+        <v>808.56466325264535</v>
       </c>
       <c r="W39" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
         <f t="shared" si="6"/>
-        <v>4.0766666666666666E-2</v>
+        <v>10.168483333333334</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>2.4460000000000002</v>
+        <v>610.10900000000004</v>
       </c>
       <c r="F40">
-        <v>2446</v>
+        <v>610109</v>
       </c>
       <c r="G40">
-        <v>941.62687629200002</v>
+        <v>1335.201246375</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K40">
-        <v>941.62687614308243</v>
+        <v>1255.3187694406749</v>
       </c>
       <c r="M40" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5.9830000000000001E-2</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O40" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P40">
-        <v>187.8318672999994</v>
+        <v>764.40148970000064</v>
       </c>
       <c r="Q40">
-        <v>941.62687614308243</v>
+        <v>1255.3187694406749</v>
       </c>
       <c r="R40" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-5.9830000000000001E-2</v>
       </c>
       <c r="S40" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U40">
-        <v>898.28591761893836</v>
+        <v>1207.9384507773029</v>
       </c>
       <c r="V40">
-        <v>898.28591761893836</v>
+        <v>1207.9384507773029</v>
       </c>
       <c r="W40" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
         <f t="shared" si="6"/>
-        <v>3.638333333333333E-2</v>
+        <v>0.84856666666666669</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>2.1829999999999998</v>
+        <v>50.914000000000001</v>
       </c>
       <c r="F41">
-        <v>2183</v>
+        <v>50914</v>
       </c>
       <c r="G41">
-        <v>672.47666342499997</v>
+        <v>852.68954255999995</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K41">
-        <v>672.47666321645397</v>
+        <v>842.39285443277276</v>
       </c>
       <c r="M41" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1.208E-2</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O41" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P41">
-        <v>176.72079650000069</v>
+        <v>496.84571609999972</v>
       </c>
       <c r="Q41">
-        <v>672.47666321645397</v>
+        <v>842.39285443277276</v>
       </c>
       <c r="R41" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1.208E-2</v>
       </c>
       <c r="S41" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U41">
-        <v>640.3964061684818</v>
+        <v>795.20412884415941</v>
       </c>
       <c r="V41">
-        <v>640.3964061684818</v>
+        <v>795.20412884415953</v>
       </c>
       <c r="W41" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -12561,66 +13078,66 @@
       </c>
       <c r="D42">
         <f t="shared" si="6"/>
-        <v>1.4969666666666666</v>
+        <v>7.0733333333333329E-2</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>89.817999999999998</v>
+        <v>4.2439999999999998</v>
       </c>
       <c r="F42">
-        <v>89818</v>
+        <v>4244</v>
       </c>
       <c r="G42">
-        <v>873.17427284200005</v>
+        <v>812.25670442800003</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K42">
-        <v>873.17427312299662</v>
+        <v>812.25670445007154</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O42" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P42">
-        <v>282.97389629999998</v>
+        <v>226.4990143</v>
       </c>
       <c r="Q42">
-        <v>873.17427312299651</v>
+        <v>825.66808753431928</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.651E-2</v>
       </c>
       <c r="S42" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.651E-2</v>
       </c>
       <c r="U42">
-        <v>813.93429758684249</v>
+        <v>765.59628022172717</v>
       </c>
       <c r="V42">
-        <v>813.93429758684249</v>
+        <v>750.31824926478839</v>
       </c>
       <c r="W42" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-1.9959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -12630,43 +13147,43 @@
       </c>
       <c r="D43">
         <f t="shared" si="6"/>
-        <v>5.7860666666666667</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>347.16399999999999</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F43">
-        <v>347164</v>
+        <v>534</v>
       </c>
       <c r="G43">
-        <v>821.873682734</v>
+        <v>693.06704887700005</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K43">
-        <v>821.8736830120431</v>
+        <v>693.06704897558689</v>
       </c>
       <c r="M43" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O43" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P43">
-        <v>251.22562889999989</v>
+        <v>180.23112890000019</v>
       </c>
       <c r="Q43">
-        <v>821.8736830120431</v>
+        <v>693.06704897558689</v>
       </c>
       <c r="R43" s="11">
         <f t="shared" si="9"/>
@@ -12677,19 +13194,19 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>743.6205606708595</v>
+        <v>582.09756283664785</v>
       </c>
       <c r="V43">
-        <v>743.62056067085939</v>
+        <v>582.09756283664785</v>
       </c>
       <c r="W43" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -12699,66 +13216,66 @@
       </c>
       <c r="D44">
         <f t="shared" si="6"/>
-        <v>0.57341666666666669</v>
+        <v>1.3949999999999999E-2</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>34.405000000000001</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F44">
-        <v>34405</v>
+        <v>837</v>
       </c>
       <c r="G44">
-        <v>777.70856796600003</v>
+        <v>737.52980437500003</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K44">
-        <v>777.70856781138411</v>
+        <v>737.52980444844081</v>
       </c>
       <c r="M44" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O44" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="P44">
-        <v>312.95748840000027</v>
+        <v>224.5469248</v>
       </c>
       <c r="Q44">
-        <v>815.67745501620493</v>
+        <v>737.52980444844081</v>
       </c>
       <c r="R44" s="11">
         <f t="shared" si="9"/>
-        <v>4.8820000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="10"/>
-        <v>4.8820000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>707.67319254960489</v>
+        <v>663.80943514058231</v>
       </c>
       <c r="V44">
-        <v>738.68812728622686</v>
+        <v>663.80943514058231</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="11"/>
-        <v>4.3830000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -12768,66 +13285,66 @@
       </c>
       <c r="D45">
         <f t="shared" si="6"/>
-        <v>2.0694666666666666</v>
+        <v>1.4316666666666667E-2</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>124.16800000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F45">
-        <v>124168</v>
+        <v>859</v>
       </c>
       <c r="G45">
-        <v>898.03815021100002</v>
+        <v>656.55878409499996</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K45">
-        <v>898.03815043279405</v>
+        <v>656.55878384173491</v>
       </c>
       <c r="M45" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O45" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P45">
-        <v>294.10803340000012</v>
+        <v>180.5833846999999</v>
       </c>
       <c r="Q45">
-        <v>901.65812449323471</v>
+        <v>656.55878384173491</v>
       </c>
       <c r="R45" s="11">
         <f t="shared" si="9"/>
-        <v>4.0299999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="S45" s="12">
         <f t="shared" si="10"/>
-        <v>4.0299999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>837.5636898205878</v>
+        <v>616.41067720891579</v>
       </c>
       <c r="V45">
-        <v>840.06303014398509</v>
+        <v>616.41067720891579</v>
       </c>
       <c r="W45" s="12">
         <f t="shared" si="11"/>
-        <v>2.98E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -12837,66 +13354,66 @@
       </c>
       <c r="D46">
         <f t="shared" si="6"/>
-        <v>0.9796999999999999</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>58.781999999999996</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="F46">
-        <v>58782</v>
+        <v>762</v>
       </c>
       <c r="G46">
-        <v>686.78799444000003</v>
+        <v>1195.6111446150001</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K46">
-        <v>686.78799469955561</v>
+        <v>1195.6111447374319</v>
       </c>
       <c r="M46" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O46" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P46">
-        <v>277.16683579999989</v>
+        <v>190.26473910000001</v>
       </c>
       <c r="Q46">
-        <v>693.83239613801766</v>
+        <v>1195.6111447374319</v>
       </c>
       <c r="R46" s="11">
         <f t="shared" si="9"/>
-        <v>1.026E-2</v>
+        <v>0</v>
       </c>
       <c r="S46" s="12">
         <f t="shared" si="10"/>
-        <v>1.026E-2</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>637.2732936954784</v>
+        <v>1075.9258122165011</v>
       </c>
       <c r="V46">
-        <v>644.31769513394056</v>
+        <v>1075.9258122165011</v>
       </c>
       <c r="W46" s="12">
         <f t="shared" si="11"/>
-        <v>1.1050000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -12906,66 +13423,66 @@
       </c>
       <c r="D47">
         <f t="shared" si="6"/>
-        <v>0.13661666666666666</v>
+        <v>3.323333333333333E-2</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>8.1969999999999992</v>
+        <v>1.994</v>
       </c>
       <c r="F47">
-        <v>8197</v>
+        <v>1994</v>
       </c>
       <c r="G47">
-        <v>843.347971669</v>
+        <v>889.26550826300002</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K47">
-        <v>843.34797196787281</v>
+        <v>889.26550795174398</v>
       </c>
       <c r="M47" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O47" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P47">
-        <v>271.44339730000053</v>
+        <v>186.16824980000001</v>
       </c>
       <c r="Q47">
-        <v>843.34797196787281</v>
+        <v>897.16783934061004</v>
       </c>
       <c r="R47" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8.8900000000000003E-3</v>
       </c>
       <c r="S47" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.8900000000000003E-3</v>
       </c>
       <c r="U47">
-        <v>790.21104098411297</v>
+        <v>843.92278586964096</v>
       </c>
       <c r="V47">
-        <v>790.21104098411297</v>
+        <v>855.90948207341944</v>
       </c>
       <c r="W47" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -12975,43 +13492,43 @@
       </c>
       <c r="D48">
         <f t="shared" si="6"/>
-        <v>0.77918333333333334</v>
+        <v>0.13558333333333333</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
-        <v>46.750999999999998</v>
+        <v>8.1349999999999998</v>
       </c>
       <c r="F48">
-        <v>46751</v>
+        <v>8135</v>
       </c>
       <c r="G48">
-        <v>693.91336487399997</v>
+        <v>678.14825158600001</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K48">
-        <v>693.91336502693366</v>
+        <v>678.14825176273803</v>
       </c>
       <c r="M48" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O48" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P48">
-        <v>304.65068439999999</v>
+        <v>192.1365174</v>
       </c>
       <c r="Q48">
-        <v>693.91336502693366</v>
+        <v>678.14825176273803</v>
       </c>
       <c r="R48" s="11">
         <f t="shared" si="9"/>
@@ -13022,19 +13539,19 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>636.70423691626274</v>
+        <v>604.4934696287221</v>
       </c>
       <c r="V48">
-        <v>636.70423691626274</v>
+        <v>604.49346962872232</v>
       </c>
       <c r="W48" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -13044,43 +13561,43 @@
       </c>
       <c r="D49">
         <f t="shared" si="6"/>
-        <v>0.82641666666666669</v>
+        <v>1.6083333333333331E-2</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>49.585000000000001</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="F49">
-        <v>49585</v>
+        <v>965</v>
       </c>
       <c r="G49">
-        <v>607.14398191199996</v>
+        <v>938.35254567799996</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K49">
-        <v>607.14398174525252</v>
+        <v>938.35254561014312</v>
       </c>
       <c r="M49" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O49" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P49">
-        <v>451.5197326</v>
+        <v>180.77540519999999</v>
       </c>
       <c r="Q49">
-        <v>607.1439817452524</v>
+        <v>938.35254561014312</v>
       </c>
       <c r="R49" s="11">
         <f t="shared" si="9"/>
@@ -13091,10 +13608,10 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>564.95358122446498</v>
+        <v>868.0017542131443</v>
       </c>
       <c r="V49">
-        <v>564.95358122446498</v>
+        <v>868.0017542131443</v>
       </c>
       <c r="W49" s="12">
         <f t="shared" si="11"/>
@@ -13103,7 +13620,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -13113,43 +13630,43 @@
       </c>
       <c r="D50">
         <f t="shared" si="6"/>
-        <v>0.77583333333333326</v>
+        <v>4.0766666666666666E-2</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>46.55</v>
+        <v>2.4460000000000002</v>
       </c>
       <c r="F50">
-        <v>46550</v>
+        <v>2446</v>
       </c>
       <c r="G50">
-        <v>1101.9008935639999</v>
+        <v>941.62687629200002</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K50">
-        <v>1101.900893734814</v>
+        <v>941.62687614308243</v>
       </c>
       <c r="M50" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O50" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P50">
-        <v>434.625721</v>
+        <v>187.8318672999994</v>
       </c>
       <c r="Q50">
-        <v>1101.900893734814</v>
+        <v>941.62687614308243</v>
       </c>
       <c r="R50" s="11">
         <f t="shared" si="9"/>
@@ -13160,10 +13677,10 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>1004.357406961276</v>
+        <v>898.28591761893836</v>
       </c>
       <c r="V50">
-        <v>1004.357406961276</v>
+        <v>898.28591761893836</v>
       </c>
       <c r="W50" s="12">
         <f t="shared" si="11"/>
@@ -13172,7 +13689,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -13182,43 +13699,43 @@
       </c>
       <c r="D51">
         <f t="shared" si="6"/>
-        <v>1.3081666666666665</v>
+        <v>3.638333333333333E-2</v>
       </c>
       <c r="E51">
         <f t="shared" si="7"/>
-        <v>78.489999999999995</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="F51">
-        <v>78490</v>
+        <v>2183</v>
       </c>
       <c r="G51">
-        <v>1140.2752147809999</v>
+        <v>672.47666342499997</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K51">
-        <v>1140.275215036743</v>
+        <v>672.47666321645397</v>
       </c>
       <c r="M51" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O51" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P51">
-        <v>295.26435819999978</v>
+        <v>176.72079650000069</v>
       </c>
       <c r="Q51">
-        <v>1140.275215036743</v>
+        <v>672.47666321645397</v>
       </c>
       <c r="R51" s="11">
         <f t="shared" si="9"/>
@@ -13229,10 +13746,10 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>1041.8609005986179</v>
+        <v>640.3964061684818</v>
       </c>
       <c r="V51">
-        <v>1041.8609005986179</v>
+        <v>640.3964061684818</v>
       </c>
       <c r="W51" s="12">
         <f t="shared" si="11"/>
@@ -13241,7 +13758,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -13251,66 +13768,66 @@
       </c>
       <c r="D52">
         <f t="shared" si="6"/>
-        <v>110.92388333333334</v>
+        <v>1.4969666666666666</v>
       </c>
       <c r="E52">
         <f t="shared" si="7"/>
-        <v>6655.433</v>
+        <v>89.817999999999998</v>
       </c>
       <c r="F52">
-        <v>6655433</v>
+        <v>89818</v>
       </c>
       <c r="G52">
-        <v>1100.1155298650001</v>
+        <v>873.17427284200005</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K52">
-        <v>1100.115529475954</v>
+        <v>873.17427312299662</v>
       </c>
       <c r="M52" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O52" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P52">
-        <v>549.80384809999998</v>
+        <v>282.97389629999998</v>
       </c>
       <c r="Q52">
-        <v>1121.1884105540989</v>
+        <v>873.17427312299651</v>
       </c>
       <c r="R52" s="11">
         <f t="shared" si="9"/>
-        <v>1.916E-2</v>
+        <v>0</v>
       </c>
       <c r="S52" s="12">
         <f t="shared" si="10"/>
-        <v>1.916E-2</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>997.68769973988174</v>
+        <v>813.93429758684249</v>
       </c>
       <c r="V52">
-        <v>1024.203349782395</v>
+        <v>813.93429758684249</v>
       </c>
       <c r="W52" s="12">
         <f t="shared" si="11"/>
-        <v>2.6579999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -13320,66 +13837,66 @@
       </c>
       <c r="D53">
         <f t="shared" si="6"/>
-        <v>11.5799</v>
+        <v>5.7860666666666667</v>
       </c>
       <c r="E53">
         <f t="shared" si="7"/>
-        <v>694.79399999999998</v>
+        <v>347.16399999999999</v>
       </c>
       <c r="F53">
-        <v>694794</v>
+        <v>347164</v>
       </c>
       <c r="G53">
-        <v>928.29431308680796</v>
+        <v>821.873682734</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K53">
-        <v>941.28639150548668</v>
+        <v>821.8736830120431</v>
       </c>
       <c r="M53" s="11">
         <f t="shared" si="8"/>
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O53" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P53">
-        <v>574.15233499999999</v>
+        <v>251.22562889999989</v>
       </c>
       <c r="Q53">
-        <v>948.3910670901206</v>
+        <v>821.8736830120431</v>
       </c>
       <c r="R53" s="11">
         <f t="shared" si="9"/>
-        <v>2.1649999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="S53" s="12">
         <f t="shared" si="10"/>
-        <v>7.5500000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>899.70899341124164</v>
+        <v>743.6205606708595</v>
       </c>
       <c r="V53">
-        <v>900.90172171749282</v>
+        <v>743.62056067085939</v>
       </c>
       <c r="W53" s="12">
         <f t="shared" si="11"/>
-        <v>1.33E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -13389,66 +13906,66 @@
       </c>
       <c r="D54">
         <f t="shared" si="6"/>
-        <v>6.4224833333333331</v>
+        <v>0.57341666666666669</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>385.34899999999999</v>
+        <v>34.405000000000001</v>
       </c>
       <c r="F54">
-        <v>385349</v>
+        <v>34405</v>
       </c>
       <c r="G54">
-        <v>994.23965793800005</v>
+        <v>777.70856796600003</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K54">
-        <v>994.23965800958763</v>
+        <v>777.70856781138411</v>
       </c>
       <c r="M54" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O54" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P54">
-        <v>432.37311709999989</v>
+        <v>312.95748840000027</v>
       </c>
       <c r="Q54">
-        <v>994.23965800958763</v>
+        <v>815.67745501620493</v>
       </c>
       <c r="R54" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8820000000000002E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.8820000000000002E-2</v>
       </c>
       <c r="U54">
-        <v>896.45622898880856</v>
+        <v>707.67319254960489</v>
       </c>
       <c r="V54">
-        <v>896.45622898880856</v>
+        <v>738.68812728622686</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.3830000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -13458,66 +13975,66 @@
       </c>
       <c r="D55">
         <f t="shared" si="6"/>
-        <v>11.620183333333333</v>
+        <v>2.0694666666666666</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>697.21100000000001</v>
+        <v>124.16800000000001</v>
       </c>
       <c r="F55">
-        <v>697211</v>
+        <v>124168</v>
       </c>
       <c r="G55">
-        <v>1337.306652706</v>
+        <v>898.03815021100002</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K55">
-        <v>1337.306653073121</v>
+        <v>898.03815043279405</v>
       </c>
       <c r="M55" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="O55" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P55">
-        <v>654.51762029999986</v>
+        <v>294.10803340000012</v>
       </c>
       <c r="Q55">
-        <v>1398.697548421555</v>
+        <v>901.65812449323471</v>
       </c>
       <c r="R55" s="11">
         <f t="shared" si="9"/>
-        <v>4.5909999999999999E-2</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="S55" s="12">
         <f t="shared" si="10"/>
-        <v>4.5909999999999999E-2</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="U55">
-        <v>1286.346981227126</v>
+        <v>837.5636898205878</v>
       </c>
       <c r="V55">
-        <v>1278.2569936269269</v>
+        <v>840.06303014398509</v>
       </c>
       <c r="W55" s="12">
         <f t="shared" si="11"/>
-        <v>-6.2899999999999996E-3</v>
+        <v>2.98E-3</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -13527,66 +14044,66 @@
       </c>
       <c r="D56">
         <f t="shared" si="6"/>
-        <v>7.178466666666667</v>
+        <v>0.9796999999999999</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
-        <v>430.70800000000003</v>
+        <v>58.781999999999996</v>
       </c>
       <c r="F56">
-        <v>430708</v>
+        <v>58782</v>
       </c>
       <c r="G56">
-        <v>847.96983126400005</v>
+        <v>686.78799444000003</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K56">
-        <v>847.96983159956494</v>
+        <v>686.78799469955561</v>
       </c>
       <c r="M56" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O56" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P56">
-        <v>439.23778230000022</v>
+        <v>277.16683579999989</v>
       </c>
       <c r="Q56">
-        <v>887.0093418654709</v>
+        <v>693.83239613801766</v>
       </c>
       <c r="R56" s="11">
         <f t="shared" si="9"/>
-        <v>4.6039999999999998E-2</v>
+        <v>1.026E-2</v>
       </c>
       <c r="S56" s="12">
         <f t="shared" si="10"/>
-        <v>4.6039999999999998E-2</v>
+        <v>1.026E-2</v>
       </c>
       <c r="U56">
-        <v>720.87225584465955</v>
+        <v>637.2732936954784</v>
       </c>
       <c r="V56">
-        <v>759.9117661105654</v>
+        <v>644.31769513394056</v>
       </c>
       <c r="W56" s="12">
         <f t="shared" si="11"/>
-        <v>5.416E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.1050000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -13596,43 +14113,43 @@
       </c>
       <c r="D57">
         <f t="shared" si="6"/>
-        <v>2.1865000000000001</v>
+        <v>0.13661666666666666</v>
       </c>
       <c r="E57">
         <f t="shared" si="7"/>
-        <v>131.19</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="F57">
-        <v>131190</v>
+        <v>8197</v>
       </c>
       <c r="G57">
-        <v>1284.681273827</v>
+        <v>843.347971669</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K57">
-        <v>1284.681273819707</v>
+        <v>843.34797196787281</v>
       </c>
       <c r="M57" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O57" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P57">
-        <v>563.62307599999986</v>
+        <v>271.44339730000053</v>
       </c>
       <c r="Q57">
-        <v>1284.681273819707</v>
+        <v>843.34797196787281</v>
       </c>
       <c r="R57" s="11">
         <f t="shared" si="9"/>
@@ -13643,19 +14160,19 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>1182.812350525463</v>
+        <v>790.21104098411297</v>
       </c>
       <c r="V57">
-        <v>1182.812350525463</v>
+        <v>790.21104098411297</v>
       </c>
       <c r="W57" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -13665,43 +14182,43 @@
       </c>
       <c r="D58">
         <f t="shared" si="6"/>
-        <v>34.159483333333334</v>
+        <v>0.77918333333333334</v>
       </c>
       <c r="E58">
         <f t="shared" si="7"/>
-        <v>2049.569</v>
+        <v>46.750999999999998</v>
       </c>
       <c r="F58">
-        <v>2049569</v>
+        <v>46751</v>
       </c>
       <c r="G58">
-        <v>1079.070671831</v>
+        <v>693.91336487399997</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K58">
-        <v>1079.0706719010329</v>
+        <v>693.91336502693366</v>
       </c>
       <c r="M58" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O58" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P58">
-        <v>380.41526970000001</v>
+        <v>304.65068439999999</v>
       </c>
       <c r="Q58">
-        <v>1079.0706719010329</v>
+        <v>693.91336502693366</v>
       </c>
       <c r="R58" s="11">
         <f t="shared" si="9"/>
@@ -13712,19 +14229,19 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>998.42857891810445</v>
+        <v>636.70423691626274</v>
       </c>
       <c r="V58">
-        <v>998.42857891810445</v>
+        <v>636.70423691626274</v>
       </c>
       <c r="W58" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -13734,66 +14251,66 @@
       </c>
       <c r="D59">
         <f t="shared" si="6"/>
-        <v>0.45496666666666663</v>
+        <v>0.82641666666666669</v>
       </c>
       <c r="E59">
         <f t="shared" si="7"/>
-        <v>27.297999999999998</v>
+        <v>49.585000000000001</v>
       </c>
       <c r="F59">
-        <v>27298</v>
+        <v>49585</v>
       </c>
       <c r="G59">
-        <v>1200.6605101329999</v>
+        <v>607.14398191199996</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K59">
-        <v>1200.660510291423</v>
+        <v>607.14398174525252</v>
       </c>
       <c r="M59" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O59" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P59">
-        <v>431.32710730000008</v>
+        <v>451.5197326</v>
       </c>
       <c r="Q59">
-        <v>1232.425317136597</v>
+        <v>607.1439817452524</v>
       </c>
       <c r="R59" s="11">
         <f t="shared" si="9"/>
-        <v>2.6460000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S59" s="12">
         <f t="shared" si="10"/>
-        <v>2.6460000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>1112.0545136647349</v>
+        <v>564.95358122446498</v>
       </c>
       <c r="V59">
-        <v>1141.8992964849799</v>
+        <v>564.95358122446498</v>
       </c>
       <c r="W59" s="12">
         <f t="shared" si="11"/>
-        <v>2.6839999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -13803,43 +14320,43 @@
       </c>
       <c r="D60">
         <f t="shared" si="6"/>
-        <v>1.6757166666666667</v>
+        <v>0.77583333333333326</v>
       </c>
       <c r="E60">
         <f t="shared" si="7"/>
-        <v>100.54300000000001</v>
+        <v>46.55</v>
       </c>
       <c r="F60">
-        <v>100543</v>
+        <v>46550</v>
       </c>
       <c r="G60">
-        <v>1187.5423336710001</v>
+        <v>1101.9008935639999</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K60">
-        <v>1187.542333723753</v>
+        <v>1101.900893734814</v>
       </c>
       <c r="M60" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O60" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P60">
-        <v>356.04542850000013</v>
+        <v>434.625721</v>
       </c>
       <c r="Q60">
-        <v>1187.542333723753</v>
+        <v>1101.900893734814</v>
       </c>
       <c r="R60" s="11">
         <f t="shared" si="9"/>
@@ -13850,19 +14367,19 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>1110.7413172975639</v>
+        <v>1004.357406961276</v>
       </c>
       <c r="V60">
-        <v>1110.7413172975639</v>
+        <v>1004.357406961276</v>
       </c>
       <c r="W60" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -13872,43 +14389,43 @@
       </c>
       <c r="D61">
         <f t="shared" si="6"/>
-        <v>11.076916666666667</v>
+        <v>1.3081666666666665</v>
       </c>
       <c r="E61">
         <f t="shared" si="7"/>
-        <v>664.61500000000001</v>
+        <v>78.489999999999995</v>
       </c>
       <c r="F61">
-        <v>664615</v>
+        <v>78490</v>
       </c>
       <c r="G61">
-        <v>946.82210815500002</v>
+        <v>1140.2752147809999</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K61">
-        <v>946.82210818578142</v>
+        <v>1140.275215036743</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="O61" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P61">
-        <v>443.30661539999983</v>
+        <v>295.26435819999978</v>
       </c>
       <c r="Q61">
-        <v>946.82210818578142</v>
+        <v>1140.275215036743</v>
       </c>
       <c r="R61" s="11">
         <f t="shared" si="9"/>
@@ -13919,162 +14436,1418 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>896.23116196264618</v>
+        <v>1041.8609005986179</v>
       </c>
       <c r="V61">
-        <v>896.23116196264618</v>
+        <v>1041.8609005986179</v>
       </c>
       <c r="W61" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H62" s="19"/>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="6"/>
+        <v>110.92388333333334</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="7"/>
+        <v>6655.433</v>
+      </c>
+      <c r="F62">
+        <v>6655433</v>
+      </c>
+      <c r="G62">
+        <v>1100.1155298650001</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>268</v>
+      </c>
       <c r="I62" s="20"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="12"/>
-      <c r="W62" s="12"/>
-    </row>
-    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H63" s="19"/>
+      <c r="J62" t="s">
+        <v>269</v>
+      </c>
+      <c r="K62">
+        <v>1100.115529475954</v>
+      </c>
+      <c r="M62" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O62" t="s">
+        <v>271</v>
+      </c>
+      <c r="P62">
+        <v>549.80384809999998</v>
+      </c>
+      <c r="Q62">
+        <v>1121.1884105540989</v>
+      </c>
+      <c r="R62" s="11">
+        <f t="shared" si="9"/>
+        <v>1.916E-2</v>
+      </c>
+      <c r="S62" s="12">
+        <f t="shared" si="10"/>
+        <v>1.916E-2</v>
+      </c>
+      <c r="U62">
+        <v>997.68769973988174</v>
+      </c>
+      <c r="V62">
+        <v>1024.203349782395</v>
+      </c>
+      <c r="W62" s="12">
+        <f t="shared" si="11"/>
+        <v>2.6579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>11.5799</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="7"/>
+        <v>694.79399999999998</v>
+      </c>
+      <c r="F63">
+        <v>694794</v>
+      </c>
+      <c r="G63">
+        <v>928.29431308680796</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>272</v>
+      </c>
       <c r="I63" s="20"/>
-      <c r="T63" s="16">
-        <f>AVERAGE(S2:S61)</f>
-        <v>5.6053333333333337E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="19"/>
+      <c r="J63" t="s">
+        <v>273</v>
+      </c>
+      <c r="K63">
+        <v>941.28639150548668</v>
+      </c>
+      <c r="M63" s="11">
+        <f t="shared" si="8"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="O63" t="s">
+        <v>275</v>
+      </c>
+      <c r="P63">
+        <v>574.15233499999999</v>
+      </c>
+      <c r="Q63">
+        <v>948.3910670901206</v>
+      </c>
+      <c r="R63" s="11">
+        <f t="shared" si="9"/>
+        <v>2.1649999999999999E-2</v>
+      </c>
+      <c r="S63" s="12">
+        <f t="shared" si="10"/>
+        <v>7.5500000000000003E-3</v>
+      </c>
+      <c r="U63">
+        <v>899.70899341124164</v>
+      </c>
+      <c r="V63">
+        <v>900.90172171749282</v>
+      </c>
+      <c r="W63" s="12">
+        <f t="shared" si="11"/>
+        <v>1.33E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>6.4224833333333331</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>385.34899999999999</v>
+      </c>
+      <c r="F64">
+        <v>385349</v>
+      </c>
+      <c r="G64">
+        <v>994.23965793800005</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>276</v>
+      </c>
       <c r="I64" s="20"/>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="19"/>
+      <c r="J64" t="s">
+        <v>277</v>
+      </c>
+      <c r="K64">
+        <v>994.23965800958763</v>
+      </c>
+      <c r="M64" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="O64" t="s">
+        <v>279</v>
+      </c>
+      <c r="P64">
+        <v>432.37311709999989</v>
+      </c>
+      <c r="Q64">
+        <v>994.23965800958763</v>
+      </c>
+      <c r="R64" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>896.45622898880856</v>
+      </c>
+      <c r="V64">
+        <v>896.45622898880856</v>
+      </c>
+      <c r="W64" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="6"/>
+        <v>11.620183333333333</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="7"/>
+        <v>697.21100000000001</v>
+      </c>
+      <c r="F65">
+        <v>697211</v>
+      </c>
+      <c r="G65">
+        <v>1337.306652706</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>280</v>
+      </c>
       <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H66" s="19"/>
+      <c r="J65" t="s">
+        <v>281</v>
+      </c>
+      <c r="K65">
+        <v>1337.306653073121</v>
+      </c>
+      <c r="M65" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="O65" t="s">
+        <v>283</v>
+      </c>
+      <c r="P65">
+        <v>654.51762029999986</v>
+      </c>
+      <c r="Q65">
+        <v>1398.697548421555</v>
+      </c>
+      <c r="R65" s="11">
+        <f t="shared" si="9"/>
+        <v>4.5909999999999999E-2</v>
+      </c>
+      <c r="S65" s="12">
+        <f t="shared" si="10"/>
+        <v>4.5909999999999999E-2</v>
+      </c>
+      <c r="U65">
+        <v>1286.346981227126</v>
+      </c>
+      <c r="V65">
+        <v>1278.2569936269269</v>
+      </c>
+      <c r="W65" s="12">
+        <f t="shared" si="11"/>
+        <v>-6.2899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D81" si="12">E66/60</f>
+        <v>7.178466666666667</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E81" si="13">F66/1000</f>
+        <v>430.70800000000003</v>
+      </c>
+      <c r="F66">
+        <v>430708</v>
+      </c>
+      <c r="G66">
+        <v>847.96983126400005</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H67" s="19"/>
+      <c r="J66" t="s">
+        <v>285</v>
+      </c>
+      <c r="K66">
+        <v>847.96983159956494</v>
+      </c>
+      <c r="M66" s="11">
+        <f t="shared" ref="M66:M81" si="14">ROUND((K66-G66)/G66,5)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O66" t="s">
+        <v>287</v>
+      </c>
+      <c r="P66">
+        <v>439.23778230000022</v>
+      </c>
+      <c r="Q66">
+        <v>887.0093418654709</v>
+      </c>
+      <c r="R66" s="11">
+        <f t="shared" ref="R66:R71" si="15">ROUND((Q66-G66)/G66,5)</f>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="S66" s="12">
+        <f t="shared" ref="S66:S71" si="16">ROUND((Q66-K66)/K66,5)</f>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="U66">
+        <v>720.87225584465955</v>
+      </c>
+      <c r="V66">
+        <v>759.9117661105654</v>
+      </c>
+      <c r="W66" s="12">
+        <f t="shared" ref="W66:W71" si="17">ROUND((V66-U66)/U66,5)</f>
+        <v>5.416E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="12"/>
+        <v>2.1865000000000001</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="13"/>
+        <v>131.19</v>
+      </c>
+      <c r="F67">
+        <v>131190</v>
+      </c>
+      <c r="G67">
+        <v>1284.681273827</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H68" s="19"/>
+      <c r="J67" t="s">
+        <v>289</v>
+      </c>
+      <c r="K67">
+        <v>1284.681273819707</v>
+      </c>
+      <c r="M67" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="O67" t="s">
+        <v>291</v>
+      </c>
+      <c r="P67">
+        <v>563.62307599999986</v>
+      </c>
+      <c r="Q67">
+        <v>1284.681273819707</v>
+      </c>
+      <c r="R67" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1182.812350525463</v>
+      </c>
+      <c r="V67">
+        <v>1182.812350525463</v>
+      </c>
+      <c r="W67" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="12"/>
+        <v>34.159483333333334</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="13"/>
+        <v>2049.569</v>
+      </c>
+      <c r="F68">
+        <v>2049569</v>
+      </c>
+      <c r="G68">
+        <v>1079.070671831</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>292</v>
+      </c>
       <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="19"/>
+      <c r="J68" t="s">
+        <v>293</v>
+      </c>
+      <c r="K68">
+        <v>1079.0706719010329</v>
+      </c>
+      <c r="M68" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="O68" t="s">
+        <v>295</v>
+      </c>
+      <c r="P68">
+        <v>380.41526970000001</v>
+      </c>
+      <c r="Q68">
+        <v>1079.0706719010329</v>
+      </c>
+      <c r="R68" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>998.42857891810445</v>
+      </c>
+      <c r="V68">
+        <v>998.42857891810445</v>
+      </c>
+      <c r="W68" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="12"/>
+        <v>0.45496666666666663</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="13"/>
+        <v>27.297999999999998</v>
+      </c>
+      <c r="F69">
+        <v>27298</v>
+      </c>
+      <c r="G69">
+        <v>1200.6605101329999</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>296</v>
+      </c>
       <c r="I69" s="20"/>
-    </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="19"/>
+      <c r="J69" t="s">
+        <v>297</v>
+      </c>
+      <c r="K69">
+        <v>1200.660510291423</v>
+      </c>
+      <c r="M69" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="O69" t="s">
+        <v>299</v>
+      </c>
+      <c r="P69">
+        <v>431.32710730000008</v>
+      </c>
+      <c r="Q69">
+        <v>1232.425317136597</v>
+      </c>
+      <c r="R69" s="11">
+        <f t="shared" si="15"/>
+        <v>2.6460000000000001E-2</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="16"/>
+        <v>2.6460000000000001E-2</v>
+      </c>
+      <c r="U69">
+        <v>1112.0545136647349</v>
+      </c>
+      <c r="V69">
+        <v>1141.8992964849799</v>
+      </c>
+      <c r="W69" s="12">
+        <f t="shared" si="17"/>
+        <v>2.6839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="12"/>
+        <v>1.6757166666666667</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="13"/>
+        <v>100.54300000000001</v>
+      </c>
+      <c r="F70">
+        <v>100543</v>
+      </c>
+      <c r="G70">
+        <v>1187.5423336710001</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>300</v>
+      </c>
       <c r="I70" s="20"/>
-    </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="19"/>
+      <c r="J70" t="s">
+        <v>301</v>
+      </c>
+      <c r="K70">
+        <v>1187.542333723753</v>
+      </c>
+      <c r="M70" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="O70" t="s">
+        <v>303</v>
+      </c>
+      <c r="P70">
+        <v>356.04542850000013</v>
+      </c>
+      <c r="Q70">
+        <v>1187.542333723753</v>
+      </c>
+      <c r="R70" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>1110.7413172975639</v>
+      </c>
+      <c r="V70">
+        <v>1110.7413172975639</v>
+      </c>
+      <c r="W70" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="12"/>
+        <v>11.076916666666667</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="13"/>
+        <v>664.61500000000001</v>
+      </c>
+      <c r="F71">
+        <v>664615</v>
+      </c>
+      <c r="G71">
+        <v>946.82210815500002</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="I71" s="20"/>
-    </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="19"/>
+      <c r="J71" t="s">
+        <v>305</v>
+      </c>
+      <c r="K71">
+        <v>946.82210818578142</v>
+      </c>
+      <c r="M71" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="O71" t="s">
+        <v>307</v>
+      </c>
+      <c r="P71">
+        <v>443.30661539999983</v>
+      </c>
+      <c r="Q71">
+        <v>946.82210818578142</v>
+      </c>
+      <c r="R71" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>896.23116196264618</v>
+      </c>
+      <c r="V71">
+        <v>896.23116196264618</v>
+      </c>
+      <c r="W71" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="12"/>
+        <v>31.981850000000001</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="13"/>
+        <v>1918.9110000000001</v>
+      </c>
+      <c r="F72">
+        <v>1918911</v>
+      </c>
+      <c r="G72">
+        <v>1020.84532158</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>308</v>
+      </c>
       <c r="I72" s="20"/>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="19"/>
+      <c r="J72" t="s">
+        <v>309</v>
+      </c>
+      <c r="K72">
+        <v>997.49330571982637</v>
+      </c>
+      <c r="M72" s="11">
+        <f t="shared" si="14"/>
+        <v>-2.2880000000000001E-2</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="O72" t="s">
+        <v>311</v>
+      </c>
+      <c r="P72">
+        <v>1179.5221822000001</v>
+      </c>
+      <c r="Q72">
+        <v>1003.741115114564</v>
+      </c>
+      <c r="R72" s="11">
+        <f t="shared" ref="R72:R81" si="18">ROUND((Q72-G72)/G72,5)</f>
+        <v>-1.6750000000000001E-2</v>
+      </c>
+      <c r="S72" s="12">
+        <f t="shared" ref="S72:S81" si="19">ROUND((Q72-K72)/K72,5)</f>
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="U72">
+        <v>926.7739295950206</v>
+      </c>
+      <c r="V72">
+        <v>934.6147717837672</v>
+      </c>
+      <c r="W72" s="12"/>
+    </row>
+    <row r="73" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>39.452100000000002</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="13"/>
+        <v>2367.1260000000002</v>
+      </c>
+      <c r="F73">
+        <v>2367126</v>
+      </c>
+      <c r="G73">
+        <v>912.91889754500005</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>312</v>
+      </c>
       <c r="I73" s="20"/>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H74" s="19"/>
+      <c r="J73" t="s">
+        <v>313</v>
+      </c>
+      <c r="K73">
+        <v>842.57191696901918</v>
+      </c>
+      <c r="M73" s="11">
+        <f t="shared" si="14"/>
+        <v>-7.7060000000000003E-2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>314</v>
+      </c>
+      <c r="O73" t="s">
+        <v>315</v>
+      </c>
+      <c r="P73">
+        <v>729.59346789999995</v>
+      </c>
+      <c r="Q73">
+        <v>842.57191696901907</v>
+      </c>
+      <c r="R73" s="11">
+        <f t="shared" si="18"/>
+        <v>-7.7060000000000003E-2</v>
+      </c>
+      <c r="S73" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="15">
+        <f>AVERAGE(S2:S71)</f>
+        <v>6.438571428571428E-3</v>
+      </c>
+      <c r="U73">
+        <v>770.32769617339011</v>
+      </c>
+      <c r="V73">
+        <v>770.32769617339022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>16.801083333333334</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="13"/>
+        <v>1008.0650000000001</v>
+      </c>
+      <c r="F74">
+        <v>1008065</v>
+      </c>
+      <c r="G74">
+        <v>1043.2940188489999</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="I74" s="20"/>
-    </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H75" s="19"/>
+      <c r="J74" t="s">
+        <v>317</v>
+      </c>
+      <c r="K74">
+        <v>995.60688731220409</v>
+      </c>
+      <c r="M74" s="11">
+        <f t="shared" si="14"/>
+        <v>-4.5710000000000001E-2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>318</v>
+      </c>
+      <c r="O74" t="s">
+        <v>319</v>
+      </c>
+      <c r="P74">
+        <v>529.4679337</v>
+      </c>
+      <c r="Q74">
+        <v>995.60688731220409</v>
+      </c>
+      <c r="R74" s="11">
+        <f t="shared" si="18"/>
+        <v>-4.5710000000000001E-2</v>
+      </c>
+      <c r="S74" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>926.5065824037174</v>
+      </c>
+      <c r="V74">
+        <v>926.5065824037174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>496.7088</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="13"/>
+        <v>29802.527999999998</v>
+      </c>
+      <c r="F75">
+        <v>29802528</v>
+      </c>
+      <c r="G75">
+        <v>1202.9426695720001</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>320</v>
+      </c>
       <c r="I75" s="20"/>
-    </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H76" s="19"/>
+      <c r="J75" t="s">
+        <v>321</v>
+      </c>
+      <c r="K75">
+        <v>1190.0806699776081</v>
+      </c>
+      <c r="M75" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.069E-2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>322</v>
+      </c>
+      <c r="O75" t="s">
+        <v>323</v>
+      </c>
+      <c r="P75">
+        <v>705.53949719999991</v>
+      </c>
+      <c r="Q75">
+        <v>1213.2940777607221</v>
+      </c>
+      <c r="R75" s="11">
+        <f t="shared" si="18"/>
+        <v>8.6099999999999996E-3</v>
+      </c>
+      <c r="S75" s="12">
+        <f t="shared" si="19"/>
+        <v>1.951E-2</v>
+      </c>
+      <c r="U75">
+        <v>1138.9452827040261</v>
+      </c>
+      <c r="V75">
+        <v>1162.338452716632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="12"/>
+        <v>1110.7138833333333</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="13"/>
+        <v>66642.832999999999</v>
+      </c>
+      <c r="F76">
+        <v>66642833</v>
+      </c>
+      <c r="G76">
+        <v>1313.2942879540001</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>324</v>
+      </c>
       <c r="I76" s="20"/>
-    </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="19"/>
+      <c r="J76" t="s">
+        <v>325</v>
+      </c>
+      <c r="K76">
+        <v>1289.6057614379149</v>
+      </c>
+      <c r="M76" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.804E-2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>326</v>
+      </c>
+      <c r="O76" t="s">
+        <v>327</v>
+      </c>
+      <c r="P76">
+        <v>664.42424510000001</v>
+      </c>
+      <c r="Q76">
+        <v>1302.1745015721369</v>
+      </c>
+      <c r="R76" s="11">
+        <f t="shared" si="18"/>
+        <v>-8.4700000000000001E-3</v>
+      </c>
+      <c r="S76" s="12">
+        <f t="shared" si="19"/>
+        <v>9.75E-3</v>
+      </c>
+      <c r="U76">
+        <v>1205.424129205144</v>
+      </c>
+      <c r="V76">
+        <v>1216.1281133636001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="12"/>
+        <v>0.91774999999999995</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="13"/>
+        <v>55.064999999999998</v>
+      </c>
+      <c r="F77">
+        <v>55065</v>
+      </c>
+      <c r="G77">
+        <v>1071.8673701119999</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>328</v>
+      </c>
       <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H78" s="19"/>
+      <c r="J77" t="s">
+        <v>329</v>
+      </c>
+      <c r="K77">
+        <v>979.58217421916004</v>
+      </c>
+      <c r="M77" s="11">
+        <f t="shared" si="14"/>
+        <v>-8.6099999999999996E-2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>330</v>
+      </c>
+      <c r="O77" t="s">
+        <v>331</v>
+      </c>
+      <c r="P77">
+        <v>551.17797729999984</v>
+      </c>
+      <c r="Q77">
+        <v>979.58217421915992</v>
+      </c>
+      <c r="R77" s="11">
+        <f t="shared" si="18"/>
+        <v>-8.6099999999999996E-2</v>
+      </c>
+      <c r="S77" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>934.08799159459124</v>
+      </c>
+      <c r="V77">
+        <v>934.08799159459124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="12"/>
+        <v>8.6467833333333335</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="13"/>
+        <v>518.80700000000002</v>
+      </c>
+      <c r="F78">
+        <v>518807</v>
+      </c>
+      <c r="G78">
+        <v>934.00151356000003</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="19"/>
+      <c r="J78" t="s">
+        <v>333</v>
+      </c>
+      <c r="K78">
+        <v>870.16518452403625</v>
+      </c>
+      <c r="M78" s="11">
+        <f t="shared" si="14"/>
+        <v>-6.8349999999999994E-2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>334</v>
+      </c>
+      <c r="O78" t="s">
+        <v>335</v>
+      </c>
+      <c r="P78">
+        <v>942.70053250000001</v>
+      </c>
+      <c r="Q78">
+        <v>870.16518452403625</v>
+      </c>
+      <c r="R78" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.8349999999999994E-2</v>
+      </c>
+      <c r="S78" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>818.24245170790005</v>
+      </c>
+      <c r="V78">
+        <v>818.24245170790005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>15</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>165.57581666666667</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="13"/>
+        <v>9934.5490000000009</v>
+      </c>
+      <c r="F79">
+        <v>9934549</v>
+      </c>
+      <c r="G79">
+        <v>1017.010337055</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="I79" s="20"/>
-    </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H80" s="19"/>
+      <c r="J79" t="s">
+        <v>337</v>
+      </c>
+      <c r="K79">
+        <v>936.01329013106977</v>
+      </c>
+      <c r="M79" s="11">
+        <f t="shared" si="14"/>
+        <v>-7.9640000000000002E-2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>338</v>
+      </c>
+      <c r="O79" t="s">
+        <v>339</v>
+      </c>
+      <c r="P79">
+        <v>627.3002747999999</v>
+      </c>
+      <c r="Q79">
+        <v>949.0294664087204</v>
+      </c>
+      <c r="R79" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.6839999999999997E-2</v>
+      </c>
+      <c r="S79" s="12">
+        <f t="shared" si="19"/>
+        <v>1.391E-2</v>
+      </c>
+      <c r="U79">
+        <v>887.56628540519966</v>
+      </c>
+      <c r="V79">
+        <v>900.3190530034633</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="12"/>
+        <v>95.661850000000001</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="13"/>
+        <v>5739.7110000000002</v>
+      </c>
+      <c r="F80">
+        <v>5739711</v>
+      </c>
+      <c r="G80">
+        <v>896.09260946999996</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="I80" s="20"/>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H81" s="19"/>
+      <c r="J80" t="s">
+        <v>341</v>
+      </c>
+      <c r="K80">
+        <v>854.58172524607028</v>
+      </c>
+      <c r="M80" s="11">
+        <f t="shared" si="14"/>
+        <v>-4.632E-2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>342</v>
+      </c>
+      <c r="O80" t="s">
+        <v>343</v>
+      </c>
+      <c r="P80">
+        <v>773.48995980000018</v>
+      </c>
+      <c r="Q80">
+        <v>854.58172524607016</v>
+      </c>
+      <c r="R80" s="11">
+        <f t="shared" si="18"/>
+        <v>-4.632E-2</v>
+      </c>
+      <c r="S80" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>791.02095240683536</v>
+      </c>
+      <c r="V80">
+        <v>791.02095240683548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="12"/>
+        <v>6.7921000000000005</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>407.52600000000001</v>
+      </c>
+      <c r="F81">
+        <v>407526</v>
+      </c>
+      <c r="G81">
+        <v>1309.3250201809999</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>344</v>
+      </c>
       <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>345</v>
+      </c>
+      <c r="K81">
+        <v>1264.6878567685101</v>
+      </c>
+      <c r="M81" s="11">
+        <f t="shared" si="14"/>
+        <v>-3.4090000000000002E-2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>346</v>
+      </c>
+      <c r="O81" t="s">
+        <v>347</v>
+      </c>
+      <c r="P81">
+        <v>1168.7405133</v>
+      </c>
+      <c r="Q81">
+        <v>1326.9193064145591</v>
+      </c>
+      <c r="R81" s="11">
+        <f t="shared" si="18"/>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="S81" s="12">
+        <f t="shared" si="19"/>
+        <v>4.9209999999999997E-2</v>
+      </c>
+      <c r="U81">
+        <v>1096.768249529551</v>
+      </c>
+      <c r="V81">
+        <v>1151.383606374184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H82" s="19"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H83" s="19"/>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H84" s="19"/>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H85" s="19"/>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H86" s="19"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H87" s="19"/>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H88" s="19"/>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H89" s="19"/>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H90" s="19"/>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H91" s="19"/>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H92" s="19"/>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H93" s="19"/>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H94" s="19"/>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H95" s="19"/>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H96" s="19"/>
       <c r="I96" s="20"/>
     </row>
@@ -14526,204 +16299,48 @@
       <c r="H208" s="19"/>
       <c r="I208" s="20"/>
     </row>
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H209" s="19"/>
+      <c r="I209" s="20"/>
+    </row>
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H210" s="19"/>
+      <c r="I210" s="20"/>
+    </row>
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H211" s="19"/>
+      <c r="I211" s="20"/>
+    </row>
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H212" s="19"/>
+      <c r="I212" s="20"/>
+    </row>
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H213" s="19"/>
+      <c r="I213" s="20"/>
+    </row>
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H214" s="19"/>
+      <c r="I214" s="20"/>
+    </row>
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H215" s="19"/>
+      <c r="I215" s="20"/>
+    </row>
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H216" s="19"/>
+      <c r="I216" s="20"/>
+    </row>
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H217" s="19"/>
+      <c r="I217" s="20"/>
+    </row>
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H218" s="19"/>
+      <c r="I218" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="207">
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+  <mergeCells count="217">
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H21:I21"/>
@@ -14735,14 +16352,215 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
   </mergeCells>
-  <conditionalFormatting sqref="R63:R1048576 R1:R61">
-    <cfRule type="cellIs" dxfId="13" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R62">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="lessThan">
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="cellIs" dxfId="12" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14771,22 +16589,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P11 P63:P1048576 P19:P61">
+  <conditionalFormatting sqref="P2:P11 P73:P1048576 P19:P71">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>1800</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P62">
+  <conditionalFormatting sqref="P72">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>1800</formula>
     </cfRule>
@@ -14806,7 +16624,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -14829,49 +16647,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -14879,13 +16697,13 @@
         <v>43745</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="D2">
         <v>469154.88979999977</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="H2">
         <v>3603.7618333999999</v>
@@ -14898,7 +16716,7 @@
         <v>13622.672333333176</v>
       </c>
       <c r="L2" s="11">
-        <f t="shared" ref="L2:L30" si="0">K2/D2</f>
+        <f t="shared" ref="L2:L33" si="0">K2/D2</f>
         <v>2.9036620164271349E-2</v>
       </c>
     </row>
@@ -14907,13 +16725,13 @@
         <v>43768</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D3">
         <v>592286.43533333309</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="H3">
         <v>3600.6243162000001</v>
@@ -14930,7 +16748,7 @@
         <v>-2.8570731981184649E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -14938,16 +16756,16 @@
         <v>43775</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="D4">
         <v>471229.1394000001</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="H4">
         <v>3893.4923675999999</v>
@@ -14956,7 +16774,7 @@
         <v>468885.14206666662</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K30" si="1">D4-(I4+J4*10)</f>
+        <f t="shared" ref="K4:K33" si="1">D4-(I4+J4*10)</f>
         <v>2343.9973333334783</v>
       </c>
       <c r="L4" s="11">
@@ -14969,16 +16787,16 @@
         <v>43775</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="D5">
         <v>1428685.831666667</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="G5" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="H5">
         <v>3661.4549959999999</v>
@@ -14995,7 +16813,7 @@
         <v>0.11307985414694049</v>
       </c>
       <c r="M5" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -15003,16 +16821,16 @@
         <v>43768</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D6">
         <v>592286.43533333309</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="H6">
         <v>3786.4904317999999</v>
@@ -15034,16 +16852,16 @@
         <v>43745</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="D7">
         <v>469154.88979999977</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="H7">
         <v>3601.0539597000002</v>
@@ -15065,16 +16883,16 @@
         <v>43795</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="D8">
         <v>1275847.0800666669</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="H8">
         <v>3902.6114637000001</v>
@@ -15096,16 +16914,16 @@
         <v>43768</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D9">
         <v>592286.43533333309</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="H9">
         <v>7200.1489792000002</v>
@@ -15127,16 +16945,16 @@
         <v>43745</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="D10">
         <v>475403.35446666653</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="H10">
         <v>3601.0659418</v>
@@ -15153,7 +16971,7 @@
         <v>0.12671645898302314</v>
       </c>
       <c r="M10" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -15161,16 +16979,16 @@
         <v>43768</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="D11">
         <v>600912.63166666601</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="H11">
         <v>3600.2064667</v>
@@ -15192,16 +17010,16 @@
         <v>43745</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="D12">
         <v>494345.58179999999</v>
       </c>
       <c r="F12" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="H12">
         <v>7170.8296077000005</v>
@@ -15218,7 +17036,7 @@
         <v>6.5150951451266648E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -15226,16 +17044,16 @@
         <v>43768</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="D13">
         <v>593149.57433333329</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="H13">
         <v>5056.3446751000001</v>
@@ -15257,16 +17075,16 @@
         <v>43795</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D14">
         <v>1372973.317933334</v>
       </c>
       <c r="F14" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="G14" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="H14">
         <v>7318.0830248000002</v>
@@ -15288,16 +17106,16 @@
         <v>43754</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="D15">
         <v>636315.92813333333</v>
       </c>
       <c r="F15" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="G15" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="H15">
         <v>4347.3198690999998</v>
@@ -15319,16 +17137,16 @@
         <v>43745</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="D16">
         <v>538213.87013333349</v>
       </c>
       <c r="F16" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="G16" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="H16">
         <v>7527.1272962000003</v>
@@ -15345,7 +17163,7 @@
         <v>0.13716106668719871</v>
       </c>
       <c r="M16" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -15353,16 +17171,16 @@
         <v>43768</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="D17">
         <v>632705.85299999989</v>
       </c>
       <c r="F17" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="G17" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="H17">
         <v>6666.2375192999998</v>
@@ -15384,16 +17202,16 @@
         <v>43795</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="D18">
         <v>1432583.6294</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="G18" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="H18">
         <v>7733.803919</v>
@@ -15415,16 +17233,16 @@
         <v>43745</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="D19">
         <v>496052.98146666668</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="G19" t="s">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="H19">
         <v>7561.5297926000003</v>
@@ -15441,7 +17259,7 @@
         <v>6.2898892186371402E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -15449,16 +17267,16 @@
         <v>43768</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="D20">
         <v>595195.38266666664</v>
       </c>
       <c r="F20" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="G20" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="H20">
         <v>3968.0924328999999</v>
@@ -15480,16 +17298,16 @@
         <v>43795</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="D21">
         <v>1381861.7179333339</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="H21">
         <v>7200.6445293999996</v>
@@ -15511,16 +17329,16 @@
         <v>43745</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="D22">
         <v>496052.98146666668</v>
       </c>
       <c r="F22" t="s">
-        <v>334</v>
+        <v>420</v>
       </c>
       <c r="G22" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="H22">
         <v>3601.0062647</v>
@@ -15537,7 +17355,7 @@
         <v>6.3194700642623072E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -15545,16 +17363,16 @@
         <v>43768</v>
       </c>
       <c r="B23" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="D23">
         <v>595195.38266666664</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="G23" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="H23">
         <v>3600.8390132</v>
@@ -15576,16 +17394,16 @@
         <v>43795</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="D24">
         <v>1381861.7179333339</v>
       </c>
       <c r="F24" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="G24" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="H24">
         <v>3601.3254473000002</v>
@@ -15607,16 +17425,16 @@
         <v>43745</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="D25" s="13">
         <v>496052.98146666668</v>
       </c>
       <c r="F25" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="G25" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="H25" s="13">
         <v>7048.7007022999996</v>
@@ -15634,7 +17452,7 @@
         <v>9.6723314093330792E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="N25">
         <v>83</v>
@@ -15645,16 +17463,16 @@
         <v>43768</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="D26" s="13">
         <v>595195.38266666664</v>
       </c>
       <c r="F26" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="G26" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="H26" s="13">
         <v>7200.4963602999997</v>
@@ -15680,16 +17498,16 @@
         <v>43795</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="D27" s="13">
         <v>1381861.7179333339</v>
       </c>
       <c r="F27" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="G27" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="H27" s="13">
         <v>7888.9231545000002</v>
@@ -15715,16 +17533,16 @@
         <v>43745</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="D28">
         <v>588323.39749999973</v>
       </c>
       <c r="F28" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="G28" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="H28">
         <v>6176.4342452999999</v>
@@ -15741,7 +17559,7 @@
         <v>8.0150578803613232E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="N28">
         <v>81</v>
@@ -15755,16 +17573,16 @@
         <v>43768</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="D29">
         <v>692416.29500000016</v>
       </c>
       <c r="F29" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="G29" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="H29">
         <v>7200.3923278000002</v>
@@ -15792,16 +17610,16 @@
         <v>43795</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="D30">
         <v>1565696.622916667</v>
       </c>
       <c r="F30" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="G30" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="H30">
         <v>7200.5053572999996</v>
@@ -15829,16 +17647,16 @@
         <v>43745</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="D31" s="13">
         <v>588019.64749999973</v>
       </c>
       <c r="F31" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="G31" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="H31">
         <v>7201.3244121999996</v>
@@ -15848,15 +17666,15 @@
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13">
-        <f t="shared" ref="K31:K33" si="2">D31-(I31+J31*10)</f>
+        <f t="shared" si="1"/>
         <v>45774.205666666385</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" ref="L31:L33" si="3">K31/D31</f>
+        <f t="shared" si="0"/>
         <v>7.7844687437363919E-2</v>
       </c>
       <c r="M31" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="N31">
         <v>82</v>
@@ -15870,16 +17688,16 @@
         <v>43768</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="D32" s="13">
         <v>692146.29500000016</v>
       </c>
       <c r="F32" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="G32" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="H32">
         <v>7200.3894149999996</v>
@@ -15889,11 +17707,11 @@
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28354.559416667093</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.096613623665657E-2</v>
       </c>
       <c r="N32">
@@ -15908,16 +17726,16 @@
         <v>43795</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="D33" s="13">
         <v>1564771.872916667</v>
       </c>
       <c r="F33" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="G33" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="H33">
         <v>7200.2668686999996</v>
@@ -15927,11 +17745,11 @@
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>169522.44958333508</v>
       </c>
       <c r="L33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.10833684610354899</v>
       </c>
       <c r="N33">
